--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B3C2C1-A91E-4E2B-B97E-A3CCC2950A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12600C45-0F0E-457D-AECE-093934D00859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1665" windowWidth="29895" windowHeight="19935" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Neonatal congenital anomalies</t>
   </si>
   <si>
-    <t>Vitamin A supplementation</t>
-  </si>
-  <si>
     <t>Balanced energy-protein supplementation</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
     <t>IFA fortification of wheat flour</t>
   </si>
   <si>
-    <t>IFA fortification of maize</t>
-  </si>
-  <si>
     <t>IFA fortification of rice</t>
   </si>
   <si>
@@ -1225,6 +1219,12 @@
   </si>
   <si>
     <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>Supplémentation en vitamine A</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4765,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4784,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4793,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4806,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4870,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4921,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4962,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5011,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="17"/>
     </row>
@@ -5126,13 +5126,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5173,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5212,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="om4bXnzE8HU2VGLzV8UscQ6Rchjc8d0n2iDFWYVeRfrNmAh1rdRO051zOaoGULLTNHTwypJHhdJjxRNRuvCtJg==" saltValue="WCgk5ru7teVdmPgMYjkSIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QqpMjvqnW0PePZGw5lezL5WRjNVC8QFib52QQYUZDHpSWfzZB+/UCx9Sc42FTYzBO+EdX5P6KVLe24rgt6bKGA==" saltValue="1ris4t4bAcRWOgZCTsI0ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5239,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5360,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NIovX0LqZaBH1zT8JFzJfxkqII1z08IcPX8XmSpjUWzFTQzEX25p+PGfkXfbAVCfOPqx4m3Bio+3YviQRQiKdg==" saltValue="FEkJo82/SyYKFGq/64Bzow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MvtILTOh6iR0tQB34OpjMJ4u8qeYkyR8Dt4vZejIyso9+hRa3Zg/MFuuARjC8XSLxPr3WMSA1EVYdyaJkwlVqw==" saltValue="87fdyD5oxMOl4Th/xwE9sw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5386,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EjaKmPjBFamDFk/w5D3f+cnW89HUmzMlWR4UM0D+oHQDuHX+JOGI1IR52DJh8uwNEf7k8aoobemh/yB8+P7cxQ==" saltValue="qgj2uId9jKFuz7tbWJYCbA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sEDgZMyiPyb2KVIeKf1eUtxk6xNsXzrCV6k38wi88FMCAdcOTkr7Ktu1+wTOe+IOuMh42skqNi0joQJlbenNgg==" saltValue="bzkzhkeThpbMUjJ2OMThZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rje+kjYFWUCwDPT/TsJnSrGq1nY6N119sxkDXQeLtrNk7RWdhtvi9k7pjU05UhEEItNGTY6/bTT515KfAvjAIg==" saltValue="AW54Hvy8ZY0URMD8zAsCTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iX4JPiQCHBrAxHWVqyYuhN8hivYYc6+OUJV/zt9IbIX+9s4umnHELiTcVJ4oQs0RpQcleIIxz0rDhV6DpgRkMg==" saltValue="TYSdvJrkC6V3wwMKIIdzbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,10 +5606,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5621,42 +5621,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6168,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6220,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6265,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6314,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7113,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7291,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IxtywxIdSiT1B+9X5fXZCYNxGoexRrtlNdoIcdqsh2tWJok4Kil6sCRj6id5v3qvrSFzYKzUgn2jeWxFhVMxiQ==" saltValue="BcopdhSMWieEQseu7UVaZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VXjdLvh/P8+rTQadRWQDdz4cwNjV4v4Jt2WeBAgz1O5KXzDFIIOp99BMumg5QFYm2TFCOHhKJP3e/r72Nn6bVQ==" saltValue="ZbS9sGQel2Wab4fUL4QX7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7310,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JYCsrK5lk8QRmIzozBjSbbuWodQpPef0dZPjYgHUV8yMizLzrAyL71OMYziNrDdlDnk/sf8lfXxt9BJbRzfCkA==" saltValue="EO1sCNJ2y5ximt6809nM7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l86/wdZUGLXtnNWNcm7PSb/zNDieSS5QozdoswdU3WAczauahpCkyiAN1Dn0GqKxgd5eKLZ72UFNSzd0Lkwjgw==" saltValue="2YTuCrBZnXrTdxdi5vVPPg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7356,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7537,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mTigf4z/0ldREV2KRE1FSCY10Gy2RMziG/SgF+pvuo5oH71xtq2jnssC+VjucYGXyc8XiG0dlzkXjgyZr4Fj+A==" saltValue="RfXRPgH3n1bnrbSc/K3w5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lRr/wKDcr3N4q7iXKWVucdSC9HY6SZ8MsW1p2b9ULUIZ7UL8w7I5W0AxMNYaLmRxqrEuJfC+2owHdXZuTZf0eA==" saltValue="linMQvivNfIfnBhchem3aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,10 +7570,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>1</v>
@@ -7585,42 +7585,42 @@
         <v>3</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>54</v>
-      </c>
       <c r="L1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7708,7 +7708,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8252,10 +8252,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8300,7 +8300,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8717,7 +8717,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9089,7 +9089,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9308,7 +9308,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="32Q0NkrbG5WhPvDrxSvWsr5rWOkIHh3oN5lNBImqKlO+Jwy3Hbt1SRjMnU+zEvsK0LAuKyOPkBo+WD/E+FLmOw==" saltValue="syNVH7z+hyYqwuuXXJJ63Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CyL0aoFZjA9vyN5/reSa+aIfzXI7BPKkqfCe1azrIV6wNeZzuYQGs+LnRuCFb7cdamCVR4vq6ugPmcTyhbfjSA==" saltValue="fvT9aipYttbtWTbg1CHWAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9341,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9386,14 +9386,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9402,7 +9402,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9410,12 +9410,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9427,11 +9427,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9455,26 +9455,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9482,18 +9482,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9501,18 +9501,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9520,11 +9520,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9537,11 +9537,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9554,11 +9554,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9571,11 +9571,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9588,11 +9588,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9600,18 +9600,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9619,39 +9619,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9683,16 +9683,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9702,16 +9702,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9730,26 +9730,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9761,11 +9761,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9773,14 +9773,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9789,7 +9789,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9806,7 +9806,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9814,11 +9814,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9831,11 +9831,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9843,14 +9843,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9859,7 +9859,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9867,14 +9867,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9886,13 +9886,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9911,10 +9911,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9930,10 +9930,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9949,10 +9949,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9960,7 +9960,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9968,10 +9968,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9987,10 +9987,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10006,10 +10006,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10026,7 +10026,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10034,27 +10034,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ULBcs5dcwf7E588Adq3nAXjxNUeIM8JaY28dYIHxRzaZtpdxFfjKuv+di63+GeKZ7qnh+Cf7p98I1FB22qZ7Ww==" saltValue="1n6jj2cUUge2bjPgkaziVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XxsgTWA3Z0bziCc1Ekj0FKdaCf9yo0htuvXQ9MKzcX10AW/FfEdM/GaP8FfM6ZPlxjDccoRICtVI+IqyRuHJ6g==" saltValue="giG02LNGDIpS7/LMXevJXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,37 +10087,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10125,25 +10125,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10154,25 +10154,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10183,25 +10183,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10209,28 +10209,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10241,25 +10241,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10267,95 +10267,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10364,19 +10364,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10386,16 +10386,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10405,16 +10405,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10424,11 +10424,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lyB3oLmb/kVKcRR3eksosc7tR2ltUO3B+QxW0RvQ+8k1swpaMISzZTawb5qGHHsxboYeoH/2+k6ceDdRn2YNPA==" saltValue="t7ETwVQcvns+Bbpb55oYKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2mFtNtiRRwRpFmUmk+RG/97b189J1hPyVc8XuCvP/2l12D6TdMeJq+yKmHVovnaHIZxvOMvARXmalJyib0g4AQ==" saltValue="10wCA1CMSnzQR84Anqko4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,13 +10454,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -10472,7 +10472,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>4</v>
@@ -10480,13 +10480,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10507,7 +10507,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10529,7 +10529,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10575,7 +10575,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10596,7 +10596,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10619,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10640,7 +10640,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10661,7 +10661,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10705,7 +10705,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10726,7 +10726,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10746,10 +10746,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10770,7 +10770,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10791,7 +10791,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10811,10 +10811,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10841,13 +10841,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10868,7 +10868,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10889,7 +10889,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10933,7 +10933,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10954,7 +10954,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10998,7 +10998,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11019,7 +11019,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11042,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11063,7 +11063,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11084,7 +11084,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11128,7 +11128,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11149,7 +11149,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11169,10 +11169,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11199,13 +11199,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11226,7 +11226,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11247,7 +11247,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11291,7 +11291,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11312,7 +11312,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11335,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11356,7 +11356,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11377,7 +11377,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11400,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11421,7 +11421,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11442,7 +11442,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11462,10 +11462,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11486,7 +11486,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11507,7 +11507,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11549,7 +11549,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hgOkA/LXcYTbeQDh6sB5Ojwh7XtWkLGx8HX99DsQxeXNoQJ2hla5JVzXOZxzxETddshn+dQ1vCZPwO1u0Pj2XA==" saltValue="PSd2+7w0IIbAU6ivTlmguQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fXUPp0AdMbJPfzskimaJKwISFh6ovWPVEzwXPQj2m4x3SURd39Q64cfFjkzretEf07Xr43gK2xGvsR0inmtISQ==" saltValue="PMnbiU+NUM2yBl3rIRyo2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11595,28 +11595,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="abemg/mxAxziR9EbEpHCQLVb2Q3CeFQ/jAggBjhB03Rc735tt2IYXzQaQce+/GhCtXH2JrtGqA6/pEh3JLxGqA==" saltValue="qo6clTTuqwheWnAqYlmgcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rG8EGGAhXg9FmsR/4zb9AeAKM7GV9S9+y20dnR5SlpO8ny2DNoPYTrBWtwor4BhAZW64Jc7dQVSZ+3u1ZHHx7w==" saltValue="82oX88zVUfthuP0CSBoKmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,7 +12691,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12711,7 +12711,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12795,7 +12795,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -13003,7 +13003,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13059,7 +13059,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jx9uoxM9RRCMMIaaRh/BwdBoOtB0NFlO69kGDDoHdbPQw1m2U6mRHb85axLZMNnv3bLvNcZJUB7cSUfkPRwloA==" saltValue="lmGrReE+0GyQZVvjZGaJGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k0X7dBiJk8+XhyoWjzdJfgKhIxivkAB+MdrVIV/GAzlA8lVFhNmMU58eqgs71enz/o4YPqkCLRAbK2aPyWhSbw==" saltValue="L/IIoM9YKqr6PG63L+2Xxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,18 +13089,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H2" s="109" t="s">
         <v>4</v>
@@ -13129,10 +13129,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13216,7 +13216,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13247,7 +13247,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13303,7 +13303,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13418,7 +13418,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13446,7 +13446,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13477,7 +13477,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13561,7 +13561,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13592,7 +13592,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13707,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13819,18 +13819,18 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>1</v>
@@ -13842,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H29" s="109" t="s">
         <v>4</v>
@@ -13859,10 +13859,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13977,7 +13977,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14092,7 +14092,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14148,7 +14148,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14207,7 +14207,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14235,7 +14235,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14263,7 +14263,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14322,7 +14322,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14406,7 +14406,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14437,7 +14437,7 @@
         <v>21</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14521,7 +14521,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14553,30 +14553,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>54</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14587,10 +14587,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14681,10 +14681,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14706,7 +14706,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -14740,10 +14740,10 @@
         <v>22</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D65" s="109" t="s">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H65" s="132" t="s">
         <v>4</v>
@@ -14772,10 +14772,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14890,7 +14890,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14918,7 +14918,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14946,7 +14946,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15005,7 +15005,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15061,7 +15061,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15120,7 +15120,7 @@
         <v>12</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15232,10 +15232,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15350,7 +15350,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15406,7 +15406,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15465,7 +15465,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15608,7 +15608,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15636,7 +15636,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15695,7 +15695,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15723,7 +15723,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15751,7 +15751,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15807,18 +15807,18 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D104" s="109" t="s">
         <v>1</v>
@@ -15830,7 +15830,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H104" s="132" t="s">
         <v>4</v>
@@ -15848,7 +15848,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15876,7 +15876,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15962,7 +15962,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HWDjyio9B2tsuJPJrOV7evqc7G0XHWfagX3urpCQThFnyZwTlotPdvap2Y3sHJn5ENDD4zDwl7kbPBVJrjdq5w==" saltValue="5RZT/QTwYZcEBXwPNuhRiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="py9cf57xdgwyh4EQzmBncvWv6L3brhFMLiMTAoSLTSLiSLZ6Df4+xbIDU5Qd1dByX4YeHLjsSo2sfV80ffjv7A==" saltValue="I+euO8pPiMH9YFf0oFoYfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,7 +15993,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16011,7 +16011,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>4</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16040,7 +16040,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16060,12 +16060,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16133,13 +16133,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16163,15 +16163,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16192,7 +16192,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16212,10 +16212,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16236,26 +16236,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>49</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16271,7 +16271,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BvJSJe/OCdVmhJSrprI1qDHMzPzTvLuiuHROx9ChjhF9NFAi+63hPEa2IZmXFQdAbULRaEW8R3ZDMuKCm8x0xQ==" saltValue="XXaYv1KsEOCuZqR78Bersw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NcVXLjxuiihZlYCX73fDW6t28X57w0eE/u8be4BZlH8M3qastNXX9VyLc5TPdpXx4A+/Vz1hx4QfedC3x3zZ8g==" saltValue="bY/9PUIOUJ1XJ0j6yG6Z2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,7 +16300,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
@@ -16318,10 +16318,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16339,7 +16339,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16356,10 +16356,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16377,7 +16377,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16415,7 +16415,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16432,10 +16432,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16453,7 +16453,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16470,10 +16470,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16491,7 +16491,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16529,7 +16529,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16551,7 +16551,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="27BBDgmzcBXqd3KXmBJM5gbGpFqF+yl/0+M0zTRy4sGlyZr0OkVA8FsPy3CtRLecaWaWR/NYTFcR6FZAwvjA/w==" saltValue="NhSwVpVhpgRB8TFcCnPDwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oLjKxoMi52faU+xzjZCMs/9E8qhgnIyZhGtCkvzro2vmzSidbndwtSg9jr7hBXbakZ21g44vVaq9BCtdEw7xjQ==" saltValue="KXlzZM5u2Lqpcu92mpXHeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16589,44 +16589,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="109" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="J1" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="K1" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="L1" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="M1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>53</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16890,7 +16890,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16934,7 +16934,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17154,13 +17154,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17292,7 +17292,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17347,7 +17347,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1qldtH5ddtlAmkRHb0XwCQ6QhzKt9jx2He/0ozBFAkX1Y7YNspXlGBhdS6iqXk0brsNG+yo13j0eKzSx/0crdQ==" saltValue="MJKg1j/tXfDEXDUemB6uYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TdiAFD6UolRZ8z7B0svwwBHFUoirS0k/KbgSxzXPLTyq+UDcW+kIRPWOAOSVe/gGocH1qQrK4k6kysWbjJTkiQ==" saltValue="nygoNUVYidWweai1McoojA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17385,7 +17385,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -17393,12 +17393,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17448,7 +17448,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4qGvzzzzO5pK47nAgjubA+CAzXr8U5NssVxikmNx+rqDVtR9thcwufY9NOv9Uk2hqAPeV17bfqZ4Rs9rN+cBrg==" saltValue="slphXWZgrnSH4FxcPoAQzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mcoqukfIm4mVYXa2lAWDHSDG6noF6Eq93BD5PuEEBgujHMIIVQ15SFn/RCaRhudSYZQePFr44ZxoaV0+49dvkQ==" saltValue="B+0cRTeL+HdCrNzff5zDDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,13 +17480,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17498,7 +17498,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>4</v>
@@ -17506,13 +17506,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17532,7 +17532,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17572,13 +17572,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17598,7 +17598,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17618,10 +17618,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17641,7 +17641,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17661,13 +17661,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17707,10 +17707,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17750,13 +17750,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17797,10 +17797,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17842,13 +17842,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17890,13 +17890,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17936,13 +17936,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17982,13 +17982,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18028,7 +18028,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18048,13 +18048,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18094,7 +18094,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18114,13 +18114,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18140,7 +18140,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18160,7 +18160,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18180,13 +18180,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18292,7 +18292,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18312,13 +18312,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18358,7 +18358,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18381,7 +18381,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18401,7 +18401,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18441,13 +18441,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18487,13 +18487,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18533,13 +18533,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18578,7 +18578,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2f2ug223DUxaOAbyUS5JnmMBPaOCFgqS0y97a7tov2ZL0VrBjon6x5G9VxlvRgfiVg14jbQ1xTAC923VUXMRwA==" saltValue="6qTkT2tLI8/qehZtYqOEIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A/zTbSur0yIKkWGvmhOHRdosMk0Qi6zmvDYgwZaZn85KXcNPCjMoT+XAjPziGXBtZS1Q8LiGDFSkUGyIUg8TQA==" saltValue="mhFloCPkVqNJziWxzLoviQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18606,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>54</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18670,13 +18670,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18695,7 +18695,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18713,13 +18713,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18738,7 +18738,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18755,7 +18755,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s+FzaSiN8xyhqyUzQEQndX3gk+Bmz3cTiMfbCBPRyqaqew6ducSojY3s8GnWf+iwZXsbGXRPUlsaaKCl+9guQw==" saltValue="6sFcvMl4VXEUPowvoUyojw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zieH7Vn5qVm3TtqOsHt1lnaWdCY6yeoC8rm87GrCM0zoKxzcbYB2xr5zAG1PsaqS4nFhaq5mjtm/Kg1lGkVoZQ==" saltValue="NolV9i5B7hUPg+IMWkkq+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,10 +18791,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18846,7 +18846,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18870,7 +18870,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,10 +18890,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -18902,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>4</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19096,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19112,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19128,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19152,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19160,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19168,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19184,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19192,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="niTqYLdJwmb/TUPDHjwboWMqfaWD9urCzG5PYz8stdurIZ/wqOfyE3M/5Z1COBkEbO5JmHbEDV0210syZmzxZw==" saltValue="IYFmRmXDCMSXGDV+w/+Xxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l3e2WfXvWdacmdojf/nV/sryy0R+sTHBTB7p6tiZnuzCTu7Ed6idjuw7lCPR+liVYcVB04Ki+M/zvMct++fmiA==" saltValue="ot058PFlqQT3SVABZxJIOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19234,7 +19234,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -19242,10 +19242,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19271,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19297,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="77">
         <v>4.3500000000000004E-2</v>
@@ -19318,7 +19318,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="77">
         <v>2.3E-2</v>
@@ -19354,10 +19354,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19382,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19427,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,7 +19461,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>1</v>
@@ -19473,39 +19473,39 @@
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19619,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q6BYgLbKQKN+YfA0Yrjne4sMB73fFd6pS1tp5mJWkispprKHh/CeZvK9HN4vyeOn+OcHbc9QwPCUNmgCcGCgxg==" saltValue="BcYiDqA/RUn1uxi2jdpK8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q2cvizcHA/hhBZsGMqXExVZQym3ZinfRRGNbN04BNu5ew/D43KouQ3HVdIo82AvMJsBJ4kNEMdBrwPPiG+B/aA==" saltValue="dWcOHWKXtbnKZR2DMd6NEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19661,7 +19661,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -19672,7 +19672,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19756,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N/6jl7bRgc/w89pQkUI9/2ZINkSbynEqtX/MLgOrdnFxfkD7unHv6EuE+Y7WeLTR8sO4Xp8k+x3MybfC8T3h0A==" saltValue="yfIsqYlq5zaSAWbRIGphNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nImzNasUeeVYWyBf11Iv7M2Kr2MtyhP9T3PkV7pvVcVafsNRbxAECWzd1YF8VdEr/fVwY424kixyjGJ0jDxIwA==" saltValue="XHKEAsIfg34BQNOsPy/4oA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19781,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19831,10 +19831,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
@@ -19861,10 +19861,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
@@ -19891,10 +19891,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="28">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19942,7 +19942,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
@@ -19966,10 +19966,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
@@ -20019,10 +20019,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20048,7 +20048,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20071,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mFMN3EixD+Cgv2/YFIxEeyUOJ2swOUwS1o+shNcMYkIwP2Z1FwKmTQ7uP8tsB+b53BClX79IuxJ7xUj2BJLU3Q==" saltValue="ZryeGDnevLBnvU7gOisUxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6xZ1Cz1wRP8cXk+RQS73cMuc1Il2UwGprsS14FndMQuKEOPqZeItxgM8CwQlKWzyytLLDHMOxf+NdBOgVt6LCA==" saltValue="2XB/kV1EbVsI/nUCkSI4qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,27 +20098,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20172,7 +20172,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20186,7 +20186,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20194,10 +20194,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20247,7 +20247,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20259,24 +20259,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20328,11 +20328,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20342,14 +20342,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="q8HA9GO05uVqsibVRpaX1wpWgiWZzRbkks0fAvgv+2rmPMPlYEJ6JLrr09mV+03T6W0I4G2xC+YmtmEesltxPQ==" saltValue="4YOITo1gi0COs60vZA+4JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WYo2jVS823QSzto4YD/mExsAbNzgqTr7cqVPmK9Ux6rXYWgqdXl6m16S2j32XWYPrvIM6Cd3M8jlF2UoJhJ4lg==" saltValue="3tj1A+wRn72GKu+eQ+kQmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20376,44 +20376,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pZqqjrHex67Pal8QhAkegMy5A9sJV4tgVAzye9gqN7DcO6XPlcr/WZHeQRh0wXmWh++2XjlRvXwirQ4LVWVvvg==" saltValue="zfNlRJkWSxHXKqO4LEBN8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QaMcL/QmLUhBe6AJaVVhIfy52Hy6IRcTcHsoYhmRN00rtIIDuRDWDWZR3kQBoY3bMqFK05FNSrlW6Jxpd8lPhQ==" saltValue="DHZAH4ITUM1DlY5cNj+O/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20441,25 +20441,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20471,12 +20471,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20488,12 +20488,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20505,12 +20505,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20522,12 +20522,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20539,12 +20539,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20556,12 +20556,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20573,12 +20573,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20590,12 +20590,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20607,12 +20607,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20624,12 +20624,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20641,12 +20641,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20658,12 +20658,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20675,12 +20675,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20692,12 +20692,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20709,12 +20709,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20726,12 +20726,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20743,12 +20743,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20760,12 +20760,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20777,12 +20777,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20794,12 +20794,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20811,12 +20811,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20828,12 +20828,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20845,12 +20845,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20862,12 +20862,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20879,12 +20879,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20896,12 +20896,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20913,12 +20913,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20930,12 +20930,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20947,12 +20947,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20964,12 +20964,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20981,12 +20981,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20998,12 +20998,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21015,12 +21015,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21032,12 +21032,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21049,13 +21049,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21067,12 +21067,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21084,14 +21084,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lpOuz29kXRa1DfMc2eDqq5tCrC+olAFWIQg6OAih2No6sWiv88fe1JCd8E4FsejPNJn8EMnZxv/j32bsWq/nPQ==" saltValue="RnQOPWBmFLzfKjLrx3Wu0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4mR2EhkF3wRBeQxhxHDas6wUAlQtg3f0B5lz9ZL6lmOHKEjUFSvNL4UbxGbLk/OdY5SHl0vsLvQJ9ZqcDHNmCQ==" saltValue="o/QAxzLmB71gFNTyZXrY1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12600C45-0F0E-457D-AECE-093934D00859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9904D9AA-CD52-4D9F-A0C9-D7E066F0C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="29895" windowHeight="16770" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
-    <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
-    <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
+    <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes de décès" sheetId="4" r:id="rId3"/>
+    <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
+    <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Paquets IYCF" sheetId="55" r:id="rId7"/>
+    <sheet name="Traitement de la MAS" sheetId="60" r:id="rId8"/>
+    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
+    <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
+    <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion" localSheetId="6">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
-    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
     <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
@@ -58,26 +58,26 @@
     <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
     <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
     <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
-    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
-    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
-    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
-    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
-    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
+    <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
     <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
     <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
-    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
-    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
-    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
-    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
-    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
+    <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
     <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
     <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
     <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
-    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
+    <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
     <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
     <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
@@ -409,437 +409,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>&lt;1 month</t>
-  </si>
-  <si>
-    <t>1-5 months</t>
-  </si>
-  <si>
-    <t>6-11 months</t>
-  </si>
-  <si>
-    <t>24-59 months</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Neonatal sepsis</t>
-  </si>
-  <si>
-    <t>Neonatal pneumonia</t>
-  </si>
-  <si>
-    <t>Pre-term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal asphyxia</t>
-  </si>
-  <si>
-    <t>Pre-term AGA</t>
-  </si>
-  <si>
-    <t>Term SGA</t>
-  </si>
-  <si>
-    <t>Neonatal prematurity</t>
-  </si>
-  <si>
-    <t>Neonatal other</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>Meningitis</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>AIDS</t>
-  </si>
-  <si>
-    <t>Injury</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Breastfeeding</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="271">
   <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Term AGA</t>
-  </si>
-  <si>
-    <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Balanced energy-protein supplementation</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Long-lasting insecticide-treated bednets</t>
-  </si>
-  <si>
     <t>General population</t>
   </si>
   <si>
-    <t>non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Non-pregnant WRA</t>
-  </si>
-  <si>
-    <t>Antepartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Intrapartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Postpartum haemorrhage</t>
-  </si>
-  <si>
-    <t>Hypertensive disorders</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>Abortion</t>
-  </si>
-  <si>
-    <t>Embolism</t>
-  </si>
-  <si>
-    <t>Other direct causes</t>
-  </si>
-  <si>
-    <t>Indirect causes</t>
-  </si>
-  <si>
-    <t>Iron and iodine fortification of salt</t>
-  </si>
-  <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>WRA: 15-19 years</t>
-  </si>
-  <si>
-    <t>WRA: 20-29 years</t>
-  </si>
-  <si>
-    <t>WRA: 30-39 years</t>
-  </si>
-  <si>
-    <t>WRA: 40-49 years</t>
-  </si>
-  <si>
-    <t>PW: 15-19 years</t>
-  </si>
-  <si>
-    <t>PW: 20-29 years</t>
-  </si>
-  <si>
-    <t>PW: 30-39 years</t>
-  </si>
-  <si>
-    <t>PW: 40-49 years</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
-    <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
-    <t>Zinc supplementation</t>
-  </si>
-  <si>
-    <t>Cash transfers</t>
-  </si>
-  <si>
-    <t>IFA fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>IFA fortification of rice</t>
-  </si>
-  <si>
     <t>MAM</t>
   </si>
   <si>
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of SAM</t>
-  </si>
-  <si>
-    <t>Prevalence of iron deficiency anaemia</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
-    <t>Diarrhoea</t>
-  </si>
-  <si>
-    <t>Diarrhoea incidence</t>
-  </si>
-  <si>
-    <t>Neonatal diarrhoea</t>
-  </si>
-  <si>
-    <t>Mortality</t>
-  </si>
-  <si>
-    <t>First birth</t>
-  </si>
-  <si>
-    <t>less than 18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>24 months or greater</t>
-  </si>
-  <si>
-    <t>WASH: Improved water source</t>
-  </si>
-  <si>
-    <t>WASH: Piped water</t>
-  </si>
-  <si>
-    <t>WASH: Improved sanitation</t>
-  </si>
-  <si>
-    <t>WASH: Hygenic disposal</t>
-  </si>
-  <si>
-    <t>WASH: Handwashing</t>
-  </si>
-  <si>
-    <t>Oral rehydration salts</t>
-  </si>
-  <si>
-    <t>Zinc for treatment + ORS</t>
-  </si>
-  <si>
-    <t>Calcium supplementation</t>
-  </si>
-  <si>
-    <t>Mg for pre-eclampsia</t>
-  </si>
-  <si>
-    <t>Mg for eclampsia</t>
-  </si>
-  <si>
-    <t>Fraction of pregnancies ending in spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Under 5 mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Infant mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Neonatal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Stillbirths (per 1,000 total births)</t>
-  </si>
-  <si>
-    <t>Fraction of subsistence farming</t>
-  </si>
-  <si>
-    <t>Fraction eating rice as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating wheat as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction eating maize as main staple food</t>
-  </si>
-  <si>
-    <t>Fraction on other staples as main staple food</t>
-  </si>
-  <si>
-    <t>Age distribution of pregnant women</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 15-19 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 30-39 years</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women 40-49 years</t>
-  </si>
-  <si>
-    <t>School attendance (percentage of 15-19 year women)</t>
-  </si>
-  <si>
-    <t>Percentage of population food insecure (default poor)</t>
-  </si>
-  <si>
-    <t>Percentage of population at risk of malaria</t>
-  </si>
-  <si>
-    <t>Percentage of pregnant women attending health facility</t>
-  </si>
-  <si>
-    <t>Percentage of children attending health facility</t>
-  </si>
-  <si>
-    <t>Unmet need for family planning</t>
-  </si>
-  <si>
-    <t>Percentage of diarrhea that is severe</t>
-  </si>
-  <si>
-    <t>Number of births</t>
-  </si>
-  <si>
-    <t>Total WRA</t>
-  </si>
-  <si>
-    <t>Wasting (weight-for-height)</t>
-  </si>
-  <si>
-    <t>Stunting (height-for-age)</t>
-  </si>
-  <si>
-    <t>Moderate (HAZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>Normal (HAZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild (HAZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>High (HAZ-score between &lt; -3)</t>
-  </si>
-  <si>
-    <t>Normal  (WHZ-score &gt; -1)</t>
-  </si>
-  <si>
-    <t>Mild  (WHZ-score between -2 and -1)</t>
-  </si>
-  <si>
-    <t>MAM   (WHZ-score between -3 and -2)</t>
-  </si>
-  <si>
-    <t>SAM   (WHZ-score &lt; -3)</t>
-  </si>
-  <si>
-    <t>Average episodes per year: &lt;1 month</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 1-5 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 6-11 months</t>
-  </si>
-  <si>
-    <t>Average episodes per year: 24-59 months</t>
-  </si>
-  <si>
-    <t>Total (must be 100%)</t>
-  </si>
-  <si>
-    <t>Estimated pregnant women</t>
-  </si>
-  <si>
-    <t>Prevalence of anaemia</t>
-  </si>
-  <si>
-    <t>Percentage of anaemia that is iron deficient</t>
-  </si>
-  <si>
-    <t>Birth outcome distribution</t>
-  </si>
-  <si>
-    <t>Other risks</t>
-  </si>
-  <si>
-    <t>Baseline year mortality and risk factors</t>
-  </si>
-  <si>
-    <t>Lipid-based nutrition supplements</t>
-  </si>
-  <si>
-    <t>Micronutrient powders</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Stunting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Wasting prevalence (%)</t>
-  </si>
-  <si>
-    <t>Anaemia prevalence (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of age-appropriate breastfeeding</t>
-  </si>
-  <si>
     <t>Children 0-59 months</t>
   </si>
   <si>
-    <t>Women of reproductive age</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
-    <t>Children 6-23 months</t>
-  </si>
-  <si>
-    <t>Children 0-5 months</t>
-  </si>
-  <si>
-    <t>Under five (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Delayed cord clamping</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -888,54 +483,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Exclusive</t>
-  </si>
-  <si>
-    <t>Predominant</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Maternal (deaths per 1,000 births)</t>
-  </si>
-  <si>
-    <t>Maternal mortality (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Threshold dependency</t>
-  </si>
-  <si>
-    <t>Exclusion dependency</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -945,81 +492,12 @@
     <t>Community-based</t>
   </si>
   <si>
-    <t>Delivery mode</t>
-  </si>
-  <si>
-    <t>Add extension</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (community)</t>
-  </si>
-  <si>
-    <t>IFAS (community)</t>
-  </si>
-  <si>
-    <t>IFAS (retailer)</t>
-  </si>
-  <si>
-    <t>IFAS (school)</t>
-  </si>
-  <si>
-    <t>Projection years</t>
-  </si>
-  <si>
-    <t>End year</t>
-  </si>
-  <si>
-    <t>Baseline year (projection start year)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Kangaroo mother care</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
-  </si>
-  <si>
-    <t>Family planning</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
     <t>IYCF 3</t>
   </si>
   <si>
-    <t>Saturation coverage of target population</t>
-  </si>
-  <si>
-    <t>Linear (constant marginal cost) [default]</t>
-  </si>
-  <si>
-    <t>Curved with increasing marginal cost</t>
-  </si>
-  <si>
-    <t>Curved with decreasing marginal cost</t>
-  </si>
-  <si>
-    <t>S-shaped (decreasing then increasing marginal cost)</t>
-  </si>
-  <si>
-    <t>Cost-coverage relationship</t>
-  </si>
-  <si>
-    <t>IFAS (health facility)</t>
-  </si>
-  <si>
-    <t>IFAS for pregnant women (health facility)</t>
-  </si>
-  <si>
-    <t>Children under 5 population</t>
-  </si>
-  <si>
-    <t>Neonatal</t>
-  </si>
-  <si>
     <t>Causes</t>
   </si>
   <si>
@@ -1209,22 +687,541 @@
     <t>Données de l'année de référence</t>
   </si>
   <si>
+    <t>Années de projection</t>
+  </si>
+  <si>
+    <t>Année de référence (année de début de la projection)</t>
+  </si>
+  <si>
+    <t>Fin d'année</t>
+  </si>
+  <si>
+    <t>Données sur la population</t>
+  </si>
+  <si>
+    <t>Population des enfants de moins de 5 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population en situation d'insécurité alimentaire (pauvre par défaut)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population exposée au risque de paludisme</t>
+  </si>
+  <si>
+    <t>Fréquentation scolaire (pourcentage de femmes de 15 à 19 ans)</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Pourcentage d'enfants fréquentant un établissement de santé</t>
+  </si>
+  <si>
+    <t>Besoin non satisfait de planification familiale</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Fraction de l'agriculture de subsistance</t>
+  </si>
+  <si>
+    <t>Fraction de personnes consommant du riz comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de ceux qui consomment du blé comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population consommant du maïs comme principal aliment de base</t>
+  </si>
+  <si>
+    <t>Fraction de la population qui consomme d'autres aliments de base comme principale denrée alimentaire</t>
+  </si>
+  <si>
+    <t>Répartition par âge des femmes enceintes</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes de 15 à 19 ans</t>
+  </si>
+  <si>
     <t>Pourcentage de femmes enceintes âgées de 20 à 29 ans</t>
   </si>
   <si>
-    <t>Average episodes per year: 12-23 mois</t>
+    <t>Pourcentage de femmes enceintes âgées de 30 à 39 ans</t>
+  </si>
+  <si>
+    <t>Pourcentage de femmes enceintes âgées de 40 à 49 ans</t>
+  </si>
+  <si>
+    <t>Espacement des naissances</t>
+  </si>
+  <si>
+    <t>Première naissance</t>
+  </si>
+  <si>
+    <t>moins de 18 mois</t>
+  </si>
+  <si>
+    <t>18 à 23 mois</t>
+  </si>
+  <si>
+    <t>24 mois ou plus</t>
+  </si>
+  <si>
+    <t>Total (doit être 100%)</t>
+  </si>
+  <si>
+    <t>Mortalité de l'année de référence et facteurs de risque</t>
+  </si>
+  <si>
+    <t>Mortalité</t>
+  </si>
+  <si>
+    <t>Mortalité néonatale (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité infantile (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité des moins de 5 ans (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Mortalité maternelle (pour 1 000 naissances vivantes)</t>
+  </si>
+  <si>
+    <t>Fraction des grossesses se terminant par un avortement spontané</t>
+  </si>
+  <si>
+    <t>Mortinatalité (pour 1 000 naissances totales)</t>
+  </si>
+  <si>
+    <t>Distribution des résultats des naissances</t>
+  </si>
+  <si>
+    <t>SGA avant terme</t>
+  </si>
+  <si>
+    <t>AGA avant terme</t>
+  </si>
+  <si>
+    <t>SGA à terme</t>
+  </si>
+  <si>
+    <t>AGA à terme</t>
+  </si>
+  <si>
+    <t>Incidence de la diarrhée</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Épisodes moyens par an : 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+  </si>
+  <si>
+    <t>Autres risques</t>
+  </si>
+  <si>
+    <t>Pourcentage de diarrhée grave</t>
+  </si>
+  <si>
+    <t>Pourcentage d'anémie avec carence en fer</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Nombre de naissances</t>
+  </si>
+  <si>
+    <t>FAP : 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP : 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP : 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Total FAP</t>
+  </si>
+  <si>
+    <t>Estimation des femmes enceintes</t>
+  </si>
+  <si>
+    <t>FAP non enceintes</t>
+  </si>
+  <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Septicémie néonatale</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
   </si>
   <si>
     <t>Tétanos néonatal</t>
   </si>
   <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
     <t>12-23 mois</t>
   </si>
   <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Septicémie</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Retard de croissance (taille pour l'âge)</t>
+  </si>
+  <si>
+    <t>Normal (score HAZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score HAZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ entre &lt; -3)</t>
+  </si>
+  <si>
+    <t>Amaigrissement (poids par rapport à la taille)</t>
+  </si>
+  <si>
+    <t>Normal (score WHZ &gt; -1)</t>
+  </si>
+  <si>
+    <t>Léger (score WHZ entre -2 et -1)</t>
+  </si>
+  <si>
+    <t>MAM (score WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>SAM (score WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Anémie</t>
+  </si>
+  <si>
+    <t>PW : 15-19 ans</t>
+  </si>
+  <si>
+    <t>PW : 20-29 ans</t>
+  </si>
+  <si>
+    <t>PW : 30-39 ans</t>
+  </si>
+  <si>
+    <t>PW : 40-49 ans</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie ferriprive</t>
+  </si>
+  <si>
+    <t>Allaitement maternel</t>
+  </si>
+  <si>
+    <t>Exclusif</t>
+  </si>
+  <si>
+    <t>Prédominant</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Risque</t>
+  </si>
+  <si>
+    <t>Prévalence du retard de croissance (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'émaciation (%)</t>
+  </si>
+  <si>
+    <t>Prévalence de l'anémie (%)</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Prévalence de l'allaitement maternel adapté à l'âge des enfants</t>
+  </si>
+  <si>
+    <t>Enfants de 0 à 5 mois</t>
+  </si>
+  <si>
+    <t>Enfants de 6 à 23 mois</t>
+  </si>
+  <si>
+    <t>Moins de cinq ans (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Maternelle (décès pour 1 000 naissances)</t>
+  </si>
+  <si>
+    <t>Paquet IYCF</t>
+  </si>
+  <si>
+    <t>Population cible</t>
+  </si>
+  <si>
+    <t>Établissement de santé</t>
+  </si>
+  <si>
+    <t>Communauté</t>
+  </si>
+  <si>
+    <t>Médias de masse</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>AIFC 1</t>
+  </si>
+  <si>
+    <t>AIFC 2</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Traitement de la MAS</t>
+  </si>
+  <si>
+    <t>Défaut</t>
+  </si>
+  <si>
+    <t>Ajouter une extension</t>
+  </si>
+  <si>
+    <t>Mode de livraison</t>
+  </si>
+  <si>
+    <t>Couverture à saturation de la population cible</t>
+  </si>
+  <si>
+    <t>Relation coût-couverture</t>
+  </si>
+  <si>
+    <t>Supplémentation équilibrée en énergie et en protéines</t>
+  </si>
+  <si>
+    <t>Supplémentation en calcium</t>
+  </si>
+  <si>
+    <t>Transferts en espèces</t>
+  </si>
+  <si>
+    <t>Retardement du clampage du cordon</t>
+  </si>
+  <si>
+    <t>Planification familiale</t>
+  </si>
+  <si>
+    <t>Enrichissement du maïs en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement du riz en AGI</t>
+  </si>
+  <si>
+    <t>Enrichissement en ACI de la farine de blé</t>
+  </si>
+  <si>
+    <t>IFAS (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS (établissement de santé)</t>
+  </si>
+  <si>
+    <t>IFAS (détaillant)</t>
+  </si>
+  <si>
+    <t>IFAS (école)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (communauté)</t>
+  </si>
+  <si>
+    <t>IFAS pour les femmes enceintes (établissement de santé)</t>
+  </si>
+  <si>
+    <t>Enrichissement du sel en fer et en iode</t>
+  </si>
+  <si>
+    <t>Soins maternels kangourou</t>
+  </si>
+  <si>
+    <t>Suppléments nutritionnels à base de lipides</t>
+  </si>
+  <si>
+    <t>Moustiquaires imprégnées d'insecticide longue durée</t>
+  </si>
+  <si>
+    <t>Mg pour l'éclampsie</t>
+  </si>
+  <si>
+    <t>Mg pour la pré-éclampsie</t>
+  </si>
+  <si>
+    <t>Poudres de micronutriments</t>
+  </si>
+  <si>
+    <t>Supplémentation en micronutriments multiples</t>
+  </si>
+  <si>
+    <t>Sels de réhydratation orale</t>
+  </si>
+  <si>
+    <t>Fourniture publique d'aliments complémentaires</t>
+  </si>
+  <si>
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>Enrichissement du maïs en AGI</t>
+    <t>WASH : lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH : Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH : Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH : Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH : Eau courante</t>
+  </si>
+  <si>
+    <t>Zinc pour le traitement + SRO</t>
+  </si>
+  <si>
+    <t>Supplémentation en zinc</t>
+  </si>
+  <si>
+    <t>Linéaire (coût marginal constant) [par défaut].</t>
+  </si>
+  <si>
+    <t>Dépendance d'exclusion</t>
+  </si>
+  <si>
+    <t>Dépendance de seuil</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal décroissant</t>
+  </si>
+  <si>
+    <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
 </sst>
 </file>
@@ -4765,18 +4762,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4784,7 +4781,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4793,7 +4790,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4806,12 +4803,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4819,7 +4816,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4859,7 +4856,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4870,14 +4867,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4885,7 +4882,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4893,7 +4890,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4909,7 +4906,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4921,12 +4918,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4962,14 +4959,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4977,7 +4974,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4985,7 +4982,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4993,7 +4990,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5011,19 +5008,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5051,7 +5048,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5078,13 +5075,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5093,7 +5090,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5126,13 +5123,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5141,7 +5138,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5165,7 +5162,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5173,12 +5170,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5186,7 +5183,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5202,7 +5199,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5212,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QqpMjvqnW0PePZGw5lezL5WRjNVC8QFib52QQYUZDHpSWfzZB+/UCx9Sc42FTYzBO+EdX5P6KVLe24rgt6bKGA==" saltValue="1ris4t4bAcRWOgZCTsI0ig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2FPLgfQgorhVZ0dmvBO5HbYSOHDlFsiy4sbjYkaKtDPtpyLN/oO7WqKRsjc/Pqp4pfZI3cPzhljGmj+xoj6ffQ==" saltValue="EOI0HTlx7VNDDiqPG9x68g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5239,48 +5236,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5360,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MvtILTOh6iR0tQB34OpjMJ4u8qeYkyR8Dt4vZejIyso9+hRa3Zg/MFuuARjC8XSLxPr3WMSA1EVYdyaJkwlVqw==" saltValue="87fdyD5oxMOl4Th/xwE9sw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w2EaCj9MrVUXnbuw4JkAQkoO4DXruP3zeLVhvC1O9s6jRiofLnibvrRHerSLt2QrGNdVRPjS1DtRlRqvDgcWpg==" saltValue="vblZWsli5SoBUJNDonCboA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5386,47 +5383,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5460,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sEDgZMyiPyb2KVIeKf1eUtxk6xNsXzrCV6k38wi88FMCAdcOTkr7Ktu1+wTOe+IOuMh42skqNi0joQJlbenNgg==" saltValue="bzkzhkeThpbMUjJ2OMThZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8DoUTXJZzHy8xl4lJ8Gp+W3osg7mYJh9BKqXYfQwqlCiEz1+3X0Z+LLZ93xLlaE0KczBrDzvyH8j/kUmeqR8lw==" saltValue="KTRTvQL51OW/bYUCw5maUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5481,27 +5478,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5575,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iX4JPiQCHBrAxHWVqyYuhN8hivYYc6+OUJV/zt9IbIX+9s4umnHELiTcVJ4oQs0RpQcleIIxz0rDhV6DpgRkMg==" saltValue="TYSdvJrkC6V3wwMKIIdzbw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Cw0rsyoIJzRxIf6JK0r23EsAiahRovsFQKZWmzPyW0RXQO3o/iauXRZrOXI9N+JtLISe7tersLXpE6sYkdqFyg==" saltValue="cMRQkf6IClEOzCI3WsjNxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5606,57 +5603,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5704,7 +5701,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5748,7 +5745,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5792,7 +5789,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5838,7 +5835,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5885,7 +5882,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5934,7 +5931,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6028,7 +6025,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6072,7 +6069,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6168,10 +6165,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6220,7 +6217,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6265,7 +6262,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6314,7 +6311,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6362,7 +6359,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6498,7 +6495,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6549,10 +6546,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6600,7 +6597,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6696,7 +6693,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6744,7 +6741,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6799,10 +6796,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6857,7 +6854,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6912,7 +6909,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -7011,7 +7008,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7068,7 +7065,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7113,7 +7110,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7291,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VXjdLvh/P8+rTQadRWQDdz4cwNjV4v4Jt2WeBAgz1O5KXzDFIIOp99BMumg5QFYm2TFCOHhKJP3e/r72Nn6bVQ==" saltValue="ZbS9sGQel2Wab4fUL4QX7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9G555yKozak76Jh3o/t8j9beiHgsGHdpUIWXxx5K6F1Vg75CKVdUdUgboWJYUkRcroQDzlxTWyVKYvzvJJ4I7w==" saltValue="uxmRB8hD7pPqeR58ESYdZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7310,26 +7307,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l86/wdZUGLXtnNWNcm7PSb/zNDieSS5QozdoswdU3WAczauahpCkyiAN1Dn0GqKxgd5eKLZ72UFNSzd0Lkwjgw==" saltValue="2YTuCrBZnXrTdxdi5vVPPg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FL2uPSHvfWwcF4uALd0u12J2wnvIkf8vH31lSUvMqZ5ShvgAHrSy1eK2e4UQGnYjdPRrOeTJL1SRTpgWUmAuBQ==" saltValue="s1ZGn+RPeCOoYD+NORl3ZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7356,24 +7353,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B2" s="38">
         <v>0.9</v>
@@ -7391,7 +7388,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="B3" s="38">
         <v>1</v>
@@ -7409,7 +7406,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B4" s="38">
         <v>1</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B5" s="38">
         <v>1</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -7463,7 +7460,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B7" s="38">
         <v>0.93</v>
@@ -7481,7 +7478,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B8" s="38">
         <v>0.5</v>
@@ -7499,7 +7496,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="B9" s="38">
         <v>0.5</v>
@@ -7517,7 +7514,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B10" s="38">
         <v>0.98</v>
@@ -7537,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lRr/wKDcr3N4q7iXKWVucdSC9HY6SZ8MsW1p2b9ULUIZ7UL8w7I5W0AxMNYaLmRxqrEuJfC+2owHdXZuTZf0eA==" saltValue="linMQvivNfIfnBhchem3aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/pi+7vMxiszTFo8Nh+MZE3AeSzX/HrJGEsAWifwnHXTKcUey+FbQuHrA0rN5gJnTA16EKfBOL5MgkltTdISOtA==" saltValue="P5jJCKfZzz7ctmg7B7yPfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7570,57 +7567,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7664,7 +7661,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7708,7 +7705,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7752,7 +7749,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7796,7 +7793,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -7840,7 +7837,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -8016,7 +8013,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8060,7 +8057,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8148,7 +8145,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8252,10 +8249,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8300,7 +8297,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8344,7 +8341,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8388,7 +8385,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C21" s="90">
         <v>0</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8564,7 +8561,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8672,7 +8669,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8717,7 +8714,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8805,7 +8802,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8865,10 +8862,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8956,7 +8953,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -9000,7 +8997,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9044,7 +9041,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9089,7 +9086,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9265,7 +9262,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9308,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CyL0aoFZjA9vyN5/reSa+aIfzXI7BPKkqfCe1azrIV6wNeZzuYQGs+LnRuCFb7cdamCVR4vq6ugPmcTyhbfjSA==" saltValue="fvT9aipYttbtWTbg1CHWAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AKXkvUkgUTd6S+kVS92Nbq1vup9sIf2cYES5tJM5x21swOD0b/HuHm9IFo1tw0x7adVEym2hpbGJoY1gQE8GQg==" saltValue="nw5NdPNwtbH+wbPbHxW/xA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9341,42 +9338,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9386,14 +9383,14 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9402,7 +9399,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9410,12 +9407,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9427,11 +9424,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9444,7 +9441,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9455,26 +9452,26 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9482,18 +9479,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9501,18 +9498,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9520,11 +9517,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9537,11 +9534,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9554,11 +9551,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9571,11 +9568,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9588,11 +9585,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9600,18 +9597,18 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9619,39 +9616,39 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9664,16 +9661,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9683,16 +9680,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9702,16 +9699,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9721,7 +9718,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9730,26 +9727,26 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9761,11 +9758,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9773,14 +9770,14 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9789,7 +9786,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9797,7 +9794,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9806,7 +9803,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9814,11 +9811,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9831,11 +9828,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9843,14 +9840,14 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9859,7 +9856,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9867,14 +9864,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9886,13 +9883,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9911,10 +9908,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9922,7 +9919,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9930,10 +9927,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9941,7 +9938,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9949,10 +9946,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9960,7 +9957,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9968,10 +9965,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9987,10 +9984,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -10006,10 +10003,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10017,7 +10014,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10026,7 +10023,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10034,27 +10031,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XxsgTWA3Z0bziCc1Ekj0FKdaCf9yo0htuvXQ9MKzcX10AW/FfEdM/GaP8FfM6ZPlxjDccoRICtVI+IqyRuHJ6g==" saltValue="giG02LNGDIpS7/LMXevJXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+yPzZWRqpT9ZXJ0Iwco26KDzw8EJ44Dncb4rwX8GYgEWEx3z4UObEUO3FffpjJFaisfieEDTB2ol5mYAdjkVBQ==" saltValue="sEQTe4dLvKgK29MfIro7GQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10087,63 +10084,63 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10151,28 +10148,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10180,28 +10177,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10209,28 +10206,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10238,28 +10235,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10267,95 +10264,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10364,19 +10361,19 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10386,16 +10383,16 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10405,16 +10402,16 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10424,11 +10421,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2mFtNtiRRwRpFmUmk+RG/97b189J1hPyVc8XuCvP/2l12D6TdMeJq+yKmHVovnaHIZxvOMvARXmalJyib0g4AQ==" saltValue="10wCA1CMSnzQR84Anqko4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="POaBNFaI1p1P3SrkB+S9fayg5pj/AkebKyHwXT8UkjbqMl+vaDaIyiOYk0NjOUuJVhrkeVZZ1q6Q6JV41MocSw==" saltValue="2Z9vbWo5yq7K1bEeO8WufQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10454,39 +10451,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10507,7 +10504,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10529,7 +10526,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10550,10 +10547,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10575,7 +10572,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10596,7 +10593,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10616,10 +10613,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10640,7 +10637,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10661,7 +10658,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10681,10 +10678,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10705,7 +10702,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10726,7 +10723,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10746,10 +10743,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10770,7 +10767,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10791,7 +10788,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10811,10 +10808,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10841,13 +10838,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10868,7 +10865,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10889,7 +10886,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10909,10 +10906,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10933,7 +10930,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10954,7 +10951,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10974,10 +10971,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10998,7 +10995,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11019,7 +11016,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11039,10 +11036,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11063,7 +11060,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11084,7 +11081,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11104,10 +11101,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11128,7 +11125,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11149,7 +11146,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11169,10 +11166,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11199,13 +11196,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11226,7 +11223,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11247,7 +11244,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11267,10 +11264,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11291,7 +11288,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11312,7 +11309,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11332,10 +11329,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11356,7 +11353,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11377,7 +11374,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11397,10 +11394,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11421,7 +11418,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11442,7 +11439,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11462,10 +11459,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11486,7 +11483,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11507,7 +11504,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11527,10 +11524,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11549,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fXUPp0AdMbJPfzskimaJKwISFh6ovWPVEzwXPQj2m4x3SURd39Q64cfFjkzretEf07Xr43gK2xGvsR0inmtISQ==" saltValue="PMnbiU+NUM2yBl3rIRyo2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iIXFoZx8eHoVrihVPpleR5mo2s5M4ZppWldEsl44rJTTlh9jbtZKMS1EZXPisrgDR2l8z5nBV38+8PsOH4SOqQ==" saltValue="cpctN7zwmBQRn4dcZmHwaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11592,31 +11589,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12657,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rG8EGGAhXg9FmsR/4zb9AeAKM7GV9S9+y20dnR5SlpO8ny2DNoPYTrBWtwor4BhAZW64Jc7dQVSZ+3u1ZHHx7w==" saltValue="82oX88zVUfthuP0CSBoKmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nVyZf8mbCaU+PjRGHdm3lDEthNr9K/Q+YNSnmgP7aUL3QpQnBnyHVFOSiGQq9C6tXrVcxYp4LlAhWr0BPBfeZg==" saltValue="NK6ZluTWxa+NH9XIwxlKNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12691,27 +12688,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12738,7 +12735,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12755,7 +12752,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12772,7 +12769,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12795,7 +12792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12820,7 +12817,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12830,7 +12827,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12840,7 +12837,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12876,7 +12873,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12903,7 +12900,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12914,7 +12911,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12932,7 +12929,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12950,7 +12947,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12986,7 +12983,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -13003,7 +13000,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13020,7 +13017,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13037,7 +13034,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13059,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k0X7dBiJk8+XhyoWjzdJfgKhIxivkAB+MdrVIV/GAzlA8lVFhNmMU58eqgs71enz/o4YPqkCLRAbK2aPyWhSbw==" saltValue="L/IIoM9YKqr6PG63L+2Xxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2VA6GTavamWT2hnGtJIQX5qYhWcBHE/u34rlVA7IrFMXdreFmBnFLfiXuCYuUnnczgj2zbas7xFg84sjguoH6Q==" saltValue="71Xrjef7CVs04StlYuWFAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13089,33 +13086,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="B2" s="127" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13129,10 +13126,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13216,7 +13213,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13244,10 +13241,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13275,7 +13272,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13359,10 +13356,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13390,7 +13387,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13446,7 +13443,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13474,10 +13471,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13505,7 +13502,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13533,7 +13530,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13561,7 +13558,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13589,10 +13586,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13620,7 +13617,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13648,7 +13645,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13676,7 +13673,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13704,10 +13701,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13735,7 +13732,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13763,7 +13760,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13791,7 +13788,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13819,33 +13816,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13859,10 +13856,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13918,7 +13915,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13946,7 +13943,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13974,10 +13971,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14005,7 +14002,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14061,7 +14058,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14089,10 +14086,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14120,7 +14117,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14148,7 +14145,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14176,7 +14173,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14204,10 +14201,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14235,7 +14232,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14263,7 +14260,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14291,7 +14288,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14319,10 +14316,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14350,7 +14347,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14378,7 +14375,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14406,7 +14403,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14434,10 +14431,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14465,7 +14462,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14493,7 +14490,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14521,7 +14518,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14553,30 +14550,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>233</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C56" s="131" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F56" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G56" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14587,10 +14584,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14612,7 +14609,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14634,10 +14631,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14659,7 +14656,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14681,10 +14678,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14706,7 +14703,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14732,33 +14729,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14772,10 +14769,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14831,7 +14828,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14859,7 +14856,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14887,10 +14884,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14918,7 +14915,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14946,7 +14943,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14974,7 +14971,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -15002,10 +14999,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15061,7 +15058,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15117,10 +15114,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15148,7 +15145,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15176,7 +15173,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15204,7 +15201,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15232,10 +15229,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15263,7 +15260,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15319,7 +15316,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15347,10 +15344,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15378,7 +15375,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15406,7 +15403,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15434,7 +15431,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15462,10 +15459,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15493,7 +15490,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15521,7 +15518,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15549,7 +15546,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15577,10 +15574,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15608,7 +15605,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15636,7 +15633,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15664,7 +15661,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15692,10 +15689,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15723,7 +15720,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15751,7 +15748,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15779,7 +15776,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15807,33 +15804,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E104" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F104" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G104" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H104" s="132" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15848,7 +15845,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15876,7 +15873,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15904,7 +15901,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15932,7 +15929,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15962,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="py9cf57xdgwyh4EQzmBncvWv6L3brhFMLiMTAoSLTSLiSLZ6Df4+xbIDU5Qd1dByX4YeHLjsSo2sfV80ffjv7A==" saltValue="I+euO8pPiMH9YFf0oFoYfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SQlTYgPl4MEkbDjDccKh79/jpWuL+fphmLSu8uXNl6jJ/NfxMFsj4WU569Oy2EdPXoahT2bLHXTiAfOEH2TGfA==" saltValue="L2pODmiPE9jMvaD+is4D0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15993,36 +15990,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16040,7 +16037,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="C4" s="115">
         <v>1.0249999999999999</v>
@@ -16060,12 +16057,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16105,7 +16102,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16133,13 +16130,13 @@
     </row>
     <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16163,15 +16160,15 @@
     </row>
     <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
-        <v>246</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="C14" s="115">
         <v>1.0249999999999999</v>
@@ -16192,7 +16189,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C15" s="115">
         <v>1.0249999999999999</v>
@@ -16212,10 +16209,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B16" s="121" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="C16" s="115">
         <v>1</v>
@@ -16236,26 +16233,26 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16271,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NcVXLjxuiihZlYCX73fDW6t28X57w0eE/u8be4BZlH8M3qastNXX9VyLc5TPdpXx4A+/Vz1hx4QfedC3x3zZ8g==" saltValue="bY/9PUIOUJ1XJ0j6yG6Z2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9bLuhDnPdMwSfe3zCju0YLJGCUvQgMQ4JiNfhvUEqiBp+d4d7uZlNWDNyCnH1311g0aiVSV4iJEB83aBpdLjfg==" saltValue="6+/AqnjeXbrnZ86yC19xxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16300,28 +16297,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="F1" s="127" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16339,7 +16336,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16356,10 +16353,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16377,7 +16374,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16394,10 +16391,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16415,7 +16412,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16432,10 +16429,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16453,7 +16450,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16470,10 +16467,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16491,7 +16488,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16508,10 +16505,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16529,7 +16526,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16551,7 +16548,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oLjKxoMi52faU+xzjZCMs/9E8qhgnIyZhGtCkvzro2vmzSidbndwtSg9jr7hBXbakZ21g44vVaq9BCtdEw7xjQ==" saltValue="KXlzZM5u2Lqpcu92mpXHeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ayzbCFwmG6zAzWaw3J+uxd4zSVo7FhcQYS2ld7LhKSUmb9d358n9LNgdlqAq83Zmu9JOwnhF+gqatHm/krbcgQ==" saltValue="5GFGkiDCDJQb/8dsbvSWZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16580,53 +16577,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="M1" s="109" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="N1" s="109" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="O1" s="109" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16670,7 +16667,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16714,7 +16711,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16758,7 +16755,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16802,7 +16799,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16846,7 +16843,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16890,7 +16887,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16934,7 +16931,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C10" s="115">
         <v>1</v>
@@ -16978,7 +16975,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17022,7 +17019,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17066,7 +17063,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17110,7 +17107,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17154,13 +17151,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17204,7 +17201,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17292,7 +17289,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17347,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TdiAFD6UolRZ8z7B0svwwBHFUoirS0k/KbgSxzXPLTyq+UDcW+kIRPWOAOSVe/gGocH1qQrK4k6kysWbjJTkiQ==" saltValue="nygoNUVYidWweai1McoojA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3NJ6OReLbxn/Owau0LbfB3qXNMfUj8S88TSnIEw6uqE5EHNT7k+BtpieqJCTrxze07oFatA9C1mER14yvBlOlw==" saltValue="wcM5CLPuhrcFjW7kdyMPqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17376,29 +17373,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17418,7 +17415,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17429,7 +17426,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17448,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mcoqukfIm4mVYXa2lAWDHSDG6noF6Eq93BD5PuEEBgujHMIIVQ15SFn/RCaRhudSYZQePFr44ZxoaV0+49dvkQ==" saltValue="B+0cRTeL+HdCrNzff5zDDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6bv2D3Soq5n1dyET+SLlw9tNFN5iwkq1NsJHmhhXT4XBYoZf4HM8EatQCxHv2khFzG7yVU5Lrkg/YrHS+XvOgA==" saltValue="ENUunjXFcLCmTbHZ3gRduA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17480,39 +17477,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17532,7 +17529,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17552,7 +17549,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17572,13 +17569,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17598,7 +17595,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17618,10 +17615,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17641,7 +17638,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17661,13 +17658,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17687,7 +17684,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17707,10 +17704,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17730,7 +17727,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17750,13 +17747,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17776,7 +17773,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17797,10 +17794,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17821,7 +17818,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17842,13 +17839,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17869,7 +17866,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17890,13 +17887,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17916,7 +17913,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17936,13 +17933,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17962,7 +17959,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17982,13 +17979,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -18008,7 +18005,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18028,7 +18025,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18048,13 +18045,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18074,7 +18071,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18094,7 +18091,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18114,13 +18111,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18140,7 +18137,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18160,7 +18157,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18180,13 +18177,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18206,7 +18203,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18226,7 +18223,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18246,13 +18243,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18272,7 +18269,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18292,7 +18289,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18312,13 +18309,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18338,7 +18335,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18358,7 +18355,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18378,10 +18375,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18401,7 +18398,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18421,7 +18418,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18441,13 +18438,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18467,7 +18464,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18487,13 +18484,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18513,7 +18510,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18533,13 +18530,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18559,7 +18556,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18578,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A/zTbSur0yIKkWGvmhOHRdosMk0Qi6zmvDYgwZaZn85KXcNPCjMoT+XAjPziGXBtZS1Q8LiGDFSkUGyIUg8TQA==" saltValue="mhFloCPkVqNJziWxzLoviQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wPdrm0z4vh8dLa07DpKdtc8zV73lhnexDftUWNE5AIKpi0Wha1zAP99c0s6cYRlbHSXcf7ocj02eJdv8GYQfEA==" saltValue="g6DFbWt8xyANZwfv9Q9ORw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18606,35 +18603,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18652,7 +18649,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18670,13 +18667,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18695,7 +18692,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18713,13 +18710,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18738,7 +18735,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18755,7 +18752,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zieH7Vn5qVm3TtqOsHt1lnaWdCY6yeoC8rm87GrCM0zoKxzcbYB2xr5zAG1PsaqS4nFhaq5mjtm/Kg1lGkVoZQ==" saltValue="NolV9i5B7hUPg+IMWkkq+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xEp9X2f+5D3exf3WGKCPcqEPzD9qyHbPPDC/141tXn57t6YbJwq4xCc875wgnS+pFcuAVk+DHfJA1T85PbZKiw==" saltValue="Nng1/kMVfhjbgUWWAxaclA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18791,13 +18788,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18806,7 +18803,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18814,7 +18811,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18822,7 +18819,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18830,7 +18827,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18838,7 +18835,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18846,7 +18843,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18854,7 +18851,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18862,7 +18859,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18870,7 +18867,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18890,28 +18887,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18928,7 +18925,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18945,7 +18942,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18962,7 +18959,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18979,7 +18976,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18996,7 +18993,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19013,7 +19010,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19047,7 +19044,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19064,7 +19061,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19096,13 +19093,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="41" t="s">
-        <v>203</v>
-      </c>
       <c r="C25" s="41" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19112,7 +19109,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19120,7 +19117,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19128,7 +19125,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19136,7 +19133,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19144,7 +19141,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C30" s="75">
         <v>0.12434007</v>
@@ -19152,7 +19149,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19160,7 +19157,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19176,7 +19173,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19184,7 +19181,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19192,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l3e2WfXvWdacmdojf/nV/sryy0R+sTHBTB7p6tiZnuzCTu7Ed6idjuw7lCPR+liVYcVB04Ki+M/zvMct++fmiA==" saltValue="ot058PFlqQT3SVABZxJIOA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VkrsZxXeZCJdgRyBe80Ff2UTR6nrwS8hxhEhKXIxeT/nXJafJnvD1G77oN2gawuwiQEhnNMN+F8RKwmyqURoiw==" saltValue="gakv951ll3Rk3mq+1h3Ehg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19222,30 +19219,30 @@
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19271,7 +19268,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19297,7 +19294,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="C4" s="77">
         <v>4.3500000000000004E-2</v>
@@ -19318,7 +19315,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="C5" s="77">
         <v>2.3E-2</v>
@@ -19354,10 +19351,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19382,7 +19379,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19427,7 +19424,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19461,51 +19458,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19549,7 +19546,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19619,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q2cvizcHA/hhBZsGMqXExVZQym3ZinfRRGNbN04BNu5ew/D43KouQ3HVdIo82AvMJsBJ4kNEMdBrwPPiG+B/aA==" saltValue="dWcOHWKXtbnKZR2DMd6NEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u2TxrXSHus3Nl/pUNnOMM6hlZmECIb9DM7KQ4Yc1oQ3/4HtooOX2JPJTcjfLfOAoIVzALtkW7f5X2ZZowSklVA==" saltValue="3T54UguLWyw7A1ePwuA+Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19649,30 +19646,30 @@
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19692,7 +19689,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19712,7 +19709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19732,7 +19729,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19756,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nImzNasUeeVYWyBf11Iv7M2Kr2MtyhP9T3PkV7pvVcVafsNRbxAECWzd1YF8VdEr/fVwY424kixyjGJ0jDxIwA==" saltValue="XHKEAsIfg34BQNOsPy/4oA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RpkWVg+29bDLc7TJuTkJEWQiM04ZlCVOiwB65kJ3o7MPhobZVMxrP7aM3tDtz8+27ZhqbAb5hJAPB4f9n8D/IA==" saltValue="/xQguvBvsyi3adMQXVhLXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19781,10 +19778,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -19831,13 +19828,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
         <v>0.17217160111226312</v>
       </c>
       <c r="D2" s="28"/>
@@ -19861,13 +19858,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
+        <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
         <v>4.4702487716765882E-2</v>
       </c>
       <c r="D4" s="28"/>
@@ -19891,13 +19888,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
+        <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
         <v>0.22016400000000003</v>
       </c>
       <c r="D6" s="28"/>
@@ -19918,10 +19915,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C7" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D7" s="28"/>
@@ -19942,10 +19939,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
+        <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
         <v>0.18837666072928053</v>
       </c>
       <c r="D8" s="28"/>
@@ -19966,13 +19963,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
+        <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
         <v>0.50922873745377717</v>
       </c>
       <c r="D10" s="28"/>
@@ -19995,10 +19992,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E2+'Breastfeeding distribution'!E3+'Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F2+'Breastfeeding distribution'!F3+'Breastfeeding distribution'!F4)*(12/18))</f>
+        <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
         <v>0.80834605377276669</v>
       </c>
       <c r="D11" s="28"/>
@@ -20019,10 +20016,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20048,7 +20045,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20071,7 +20068,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6xZ1Cz1wRP8cXk+RQS73cMuc1Il2UwGprsS14FndMQuKEOPqZeItxgM8CwQlKWzyytLLDHMOxf+NdBOgVt6LCA==" saltValue="2XB/kV1EbVsI/nUCkSI4qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="i1+BFsLwBR3AjgU3j9xd9r+Km0DSJ6kTwT4BG2GCo/vXO4Fcj2rXHsopyW5FQM2xy5rZY58ewwrx+SzkZnlDBA==" saltValue="F8MoQRL78G/c5y9BO32Qaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20098,27 +20095,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20130,7 +20127,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20144,7 +20141,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20158,7 +20155,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20172,7 +20169,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20186,7 +20183,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20194,10 +20191,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20211,7 +20208,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20223,7 +20220,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20235,7 +20232,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20247,7 +20244,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20259,24 +20256,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20286,11 +20283,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20300,11 +20297,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20314,11 +20311,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20328,11 +20325,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20342,14 +20339,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WYo2jVS823QSzto4YD/mExsAbNzgqTr7cqVPmK9Ux6rXYWgqdXl6m16S2j32XWYPrvIM6Cd3M8jlF2UoJhJ4lg==" saltValue="3tj1A+wRn72GKu+eQ+kQmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lq17cPiJycPF2PjtwTpEvQs9EdRflkhe4t9m+Qa3PVX65LE/0Bdw0MEj3K5yg2VZwmcEctM02EuXTsazHNp7/g==" saltValue="Wyw8eKv3E/jc0L5uw7bs+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20376,44 +20373,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QaMcL/QmLUhBe6AJaVVhIfy52Hy6IRcTcHsoYhmRN00rtIIDuRDWDWZR3kQBoY3bMqFK05FNSrlW6Jxpd8lPhQ==" saltValue="DHZAH4ITUM1DlY5cNj+O/A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Js64OsA2rgMxVHYcfwU0XAiHO5QXvIyoDwOtexVFeSpshgPrFuhDM9Avwlbvpqbc4pDOOwh/VaKD/tdc3rgXNQ==" saltValue="p61lSkqT/oVUTAmsEFmU3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20441,25 +20438,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20471,12 +20468,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20488,12 +20485,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20505,12 +20502,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20522,12 +20519,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20539,12 +20536,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20556,12 +20553,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20573,12 +20570,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20590,12 +20587,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20607,12 +20604,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20624,12 +20621,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20641,12 +20638,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20658,12 +20655,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20675,12 +20672,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20692,12 +20689,12 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B16" s="81">
         <v>0.34599999999999997</v>
@@ -20709,12 +20706,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20726,12 +20723,12 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20743,12 +20740,12 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20760,12 +20757,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -20777,12 +20774,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20794,12 +20791,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20811,12 +20808,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20828,12 +20825,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20845,12 +20842,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20862,12 +20859,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20879,12 +20876,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20896,12 +20893,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20913,12 +20910,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20930,12 +20927,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20947,12 +20944,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20964,12 +20961,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20981,12 +20978,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20998,12 +20995,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -21015,12 +21012,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21032,12 +21029,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21049,13 +21046,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21067,12 +21064,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21084,14 +21081,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4mR2EhkF3wRBeQxhxHDas6wUAlQtg3f0B5lz9ZL6lmOHKEjUFSvNL4UbxGbLk/OdY5SHl0vsLvQJ9ZqcDHNmCQ==" saltValue="o/QAxzLmB71gFNTyZXrY1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c5meNxmdFB4yd1iES9Pw2oK7PKwp0agKeN8YnrbCUZzKFvm86zjV0D/ert6a0TGKdLh1WlvhxVNB7pfYEjhu+A==" saltValue="HC/aiHJ8bvdc1BYoHNM22w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9904D9AA-CD52-4D9F-A0C9-D7E066F0C7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8109AA3C-E126-4F03-A238-037530A1FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2085" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2430" windowWidth="27480" windowHeight="16170" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -5209,7 +5209,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2FPLgfQgorhVZ0dmvBO5HbYSOHDlFsiy4sbjYkaKtDPtpyLN/oO7WqKRsjc/Pqp4pfZI3cPzhljGmj+xoj6ffQ==" saltValue="EOI0HTlx7VNDDiqPG9x68g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZhVTnyKp7qfoyeaiK4uBXKHuqcHNXWTMF/OmBPl/zCZXtPwQFuAcBtHBRUAnCs7FMG7wodKZlCydTA5Gjp+/ig==" saltValue="HWf95jf2bOjfgr3A9/VTWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5357,7 +5357,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w2EaCj9MrVUXnbuw4JkAQkoO4DXruP3zeLVhvC1O9s6jRiofLnibvrRHerSLt2QrGNdVRPjS1DtRlRqvDgcWpg==" saltValue="vblZWsli5SoBUJNDonCboA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hRdMR0DkzJMH9Mkw3LkquDhE/A1bYTZk4E5YbHlL6+OCx6byEIKRI0CNQib22nMXQilzZCuYQePMuVHdr4eQqQ==" saltValue="Djb7yR2Zock33S5mg1olfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5457,7 +5457,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8DoUTXJZzHy8xl4lJ8Gp+W3osg7mYJh9BKqXYfQwqlCiEz1+3X0Z+LLZ93xLlaE0KczBrDzvyH8j/kUmeqR8lw==" saltValue="KTRTvQL51OW/bYUCw5maUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2nXtlJmpRUCr+f4XWUXBIt4pdtXhSnYwTptlORQzf+HJtKGIslFUmOmlADUuZhntUOwLRp+JOOrbebO4cOcZ6Q==" saltValue="Pd2ii9IrQMiP/2F3JQdsyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5572,7 +5572,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Cw0rsyoIJzRxIf6JK0r23EsAiahRovsFQKZWmzPyW0RXQO3o/iauXRZrOXI9N+JtLISe7tersLXpE6sYkdqFyg==" saltValue="cMRQkf6IClEOzCI3WsjNxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zRhAbXuA8GnmyiPTD0roOdqChIiIDKbTTQwjuZXUbci7UvRslmkg/1ADKFKon60DreWzlnTpclEwLjdTRuLlQw==" saltValue="Ok1rTWvT06rzpgeu8UbwBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7288,7 +7288,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9G555yKozak76Jh3o/t8j9beiHgsGHdpUIWXxx5K6F1Vg75CKVdUdUgboWJYUkRcroQDzlxTWyVKYvzvJJ4I7w==" saltValue="uxmRB8hD7pPqeR58ESYdZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="76z1a3CIof8ppFQSomnowxy6b/OCFgsbeVjzg8nxDMG4HrgjXbJVr6Go8GDGvZnfD3Pknn4x8y4ahzxLMZgs6w==" saltValue="z1wt3BqRdb1R8UDp7TR01w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7326,7 +7326,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FL2uPSHvfWwcF4uALd0u12J2wnvIkf8vH31lSUvMqZ5ShvgAHrSy1eK2e4UQGnYjdPRrOeTJL1SRTpgWUmAuBQ==" saltValue="s1ZGn+RPeCOoYD+NORl3ZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UostdURPzFXUTXtGkVtQ3ahQtszC1+083K+8huAgG6o9OwF/IMSDvZealH7x4O1W0jrpQP+bw0oHMAeP0Xb9sA==" saltValue="qI1Ih5zcOHCnjUGCwJ0jfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7534,7 +7534,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/pi+7vMxiszTFo8Nh+MZE3AeSzX/HrJGEsAWifwnHXTKcUey+FbQuHrA0rN5gJnTA16EKfBOL5MgkltTdISOtA==" saltValue="P5jJCKfZzz7ctmg7B7yPfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0OZJVrsq+SBB8S4GTSENzt47JtrEMreHKjpaHWCYi9Uw2A12XeNG+GAOMH7dffqDh2TcjK9ikqkV0aGYTDz0AA==" saltValue="K7MIP2li20I/JQPjBzJStw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9305,7 +9305,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AKXkvUkgUTd6S+kVS92Nbq1vup9sIf2cYES5tJM5x21swOD0b/HuHm9IFo1tw0x7adVEym2hpbGJoY1gQE8GQg==" saltValue="nw5NdPNwtbH+wbPbHxW/xA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u/OA40IvOvvBxx/9fyooWxhN0GJ6FkoUgqKcEQHkdhXttQUtTEyow5HI5OuLUG3apz1z7ySs7H5gZoa6/WazvQ==" saltValue="DSzdrXcEzWNllk7pA6r/6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10051,7 +10051,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+yPzZWRqpT9ZXJ0Iwco26KDzw8EJ44Dncb4rwX8GYgEWEx3z4UObEUO3FffpjJFaisfieEDTB2ol5mYAdjkVBQ==" saltValue="sEQTe4dLvKgK29MfIro7GQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E38eOFtekREUXCs5o4uhzglUfGlmvBDtIMNz5fVRvhNeWlSeZQRo/BfZOKFCYJETXRyF1CjT/msEKPSxCR8MSQ==" saltValue="mUozdwg08CQdMsf/xrnAGw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10425,7 +10425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="POaBNFaI1p1P3SrkB+S9fayg5pj/AkebKyHwXT8UkjbqMl+vaDaIyiOYk0NjOUuJVhrkeVZZ1q6Q6JV41MocSw==" saltValue="2Z9vbWo5yq7K1bEeO8WufQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LI+y91ZM8scHetsMvCtd4Xq76faParXTmVHP8f2srdx3sxUXrv6Enc28Nd8QN/3TM/kcrO1Ei1nxFet1SfFTsA==" saltValue="haFgMj6HLzihZvrnrgFBYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11546,7 +11546,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iIXFoZx8eHoVrihVPpleR5mo2s5M4ZppWldEsl44rJTTlh9jbtZKMS1EZXPisrgDR2l8z5nBV38+8PsOH4SOqQ==" saltValue="cpctN7zwmBQRn4dcZmHwaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8fbRnmf/0sgLnZQEHslDPx2A0pDYOeOqrT+1xtGssmaP+Ou75m5Ea6mTMbbBOSfb0xtpx9zdFSeEdnEJkTeVg==" saltValue="sVksoeS0Opm0ox0eJfB4ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12654,7 +12654,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nVyZf8mbCaU+PjRGHdm3lDEthNr9K/Q+YNSnmgP7aUL3QpQnBnyHVFOSiGQq9C6tXrVcxYp4LlAhWr0BPBfeZg==" saltValue="NK6ZluTWxa+NH9XIwxlKNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zLyyhCdzZQ/6kASciJc91VrlHcdkzjE8woQAd0X5D3RQ/hq4giWsU43OXYyGy2X9eL9JMq67tQ5iVWTRE47W7g==" saltValue="wvRiaQVD9j7L0u0f+3zBCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13056,7 +13056,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2VA6GTavamWT2hnGtJIQX5qYhWcBHE/u34rlVA7IrFMXdreFmBnFLfiXuCYuUnnczgj2zbas7xFg84sjguoH6Q==" saltValue="71Xrjef7CVs04StlYuWFAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z0h9rh/m1Aybnd4XRVeSfYYuU1fC8lphr5cB1uV9lKpaOX404pjLK8b4OAjr4cELOKot9/CTFKDR6PWSrvgMqg==" saltValue="mSpZ5wTP3jdbn2EIJj738w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15959,7 +15959,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SQlTYgPl4MEkbDjDccKh79/jpWuL+fphmLSu8uXNl6jJ/NfxMFsj4WU569Oy2EdPXoahT2bLHXTiAfOEH2TGfA==" saltValue="L2pODmiPE9jMvaD+is4D0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ySUgkRL6mNRszmL2NYOLkYCDPbQBz8nXVsj1hpBov8Xm3wV3Hfr2Z+Ww7vlRJkMBaxZFBU2ezRNBG2JDenLaWw==" saltValue="eyJpPiLFqpMGb7yCUSZrVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16268,7 +16268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9bLuhDnPdMwSfe3zCju0YLJGCUvQgMQ4JiNfhvUEqiBp+d4d7uZlNWDNyCnH1311g0aiVSV4iJEB83aBpdLjfg==" saltValue="6+/AqnjeXbrnZ86yC19xxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o54HPSiv6HSP86ha/KE+ri3P8a2HEvsvLw5REHnoFR9YWLfOXpjNE9jbJwPO+GhIFa1VvIy8uR0ed8WxI5dGzQ==" saltValue="RqKWiz0qgjQU1maVr/l5TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16548,7 +16548,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ayzbCFwmG6zAzWaw3J+uxd4zSVo7FhcQYS2ld7LhKSUmb9d358n9LNgdlqAq83Zmu9JOwnhF+gqatHm/krbcgQ==" saltValue="5GFGkiDCDJQb/8dsbvSWZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0DhcqHPiUB+iPHjtk7XDzNtcEcLsuPSCk/EimwVe6w3ajANB1QThfEhkXggwiQxOAYPx3opJQ6awlLregP0kAA==" saltValue="bLFk4xWF+nYPfeYjnycghw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17344,7 +17344,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3NJ6OReLbxn/Owau0LbfB3qXNMfUj8S88TSnIEw6uqE5EHNT7k+BtpieqJCTrxze07oFatA9C1mER14yvBlOlw==" saltValue="wcM5CLPuhrcFjW7kdyMPqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5e3OxV9okSiDyn7p0BqWjVuMvXQFm4+AC151BgEn7Xe8rc/Mc0oGC61aQ46mQmfaK4Vxnvno2igdnDHBbax+/A==" saltValue="4H8G4fGjivA1/KfWbKiKEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6bv2D3Soq5n1dyET+SLlw9tNFN5iwkq1NsJHmhhXT4XBYoZf4HM8EatQCxHv2khFzG7yVU5Lrkg/YrHS+XvOgA==" saltValue="ENUunjXFcLCmTbHZ3gRduA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S29mgwHnPWSTC8qHxtgUP/CxQKNU60sqw6/dSm7FZYLcYCgyk0zUyNs2yZk9AiRqkm6yg6Ed8ymSIMPF8SVJhw==" saltValue="woLGweBO+1EHTggYU+DoSA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18575,7 +18575,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wPdrm0z4vh8dLa07DpKdtc8zV73lhnexDftUWNE5AIKpi0Wha1zAP99c0s6cYRlbHSXcf7ocj02eJdv8GYQfEA==" saltValue="g6DFbWt8xyANZwfv9Q9ORw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0MLw61KIe+3GAOV880K6lXeOUNxhRlqlu3J1NEppR0WmuYj5pVIRZjSyz/QNyaPe6f4CdJE6nO40tdkJTuAIrA==" saltValue="AaekunHibYdYFza6uj1C6g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18752,7 +18752,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEp9X2f+5D3exf3WGKCPcqEPzD9qyHbPPDC/141tXn57t6YbJwq4xCc875wgnS+pFcuAVk+DHfJA1T85PbZKiw==" saltValue="Nng1/kMVfhjbgUWWAxaclA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UMyA+vlsdi8HGdy8DmWp0hPK6nLC8PknB412/uK84dSuFK9Z5uQwql4lVdCXw1aQMMdcUn9bTkOYxqjnlj67VQ==" saltValue="3oZmHxCCUvJIQemDUTsqeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19189,7 +19189,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VkrsZxXeZCJdgRyBe80Ff2UTR6nrwS8hxhEhKXIxeT/nXJafJnvD1G77oN2gawuwiQEhnNMN+F8RKwmyqURoiw==" saltValue="gakv951ll3Rk3mq+1h3Ehg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p/Nh7vggbG3Y+TRD5YR9b4VtsGPZ11HN5Fm+MYOvnHo5IZLAWDYc1n4DBp6ANeJlHFTldAXEEAHAJ8mG+E46Zw==" saltValue="Q8Qw0vwx5n5yzAQ5LL7V9g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19616,7 +19616,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u2TxrXSHus3Nl/pUNnOMM6hlZmECIb9DM7KQ4Yc1oQ3/4HtooOX2JPJTcjfLfOAoIVzALtkW7f5X2ZZowSklVA==" saltValue="3T54UguLWyw7A1ePwuA+Qg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IHmv1tgAD2liFvPP9wvMc+uTWPx6dpypJBMilz8WYhkry04hm7oruGoRyRYRct9sqSbL2s96OMau19ydSq2dnA==" saltValue="vrv3kAECRJPVtedaSnTg+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19753,7 +19753,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RpkWVg+29bDLc7TJuTkJEWQiM04ZlCVOiwB65kJ3o7MPhobZVMxrP7aM3tDtz8+27ZhqbAb5hJAPB4f9n8D/IA==" saltValue="/xQguvBvsyi3adMQXVhLXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Eh+7E7jB8tepIrSnEhaL4re/zxuxIhq/P0HvYUBg0WplzvdjwD/vILFpC/OwCH0tu4gYcww707EgI5DXHRH7+Q==" saltValue="bvh+NiWRBLyLKHvj4e9Dnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20068,7 +20068,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i1+BFsLwBR3AjgU3j9xd9r+Km0DSJ6kTwT4BG2GCo/vXO4Fcj2rXHsopyW5FQM2xy5rZY58ewwrx+SzkZnlDBA==" saltValue="F8MoQRL78G/c5y9BO32Qaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aftWCkIPURZcRKP7TGBZrbVrJifssrDay4JlQ2cpKpiGTPdeAxjf1+jALS5vjvsXMrKXpiM/r1BmwDg+7vL1uA==" saltValue="1/3JU3gE8aD6GqDaduFojw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20346,7 +20346,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lq17cPiJycPF2PjtwTpEvQs9EdRflkhe4t9m+Qa3PVX65LE/0Bdw0MEj3K5yg2VZwmcEctM02EuXTsazHNp7/g==" saltValue="Wyw8eKv3E/jc0L5uw7bs+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wiXw7OoEjbC4PFjw7J9Y0HU+uzG5JzVDuQLqLAS5eDi1awVIVjQO/Z2UaijNTdVq4heNsYhh4MBwmxNRojJBrA==" saltValue="ymLbZaf7V2ciLoowIdeFAw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20410,7 +20410,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Js64OsA2rgMxVHYcfwU0XAiHO5QXvIyoDwOtexVFeSpshgPrFuhDM9Avwlbvpqbc4pDOOwh/VaKD/tdc3rgXNQ==" saltValue="p61lSkqT/oVUTAmsEFmU3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AgPhJofBoPMAUC7JW6wEMDghVgYk80eMiyIw+jEMT1E+7O1huVndNOKT9afuoUVFEXcXno7UrUAEoVBp8CIC8A==" saltValue="MAIhAtbN1sK2/8nWcDUubA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21088,7 +21088,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c5meNxmdFB4yd1iES9Pw2oK7PKwp0agKeN8YnrbCUZzKFvm86zjV0D/ert6a0TGKdLh1WlvhxVNB7pfYEjhu+A==" saltValue="HC/aiHJ8bvdc1BYoHNM22w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wxkdf50LCmzGXHLJSUIC1/gv8hO/W72Eb60wgvSCq4Ar3zCnd95p6ZTsDER+7Z8n29b3YgeZgdD/LdQhBpZCkg==" saltValue="NdYzo+plsSsfxgzgpEKvRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B914A1AD-A8DA-4DDB-90E2-43E31F85B96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB71EE43-9599-4F85-8FB5-E998A85E741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,7 +510,7 @@
     <t>Année finale</t>
   </si>
   <si>
-    <t>Données sur la population</t>
+    <t>Données démographiques</t>
   </si>
   <si>
     <t>Population des enfants de moins de 5 ans</t>
@@ -1056,7 +1056,7 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
-    <t>Efficacité</t>
+    <t>efficacité</t>
   </si>
   <si>
     <t>Retard de croissance</t>
@@ -1146,19 +1146,19 @@
     <t>Anémique</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque relatif des causes du décès par mode d'allaitement maternel </t>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Mode d'allaitement maternel</t>
   </si>
   <si>
-    <t xml:space="preserve">Risques relatifs de la diarrhée par mode d'allaitement maternel </t>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
     <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
   </si>
   <si>
-    <t>Avec retard de croissance précédent (HAZ &lt; -2 dans la tranche d'àge précédente)</t>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
   </si>
   <si>
     <t>Diarrhée (par épisode supplémentaire)</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ItTPOnai8k70r9wmkcKOCXYm4O5edz8bncpWK1apn3N29zaU7L5BSAWR4O4/jbMnZnGROVNgOTd7Ewy5W0g8gw==" saltValue="7sjQdj/Lk7vRDxjJ/LOlkA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2uZaPFnfbvA9mgG8q73xrieLM+klJwKKPJpiEibVa5X/ea4+3H0giNQUVG4XUXZO+6mrfvylyBC2xrDA1+P9xg==" saltValue="pYILbg23mBko2438X1ubZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wJYD8dS0MzPvipLOYr4p8zqNuF7lJlD7Be5MDs0sCAHcMa7CLJsqui1IQ/P953AO0yK0lExT5HvATnTzysBWxQ==" saltValue="KmObTfdqunv+k6oD7TyVWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y6lUPHta0jDYRnKcS5M3/L3v1EDZkYusG66XZX0pu92cSflcQ7eSeYo59EOy+1/D8HXCNvIH+07r0kdSRI+G8w==" saltValue="PDrmHUmihKSxdmebi+lOTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g+fA/QlZdZbTGMj681btiIQ9fHVee/q2dxIzjIPrXpLBOM7tFVp8qMrEa8oH9y7IObHKWJ6gZ7du3WaKQ+xOoA==" saltValue="+fOFTA4B6caSWAlEszsQ+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z6zsCS4vJLlvWHzB9cCLMMvFNNy5IjW7eDM2v43B/b7d2pDaN0WF885yV9nzFkfyGzl0mlWLzNqn4w+Y/V9qsg==" saltValue="EWKKQGQq1SRRWBcjehzhlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E2AO3jJBqLnhDu8mx6NoiB/RZzoFfd8UP6MOfaXAfNDEO0H5w13Un+XD3lob2kuvDEkxHIiIimgNBhO4Cqpyaw==" saltValue="K7ZqX7egPdEoOMagFf9GYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GVAT/oF0Wj+5VxveDnzc83zqVQzcSEgYYgqOL3pcZkCcxx2ONnx1x3g6fZTa5/kULLOMsekceOb3XdZCR6P6Yw==" saltValue="AwVq79eclj5gWuw2UzNuFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zia0jLBJOzZuPVkwX8U+dI/ecm10OpgTDsakEAy7sSgEAqNlx4Hr9zgac8I4V3059tl+xnmcHMeDPM5ixUeZBQ==" saltValue="zRP6vi5YIx/WII6XaruLdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qMarG7wH++kbT6FXrlr4S4wn6aZlw+qHj2YFcMbqZYvCfbJAuVmwctryIo+P199O2khMbE/LA6h/W66KYDTNDQ==" saltValue="hI96c2KsJkAw6Ao9B+JVzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1EZu1K1ytDzLWuk6Kctq2tXjPPIRNeMa5Sf4oVOQNnvtlSAq4eu3lqGPwh1G2HuSF5/Q7ORzTJFKmw9DSqgQqQ==" saltValue="wP3YdOL4h+B+z/JU2hpufA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CKbvfUTeBaX/NEwd2588tA73YrFLgDNctsa99lpSYyXbgxpowC2xq9W3ms+zIqW6OtE5SPPSV2d/ly4xW+gBiA==" saltValue="Ay/pe7ZyX1TbsVyb5b5BtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v9zlbeg0snhho7+caI5Rs3AXM21Y+Ay+3sQ9PKiJFN+hoLq+yf7eXEGJxKtKI5T88m0TRNMPvkAvk70+PYEGdg==" saltValue="mmMUDUb7TpCXqL7+giKQwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+jcuZY5+7eOME43A5hFQmINmYBJ1S2TU5gopUtWrgoOy+yZBnSyFM6nC1J7PkX7Y8zlQzCOWykQiNgqG61XnmQ==" saltValue="zEjP+OzHZjeqMca+qfE+5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mg6E30RKLWf+6puhAWdOHP+EOh7qdeAr/0N4Bz+wZ8oXb5/5c5pL0J8f0zVKYk1sMmSLSMdi5Has8bF4r165ag==" saltValue="YN9PIaPBsWL7eWsCadIFDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bmyDy4pYzGn+1fPTwF/sLfDjBQC2GBn0e0KJYF6lQLCjZTmf8ARMO0w+LfzHJmGYMVmzfd+xCyQpDhNvhkfLXw==" saltValue="uVJtI04gzftKaYiTjLIUfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ibuvxkWFRUpm2ROPOrNwZa1Dh/Cx+kbk0JwRlUpTHwKHhc1CRgubA8IoJtTbSefMpe1R63HOnQCUk9bVBjWcyg==" saltValue="EUghTPwOnuRpo+Z+wEObtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="orwMuhMVQkoDn5FAqP9jZH0Q09xupDZl4UjRU2OQJD+EFwCFVrSOZ8tO2LWzDKxtGH6RWjLZe6bpA1YfUOQNxg==" saltValue="yk2INGBNgNnnuwmnE01FqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="znhpjExCctuDxQKTP4PsGqsTIDFPoxzbBr0//AR4z6/Cia6sQramfC+LPTyyHLOW+hzVvbD0g2SBmyFQ1uJZ6w==" saltValue="e2AmTU9NXrQLwJZI3Afu4A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r0WjsPuxqzKVKL6Ttoh+MsWmqRXn+LXb7vRtSw/0SUJ5xLZrYsRQp3ll9fm5ryKrMnnZSzEJEl0o1Su5XVp3nw==" saltValue="SwreiIMTILSow+jUE9U1HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ms88LmxeqWyo10yq4zQS6g6yYxzgV5ZYJLQQYir4Smm237nw/DtWbAkVt9lITPNjoHEOIVtdvq8NT3aKEb8MBg==" saltValue="I3j5e4eycB7NodYvc1obvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pQybb9l+6ZS+nMR3Wl/3yh9KR/E45l/tMIKzWTQAmOETZ+X9JxujS8yd1LZbOVQNH+myGswCsoKqj00fc20G/Q==" saltValue="u7C+pnurK9Vo02eidZQQ7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mEDAPQDaYkkaHpgajGTOgeWsX+cYE6ltQmtjEyQn7xzOkJ07dYuXske4/aiy82AqnLYFJJiWyMmCloq4eqTtVA==" saltValue="nImO6ekdGE0n5CzHqvUA7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u4xL4gzIk4cAgmEQvloBmWqCICE8ol92kzooRkny1XyZmlyg/HDhOTEuEdqfOfn28/7aN7R+yRl1d6Xx/6VO0Q==" saltValue="Ex5QPoMHRWCQA8Vl8jU2YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="prRjyBLSnumgIrDgtSPcCN6pMzAaz0t8aU6EBDY9q8ynP+0tpteSncaeLoOOm40smLdxhnLmfpVAwWk1BYWicg==" saltValue="x5zL0UIJcSCXr4dro1O1lA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bgc3F/etWq/5ARGwVcX9y3trVdcFDQ1J9o6NkMecbSdj+vc1ndOpfUINvO1gNlGJh8KUN32b9gjmMhhlRyKMDA==" saltValue="jiH4SxwZboUykZJ5M6z0aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+GWSlO5Ip7kmlTOWnSImx1yQJnCtNXt4I2uTWqYdnFspAL8g32Var1adhSB13z8Ft6uT/4iceqlnUPI87RQgbw==" saltValue="vmwskvnzzLTvwQQDdwGB5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZRxlx+BiDYQoMoEVmFu2g/+IivDjJZrQ5NGzZZ1qud1eVh1p5CGFvx3bRN/qHmlKT4zOxO7GvT9tTuECR4lWnA==" saltValue="J/cVg4SnZvr46HJe73NVLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O2PaSmsijsH+eTDQtc4Ag35ngyt2XnTe/C7+bixiHwwo7MJbNw5KYTvTHPncWpY47Qa3j09hptx/domF+OLHow==" saltValue="qT078EJIFg2flj2F6QcrCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LqX6mhI/iUMk7XU3CvnTuMqjU+3t/dq62gfKIN0RKiSzdPABMx6a4wYQjtqNS2raBL1ThnYjIIMwEUl00c1whw==" saltValue="O1y02jMs9ytcCZjfTu3EjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l8Wy2srJNRu3ajuRSvMgtjZfeFM+m1X7sZVfTo7treAMzW0x1sTtxEJQjAIC8pmnBOztttGb/BJwil/NR5vsIQ==" saltValue="aeyfNvaDFWZ27Fje4lX6iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vToZUWnJrE6WlgcKQt9iVZ+WWqEQChthwXQblbMTgN/3tMNqytL3ozy03gXuw9kArJykA0hNNGoGDuRDzKj8eg==" saltValue="zCKttRbB3QfzEba9JFt9WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0vuoixomG8EE++8lpIZM28aegjwos/Tmk3A8LTMrACXhLO09ydU1cvFeH54OK0ugbQOGkAHlWKFD3pLwsCWWDg==" saltValue="nj3oarInXPsaV8qu+/7+Rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="syOXBEIQElGrWBBdgr89SgXUVkGrxe/BIbclRGDj3flLNZaBW0APDLS78bEUNCwdnhj4DK9aqmA0kp1Ud9AbJg==" saltValue="ZLEVImxKgcYlAI8GNwa8JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RJpO2SqEym4FmGIvcBkMdEBStPmzTWD/63aFpSz1S66FR3Bm4k2T4567kCDsTA6xbhVqhxREYE4E1CuC9gP/Fw==" saltValue="m9iqXWBhr0xWbnfErwwiUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mIa9/IXWKbMvaA9qwF1yKDW4MWpx/spQEZF83fP79TUOW4cn0QQ1wVp73UqHMuufVOMBkNWg0/CPcon8TyaFUw==" saltValue="nyhoe+q4x+VFrh+Rn+raQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L6hvRWyZg5NAdL6D3uSsoN3nlYzUgdJc5V+vDZo75AZ3HAI0poQDbsOSN+59H86v7D/bduSgGjTH0Qpl1x+LwQ==" saltValue="H83PGADEJjU4zo3B8eUhHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9JbJJbP9o6leV6s3PNq2YHOL5QdKvGzQDcX9doYs2fu876tg943jiC+nNCE187qKQBaq2m4O3FcWUzoDC74XLQ==" saltValue="5kdiXOj54BRVFdmMHU/NCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YEQrvEbuRD2+fkl4c1RXMtSTy/+IjC7mJH0Ag60aS5Qu5M+EhDgyyX+v4TFhwC1nwBEWMKRZuRKy/W3nokvtgg==" saltValue="BxKfUt3mcypPg+cBjDjPMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QWcdeqeEnz+GqVytyy2+ZKSHvLRn5SVSZ/niaE6jck4PaEnqoo2DK1M+cpPYju0WOwgYUroUs5OL9EBz2tRjDg==" saltValue="t9kH7YUxOUIN49rnNAI7XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/EXfbqFta9jzxby3ZqwHqLiPbE7Ir064J9P/S+DT7W4/3hHtBVed9UeQyd3aJu5fat8tyaxipAyTGmSD8j/tvQ==" saltValue="bykkvgy1JLbW3fSb+F2Y2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l+FrCUh0ECuC21iNpsiI+IgD9SpmjrNdOCcHKt0nDxHZ6xAWfhJnTEJM11gP/b1dLaZrIzx/QdGcDLMiiXa4Mw==" saltValue="PqcVsA+6A517RZOt6ACUBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sxFku76tqQZR2M3/j/f+A/EY/hEJzRfy/mK4K4yaJjmknLXAuINHG+EKSRHtc96Lh/3XBscti43GH4O2lsIZdw==" saltValue="ktxaNeoW4IIL3G3t1QpMZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="03XoqK/FzBsEKrlGqtKxmvTDSretgVNFen42jwBUQtjoBYN+WFA9V7ELu1nRc07vK/jGEAagWda9rFvH8sjC4w==" saltValue="2FPFQWsvGhBBB2KZ7DWYDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VM/h39dkRMUdpF/A9HWfG2qeYD4cxoU6EJ0BdurFBJloxibB6QSJc1/fT6tyPU0c3QIiZJWYMq91agphaCDe6g==" saltValue="KP0l5eeTLXAqIfb0OU+cNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M6nX9yMDOpgiAXJEz50c/Op7CZgoWWAKjHlCHLT9cA0PehX6Q+cuPhSRuWpTGpv0Yp507a+rkesCPuwr5gDUew==" saltValue="OiLb8PGXy+pgg+HeX3UaVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+MbcgA1+bws8It+lRBiTXCCnRfy7ReLHyBlX+ZMgzCSwT2MEtx4mJGLFeO8IMiSIewHC8wnD9kMBNKevYmPHzQ==" saltValue="YXNrC5g6H0qqqyounhmoxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gz4UwRSTPuc7rSR5vPFBfQ59ck36sxypC9wWWoU0eg6wJMj4ZKHtFzxMk+GVZQ7K2MaXFKcX/1+Efcg+x6k8+g==" saltValue="eHxSG1JNvcKeWSLvRm0T5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20331,7 +20331,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="81QWG1G20g+/rTF+F+NBH39wnlDA2O3/yQCwydlQZkaQCL67VGde5IfBEh2CLac9Hvv2OL7V+KHqapaGSmK6Jw==" saltValue="kU3Oea1qGNQICIqp3yhmGg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AMAeA1iGHdxz37bVbbB6oR06ksY8t4TTcbN+Yf6QYPTOEy5HkSvKbwiMdGAI0eVc5A2UHuH2MUf/fwweYjNgFw==" saltValue="0o7YK3Xp7m8BvL26vfDSdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20395,7 +20395,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kg6DQsA6FpM643IQgRkNnePtBHR1PBT0i8vrK2LYlKpnaa1NsEKG2eEDhU6JgAIc07bNZOrgHGRZ06gnYWgKeg==" saltValue="Oh3LNRpP7cc+GP05GfkqeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tHcgN+T6KFxZWcsSji8nbQScsH6QvKhIE/Vy6ct6NsKPi9F2h0JKyXSoFaY/f2hJFeN05JG5fQppFRAz+eBwUA==" saltValue="X7zQskwmyBu2aY+F4oH8hA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21073,7 +21073,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GlwAZzPJnvy7InP7/f9f4+iizagUiLmp7HnCXDlD07FI3V83qn6oD/yZ2JICFe0KR3uCKSOMLdraMCClU025sw==" saltValue="ja/dLuo1aGF93CMUFduexg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dJt122Tond7P6Jkb6fkqxGvqayZfSVAV/ce46lpxSdRxCGysF0lcDz0NuYj4st08JFox3gNx9T63sLVNdy5Rgw==" saltValue="uLKG806Cy1LIL0B+O6cn8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB71EE43-9599-4F85-8FB5-E998A85E741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A30C85-B2C3-4B25-908D-52D31E288D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4738,14 +4738,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -4756,14 +4756,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>31</v>
@@ -4772,7 +4772,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
@@ -4781,17 +4781,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -4847,17 +4847,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>48</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>49</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>50</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>51</v>
       </c>
@@ -4938,18 +4938,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>53</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>54</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>57</v>
       </c>
@@ -4990,20 +4990,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>60</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>62</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>63</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>64</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>65</v>
       </c>
@@ -5055,16 +5055,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5103,16 +5103,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>73</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>74</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>75</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>76</v>
       </c>
@@ -5153,12 +5153,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>79</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>80</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>81</v>
       </c>
@@ -5190,11 +5190,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2uZaPFnfbvA9mgG8q73xrieLM+klJwKKPJpiEibVa5X/ea4+3H0giNQUVG4XUXZO+6mrfvylyBC2xrDA1+P9xg==" saltValue="pYILbg23mBko2438X1ubZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0zPB+XUvBEfG+irzL5FHdYxwXPPZTCgdbM1R0TItAJFwAmJj2d7tlcyyz9aF7we7uM2egAnJZ6FhrDBmsFGBkw==" saltValue="tNyYb1JlWsW5MP3lUwDGMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5211,15 +5211,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>184</v>
       </c>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>185</v>
       </c>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>195</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>192</v>
       </c>
@@ -5266,83 +5266,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y6lUPHta0jDYRnKcS5M3/L3v1EDZkYusG66XZX0pu92cSflcQ7eSeYo59EOy+1/D8HXCNvIH+07r0kdSRI+G8w==" saltValue="PDrmHUmihKSxdmebi+lOTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JFPGaycQUKclkEuoCvywmaj9TFDGWrhQ0Nf5luXK5ZvCoHM0Xm0juGqh6Dyjd7H/a5MpKI5CRJIJAQrmNYmE6w==" saltValue="3zLFyuofOVF3fpXN6DqI5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5360,89 +5360,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z6zsCS4vJLlvWHzB9cCLMMvFNNy5IjW7eDM2v43B/b7d2pDaN0WF885yV9nzFkfyGzl0mlWLzNqn4w+Y/V9qsg==" saltValue="EWKKQGQq1SRRWBcjehzhlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XtyqjN9xDvrzMKIsLRy3YJ7Ln5hPSH+1uJp9YcYB4ixfAaaSipgwdm9K/dMfL/u6DCl9tMr6YPmvV9C03LXsCw==" saltValue="YSJ7xZfi2pzT3wU3hCe6MA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5459,9 +5459,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>101</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>209</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GVAT/oF0Wj+5VxveDnzc83zqVQzcSEgYYgqOL3pcZkCcxx2ONnx1x3g6fZTa5/kULLOMsekceOb3XdZCR6P6Yw==" saltValue="AwVq79eclj5gWuw2UzNuFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IYgquxVPlpd4o6DL7XkmdhP3kkSq6fDxXl0AEybn42YfPE3F/xi+k954v5L+t2jr38vpbF8fZgaMBojIM98Fww==" saltValue="R8MV4lpiDsNMkB3v95wLEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5574,19 +5574,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>175</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>187</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>192</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>194</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>195</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>165</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>196</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>202</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>203</v>
       </c>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>173</v>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>184</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>185</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>190</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>193</v>
       </c>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>90</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>180</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>181</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>182</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>183</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6779,7 +6779,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>210</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>178</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>179</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>186</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>189</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>197</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>198</v>
@@ -7137,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>199</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>200</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>201</v>
       </c>
@@ -7269,11 +7269,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qMarG7wH++kbT6FXrlr4S4wn6aZlw+qHj2YFcMbqZYvCfbJAuVmwctryIo+P199O2khMbE/LA6h/W66KYDTNDQ==" saltValue="hI96c2KsJkAw6Ao9B+JVzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="filRvWCmxheah21enPJMO/6A2RBzmUzQ8Rz6IYFg7JSjMALtjpjfUllovkLQWvw/1j9ogVKARG7i7CgjAMJz+A==" saltValue="AAHcKfI6Hq0fkU1eyYKjfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7288,30 +7288,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CKbvfUTeBaX/NEwd2588tA73YrFLgDNctsa99lpSYyXbgxpowC2xq9W3ms+zIqW6OtE5SPPSV2d/ly4xW+gBiA==" saltValue="Ay/pe7ZyX1TbsVyb5b5BtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EEGUadHQvw8d6rUSITsvd6OlvNPpJPRzI6o9CKJUHHq7tneGoHKMTJvQue9sG+lEmd1sgbS6uMn41J2VkJ09Yw==" saltValue="S3w8AdZlue6DfyKwHtcikA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7327,16 +7327,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
@@ -7515,11 +7515,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+jcuZY5+7eOME43A5hFQmINmYBJ1S2TU5gopUtWrgoOy+yZBnSyFM6nC1J7PkX7Y8zlQzCOWykQiNgqG61XnmQ==" saltValue="zEjP+OzHZjeqMca+qfE+5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iTtFIORO4HDZh3RUTIyHPV7l5nJaGyiYPKeHCKdaEBEgp6hO+zlGNxQZ0Teh7Z0zG2BKzKHA+WpmfS2+Zuyb0g==" saltValue="2IcX2K6vug71VIw0bTdQ6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7537,20 +7537,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>211</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>100</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>19</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>23</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>187</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>188</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>192</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>194</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>195</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>165</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>196</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>202</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>203</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8232,7 +8232,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>114</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>173</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>184</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>185</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>190</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>191</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>193</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8604,7 +8604,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>90</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>180</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>181</v>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>182</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>183</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8845,7 +8845,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>210</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>186</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>189</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>197</v>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>198</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>199</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>200</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>201</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bmyDy4pYzGn+1fPTwF/sLfDjBQC2GBn0e0KJYF6lQLCjZTmf8ARMO0w+LfzHJmGYMVmzfd+xCyQpDhNvhkfLXw==" saltValue="uVJtI04gzftKaYiTjLIUfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eIOWk14mP4E96n4uFrdGN1pvnosepBtD+BOcHUYr0bWEi0Pf21ITdllKN7HHLerc1+Xz/EsbmfAkp4xgCXqxDw==" saltValue="6G8OE9WNqmn0OKRiICN5yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9306,22 +9306,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -9462,7 +9462,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -9568,7 +9568,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>184</v>
       </c>
@@ -9587,7 +9587,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>185</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9627,7 +9627,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -9682,7 +9682,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -9741,7 +9741,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -9811,7 +9811,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -9847,7 +9847,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -9866,7 +9866,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -9921,7 +9921,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="orwMuhMVQkoDn5FAqP9jZH0Q09xupDZl4UjRU2OQJD+EFwCFVrSOZ8tO2LWzDKxtGH6RWjLZe6bpA1YfUOQNxg==" saltValue="yk2INGBNgNnnuwmnE01FqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="umQ5hpvEivK66+UwUakBC4Y7asai5/FL527gSqEi0E221o0B40qTo+aq8KfvHf2rZKXAvP7tfr4A7JAOFNts1A==" saltValue="FEwPZPBZomzGtnaLh4LOMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10052,22 +10052,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>123</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>110</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>111</v>
       </c>
@@ -10189,7 +10189,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>112</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>113</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>136</v>
       </c>
@@ -10268,7 +10268,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>137</v>
       </c>
@@ -10289,7 +10289,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>139</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>85</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>86</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>87</v>
       </c>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r0WjsPuxqzKVKL6Ttoh+MsWmqRXn+LXb7vRtSw/0SUJ5xLZrYsRQp3ll9fm5ryKrMnnZSzEJEl0o1Su5XVp3nw==" saltValue="SwreiIMTILSow+jUE9U1HA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+Idu4BUdTTHim4QlXtYb8u/nDf3e5topaq3J6q4egrK0KwzAHwP1NhPfrScVNDa9DDYAslShXiRm3rtxTTNOuA==" saltValue="2b/U7YI3qpRXDo0yEQvmnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10426,15 +10426,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>221</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>222</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>161</v>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>162</v>
@@ -10530,7 +10530,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>123</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>161</v>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>162</v>
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>110</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>161</v>
@@ -10640,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>162</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>111</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>161</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>162</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>112</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>161</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
@@ -10791,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>163</v>
       </c>
@@ -10814,14 +10814,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>223</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>161</v>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>162</v>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>123</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>161</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>162</v>
@@ -10954,7 +10954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>110</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>161</v>
@@ -10998,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>162</v>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>111</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>161</v>
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>162</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>112</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>161</v>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>162</v>
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>163</v>
       </c>
@@ -11172,14 +11172,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>224</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>161</v>
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>162</v>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>123</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>161</v>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>162</v>
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>110</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>161</v>
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>162</v>
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>111</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>161</v>
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>162</v>
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>112</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>161</v>
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>162</v>
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>163</v>
       </c>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pQybb9l+6ZS+nMR3Wl/3yh9KR/E45l/tMIKzWTQAmOETZ+X9JxujS8yd1LZbOVQNH+myGswCsoKqj00fc20G/Q==" saltValue="u7C+pnurK9Vo02eidZQQ7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m8Ndr720MttUv0oBdv1jv0bTMEBWkn2JkrVaV3WckCaQ8TC3kriKiz1ukZPDZ1opr+OViHnXCnk6Ngdhzaikqg==" saltValue="BVWQw783WEVtuv4eO2v6GA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11565,14 +11565,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11634,7 +11634,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11667,7 +11667,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11700,7 +11700,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11733,7 +11733,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11766,7 +11766,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11799,7 +11799,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11832,7 +11832,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11865,7 +11865,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11898,7 +11898,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11931,7 +11931,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11964,7 +11964,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11997,7 +11997,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12030,7 +12030,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12063,7 +12063,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12316,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12454,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u4xL4gzIk4cAgmEQvloBmWqCICE8ol92kzooRkny1XyZmlyg/HDhOTEuEdqfOfn28/7aN7R+yRl1d6Xx/6VO0Q==" saltValue="Ex5QPoMHRWCQA8Vl8jU2YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uhJdgIbP2gZx3DRVS4KVEt5B/jhdvfHfwEcqOZSvwfU8vpyVC7xOpw5Awn5lWZsH9iW78z5Y7FdkQU80Wl+CSQ==" saltValue="9x1VP0WUcXtAerr0vhXIUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12661,22 +12661,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>70</v>
@@ -12691,7 +12691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>226</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>53</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>54</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>55</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>56</v>
       </c>
@@ -12769,13 +12769,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>233</v>
       </c>
@@ -12793,14 +12793,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>227</v>
       </c>
@@ -12810,7 +12810,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>228</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>229</v>
       </c>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>230</v>
       </c>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>231</v>
       </c>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12883,7 +12883,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>232</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>92</v>
       </c>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>93</v>
       </c>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>94</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>95</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>96</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>97</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>98</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>99</v>
       </c>
@@ -13034,14 +13034,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bgc3F/etWq/5ARGwVcX9y3trVdcFDQ1J9o6NkMecbSdj+vc1ndOpfUINvO1gNlGJh8KUN32b9gjmMhhlRyKMDA==" saltValue="jiH4SxwZboUykZJ5M6z0aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g9KuKEU6RFGionYdwuKbcY8Cqg4DkV/60dnulCFGvrqIwCtJvqh9kkcPzc9S4lYM3b19XYW9EbimD9lS67Y5MQ==" saltValue="OrlJdN+du7JthekmhdhU5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13058,23 +13058,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>216</v>
       </c>
@@ -13108,7 +13108,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>101</v>
@@ -13140,7 +13140,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>237</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>238</v>
       </c>
@@ -13196,7 +13196,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>239</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>102</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>237</v>
       </c>
@@ -13283,7 +13283,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>238</v>
       </c>
@@ -13311,7 +13311,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>239</v>
       </c>
@@ -13339,7 +13339,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>104</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>237</v>
       </c>
@@ -13398,7 +13398,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>238</v>
       </c>
@@ -13426,7 +13426,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>239</v>
       </c>
@@ -13454,7 +13454,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
@@ -13485,7 +13485,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>237</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>238</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>239</v>
       </c>
@@ -13569,7 +13569,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>103</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>237</v>
       </c>
@@ -13628,7 +13628,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>238</v>
       </c>
@@ -13656,7 +13656,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>239</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>109</v>
       </c>
@@ -13715,7 +13715,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>237</v>
       </c>
@@ -13743,7 +13743,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>238</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>239</v>
       </c>
@@ -13799,12 +13799,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>26</v>
       </c>
@@ -13838,7 +13838,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>101</v>
@@ -13870,7 +13870,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>237</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>209</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>208</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>102</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>237</v>
       </c>
@@ -14013,7 +14013,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>209</v>
       </c>
@@ -14041,7 +14041,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>208</v>
       </c>
@@ -14069,7 +14069,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>104</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>237</v>
       </c>
@@ -14128,7 +14128,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>209</v>
       </c>
@@ -14156,7 +14156,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>208</v>
       </c>
@@ -14184,7 +14184,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>105</v>
       </c>
@@ -14215,7 +14215,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>237</v>
       </c>
@@ -14243,7 +14243,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>209</v>
       </c>
@@ -14271,7 +14271,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>208</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>103</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>237</v>
       </c>
@@ -14358,7 +14358,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>209</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>208</v>
       </c>
@@ -14414,7 +14414,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>109</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>237</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>209</v>
       </c>
@@ -14501,7 +14501,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>208</v>
       </c>
@@ -14529,16 +14529,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>135</v>
       </c>
@@ -14566,7 +14566,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>115</v>
@@ -14592,7 +14592,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>116</v>
       </c>
@@ -14639,7 +14639,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14661,7 +14661,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>117</v>
       </c>
@@ -14686,7 +14686,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14708,16 +14708,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>142</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>92</v>
@@ -14783,7 +14783,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>144</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>145</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>146</v>
       </c>
@@ -14867,7 +14867,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>93</v>
       </c>
@@ -14898,7 +14898,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>144</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>145</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>146</v>
       </c>
@@ -14982,7 +14982,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>94</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>144</v>
       </c>
@@ -15041,7 +15041,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>145</v>
       </c>
@@ -15069,7 +15069,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>146</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>96</v>
       </c>
@@ -15128,7 +15128,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>144</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>145</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>146</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>101</v>
       </c>
@@ -15243,7 +15243,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>144</v>
       </c>
@@ -15271,7 +15271,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>145</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>146</v>
       </c>
@@ -15327,7 +15327,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>102</v>
       </c>
@@ -15358,7 +15358,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>144</v>
       </c>
@@ -15386,7 +15386,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>145</v>
       </c>
@@ -15414,7 +15414,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>146</v>
       </c>
@@ -15442,7 +15442,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>104</v>
       </c>
@@ -15473,7 +15473,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>144</v>
       </c>
@@ -15501,7 +15501,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>145</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>146</v>
       </c>
@@ -15557,7 +15557,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>103</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>144</v>
       </c>
@@ -15616,7 +15616,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>145</v>
       </c>
@@ -15644,7 +15644,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>146</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>106</v>
       </c>
@@ -15703,7 +15703,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>144</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>145</v>
       </c>
@@ -15759,7 +15759,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>146</v>
       </c>
@@ -15787,12 +15787,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>101</v>
       </c>
@@ -15826,7 +15826,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15856,7 +15856,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>144</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>145</v>
       </c>
@@ -15912,7 +15912,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>146</v>
       </c>
@@ -15940,11 +15940,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZRxlx+BiDYQoMoEVmFu2g/+IivDjJZrQ5NGzZZ1qud1eVh1p5CGFvx3bRN/qHmlKT4zOxO7GvT9tTuECR4lWnA==" saltValue="J/cVg4SnZvr46HJe73NVLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eJt0YdEf90WYTwL9pb/mB0dGr584bX+FzgEvxjXJ9W3xrJ/LycykI8nqkhMxVWRwSzdeE3TwepgqiGX30uD3lA==" saltValue="NW9jcYxWxUoLl1N0GXdsUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15961,24 +15961,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16040,12 +16040,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>195</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>188</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>203</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16113,12 +16113,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>187</v>
@@ -16139,16 +16139,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>26</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16192,7 +16192,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>135</v>
       </c>
@@ -16215,13 +16215,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>176</v>
       </c>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LqX6mhI/iUMk7XU3CvnTuMqjU+3t/dq62gfKIN0RKiSzdPABMx6a4wYQjtqNS2raBL1ThnYjIIMwEUl00c1whw==" saltValue="O1y02jMs9ytcCZjfTu3EjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C8eqxJCltbVzHbjn8nhgm9dzYeajTl3OTUFTpxgoQeG81XhwxeaRF8Uv6gkMvmcAkLDAlPLi0sov2UYs/EFcZA==" saltValue="V+n2ukUKp3JQwucKHpehhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16271,16 +16271,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>164</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>172</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>258</v>
@@ -16336,7 +16336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>184</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>258</v>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>185</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>258</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>258</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>189</v>
       </c>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>258</v>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>193</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>258</v>
@@ -16526,14 +16526,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vToZUWnJrE6WlgcKQt9iVZ+WWqEQChthwXQblbMTgN/3tMNqytL3ozy03gXuw9kArJykA0hNNGoGDuRDzKj8eg==" saltValue="zCKttRbB3QfzEba9JFt9WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wLIQqP5KTKBEvu8bPYhI+FSlG2gthbt/xRY7vQXp5rly3pPHpiEBMUZyt70rGyaHAj6sIvFoBk+c6eOKE5OFmg==" saltValue="AO5dQG+DVVpIT45k9FA+Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16550,15 +16550,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16601,12 +16601,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>175</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>180</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>181</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>182</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>183</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>184</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>185</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>188</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>189</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>192</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>193</v>
       </c>
@@ -17134,13 +17134,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>177</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>178</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>179</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>186</v>
       </c>
@@ -17316,20 +17316,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="syOXBEIQElGrWBBdgr89SgXUVkGrxe/BIbclRGDj3flLNZaBW0APDLS78bEUNCwdnhj4DK9aqmA0kp1Ud9AbJg==" saltValue="ZLEVImxKgcYlAI8GNwa8JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V+IhIbn4x6h0vXKMMhU1cD6qXCZn9JbcFf4MRQPmn4LjWqieqaX+SSGnbCmpPMUdf5wh/yh++0PFgLkB7Rqr6Q==" saltValue="T0y0ATomUgREwVX6HdCyVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17346,15 +17346,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17373,12 +17373,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>165</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>262</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>169</v>
       </c>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mIa9/IXWKbMvaA9qwF1yKDW4MWpx/spQEZF83fP79TUOW4cn0QQ1wVp73UqHMuufVOMBkNWg0/CPcon8TyaFUw==" saltValue="nyhoe+q4x+VFrh+Rn+raQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JSt2jzdxUrCYJPk41mUHZBPQuFmxySF7oI+qlvybtqq6xfHXR5/cO3M8uEGHiVkxyGZ3Cl2NJalhgvYyCydbOg==" saltValue="AjGBJyMoQVF0rnQ33Bb+5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17447,20 +17447,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>164</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>196</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>264</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>265</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>195</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>265</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>209</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>265</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>188</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>265</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>209</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>265</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>174</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>265</v>
       </c>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>209</v>
       </c>
@@ -17801,7 +17801,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>265</v>
       </c>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>179</v>
       </c>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>264</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>177</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>264</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>178</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>264</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>200</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>264</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>265</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>201</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>264</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>265</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>199</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>264</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>265</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>198</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>264</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>265</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>197</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>264</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>265</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>264</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>265</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>102</v>
       </c>
@@ -18381,7 +18381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>264</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>265</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>194</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>264</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>202</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>264</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>187</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>264</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9JbJJbP9o6leV6s3PNq2YHOL5QdKvGzQDcX9doYs2fu876tg943jiC+nNCE187qKQBaq2m4O3FcWUzoDC74XLQ==" saltValue="5kdiXOj54BRVFdmMHU/NCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hy/LXLYrIADdA8KiPMQotGzBi3gMgotIdyHdPv/Oj76THxYpAO+lDIac8CxL+rSqboe1Zkx/bGypO+nB9E9Lkw==" saltValue="OeumUHFCmxosUTbzX7VElQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18577,16 +18577,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>164</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>173</v>
       </c>
@@ -18632,7 +18632,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>264</v>
       </c>
@@ -18650,7 +18650,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>191</v>
       </c>
@@ -18674,7 +18674,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>264</v>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>190</v>
       </c>
@@ -18717,7 +18717,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>264</v>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QWcdeqeEnz+GqVytyy2+ZKSHvLRn5SVSZ/niaE6jck4PaEnqoo2DK1M+cpPYju0WOwgYUroUs5OL9EBz2tRjDg==" saltValue="t9kH7YUxOUIN49rnNAI7XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KOu8Q5RMpevtLEHdDbO9oNYbHKd8qnnNdWXPKZDbQbYn8w9kp4vvZpQRGezDwbe5lHxuNW2FJVkVIy0ANJ/dgg==" saltValue="TkJbqGGav0TWjUfrSuy32Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18753,14 +18753,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18771,7 +18771,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -18786,7 +18786,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>92</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>93</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>95</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>98</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
@@ -18861,7 +18861,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18870,7 +18870,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>100</v>
       </c>
@@ -18891,7 +18891,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>101</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>102</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>103</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>104</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>105</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>107</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>108</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>109</v>
       </c>
@@ -19044,7 +19044,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>57</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19076,7 +19076,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -19092,7 +19092,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>115</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>116</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>117</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>119</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>120</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>121</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>122</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>57</v>
       </c>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l+FrCUh0ECuC21iNpsiI+IgD9SpmjrNdOCcHKt0nDxHZ6xAWfhJnTEJM11gP/b1dLaZrIzx/QdGcDLMiiXa4Mw==" saltValue="PqcVsA+6A517RZOt6ACUBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GBnFt1AVLjc1bRbTtWbiK+sjN/ApooBido1BzCdc4KA3pYGypGJjXQEfiodGK3r5xN/KxfTHTOkFWMDwFxx9Yg==" saltValue="gchr5FetE3zYbkSB6pioTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19192,13 +19192,13 @@
       <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19222,7 +19222,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>125</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.4416184699566299</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>127</v>
@@ -19276,7 +19276,7 @@
         <v>0.36158873254858931</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>128</v>
@@ -19297,7 +19297,7 @@
         <v>0.12964805149617259</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>129</v>
@@ -19318,7 +19318,7 @@
         <v>6.7144745998608216E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19326,7 +19326,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19334,7 +19334,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>132</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19441,7 +19441,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>135</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>140</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>141</v>
       </c>
@@ -19586,14 +19586,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="03XoqK/FzBsEKrlGqtKxmvTDSretgVNFen42jwBUQtjoBYN+WFA9V7ELu1nRc07vK/jGEAagWda9rFvH8sjC4w==" saltValue="2FPFQWsvGhBBB2KZ7DWYDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VHbbfKCIQ1FZRYwqDOx/57SDfIyn/7kkW+dKGI/wmXsAdn2lXyqSkzxdnDY5an4IrVbCjlODfdD1P/6yH+YHqw==" saltValue="VIegPBSCDVZuok1VkX0C4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19619,13 +19619,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19649,7 +19649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>142</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>144</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>145</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>146</v>
       </c>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M6nX9yMDOpgiAXJEz50c/Op7CZgoWWAKjHlCHLT9cA0PehX6Q+cuPhSRuWpTGpv0Yp507a+rkesCPuwr5gDUew==" saltValue="OiLb8PGXy+pgg+HeX3UaVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ai8Oxe0UJebiwRwiLQaxAdB6PVGL17ivFhdTFPpws68Q1+ojZKdgGY93aw5j9nRFiJn6ohXi8qVN46r1+DWwhA==" saltValue="afvFxNma7QSFbAvCCiCY5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19755,13 +19755,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -19838,10 +19838,10 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -19868,10 +19868,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>114</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>154</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>156</v>
       </c>
@@ -20053,7 +20053,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gz4UwRSTPuc7rSR5vPFBfQ59ck36sxypC9wWWoU0eg6wJMj4ZKHtFzxMk+GVZQ7K2MaXFKcX/1+Efcg+x6k8+g==" saltValue="eHxSG1JNvcKeWSLvRm0T5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WWQGWuSI2F9E2X7JE3wGxOzQkAUspmzPDDwIe3LOl67SsAZD193LtEN2yaZOP/XwSTWZZ7x7LFgELzmNwPPp6w==" saltValue="YaLd9ZzLKinV3qgBWpsHtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20070,15 +20070,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>19</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>123</v>
@@ -20123,7 +20123,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>110</v>
@@ -20137,7 +20137,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>111</v>
@@ -20151,7 +20151,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>112</v>
@@ -20165,7 +20165,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>163</v>
@@ -20174,7 +20174,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>22</v>
       </c>
@@ -20190,7 +20190,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>123</v>
@@ -20202,7 +20202,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>110</v>
@@ -20214,7 +20214,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>111</v>
@@ -20226,7 +20226,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>112</v>
@@ -20238,7 +20238,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>163</v>
@@ -20249,7 +20249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>123</v>
@@ -20279,7 +20279,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>110</v>
@@ -20293,7 +20293,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>111</v>
@@ -20307,7 +20307,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>112</v>
@@ -20321,7 +20321,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>163</v>
@@ -20331,7 +20331,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AMAeA1iGHdxz37bVbbB6oR06ksY8t4TTcbN+Yf6QYPTOEy5HkSvKbwiMdGAI0eVc5A2UHuH2MUf/fwweYjNgFw==" saltValue="0o7YK3Xp7m8BvL26vfDSdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="09tf6ZIK5yiSiJHpUus1iOUekBYFbNiGdqMjGa3jNHzY1eBxTD9TL2YVdhRy0zl3cUXM+hTSrPFqxnm1Vgl3Fw==" saltValue="B9yml7yfMcn0lRdNwobYww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20348,15 +20348,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>17</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>168</v>
       </c>
@@ -20395,7 +20395,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tHcgN+T6KFxZWcsSji8nbQScsH6QvKhIE/Vy6ct6NsKPi9F2h0JKyXSoFaY/f2hJFeN05JG5fQppFRAz+eBwUA==" saltValue="X7zQskwmyBu2aY+F4oH8hA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eCRb7jXTeJDVGHXs7JpRh5+UxA0JutSSavZnfHZcx8bkSEoxuvO6w5LsCKbSnNLn+HWzkeiouM+QM5e77PO2Hw==" saltValue="0iksoi94S4aTOxo7PpjvFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20411,17 +20411,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>164</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>173</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>174</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>175</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>176</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>177</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>178</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>179</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>180</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>181</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>183</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>184</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>185</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>186</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>22</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>23</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>187</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>188</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>190</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>191</v>
       </c>
@@ -20847,7 +20847,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>192</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>193</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>194</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>195</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -20932,7 +20932,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>196</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>197</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>198</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>199</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>200</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>201</v>
       </c>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>202</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>203</v>
       </c>
@@ -21069,11 +21069,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dJt122Tond7P6Jkb6fkqxGvqayZfSVAV/ce46lpxSdRxCGysF0lcDz0NuYj4st08JFox3gNx9T63sLVNdy5Rgw==" saltValue="uLKG806Cy1LIL0B+O6cn8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d4nQou66Ei2QQQp/E9XqFMM03GGFJsptwBcWlnnObVNedDsFrFwUnqodt4ctE43aNdrX/VCEvtjMa0ZgIrSjDQ==" saltValue="zWbO5kQIR/4ABj7Md7Bjwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A30C85-B2C3-4B25-908D-52D31E288D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5253B34-9022-46A4-9D21-CACD8C3BBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3480" windowWidth="31215" windowHeight="14940" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
     <t>Modéré</t>
   </si>
   <si>
-    <t>Elevé</t>
+    <t>Élevé</t>
   </si>
   <si>
     <t>Niveau WHZ</t>
@@ -5194,7 +5194,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0zPB+XUvBEfG+irzL5FHdYxwXPPZTCgdbM1R0TItAJFwAmJj2d7tlcyyz9aF7we7uM2egAnJZ6FhrDBmsFGBkw==" saltValue="tNyYb1JlWsW5MP3lUwDGMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vt8gxpP38+eACsUV0uuFcrfTxAqFopyOu+qG29Ji+CGMBQK6Dh7UQ5pqRsFctCscfZMAgsiTIe2XjxvrhIADOQ==" saltValue="nTq9Bh4EJr3QAtKlil4L8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5342,7 +5342,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JFPGaycQUKclkEuoCvywmaj9TFDGWrhQ0Nf5luXK5ZvCoHM0Xm0juGqh6Dyjd7H/a5MpKI5CRJIJAQrmNYmE6w==" saltValue="3zLFyuofOVF3fpXN6DqI5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a3dr/aeG2YJJbL8PiQFIH7YmDr1JhNw07lJJ/U+p+kCef3LHjrzcyNqXgfHw4p8dYWETt9Aa/wLYPmM4L3gxgQ==" saltValue="0tD9jN6exw5UrwsZHF34Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5442,7 +5442,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XtyqjN9xDvrzMKIsLRy3YJ7Ln5hPSH+1uJp9YcYB4ixfAaaSipgwdm9K/dMfL/u6DCl9tMr6YPmvV9C03LXsCw==" saltValue="YSJ7xZfi2pzT3wU3hCe6MA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FP+O9s5xfTh43xlCauA4QbH04HKBwcnSgpm/rSdMZGLFkL0avh/WJ3K5HZwkjPHrCluGqxv5GSLVY7CDhjZwHA==" saltValue="ajKJ+MNse6ZdNFR3Fpkv9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5557,7 +5557,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IYgquxVPlpd4o6DL7XkmdhP3kkSq6fDxXl0AEybn42YfPE3F/xi+k954v5L+t2jr38vpbF8fZgaMBojIM98Fww==" saltValue="R8MV4lpiDsNMkB3v95wLEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZBiHc2Duoqhw5pkh5aQHnA9u1rZFOjOrwmSS4pUBtKGIoRZxJIqajZgjobRKaqGTFQqoXP3c4aT5G/cjceO9/w==" saltValue="J9LuVJV5vMUu0nFJvnhGBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7273,7 +7273,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="filRvWCmxheah21enPJMO/6A2RBzmUzQ8Rz6IYFg7JSjMALtjpjfUllovkLQWvw/1j9ogVKARG7i7CgjAMJz+A==" saltValue="AAHcKfI6Hq0fkU1eyYKjfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QuCPhcbi+rQr6pi+DVftAaaRxmaANLUbZ3vcnC9FjOnAqmOOuxTwrIEHd4IcPcB+lTtQ2Itr7JEegedF3GpS+A==" saltValue="zSeuLhdJrYIPJ78R8U+MtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7311,7 +7311,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EEGUadHQvw8d6rUSITsvd6OlvNPpJPRzI6o9CKJUHHq7tneGoHKMTJvQue9sG+lEmd1sgbS6uMn41J2VkJ09Yw==" saltValue="S3w8AdZlue6DfyKwHtcikA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HX0LIwpp/OD8w9BTmLu6wGDIKR4y/FYvhorAAVLLqOCkw+OJjLhtHm4t8yLrsfEHvt4+A3xiFiT0+djpHM3jsw==" saltValue="VbHrCODU028MD10cef98cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7519,7 +7519,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iTtFIORO4HDZh3RUTIyHPV7l5nJaGyiYPKeHCKdaEBEgp6hO+zlGNxQZ0Teh7Z0zG2BKzKHA+WpmfS2+Zuyb0g==" saltValue="2IcX2K6vug71VIw0bTdQ6A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KyCD7HgclmxNpCBgssl4N3jNeetQSgr8ZatvGsdJhyUZ4jQB0oXdcQYU2LVlEa9KmpupYz6Zs9u4XwY4kchXlQ==" saltValue="bvWDx4xpjaW4BiKiPRPunQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9290,7 +9290,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eIOWk14mP4E96n4uFrdGN1pvnosepBtD+BOcHUYr0bWEi0Pf21ITdllKN7HHLerc1+Xz/EsbmfAkp4xgCXqxDw==" saltValue="6G8OE9WNqmn0OKRiICN5yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nsPqYOHXCNO7FP0iiS4w6ytX/JZeDCwJd0O4HEHOEmfiIvIaY4D1LLd0eECpWfMFoTkK+Wdd4P/COU5nlZ7zww==" saltValue="3EE3uYVRVRasEQEWLKQekQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10036,7 +10036,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="umQ5hpvEivK66+UwUakBC4Y7asai5/FL527gSqEi0E221o0B40qTo+aq8KfvHf2rZKXAvP7tfr4A7JAOFNts1A==" saltValue="FEwPZPBZomzGtnaLh4LOMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cAeCsHGNVaGBYETtuv+3Wro/3hdLtIo3S3c5r2EdWm/Fhn/SyH0SbFBix7eSjuFjGxF3iToQGsAfsAlH+lJYvQ==" saltValue="qE8SnFN4Gp5n8BZwGj5ivg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10410,7 +10410,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+Idu4BUdTTHim4QlXtYb8u/nDf3e5topaq3J6q4egrK0KwzAHwP1NhPfrScVNDa9DDYAslShXiRm3rtxTTNOuA==" saltValue="2b/U7YI3qpRXDo0yEQvmnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aDQ4cl3ReZ5E9ukD1QW6WrKs4/WVqww5e0d/IcqgiH+LbTrf9fI+HkZsEOabeih9dtusxSSHrH+QhwyiW1ij0g==" saltValue="bRmqTVNf1GY1DAMX3P9dnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11531,7 +11531,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m8Ndr720MttUv0oBdv1jv0bTMEBWkn2JkrVaV3WckCaQ8TC3kriKiz1ukZPDZ1opr+OViHnXCnk6Ngdhzaikqg==" saltValue="BVWQw783WEVtuv4eO2v6GA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aW9HBs08Bw/jyKSSMuGI4loUKumwton0Q6MTPRrtDKXaYzyMIx2B20D/IKECLhAhecTiwgRHqezmKqoFMesXLQ==" saltValue="3c7mpzoh6AIQ6qwbupq+QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12639,7 +12639,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uhJdgIbP2gZx3DRVS4KVEt5B/jhdvfHfwEcqOZSvwfU8vpyVC7xOpw5Awn5lWZsH9iW78z5Y7FdkQU80Wl+CSQ==" saltValue="9x1VP0WUcXtAerr0vhXIUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="t3sAjAqhfknh0IPVGdIY05XnRQJ+F6PsNWMXTogp4YvSqbgDqizKRgz9qe47Xaj5lDzqsVH3xkzHzgImYvc4Sg==" saltValue="MLbiDvyvLhqf0qiXgO/kyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13041,7 +13041,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g9KuKEU6RFGionYdwuKbcY8Cqg4DkV/60dnulCFGvrqIwCtJvqh9kkcPzc9S4lYM3b19XYW9EbimD9lS67Y5MQ==" saltValue="OrlJdN+du7JthekmhdhU5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9SfVoOdA5RcKAQVD1WVKh1YAS6+woLo5jYSbNxBbFjOdcYDrK+oEtz7+xirJttW3GxyoPPtvwckk709O1D24wg==" saltValue="AHuWjeiVUCBUyg5M56IW0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15944,7 +15944,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJt0YdEf90WYTwL9pb/mB0dGr584bX+FzgEvxjXJ9W3xrJ/LycykI8nqkhMxVWRwSzdeE3TwepgqiGX30uD3lA==" saltValue="NW9jcYxWxUoLl1N0GXdsUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uFMrTTTdjN4S7kcR5pOB3u7O5LPlAbA0pk4TTlE73ZOTqWkUzDef1/X+OZLc5zOPhf71mUQRe/JlS0+oNzvqsw==" saltValue="R6HP3wHJXbz+A9xgTtUVAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C8eqxJCltbVzHbjn8nhgm9dzYeajTl3OTUFTpxgoQeG81XhwxeaRF8Uv6gkMvmcAkLDAlPLi0sov2UYs/EFcZA==" saltValue="V+n2ukUKp3JQwucKHpehhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mxp4hozG3NSu6AHdcF0F/lOYZ4mMrHeYbTD+mrUXUJxHfa/6f+DI+Pc8pYP4P7yIW7b+QpXvtFwL9hhTHssvHw==" saltValue="4rfX5ZtpZWQ4IYk3Zg/v1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16533,7 +16533,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wLIQqP5KTKBEvu8bPYhI+FSlG2gthbt/xRY7vQXp5rly3pPHpiEBMUZyt70rGyaHAj6sIvFoBk+c6eOKE5OFmg==" saltValue="AO5dQG+DVVpIT45k9FA+Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tHRUioJHFYEHPY6sXoHr3OHULljcD/ZzLgqaUteyenMthLPhKv/4s4pTLfA6iZPxhxJqY8TRjNnr6etc4D8lxw==" saltValue="6koYHphCeIZhFlxLEo52EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17329,7 +17329,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V+IhIbn4x6h0vXKMMhU1cD6qXCZn9JbcFf4MRQPmn4LjWqieqaX+SSGnbCmpPMUdf5wh/yh++0PFgLkB7Rqr6Q==" saltValue="T0y0ATomUgREwVX6HdCyVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y4yqBM85lbw5B841xIuIZsAS2H9CUcd9qy11AMg/UKmDjaflpTWTsvVj78V6R1UwsowzWDZHpBz2M142EsFesw==" saltValue="kl2q+QlshlWBeG5gITeQzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17430,7 +17430,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JSt2jzdxUrCYJPk41mUHZBPQuFmxySF7oI+qlvybtqq6xfHXR5/cO3M8uEGHiVkxyGZ3Cl2NJalhgvYyCydbOg==" saltValue="AjGBJyMoQVF0rnQ33Bb+5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AIvkKKCiaH8vPT64pi/Afd7vJcrX6pSdUMeapo38HT4Kqh9kIJgB4Dg9K4cYGoWKWLuoIpAdYsXRKLVZXsRawg==" saltValue="Az1jvOHkcZ8bde/vOsQ9jA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Hy/LXLYrIADdA8KiPMQotGzBi3gMgotIdyHdPv/Oj76THxYpAO+lDIac8CxL+rSqboe1Zkx/bGypO+nB9E9Lkw==" saltValue="OeumUHFCmxosUTbzX7VElQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rYbtZAz9S88nS6CEeZUvMXuQqizcjudbMWfxpHD45k7BEpgjyAjdYP1G/yoark5jWe8KkR80pl9Hd77Zxiecqw==" saltValue="I8LGjqmSD7XmTvZbhb53UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18737,7 +18737,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KOu8Q5RMpevtLEHdDbO9oNYbHKd8qnnNdWXPKZDbQbYn8w9kp4vvZpQRGezDwbe5lHxuNW2FJVkVIy0ANJ/dgg==" saltValue="TkJbqGGav0TWjUfrSuy32Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/9NMW0CEnIefcuzIjTx6oNATza9P9zNGnKUq+1Vgh16O8OTJiQYCe8QPGHLdW6GrW9+Ytit1o2GxVQ2vl7eGrA==" saltValue="oDwHyaNe3jGHtsrzEN9prQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19174,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GBnFt1AVLjc1bRbTtWbiK+sjN/ApooBido1BzCdc4KA3pYGypGJjXQEfiodGK3r5xN/KxfTHTOkFWMDwFxx9Yg==" saltValue="gchr5FetE3zYbkSB6pioTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="plcdQFF37Ho9DumryfefDRlEnv8SmNHbALSEuUwC+OXqMeoKw0ljzGKc6CNmYOU3M4jjUImqxNXrJD9DsOmVPA==" saltValue="GSQdIVGRFojRT8DoizlWaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19601,7 +19601,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VHbbfKCIQ1FZRYwqDOx/57SDfIyn/7kkW+dKGI/wmXsAdn2lXyqSkzxdnDY5an4IrVbCjlODfdD1P/6yH+YHqw==" saltValue="VIegPBSCDVZuok1VkX0C4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8gY7EIHplMSsQjNNgfRGcUJySNSJgjP4fHjkAsMQOsjYfKmgqvnsRXkzB/TVzYwQWVkOpCLSymMSz2waMTQPzA==" saltValue="NdIUM/wPoGgOwaUc+rumvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19738,7 +19738,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ai8Oxe0UJebiwRwiLQaxAdB6PVGL17ivFhdTFPpws68Q1+ojZKdgGY93aw5j9nRFiJn6ohXi8qVN46r1+DWwhA==" saltValue="afvFxNma7QSFbAvCCiCY5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="32MQHWeZTIK4595Kdj9AR7ig0mtC62bVxh5rKP/N0Y9ohGxXS3XjVnicnzjyseHkkkYAyO0SAalayMA3uH3cXQ==" saltValue="gu6iURji/kkaubvOssbsnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20053,7 +20053,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WWQGWuSI2F9E2X7JE3wGxOzQkAUspmzPDDwIe3LOl67SsAZD193LtEN2yaZOP/XwSTWZZ7x7LFgELzmNwPPp6w==" saltValue="YaLd9ZzLKinV3qgBWpsHtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/HaLzo3GiuDFdMzkHyUpBHMLHI2xTFVmQkse+CyTS63DaqjJMzQhA3s26mk43xgnDsptavs9odI5CXiu4s7abQ==" saltValue="705XLQHh5VxE5GN5bNdbTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20331,7 +20331,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="09tf6ZIK5yiSiJHpUus1iOUekBYFbNiGdqMjGa3jNHzY1eBxTD9TL2YVdhRy0zl3cUXM+hTSrPFqxnm1Vgl3Fw==" saltValue="B9yml7yfMcn0lRdNwobYww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PKCbKo545gLXqjkCdExhvPezj/bzqGAhxi4ETf0RuxHq0ZbLL5R57hQyGlqPD/+A5QCubFs0MDYTwSO9lZNXjg==" saltValue="ycnu3G1Fqy7JdPT7S4jYvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20395,7 +20395,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eCRb7jXTeJDVGHXs7JpRh5+UxA0JutSSavZnfHZcx8bkSEoxuvO6w5LsCKbSnNLn+HWzkeiouM+QM5e77PO2Hw==" saltValue="0iksoi94S4aTOxo7PpjvFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1IbfmOGlaBNuDukbPxU7eJkmP4pJmGH/NZTHl6WNKFJVLQIS0HRHQ5fpOeKA6SV1Ttp1P/dxdHEZ8KRg5c7ESg==" saltValue="5XDq4zVFnW/3tXJ0IAQ21Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21073,7 +21073,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d4nQou66Ei2QQQp/E9XqFMM03GGFJsptwBcWlnnObVNedDsFrFwUnqodt4ctE43aNdrX/VCEvtjMa0ZgIrSjDQ==" saltValue="zWbO5kQIR/4ABj7Md7Bjwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DcPNMSTs7n8UOxEA1+sBgzeaoU9/i6WnBZijuBRoO5/oTpT71SvEhixUbuQrVkLvZnIM7QSgxzA/RCBOxFcoKA==" saltValue="Ruknqhkgkt260BNI+/YtPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5253B34-9022-46A4-9D21-CACD8C3BBF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D81AB76-49CD-48BC-B9E0-D8DB83A31243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3600" windowWidth="34980" windowHeight="15600" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="268">
   <si>
     <t>Condition</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Wasting</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -651,15 +648,111 @@
     <t>Pourcentage de l'anémie qui est ferriprive</t>
   </si>
   <si>
+    <t>Néonatal</t>
+  </si>
+  <si>
+    <t>Diarrhée néonatale</t>
+  </si>
+  <si>
+    <t>Sepsis néonatal</t>
+  </si>
+  <si>
+    <t>Pneumonie néonatale</t>
+  </si>
+  <si>
+    <t>Asphyxie néonatale</t>
+  </si>
+  <si>
+    <t>Prématurité néonatale</t>
+  </si>
+  <si>
+    <t>Tétanos néonatal</t>
+  </si>
+  <si>
+    <t>Anomalies congénitales néonatales</t>
+  </si>
+  <si>
+    <t>Autres pathologies néonatales</t>
+  </si>
+  <si>
+    <t>Enfants</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>Pneumonie</t>
+  </si>
+  <si>
+    <t>Méningite</t>
+  </si>
+  <si>
+    <t>Rougeole</t>
+  </si>
+  <si>
+    <t>Paludisme</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>SIDA</t>
+  </si>
+  <si>
+    <t>Blessure</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>1-5 mois</t>
+  </si>
+  <si>
+    <t>6-11 mois</t>
+  </si>
+  <si>
+    <t>12-23 mois</t>
+  </si>
+  <si>
+    <t>24-59 mois</t>
+  </si>
+  <si>
+    <t>Femmes enceintes</t>
+  </si>
+  <si>
+    <t>Hémorragie antepartum</t>
+  </si>
+  <si>
+    <t>Hémorragie intra-partum</t>
+  </si>
+  <si>
+    <t>Hémorragie du post-partum</t>
+  </si>
+  <si>
+    <t>Troubles hypertensifs</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>Embolie</t>
+  </si>
+  <si>
+    <t>Autres causes directes</t>
+  </si>
+  <si>
+    <t>Causes indirectes</t>
+  </si>
+  <si>
+    <t>&lt;1 mois</t>
+  </si>
+  <si>
     <t>Prévalence de la pré-éclampsie</t>
   </si>
   <si>
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
-    <t>Année</t>
-  </si>
-  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
@@ -684,103 +777,7 @@
     <t>FAP non enceintes</t>
   </si>
   <si>
-    <t>Néonatal</t>
-  </si>
-  <si>
-    <t>Diarrhée néonatale</t>
-  </si>
-  <si>
-    <t>Sepsis néonatal</t>
-  </si>
-  <si>
-    <t>Pneumonie néonatale</t>
-  </si>
-  <si>
-    <t>Asphyxie néonatale</t>
-  </si>
-  <si>
-    <t>Prématurité néonatale</t>
-  </si>
-  <si>
-    <t>Tétanos néonatal</t>
-  </si>
-  <si>
-    <t>Anomalies congénitales néonatales</t>
-  </si>
-  <si>
-    <t>Autres pathologies néonatales</t>
-  </si>
-  <si>
-    <t>Enfants</t>
-  </si>
-  <si>
-    <t>Diarrhée</t>
-  </si>
-  <si>
-    <t>Pneumonie</t>
-  </si>
-  <si>
-    <t>Méningite</t>
-  </si>
-  <si>
-    <t>Rougeole</t>
-  </si>
-  <si>
-    <t>Paludisme</t>
-  </si>
-  <si>
-    <t>Coqueluche</t>
-  </si>
-  <si>
-    <t>SIDA</t>
-  </si>
-  <si>
-    <t>Blessure</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>1-5 mois</t>
-  </si>
-  <si>
-    <t>6-11 mois</t>
-  </si>
-  <si>
-    <t>12-23 mois</t>
-  </si>
-  <si>
-    <t>24-59 mois</t>
-  </si>
-  <si>
-    <t>Femmes enceintes</t>
-  </si>
-  <si>
-    <t>Hémorragie antepartum</t>
-  </si>
-  <si>
-    <t>Hémorragie intra-partum</t>
-  </si>
-  <si>
-    <t>Hémorragie du post-partum</t>
-  </si>
-  <si>
-    <t>Troubles hypertensifs</t>
-  </si>
-  <si>
-    <t>Avortement</t>
-  </si>
-  <si>
-    <t>Embolie</t>
-  </si>
-  <si>
-    <t>Autres causes directes</t>
-  </si>
-  <si>
-    <t>Causes indirectes</t>
-  </si>
-  <si>
-    <t>&lt;1 mois</t>
+    <t>année</t>
   </si>
   <si>
     <t>Etat</t>
@@ -1056,135 +1053,141 @@
     <t>En forme de S (coût marginal décroissant puis croissant)</t>
   </si>
   <si>
+    <t>Efficacité</t>
+  </si>
+  <si>
+    <t>Retard de croissance</t>
+  </si>
+  <si>
+    <t>Prévention de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Traitement de l'amaigrissement</t>
+  </si>
+  <si>
+    <t>Résultats des naissances</t>
+  </si>
+  <si>
+    <t>Tranche d'âge</t>
+  </si>
+  <si>
+    <t>Comportement</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour le retard de croissance</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour l'alimentation complémetaire</t>
+  </si>
+  <si>
+    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
+  </si>
+  <si>
+    <t>Risque relatif par espacement des naissances</t>
+  </si>
+  <si>
+    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
+  </si>
+  <si>
+    <t>Rapport des cote pour des conditions</t>
+  </si>
+  <si>
+    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+  </si>
+  <si>
+    <t>MM (Score-WHZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>MAS (Score-WHZ &lt; -3)</t>
+  </si>
+  <si>
+    <t>Risques relatifs des causes du décès néonatales</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+  </si>
+  <si>
+    <t>Cause du décès</t>
+  </si>
+  <si>
+    <t>Niveau HAZ</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Élevé</t>
+  </si>
+  <si>
+    <t>Niveau WHZ</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par condition anémique</t>
+  </si>
+  <si>
+    <t>Condition anémique</t>
+  </si>
+  <si>
+    <t>Pas anémique</t>
+  </si>
+  <si>
+    <t>Anémique</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
+  </si>
+  <si>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+  </si>
+  <si>
+    <t>Amaigrissement</t>
+  </si>
+  <si>
+    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
+  </si>
+  <si>
+    <t>Diarrhée (par épisode supplémentaire)</t>
+  </si>
+  <si>
+    <t>Par programme</t>
+  </si>
+  <si>
+    <t>Rapports des cotes supplémentaires</t>
+  </si>
+  <si>
+    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
+  </si>
+  <si>
+    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
+  </si>
+  <si>
+    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
+  </si>
+  <si>
     <t>efficacité</t>
   </si>
   <si>
-    <t>Retard de croissance</t>
-  </si>
-  <si>
-    <t>Prévention de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Traitement de l'amaigrissement</t>
-  </si>
-  <si>
-    <t>Résultats des naissances</t>
-  </si>
-  <si>
-    <t>Tranche d'âge</t>
-  </si>
-  <si>
-    <t>Comportement</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'allaitement maternelle correct</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour le retard de croissance</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour l'alimentation complémetaire</t>
-  </si>
-  <si>
-    <t>Facteurs de risque maternels contribuant aux résultats des naissances</t>
-  </si>
-  <si>
-    <t>Risque relatif par espacement des naissances</t>
-  </si>
-  <si>
-    <t>Risques pour les enfants touchés par chaque résultat des naissances</t>
-  </si>
-  <si>
-    <t>Rapport des cote pour des conditions</t>
-  </si>
-  <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
-  </si>
-  <si>
-    <t>MM (Score-WHZ entre -3 et -2)</t>
-  </si>
-  <si>
-    <t>MAS (Score-WHZ &lt; -3)</t>
-  </si>
-  <si>
-    <t>Risques relatifs des causes du décès néonatales</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour les femmes avec l'anémie maternelle</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
-  </si>
-  <si>
-    <t>Cause du décès</t>
-  </si>
-  <si>
-    <t>Niveau HAZ</t>
-  </si>
-  <si>
-    <t>Léger</t>
-  </si>
-  <si>
-    <t>Modéré</t>
-  </si>
-  <si>
-    <t>Élevé</t>
-  </si>
-  <si>
-    <t>Niveau WHZ</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par condition anémique</t>
-  </si>
-  <si>
-    <t>Condition anémique</t>
-  </si>
-  <si>
-    <t>Pas anémique</t>
-  </si>
-  <si>
-    <t>Anémique</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
-  </si>
-  <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
-  </si>
-  <si>
-    <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
-  </si>
-  <si>
-    <t>Diarrhée (par épisode supplémentaire)</t>
-  </si>
-  <si>
-    <t>Par programme</t>
-  </si>
-  <si>
-    <t>Rapports des cotes supplémentaires</t>
-  </si>
-  <si>
-    <t>Pour MAS par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Pour l'anémie par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapport des cotes pour allaitement maternel correct par programme</t>
-  </si>
-  <si>
-    <t>Pour MM par épisode supplémentaire de la diarrhée</t>
-  </si>
-  <si>
-    <t>Rapports des cotes pour espacement des naissances optimal par programme</t>
-  </si>
-  <si>
     <t>fraction touchée</t>
   </si>
   <si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Condition ciblée</t>
+  </si>
+  <si>
+    <t>Fraction touchée</t>
   </si>
   <si>
     <t>Efficacité à prévenir une mort</t>
@@ -4747,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4766,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4775,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4788,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4852,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4867,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4875,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4883,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4903,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4916,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4924,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4932,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4944,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4993,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5023,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5033,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5041,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5060,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5075,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5108,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5123,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5131,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5139,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5155,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5168,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5176,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5194,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vt8gxpP38+eACsUV0uuFcrfTxAqFopyOu+qG29Ji+CGMBQK6Dh7UQ5pqRsFctCscfZMAgsiTIe2XjxvrhIADOQ==" saltValue="nTq9Bh4EJr3QAtKlil4L8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ydQRcK+rasTjIFmL9QMcwZx2xg+sBp+Fuy93rbCJAuGXnhrvmMj+JiB0lJIBCj01mPB4yzXvpIVwr0e2ssZMOw==" saltValue="v2hLlJidmiLjWN40XBpH0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5221,48 +5227,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="80"/>
     </row>
@@ -5342,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a3dr/aeG2YJJbL8PiQFIH7YmDr1JhNw07lJJ/U+p+kCef3LHjrzcyNqXgfHw4p8dYWETt9Aa/wLYPmM4L3gxgQ==" saltValue="0tD9jN6exw5UrwsZHF34Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hDd20LWxQ1/9yrahDZGBUvix9lGSWKcNB4ec46+qBZktVq7tmGs0/KFPoaDAZmfRlxJevRXG/79MCJFMRVeJ9g==" saltValue="1TV6YN7NIMCMHEbaQMSi+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5368,12 +5374,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -5383,32 +5389,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -5442,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FP+O9s5xfTh43xlCauA4QbH04HKBwcnSgpm/rSdMZGLFkL0avh/WJ3K5HZwkjPHrCluGqxv5GSLVY7CDhjZwHA==" saltValue="ajKJ+MNse6ZdNFR3Fpkv9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tBtKSuSCCvYOZPN91UyoKXHWVLALwuYJLBIub1YldH63ON7VnlkqmUvki0lXWPZWTjU1RJpCmtt38JxbnlkfOg==" saltValue="Grql0OBU4x3mLyJRQCHHEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5466,24 +5472,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5508,7 +5514,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -5557,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZBiHc2Duoqhw5pkh5aQHnA9u1rZFOjOrwmSS4pUBtKGIoRZxJIqajZgjobRKaqGTFQqoXP3c4aT5G/cjceO9/w==" saltValue="J9LuVJV5vMUu0nFJvnhGBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S0NWymISadDpTqQ6My3SEhJacEFQMYlryQVIaPL8CBxByZDsKJdlNNmbETP9nCa1VwO9Yw4RUlihUpXUrhCaSA==" saltValue="CfPWonqUEkTtzb2qItNcCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5588,57 +5594,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -5686,7 +5692,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="87">
         <v>1</v>
@@ -5774,7 +5780,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="87">
         <v>0</v>
@@ -5820,7 +5826,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="87">
         <v>0</v>
@@ -5867,7 +5873,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo</f>
@@ -5916,7 +5922,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="87">
         <v>0</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -6010,7 +6016,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -6054,7 +6060,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo</f>
@@ -6103,7 +6109,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="87">
         <v>0</v>
@@ -6150,10 +6156,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -6202,7 +6208,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -6247,7 +6253,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -6296,7 +6302,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -6436,7 +6442,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="88">
         <v>0</v>
@@ -6480,7 +6486,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="88">
         <v>0</v>
@@ -6531,10 +6537,10 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="88">
         <v>0</v>
@@ -6582,7 +6588,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -6678,7 +6684,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -6726,7 +6732,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -6781,10 +6787,10 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="87">
         <v>0</v>
@@ -6839,7 +6845,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -6993,7 +6999,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
@@ -7050,7 +7056,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="87">
         <v>1</v>
@@ -7095,7 +7101,7 @@
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="87">
         <v>1</v>
@@ -7139,7 +7145,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="87">
         <v>1</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="87">
         <v>1</v>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="87">
         <v>1</v>
@@ -7273,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QuCPhcbi+rQr6pi+DVftAaaRxmaANLUbZ3vcnC9FjOnAqmOOuxTwrIEHd4IcPcB+lTtQ2Itr7JEegedF3GpS+A==" saltValue="zSeuLhdJrYIPJ78R8U+MtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7UhpsyD0FzLYweLZKAPTKUUrIQTCcup42PHyLu8Y6oSaukF2f46gfSgzT0+DrB7MQid2FRYhaVY+ItnHUTF5Ag==" saltValue="N/AMgO3Vz/L3s4pXBGF87g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7292,26 +7298,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HX0LIwpp/OD8w9BTmLu6wGDIKR4y/FYvhorAAVLLqOCkw+OJjLhtHm4t8yLrsfEHvt4+A3xiFiT0+djpHM3jsw==" saltValue="VbHrCODU028MD10cef98cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fhFF2s0yrItT8Wb4AsqGF6EmUUoqGQnFGNk9C/16QhZcUu+AouLfTxE1z4eiLd/YjRgiTIXWnse4ItMmrYfBJg==" saltValue="eZT7vaPMI2FdKKW3hl/myA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7341,7 +7347,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>15</v>
@@ -7519,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KyCD7HgclmxNpCBgssl4N3jNeetQSgr8ZatvGsdJhyUZ4jQB0oXdcQYU2LVlEa9KmpupYz6Zs9u4XwY4kchXlQ==" saltValue="bvWDx4xpjaW4BiKiPRPunQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ugj97QpwPZ7Jz+KlVBDBjVukzg5dbfibqxD0AmH7KWfGODTVbg33lUM8549sgpvK/CvVfxV/NjrlWoTRm7z3xQ==" saltValue="Z/GseVd5XnxEWKAFypvmxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7552,57 +7558,57 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>139</v>
-      </c>
       <c r="L1" s="56" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="90">
         <v>0</v>
@@ -7646,7 +7652,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -7822,7 +7828,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -7866,7 +7872,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="90">
         <v>0</v>
@@ -7910,7 +7916,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -7954,7 +7960,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="90">
         <v>1</v>
@@ -7998,7 +8004,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="90">
         <v>0</v>
@@ -8042,7 +8048,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="90">
         <v>0</v>
@@ -8086,7 +8092,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="90">
         <v>0</v>
@@ -8130,7 +8136,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="90">
         <v>1</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="90">
         <v>0</v>
@@ -8234,10 +8240,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="90">
         <v>0</v>
@@ -8282,7 +8288,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="90">
         <v>0</v>
@@ -8326,7 +8332,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="90">
         <v>0</v>
@@ -8370,7 +8376,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="90">
         <v>0</v>
@@ -8458,7 +8464,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="90">
         <v>0</v>
@@ -8502,7 +8508,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="90">
         <v>0</v>
@@ -8546,7 +8552,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="90">
         <v>0</v>
@@ -8606,10 +8612,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="90">
         <v>0</v>
@@ -8654,7 +8660,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="90">
         <v>0</v>
@@ -8699,7 +8705,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="90">
         <v>0</v>
@@ -8743,7 +8749,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="90">
         <v>0</v>
@@ -8787,7 +8793,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="90">
         <v>0</v>
@@ -8847,10 +8853,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="90">
         <v>1</v>
@@ -8894,7 +8900,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="90">
         <v>1</v>
@@ -8938,7 +8944,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="90">
         <v>1</v>
@@ -8982,7 +8988,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="90">
         <v>1</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C36" s="90">
         <v>1</v>
@@ -9071,7 +9077,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="90">
         <v>1</v>
@@ -9115,7 +9121,7 @@
     </row>
     <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="90">
         <v>1</v>
@@ -9159,7 +9165,7 @@
     </row>
     <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="90">
         <v>1</v>
@@ -9203,7 +9209,7 @@
     </row>
     <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="90">
         <v>1</v>
@@ -9247,7 +9253,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="90">
         <v>1</v>
@@ -9290,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nsPqYOHXCNO7FP0iiS4w6ytX/JZeDCwJd0O4HEHOEmfiIvIaY4D1LLd0eECpWfMFoTkK+Wdd4P/COU5nlZ7zww==" saltValue="3EE3uYVRVRasEQEWLKQekQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6c/J9tu8pKjn3J2o7LnfUcriFnuP7YPHh+fj6eTw4C5CjfqFMaIdch0NJni5b6rxjQn6e6Mayu6CzU99wN+83g==" saltValue="dcvOYNP2r23GiT+b0dBkUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9323,42 +9329,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -9375,7 +9381,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -9392,7 +9398,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
@@ -9426,7 +9432,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -9445,7 +9451,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -9464,7 +9470,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -9483,7 +9489,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -9502,7 +9508,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -9519,7 +9525,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -9536,7 +9542,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -9553,7 +9559,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -9570,7 +9576,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -9589,7 +9595,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
@@ -9629,7 +9635,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
@@ -9703,7 +9709,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -9722,7 +9728,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
         <v>21</v>
@@ -9743,7 +9749,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
@@ -9762,7 +9768,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -9796,7 +9802,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
@@ -9813,7 +9819,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
@@ -9832,7 +9838,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
         <v>21</v>
@@ -9868,7 +9874,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -9904,7 +9910,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -9923,7 +9929,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -9942,7 +9948,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -9980,7 +9986,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -9999,7 +10005,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -10016,7 +10022,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>21</v>
@@ -10036,7 +10042,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cAeCsHGNVaGBYETtuv+3Wro/3hdLtIo3S3c5r2EdWm/Fhn/SyH0SbFBix7eSjuFjGxF3iToQGsAfsAlH+lJYvQ==" saltValue="qE8SnFN4Gp5n8BZwGj5ivg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="obNdJm7Fi0goFDxSaJu3VwBz3opaF7lMCeNW0DNsusSg1IsWvvvEKJa7FmKDBf2f8uARWfTyjnjq9bjz4stIEw==" saltValue="JdZU7H5zQQdFB+sBChTfcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10069,42 +10075,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>219</v>
-      </c>
       <c r="J1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>21</v>
@@ -10133,7 +10139,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B3" s="90" t="s">
         <v>21</v>
@@ -10162,7 +10168,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>21</v>
@@ -10191,7 +10197,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>21</v>
@@ -10220,7 +10226,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>21</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
@@ -10270,7 +10276,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
@@ -10291,7 +10297,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
@@ -10312,7 +10318,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
@@ -10333,7 +10339,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
@@ -10354,7 +10360,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
@@ -10373,7 +10379,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
@@ -10392,7 +10398,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
@@ -10410,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aDQ4cl3ReZ5E9ukD1QW6WrKs4/WVqww5e0d/IcqgiH+LbTrf9fI+HkZsEOabeih9dtusxSSHrH+QhwyiW1ij0g==" saltValue="bRmqTVNf1GY1DAMX3P9dnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L41cgSTH4m78ZEodAhovOU0zkSJFiFhLRSJJa/zgnw9o8njzhWIbVrRezsEAhLcDVNcx2wNdqntOEGEO744BNw==" saltValue="BzzWVof9pBsq1Vz5/sr8gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10436,39 +10442,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H1" s="98" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="99">
         <v>1</v>
@@ -10489,7 +10495,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="99">
         <v>1</v>
@@ -10511,7 +10517,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="99">
         <v>1</v>
@@ -10532,10 +10538,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="99">
         <f>5.16</f>
@@ -10557,7 +10563,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="99">
         <v>5.16</v>
@@ -10578,7 +10584,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="99">
         <v>1</v>
@@ -10598,10 +10604,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="99">
         <v>1</v>
@@ -10622,7 +10628,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="99">
         <v>1</v>
@@ -10643,7 +10649,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="99">
         <v>1</v>
@@ -10663,10 +10669,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="99">
         <v>1</v>
@@ -10687,7 +10693,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="99">
         <v>1</v>
@@ -10708,7 +10714,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="99">
         <v>1</v>
@@ -10728,10 +10734,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="99">
         <v>1</v>
@@ -10752,7 +10758,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="99">
         <v>1</v>
@@ -10773,7 +10779,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="99">
         <v>1</v>
@@ -10793,10 +10799,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="99">
         <v>1.05</v>
@@ -10823,13 +10829,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" s="99">
         <v>1</v>
@@ -10850,7 +10856,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="99">
         <v>1</v>
@@ -10871,7 +10877,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="99">
         <v>1</v>
@@ -10891,10 +10897,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="99">
         <v>1</v>
@@ -10915,7 +10921,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="99">
         <v>1</v>
@@ -10936,7 +10942,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="99">
         <v>1</v>
@@ -10956,10 +10962,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="99">
         <v>1</v>
@@ -10980,7 +10986,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="99">
         <v>1</v>
@@ -11001,7 +11007,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="99">
         <v>1</v>
@@ -11021,10 +11027,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="99">
         <v>1</v>
@@ -11045,7 +11051,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="99">
         <v>1</v>
@@ -11066,7 +11072,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="99">
         <v>1</v>
@@ -11086,10 +11092,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="99">
         <v>1</v>
@@ -11110,7 +11116,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="99">
         <v>1</v>
@@ -11131,7 +11137,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="99">
         <v>1</v>
@@ -11151,10 +11157,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D34" s="99">
         <v>1</v>
@@ -11181,13 +11187,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="99">
         <v>1</v>
@@ -11208,7 +11214,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="99">
         <v>1</v>
@@ -11229,7 +11235,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="99">
         <v>1</v>
@@ -11249,10 +11255,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="99">
         <v>1</v>
@@ -11273,7 +11279,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="99">
         <v>1</v>
@@ -11294,7 +11300,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="99">
         <v>1</v>
@@ -11314,10 +11320,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="99">
         <v>1</v>
@@ -11338,7 +11344,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="99">
         <v>1</v>
@@ -11359,7 +11365,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="99">
         <v>1</v>
@@ -11379,10 +11385,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="99">
         <v>1</v>
@@ -11403,7 +11409,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="99">
         <v>1</v>
@@ -11424,7 +11430,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="99">
         <v>1</v>
@@ -11444,10 +11450,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="99">
         <v>1</v>
@@ -11468,7 +11474,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="99">
         <v>1</v>
@@ -11489,7 +11495,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="99">
         <v>1</v>
@@ -11509,10 +11515,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="99">
         <v>1.05</v>
@@ -11531,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aW9HBs08Bw/jyKSSMuGI4loUKumwton0Q6MTPRrtDKXaYzyMIx2B20D/IKECLhAhecTiwgRHqezmKqoFMesXLQ==" saltValue="3c7mpzoh6AIQ6qwbupq+QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5oKOHZbzpd9OZVhzbCtHMXGBYjA3U5JZJBScfoJXg1qZJKc2AEs7t7ez9M+2g6v8NCeHMZ9CFkRU8kCCjwuNWA==" saltValue="MrFRryS2h3VNhyCXl3I0aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11574,31 +11580,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12639,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t3sAjAqhfknh0IPVGdIY05XnRQJ+F6PsNWMXTogp4YvSqbgDqizKRgz9qe47Xaj5lDzqsVH3xkzHzgImYvc4Sg==" saltValue="MLbiDvyvLhqf0qiXgO/kyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9LtRnjVz/fZSfvq6vsIcdT6tzXTXzKEk0W2nuON3jRywYBFi3hoKadU1fn+B85BIyZeajrOch20PCSUme5H2Pw==" saltValue="VoYp7u08TqpSwf+47YBePQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12673,27 +12679,27 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -12703,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12720,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12737,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12754,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12777,7 +12783,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -12802,7 +12808,7 @@
     </row>
     <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="119"/>
@@ -12812,7 +12818,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="116"/>
       <c r="D12" s="100"/>
@@ -12822,7 +12828,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -12840,7 +12846,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -12858,7 +12864,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -12885,7 +12891,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="110"/>
       <c r="C17" s="123"/>
@@ -12896,7 +12902,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12914,7 +12920,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12932,7 +12938,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12950,7 +12956,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12968,7 +12974,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12985,7 +12991,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13002,7 +13008,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13019,7 +13025,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13041,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9SfVoOdA5RcKAQVD1WVKh1YAS6+woLo5jYSbNxBbFjOdcYDrK+oEtz7+xirJttW3GxyoPPtvwckk709O1D24wg==" saltValue="AHuWjeiVUCBUyg5M56IW0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6w4JxtMKKBm8Y1q2RZw2YaRGPq2VOAhFQkLNl8vdTVnIUV+9e115uA3iu6W1P9HusAVmZg4NhOLCVSw2GMF+HQ==" saltValue="q8YmwMa47t0M7hyTMFQcNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13071,33 +13077,33 @@
   <sheetData>
     <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="127" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G2" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13111,7 +13117,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>25</v>
@@ -13142,7 +13148,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -13170,7 +13176,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="115">
         <v>1</v>
@@ -13198,7 +13204,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -13226,7 +13232,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>25</v>
@@ -13257,7 +13263,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="115">
         <v>1</v>
@@ -13285,7 +13291,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="115">
         <v>1</v>
@@ -13313,7 +13319,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="115">
         <v>1</v>
@@ -13341,7 +13347,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>25</v>
@@ -13372,7 +13378,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="115">
         <v>1</v>
@@ -13400,7 +13406,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="115">
         <v>1</v>
@@ -13428,7 +13434,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="115">
         <v>1</v>
@@ -13456,7 +13462,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>25</v>
@@ -13487,7 +13493,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="115">
         <v>1</v>
@@ -13515,7 +13521,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="115">
         <v>1</v>
@@ -13543,7 +13549,7 @@
     </row>
     <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="115">
         <v>1</v>
@@ -13571,7 +13577,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>25</v>
@@ -13602,7 +13608,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" s="115">
         <v>1</v>
@@ -13630,7 +13636,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D21" s="115">
         <v>1</v>
@@ -13658,7 +13664,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="115">
         <v>1</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>25</v>
@@ -13717,7 +13723,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="115">
         <v>1</v>
@@ -13745,7 +13751,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D25" s="115">
         <v>1</v>
@@ -13773,7 +13779,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -13801,33 +13807,33 @@
     </row>
     <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F29" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G29" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H29" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13841,7 +13847,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>25</v>
@@ -13872,7 +13878,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" s="115">
         <v>1</v>
@@ -13900,7 +13906,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -13928,7 +13934,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="115">
         <v>1</v>
@@ -13956,7 +13962,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>25</v>
@@ -13987,7 +13993,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -14015,7 +14021,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="115">
         <v>1</v>
@@ -14043,7 +14049,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="115">
         <v>1</v>
@@ -14071,7 +14077,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>25</v>
@@ -14102,7 +14108,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="115">
         <v>1</v>
@@ -14130,7 +14136,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="115">
         <v>1</v>
@@ -14158,7 +14164,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="115">
         <v>1</v>
@@ -14186,7 +14192,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>25</v>
@@ -14217,7 +14223,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="115">
         <v>1</v>
@@ -14245,7 +14251,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="115">
         <v>1</v>
@@ -14273,7 +14279,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="115">
         <v>1</v>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>25</v>
@@ -14332,7 +14338,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="115">
         <v>1</v>
@@ -14360,7 +14366,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" s="115">
         <v>1</v>
@@ -14388,7 +14394,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="115">
         <v>1</v>
@@ -14416,7 +14422,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>25</v>
@@ -14447,7 +14453,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="115">
         <v>1</v>
@@ -14475,7 +14481,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="115">
         <v>1</v>
@@ -14503,7 +14509,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="115">
         <v>1</v>
@@ -14535,30 +14541,30 @@
     </row>
     <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="109" t="s">
+      <c r="E56" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="109" t="s">
+      <c r="F56" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="109" t="s">
+      <c r="G56" s="109" t="s">
         <v>138</v>
-      </c>
-      <c r="G56" s="109" t="s">
-        <v>139</v>
       </c>
       <c r="H56" s="128"/>
       <c r="M56" s="128"/>
@@ -14569,10 +14575,10 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="114">
         <v>1</v>
@@ -14594,7 +14600,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="115">
         <v>10.675000000000001</v>
@@ -14616,10 +14622,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="114">
         <v>1</v>
@@ -14641,7 +14647,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="115">
         <v>10.675000000000001</v>
@@ -14663,10 +14669,10 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="114">
         <v>1</v>
@@ -14688,7 +14694,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="115">
         <v>10.675000000000001</v>
@@ -14714,33 +14720,33 @@
     </row>
     <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E65" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F65" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G65" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H65" s="132" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14754,10 +14760,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="114">
         <v>1</v>
@@ -14785,7 +14791,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="115">
         <v>1.35</v>
@@ -14813,7 +14819,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="115">
         <v>1.35</v>
@@ -14841,7 +14847,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="115">
         <v>5.4</v>
@@ -14869,10 +14875,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="114">
         <v>1</v>
@@ -14900,7 +14906,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="115">
         <v>1.35</v>
@@ -14928,7 +14934,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="115">
         <v>1.35</v>
@@ -14956,7 +14962,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="115">
         <v>5.4</v>
@@ -14984,10 +14990,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="114">
         <v>1</v>
@@ -15015,7 +15021,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="115">
         <v>1.35</v>
@@ -15043,7 +15049,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="115">
         <v>1.35</v>
@@ -15071,7 +15077,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="115">
         <v>5.4</v>
@@ -15099,10 +15105,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="114">
         <v>1</v>
@@ -15130,7 +15136,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="115">
         <v>1</v>
@@ -15158,7 +15164,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="115">
         <v>1</v>
@@ -15186,7 +15192,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="115">
         <v>1</v>
@@ -15214,10 +15220,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="114">
         <v>1</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="115">
         <v>1</v>
@@ -15273,7 +15279,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="115">
         <v>1</v>
@@ -15301,7 +15307,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="115">
         <v>1</v>
@@ -15329,10 +15335,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="114">
         <v>1</v>
@@ -15360,7 +15366,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="115">
         <v>1</v>
@@ -15388,7 +15394,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="115">
         <v>1</v>
@@ -15416,7 +15422,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="115">
         <v>1</v>
@@ -15444,10 +15450,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="114">
         <v>1</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="115">
         <v>1</v>
@@ -15503,7 +15509,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="115">
         <v>1</v>
@@ -15531,7 +15537,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="115">
         <v>1</v>
@@ -15559,10 +15565,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="114">
         <v>1</v>
@@ -15590,7 +15596,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="115">
         <v>1</v>
@@ -15618,7 +15624,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="115">
         <v>1</v>
@@ -15646,7 +15652,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="115">
         <v>1</v>
@@ -15674,10 +15680,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="114">
         <v>1</v>
@@ -15705,7 +15711,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="115">
         <v>1</v>
@@ -15733,7 +15739,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="115">
         <v>1</v>
@@ -15761,7 +15767,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D101" s="115">
         <v>1</v>
@@ -15789,33 +15795,33 @@
     </row>
     <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" s="132" t="s">
         <v>101</v>
-      </c>
-      <c r="B104" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C104" s="131" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F104" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G104" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>113</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15830,7 +15836,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="114">
         <v>1</v>
@@ -15858,7 +15864,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="115">
         <v>1.26</v>
@@ -15886,7 +15892,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="115">
         <v>1.68</v>
@@ -15914,7 +15920,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="115">
         <v>2.65</v>
@@ -15944,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uFMrTTTdjN4S7kcR5pOB3u7O5LPlAbA0pk4TTlE73ZOTqWkUzDef1/X+OZLc5zOPhf71mUQRe/JlS0+oNzvqsw==" saltValue="R6HP3wHJXbz+A9xgTtUVAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ucrk0BjdTYX2N99Z6Hih/IESeQ+VI6fsDcX6r6IOxKgbswtrGSkt2Q0cPooTIGAOsdvV8ZUtjAkfr3KDI8pv6A==" saltValue="E+FnTzKr0sUCsQ3HzyTGxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15975,7 +15981,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15984,19 +15990,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16047,7 +16053,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16067,7 +16073,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16087,7 +16093,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16121,7 +16127,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="115">
         <v>1.5</v>
@@ -16150,7 +16156,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="B14" s="125" t="s">
         <v>253</v>
@@ -16194,7 +16200,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="121" t="s">
         <v>254</v>
@@ -16223,21 +16229,21 @@
     </row>
     <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="115">
         <v>1.52</v>
@@ -16253,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Mxp4hozG3NSu6AHdcF0F/lOYZ4mMrHeYbTD+mrUXUJxHfa/6f+DI+Pc8pYP4P7yIW7b+QpXvtFwL9hhTHssvHw==" saltValue="4rfX5ZtpZWQ4IYk3Zg/v1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zLY1fD/Z7C6rmjNE+FFa9gOSqJL7pQQFrWR8iYfEO1j/Rxeu+xXc3h96+YkPggMG/GGR4EDUBuH9kuOc596KNQ==" saltValue="n6OI5n3ZkrT5z/MdAR0AOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16282,28 +16288,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C2" s="115">
         <v>0.21</v>
@@ -16321,7 +16327,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -16338,10 +16344,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C4" s="115">
         <v>0</v>
@@ -16359,7 +16365,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16376,10 +16382,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C6" s="115">
         <v>0</v>
@@ -16397,7 +16403,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16417,7 +16423,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="115">
         <v>0.35</v>
@@ -16435,7 +16441,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16452,10 +16458,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C10" s="115">
         <v>0.35</v>
@@ -16473,7 +16479,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -16490,10 +16496,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C12" s="115">
         <v>0.08</v>
@@ -16511,7 +16517,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -16533,7 +16539,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tHRUioJHFYEHPY6sXoHr3OHULljcD/ZzLgqaUteyenMthLPhKv/4s4pTLfA6iZPxhxJqY8TRjNnr6etc4D8lxw==" saltValue="6koYHphCeIZhFlxLEo52EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cn0wntfk3gyNPFtO5oVeWy+DqtVGBw5g/bUNYqZOvE0DzTnDl1UNPgHBcxPRKjB/d3THnFvYeDYKOoB1OkkXw==" saltValue="KYPS01F5yJUb3HEN/qWxLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16562,53 +16568,53 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="109" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="109" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="109" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I1" s="109" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="J1" s="109" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="K1" s="109" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="L1" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="N1" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="O1" s="109" t="s">
         <v>138</v>
-      </c>
-      <c r="O1" s="109" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="115">
         <v>0.53</v>
@@ -16652,7 +16658,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="115">
         <v>1</v>
@@ -16696,7 +16702,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -16740,7 +16746,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="115">
         <v>1</v>
@@ -16784,7 +16790,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="115">
         <v>1</v>
@@ -16828,7 +16834,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="115">
         <v>1</v>
@@ -16872,7 +16878,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="115">
         <v>1</v>
@@ -16960,7 +16966,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="115">
         <v>1</v>
@@ -17004,7 +17010,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="115">
         <v>0.83</v>
@@ -17048,7 +17054,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="115">
         <v>1</v>
@@ -17092,7 +17098,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="115">
         <v>1</v>
@@ -17136,13 +17142,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="115">
         <v>1</v>
@@ -17186,7 +17192,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="115">
         <v>1</v>
@@ -17230,7 +17236,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="115">
         <v>1</v>
@@ -17274,7 +17280,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="115">
         <v>1</v>
@@ -17329,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y4yqBM85lbw5B841xIuIZsAS2H9CUcd9qy11AMg/UKmDjaflpTWTsvVj78V6R1UwsowzWDZHpBz2M142EsFesw==" saltValue="kl2q+QlshlWBeG5gITeQzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wWqOGoPp/ErDI1vE49nXDbkfEIT/6Rlai21paT1pmOnH+tBtMIwPqgXeU18IfSqnCE0pP2R9R2UCrj/PXQJ+zQ==" saltValue="pnW+0emi8LbTkTVEkf3myg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17358,29 +17364,29 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="115">
         <v>1</v>
@@ -17400,7 +17406,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="135"/>
@@ -17411,7 +17417,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="115">
         <v>1</v>
@@ -17430,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AIvkKKCiaH8vPT64pi/Afd7vJcrX6pSdUMeapo38HT4Kqh9kIJgB4Dg9K4cYGoWKWLuoIpAdYsXRKLVZXsRawg==" saltValue="Az1jvOHkcZ8bde/vOsQ9jA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UMz1/hf5I07lnY7xV6CBP+OHyZQevTTzTbMlpUrUUZ698+AaT/NG9e3BnYYtQlQ+Nn3MFiFxdSZMQsP5QBBnIw==" saltValue="+rSiu9WPZG1gUhemhKpnSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17462,39 +17468,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>0</v>
@@ -17514,7 +17520,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0</v>
@@ -17534,7 +17540,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4" s="115">
         <v>0</v>
@@ -17554,13 +17560,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D5" s="115">
         <v>0</v>
@@ -17580,7 +17586,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="115">
         <v>0</v>
@@ -17600,10 +17606,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D7" s="115">
         <v>0</v>
@@ -17623,7 +17629,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D8" s="115">
         <v>0</v>
@@ -17643,13 +17649,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9" s="115">
         <v>0</v>
@@ -17669,7 +17675,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="115">
         <v>0</v>
@@ -17689,10 +17695,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D11" s="115">
         <v>0</v>
@@ -17712,7 +17718,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="115">
         <v>0</v>
@@ -17732,13 +17738,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D13" s="115">
         <v>0</v>
@@ -17758,7 +17764,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="115">
         <v>0</v>
@@ -17779,10 +17785,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D15" s="115">
         <v>0</v>
@@ -17803,7 +17809,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D16" s="115">
         <v>0</v>
@@ -17824,13 +17830,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D17" s="115">
         <v>0.7</v>
@@ -17851,7 +17857,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D18" s="115">
         <v>0.19</v>
@@ -17872,13 +17878,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="115">
         <v>0.7</v>
@@ -17898,7 +17904,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="115">
         <v>0.19</v>
@@ -17918,13 +17924,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D21" s="115">
         <v>0.7</v>
@@ -17944,7 +17950,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D22" s="115">
         <v>0.19</v>
@@ -17964,13 +17970,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D23" s="115">
         <v>1</v>
@@ -17990,7 +17996,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="115">
         <v>0</v>
@@ -18010,7 +18016,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="115">
         <v>0</v>
@@ -18030,13 +18036,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D26" s="115">
         <v>1</v>
@@ -18056,7 +18062,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D27" s="115">
         <v>0</v>
@@ -18076,7 +18082,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="115">
         <v>0</v>
@@ -18096,13 +18102,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D29" s="115">
         <v>1</v>
@@ -18122,7 +18128,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" s="115">
         <v>0</v>
@@ -18142,7 +18148,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D31" s="115">
         <v>0</v>
@@ -18162,13 +18168,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="115">
         <v>1</v>
@@ -18188,7 +18194,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D33" s="115">
         <v>0</v>
@@ -18208,7 +18214,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D34" s="115">
         <v>0</v>
@@ -18228,13 +18234,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="115">
         <v>1</v>
@@ -18254,7 +18260,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D36" s="115">
         <v>0</v>
@@ -18274,7 +18280,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="115">
         <v>0</v>
@@ -18294,13 +18300,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D38" s="115">
         <v>0.3</v>
@@ -18320,7 +18326,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D39" s="115">
         <v>0.5</v>
@@ -18340,7 +18346,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D40" s="115">
         <v>0.65</v>
@@ -18360,10 +18366,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D41" s="115">
         <v>0.3</v>
@@ -18383,7 +18389,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D42" s="115">
         <v>0.5</v>
@@ -18403,7 +18409,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D43" s="115">
         <v>0.63</v>
@@ -18423,13 +18429,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D44" s="115">
         <v>0.88</v>
@@ -18449,7 +18455,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="115">
         <v>0.8</v>
@@ -18469,13 +18475,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D46" s="115">
         <v>1</v>
@@ -18495,7 +18501,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D47" s="115">
         <v>0.76</v>
@@ -18515,13 +18521,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D48" s="115">
         <v>0.57999999999999996</v>
@@ -18541,7 +18547,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="115">
         <v>0.88</v>
@@ -18560,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rYbtZAz9S88nS6CEeZUvMXuQqizcjudbMWfxpHD45k7BEpgjyAjdYP1G/yoark5jWe8KkR80pl9Hd77Zxiecqw==" saltValue="I8LGjqmSD7XmTvZbhb53UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EdTYt4e0CYy16nP8d+F0LQq1ZfNzk8rUQZnwJL96XBXi21hYZdSo3AflXRTht/7XuhvA5iC8iVgbRGmm2FVl9Q==" saltValue="P0+Sj/dYehLbG3/XDp3oQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18588,35 +18594,35 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="127"/>
       <c r="D1" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>139</v>
       </c>
       <c r="H1" s="98"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D2" s="115">
         <v>1</v>
@@ -18634,7 +18640,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D3" s="115">
         <v>0.2</v>
@@ -18652,13 +18658,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D4" s="115">
         <v>1</v>
@@ -18677,7 +18683,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D5" s="115">
         <v>0.59</v>
@@ -18695,13 +18701,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="115">
         <v>1</v>
@@ -18720,7 +18726,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D7" s="115">
         <v>0.59</v>
@@ -18737,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/9NMW0CEnIefcuzIjTx6oNATza9P9zNGnKUq+1Vgh16O8OTJiQYCe8QPGHLdW6GrW9+Ytit1o2GxVQ2vl7eGrA==" saltValue="oDwHyaNe3jGHtsrzEN9prQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a6ytd31S7tIV4wTfMr2xHnMB9ci+zKtb89Uc104O3AeFLIddcKUZ+KVl+F+2fGw4cpu/v0BojZIdL/o2pxPVog==" saltValue="fGDNLdW8PNBBg2eOjMf+Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18773,13 +18779,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18788,7 +18794,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18796,7 +18802,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18804,7 +18810,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18812,7 +18818,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18820,7 +18826,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18828,7 +18834,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18836,7 +18842,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18844,7 +18850,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18852,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18872,28 +18878,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18910,7 +18916,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18927,7 +18933,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18944,7 +18950,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18961,7 +18967,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18978,7 +18984,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -18995,7 +19001,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19012,7 +19018,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19029,7 +19035,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19046,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19078,13 +19084,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19094,7 +19100,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19102,7 +19108,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19110,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19118,7 +19124,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19134,7 +19140,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19142,7 +19148,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19150,7 +19156,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19158,7 +19164,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19166,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19174,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="plcdQFF37Ho9DumryfefDRlEnv8SmNHbALSEuUwC+OXqMeoKw0ljzGKc6CNmYOU3M4jjUImqxNXrJD9DsOmVPA==" saltValue="GSQdIVGRFojRT8DoizlWaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ahFa/jT8px/ZiYef6UUImUVVIoOOk0yybR8kcDzIGnZHirBH8pvWcbhs/3do/koeuXScYez4GFdThNQRgNrmrQ==" saltValue="19C/Yevj42fX8cG+NnKwaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19204,30 +19210,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19253,7 +19259,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -19279,7 +19285,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="77">
         <v>4.3500000000000004E-2</v>
@@ -19300,7 +19306,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="77">
         <v>2.3E-2</v>
@@ -19336,10 +19342,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -19364,7 +19370,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -19389,7 +19395,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -19409,7 +19415,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -19443,51 +19449,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -19531,7 +19537,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -19601,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8gY7EIHplMSsQjNNgfRGcUJySNSJgjP4fHjkAsMQOsjYfKmgqvnsRXkzB/TVzYwQWVkOpCLSymMSz2waMTQPzA==" saltValue="NdIUM/wPoGgOwaUc+rumvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OxHP1tLlcBdmuB/rY1Ie0dmf0hWvNvS1Z90ZeKiqIEZmXT+KQFEpPqMOKJKvLdB/F9bpN3835jy4F13UGqdcPw==" saltValue="LhkpJKHMIX8JOUpqPEjUbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19631,30 +19637,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -19674,7 +19680,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -19694,7 +19700,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -19714,7 +19720,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -19738,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="32MQHWeZTIK4595Kdj9AR7ig0mtC62bVxh5rKP/N0Y9ohGxXS3XjVnicnzjyseHkkkYAyO0SAalayMA3uH3cXQ==" saltValue="gu6iURji/kkaubvOssbsnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5+n9zK25YbqwkMWSrci2dk852M89YdtXavuj4x33NKokfhHO4Bb/ZZdFaPEwglz5VFeGT5ag/6wMJvbUpwVAAg==" saltValue="6B9XvK8z7Lzq2SWACa/f/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19763,7 +19769,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -19813,10 +19819,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="28">
         <f>(('Dist. de l''état nutritionnel'!C4+'Dist. de l''état nutritionnel'!C5)*(1/60)+('Dist. de l''état nutritionnel'!D4+'Dist. de l''état nutritionnel'!D5)*(5/60)+('Dist. de l''état nutritionnel'!E4+'Dist. de l''état nutritionnel'!E5)*(6/60)+('Dist. de l''état nutritionnel'!F4+'Dist. de l''état nutritionnel'!F5)*(12/60)+('Dist. de l''état nutritionnel'!G4+'Dist. de l''état nutritionnel'!G5)*(36/60))</f>
@@ -19843,10 +19849,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28">
         <f>(('Dist. de l''état nutritionnel'!C10+'Dist. de l''état nutritionnel'!C11)*(1/60)+('Dist. de l''état nutritionnel'!D10+'Dist. de l''état nutritionnel'!D11)*(5/60)+('Dist. de l''état nutritionnel'!E10+'Dist. de l''état nutritionnel'!E11)*(6/60)+('Dist. de l''état nutritionnel'!F10+'Dist. de l''état nutritionnel'!F11)*(12/60)+('Dist. de l''état nutritionnel'!G10+'Dist. de l''état nutritionnel'!G11)*(36/60))</f>
@@ -19873,10 +19879,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="28">
         <f>'Dist. de l''état nutritionnel'!C15*(1/60)+'Dist. de l''état nutritionnel'!D15*(5/60)+'Dist. de l''état nutritionnel'!E15*(6/60)+'Dist. de l''état nutritionnel'!F15*(12/60)+'Dist. de l''état nutritionnel'!G15*(36/60)</f>
@@ -19900,7 +19906,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19924,7 +19930,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28">
         <f>('Dist. de l''état nutritionnel'!L15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!M15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!N15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!O15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -19948,10 +19954,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="C10" s="28">
         <f>('Dist. l''allaitement maternel'!C2*(1/6)+'Dist. l''allaitement maternel'!D2*(5/6))</f>
@@ -19977,7 +19983,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28">
         <f>(('Dist. l''allaitement maternel'!E2+'Dist. l''allaitement maternel'!E3+'Dist. l''allaitement maternel'!E4)*(6/18)+('Dist. l''allaitement maternel'!F2+'Dist. l''allaitement maternel'!F3+'Dist. l''allaitement maternel'!F4)*(12/18))</f>
@@ -20001,10 +20007,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="28">
         <f>(neonatal_mortality*(1/60)+infant_mortality*(11/60)+U5_mortality*(48/60))/1000</f>
@@ -20030,7 +20036,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
@@ -20053,7 +20059,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/HaLzo3GiuDFdMzkHyUpBHMLHI2xTFVmQkse+CyTS63DaqjJMzQhA3s26mk43xgnDsptavs9odI5CXiu4s7abQ==" saltValue="705XLQHh5VxE5GN5bNdbTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yTBsncjLDca+YDbeLVP5OqcyRycmKBWbKF9fxmMvLLJvoSYmYm92YPrLv7fuSTD/tibG0twHASu7+uCWr71Ljg==" saltValue="qu8IkXKTseL5vinFGpv+QA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20080,19 +20086,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -20100,7 +20106,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20112,7 +20118,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20126,7 +20132,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20140,7 +20146,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20154,7 +20160,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20168,7 +20174,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -20179,7 +20185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20193,7 +20199,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20205,7 +20211,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20217,7 +20223,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20229,7 +20235,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20241,7 +20247,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
@@ -20254,7 +20260,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -20268,7 +20274,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -20282,7 +20288,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -20296,7 +20302,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -20310,7 +20316,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -20324,14 +20330,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PKCbKo545gLXqjkCdExhvPezj/bzqGAhxi4ETf0RuxHq0ZbLL5R57hQyGlqPD/+A5QCubFs0MDYTwSO9lZNXjg==" saltValue="ycnu3G1Fqy7JdPT7S4jYvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fjOQkRkQpZ0MM1HQq+TtfS7sd+hnchLlnT2mYF4JPXm7FM4osk1YGrMhfINIAaWOq4h/qZL257Rtn4KMfT7viQ==" saltValue="yNblrjMRmJPZR9Hf+ms2TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20361,41 +20367,41 @@
         <v>17</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>161</v>
-      </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1IbfmOGlaBNuDukbPxU7eJkmP4pJmGH/NZTHl6WNKFJVLQIS0HRHQ5fpOeKA6SV1Ttp1P/dxdHEZ8KRg5c7ESg==" saltValue="5XDq4zVFnW/3tXJ0IAQ21Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gw5Gr2IIjy39Z3CG6h8U+JY+jElZYY0JiolIfcQZkWl0BiEHygF4N1EWoe7XCtXSrZyNHyjoZ2md4N90I/MWIw==" saltValue="Md2oqa+J7CzUeQR6WwiXUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20423,25 +20429,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="62" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
+        <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
+        <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -20453,12 +20459,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -20470,12 +20476,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -20487,12 +20493,12 @@
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -20504,12 +20510,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -20521,12 +20527,12 @@
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -20538,12 +20544,12 @@
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -20555,12 +20561,12 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -20572,12 +20578,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -20589,12 +20595,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20606,12 +20612,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -20623,12 +20629,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -20640,12 +20646,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -20657,12 +20663,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -20674,7 +20680,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20691,12 +20697,12 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="81">
         <v>0.80800000000000005</v>
@@ -20708,7 +20714,7 @@
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -20725,7 +20731,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20742,7 +20748,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20759,12 +20765,12 @@
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="81">
         <v>0</v>
@@ -20776,12 +20782,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="81">
         <v>0</v>
@@ -20793,12 +20799,12 @@
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="81">
         <v>0.50800000000000001</v>
@@ -20810,12 +20816,12 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="81">
         <v>0</v>
@@ -20827,12 +20833,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="81">
         <v>0</v>
@@ -20844,12 +20850,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="81">
         <v>0.1</v>
@@ -20861,12 +20867,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="81">
         <v>0.3538</v>
@@ -20878,12 +20884,12 @@
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="81">
         <v>0</v>
@@ -20895,12 +20901,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="81">
         <v>0</v>
@@ -20912,12 +20918,12 @@
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -20929,12 +20935,12 @@
         <v>65</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="81">
         <v>0.89970000000000006</v>
@@ -20946,12 +20952,12 @@
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="81">
         <v>0.80700000000000005</v>
@@ -20963,12 +20969,12 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="81">
         <v>0.73199999999999998</v>
@@ -20980,12 +20986,12 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="81">
         <v>0.316</v>
@@ -20997,12 +21003,12 @@
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="81">
         <v>0.59699999999999998</v>
@@ -21014,12 +21020,12 @@
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="81">
         <v>0.19900000000000001</v>
@@ -21031,13 +21037,13 @@
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="81">
         <v>0.13400000000000001</v>
@@ -21049,12 +21055,12 @@
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="81">
         <v>0</v>
@@ -21066,14 +21072,14 @@
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DcPNMSTs7n8UOxEA1+sBgzeaoU9/i6WnBZijuBRoO5/oTpT71SvEhixUbuQrVkLvZnIM7QSgxzA/RCBOxFcoKA==" saltValue="Ruknqhkgkt260BNI+/YtPA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gwwGixGHghVebL7JFY7lYAY4ytUiujGaTl5jnTVQigcYKcUocd1BLrTdH3KRPFDPdBa+HTs5R/yD/uE3IYAhGA==" saltValue="ZnZgD9+HArGK4kQRrFFvwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D81AB76-49CD-48BC-B9E0-D8DB83A31243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5318DA4D-58DA-47E8-B0F9-F6B2C5486EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="7815" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="0" windowWidth="30255" windowHeight="13185" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId9"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId10"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId11"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Incidence des conditions" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="Population cible programmes" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
@@ -36,7 +36,7 @@
     <sheet name="Risques relatifs" sheetId="67" state="hidden" r:id="rId21"/>
     <sheet name="Rapports des cotes" sheetId="68" state="hidden" r:id="rId22"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId23"/>
-    <sheet name="Programs anemia" sheetId="70" state="hidden" r:id="rId24"/>
+    <sheet name="Programmes-anémie" sheetId="70" state="hidden" r:id="rId24"/>
     <sheet name="Programmes-amaigrissement" sheetId="71" state="hidden" r:id="rId25"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId26"/>
     <sheet name="Programmes pour les FE" sheetId="73" state="hidden" r:id="rId27"/>
@@ -465,9 +465,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IYCF 1</t>
   </si>
   <si>
@@ -624,19 +621,19 @@
     <t>Incidence de la diarrhée</t>
   </si>
   <si>
-    <t>Nombre moyen d'épisodes par an : &lt;1 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 1-5 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 6-11 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 12-23 mois</t>
-  </si>
-  <si>
-    <t>Nombre moyen d'épisodes par an : 24-59 mois</t>
+    <t>Nombre moyen d'épisodes par an: &lt;1 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 1-5 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 6-11 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 12-23 mois</t>
+  </si>
+  <si>
+    <t>Nombre moyen d'épisodes par an: 24-59 mois</t>
   </si>
   <si>
     <t>Autres risques</t>
@@ -753,19 +750,22 @@
     <t>Prévalence de l'éclampsie</t>
   </si>
   <si>
+    <t>Données</t>
+  </si>
+  <si>
     <t>Nombre de naissances</t>
   </si>
   <si>
-    <t>FAP : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FAP : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FAP : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FAP : 40-49 ans</t>
+    <t>FAP: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FAP: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FAP: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FAP: 40-49 ans</t>
   </si>
   <si>
     <t>Total FAP</t>
@@ -816,16 +816,16 @@
     <t>Anémie</t>
   </si>
   <si>
-    <t>FE : 15-19 ans</t>
-  </si>
-  <si>
-    <t>FE : 20-29 ans</t>
-  </si>
-  <si>
-    <t>FE : 30-39 ans</t>
-  </si>
-  <si>
-    <t>FE : 40-49 ans</t>
+    <t>FE: 15-19 ans</t>
+  </si>
+  <si>
+    <t>FE: 20-29 ans</t>
+  </si>
+  <si>
+    <t>FE: 30-39 ans</t>
+  </si>
+  <si>
+    <t>FE: 40-49 ans</t>
   </si>
   <si>
     <t>Prévalence de l'anémie</t>
@@ -999,19 +999,19 @@
     <t>Supplémentation en vitamine A</t>
   </si>
   <si>
-    <t>WASH : lavage des mains</t>
-  </si>
-  <si>
-    <t>WASH : Élimination hygiénique</t>
-  </si>
-  <si>
-    <t>WASH : Amélioration de l'assainissement</t>
-  </si>
-  <si>
-    <t>WASH : Source d'eau améliorée</t>
-  </si>
-  <si>
-    <t>WASH : Eau courante</t>
+    <t>WASH: lavage des mains</t>
+  </si>
+  <si>
+    <t>WASH: Élimination hygiénique</t>
+  </si>
+  <si>
+    <t>WASH: Amélioration de l'assainissement</t>
+  </si>
+  <si>
+    <t>WASH: Source d'eau améliorée</t>
+  </si>
+  <si>
+    <t>WASH: Eau courante</t>
   </si>
   <si>
     <t>Zinc pour le traitement + SRO</t>
@@ -4753,18 +4753,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4772,7 +4772,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -4781,7 +4781,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -4794,12 +4794,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -4858,14 +4858,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4909,12 +4909,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -4950,14 +4950,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -4999,19 +4999,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5114,13 +5114,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5161,12 +5161,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5200,7 +5200,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ydQRcK+rasTjIFmL9QMcwZx2xg+sBp+Fuy93rbCJAuGXnhrvmMj+JiB0lJIBCj01mPB4yzXvpIVwr0e2ssZMOw==" saltValue="v2hLlJidmiLjWN40XBpH0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WtiXZ9CJQFaQmbiQSv3bHsWlNitTW+ifP+U4S9ulHczTKi2kI47XUuHH1W6qmHl1HkuP68ds0oHcsH+mJ+B6GQ==" saltValue="9Zylz1WMXg3nPMRXjkNwYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5348,7 +5348,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hDd20LWxQ1/9yrahDZGBUvix9lGSWKcNB4ec46+qBZktVq7tmGs0/KFPoaDAZmfRlxJevRXG/79MCJFMRVeJ9g==" saltValue="1TV6YN7NIMCMHEbaQMSi+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/9PhhtChmrrfGJ8ZeTqCi2bTM6pgiDopAgRdy+lX/TR32W9QlGu45obX2llEVKHy2F63huF7Gx2wurGLR9cwYw==" saltValue="jLPAxcLoE8lA+F7mWY8AcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5448,7 +5448,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tBtKSuSCCvYOZPN91UyoKXHWVLALwuYJLBIub1YldH63ON7VnlkqmUvki0lXWPZWTjU1RJpCmtt38JxbnlkfOg==" saltValue="Grql0OBU4x3mLyJRQCHHEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="96JZ63S75dgtlT2oB6UX3e04KYxxa/kwpStVcna3HItpVHKJJfn01lsUzg4YlyZo02ebDEV7P9LB7ZW/6p1PDA==" saltValue="1LUqVL2w06HTLNAQACVBzQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5472,24 +5472,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S0NWymISadDpTqQ6My3SEhJacEFQMYlryQVIaPL8CBxByZDsKJdlNNmbETP9nCa1VwO9Yw4RUlihUpXUrhCaSA==" saltValue="CfPWonqUEkTtzb2qItNcCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dXK2DCm9pKVdc5lGU0K9uzqOyOjxe+4sfM0lwduo02g+734j44LXRUm58rNW1ipQd11BM+T9Lr0HfoylY27sZw==" saltValue="e+0MMx/8LroPTphvNdIgBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5600,19 +5600,19 @@
         <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>135</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>173</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>171</v>
@@ -7279,7 +7279,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7UhpsyD0FzLYweLZKAPTKUUrIQTCcup42PHyLu8Y6oSaukF2f46gfSgzT0+DrB7MQid2FRYhaVY+ItnHUTF5Ag==" saltValue="N/AMgO3Vz/L3s4pXBGF87g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a2ozC3/QRNQgU/tT41kmaFNFHuNnbRfxX5OEKE96XuELvU0nZMs2mdVbmWK1kNUHMT7AXqbALJrel3jAXXpEnQ==" saltValue="t6MnT4K5CsB5OCOf7b4iTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7317,7 +7317,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fhFF2s0yrItT8Wb4AsqGF6EmUUoqGQnFGNk9C/16QhZcUu+AouLfTxE1z4eiLd/YjRgiTIXWnse4ItMmrYfBJg==" saltValue="eZT7vaPMI2FdKKW3hl/myA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mE1FqPdgbPYBGtzLgE39Z8LPq5/XCVLBeDSONkcftLf58ICXN21kKUFZS2sHQBXMpiVXnWgMBetYW4FBI2XYoA==" saltValue="b9b2EdVT1Kpwzgw+i17CXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7525,7 +7525,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ugj97QpwPZ7Jz+KlVBDBjVukzg5dbfibqxD0AmH7KWfGODTVbg33lUM8549sgpvK/CvVfxV/NjrlWoTRm7z3xQ==" saltValue="Z/GseVd5XnxEWKAFypvmxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jiDTa9Q7zJveRZwT3CUDt2TOUXQjsWhAY4yDjcV164dmWssGhRKq3K2jMI+RdXxxe6LfkwhEnmPBOBgTaITFmw==" saltValue="hESZERuL1W7olS4lKPWaiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7564,19 +7564,19 @@
         <v>163</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>135</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>173</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="90">
         <v>1</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="90">
         <v>1</v>
@@ -8240,7 +8240,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>171</v>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6c/J9tu8pKjn3J2o7LnfUcriFnuP7YPHh+fj6eTw4C5CjfqFMaIdch0NJni5b6rxjQn6e6Mayu6CzU99wN+83g==" saltValue="dcvOYNP2r23GiT+b0dBkUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dJG+UkZUdX9jDusMU+GsaY9isB3AFWuVRaHYX2BPiwHvivs6xVNBvGm/of4UJbOjY8O4U9NE/mUCH+PXR52q9w==" saltValue="m8PYATIfil7s7leLUt1dXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9347,16 +9347,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>114</v>
@@ -9374,7 +9374,7 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
@@ -9390,7 +9390,7 @@
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -9403,7 +9403,7 @@
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="90"/>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
@@ -9443,10 +9443,10 @@
       <c r="H6" s="90"/>
       <c r="I6" s="90"/>
       <c r="J6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9455,14 +9455,14 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -9474,14 +9474,14 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -9493,14 +9493,14 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -9588,7 +9588,7 @@
       <c r="G14" s="90"/>
       <c r="H14" s="90"/>
       <c r="I14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="90"/>
       <c r="E15" s="90"/>
@@ -9607,7 +9607,7 @@
       <c r="G15" s="90"/>
       <c r="H15" s="90"/>
       <c r="I15" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
@@ -9618,17 +9618,17 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
       <c r="G16" s="90"/>
       <c r="H16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
@@ -9652,16 +9652,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="90"/>
       <c r="D18" s="90"/>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="90"/>
       <c r="H18" s="90"/>
@@ -9671,16 +9671,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="90"/>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
       <c r="F19" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -9690,16 +9690,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="90"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="90"/>
@@ -9718,10 +9718,10 @@
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
       <c r="H21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
@@ -9731,13 +9731,13 @@
         <v>187</v>
       </c>
       <c r="B22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -9761,7 +9761,7 @@
       <c r="G23" s="90"/>
       <c r="H23" s="90"/>
       <c r="I23" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
@@ -9777,7 +9777,7 @@
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
       <c r="H24" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="90"/>
       <c r="J24" s="90"/>
@@ -9794,7 +9794,7 @@
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
       <c r="H25" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="90"/>
       <c r="J25" s="90"/>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
@@ -9831,7 +9831,7 @@
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
       <c r="I27" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -9847,7 +9847,7 @@
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
       <c r="H28" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="90"/>
       <c r="J28" s="90"/>
@@ -9858,11 +9858,11 @@
         <v>194</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
@@ -9880,7 +9880,7 @@
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
@@ -9899,10 +9899,10 @@
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="90"/>
       <c r="J31" s="90"/>
@@ -9918,10 +9918,10 @@
       <c r="E32" s="90"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="90"/>
       <c r="J32" s="90"/>
@@ -9937,10 +9937,10 @@
       <c r="E33" s="90"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
@@ -9956,10 +9956,10 @@
       <c r="E34" s="90"/>
       <c r="F34" s="90"/>
       <c r="G34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="90"/>
       <c r="J34" s="90"/>
@@ -9975,10 +9975,10 @@
       <c r="E35" s="90"/>
       <c r="F35" s="90"/>
       <c r="G35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
@@ -9994,10 +9994,10 @@
       <c r="E36" s="90"/>
       <c r="F36" s="90"/>
       <c r="G36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="90"/>
       <c r="J36" s="90"/>
@@ -10014,7 +10014,7 @@
       <c r="F37" s="90"/>
       <c r="G37" s="90"/>
       <c r="H37" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="90"/>
       <c r="J37" s="90"/>
@@ -10025,24 +10025,24 @@
         <v>202</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="90"/>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
       <c r="F38" s="90"/>
       <c r="G38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="90"/>
       <c r="J38" s="90"/>
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="obNdJm7Fi0goFDxSaJu3VwBz3opaF7lMCeNW0DNsusSg1IsWvvvEKJa7FmKDBf2f8uARWfTyjnjq9bjz4stIEw==" saltValue="JdZU7H5zQQdFB+sBChTfcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hiC9QKLpK4DPL20t9FQ6RwsaBDhxfElMaz1/3tWH1HANRTUbpXgwnRVNyWuYN9pE7J28uK8Rm6M3oZijdTtRJA==" saltValue="+N8uGBQzNTIMYPbsrQe+jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10093,16 +10093,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>114</v>
@@ -10110,28 +10110,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -10139,28 +10139,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -10168,28 +10168,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -10197,28 +10197,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -10226,28 +10226,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
@@ -10259,17 +10259,17 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
@@ -10280,17 +10280,17 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
@@ -10301,17 +10301,17 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
       <c r="G9" s="90"/>
       <c r="H9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
@@ -10322,17 +10322,17 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
       <c r="G10" s="90"/>
       <c r="H10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
@@ -10352,10 +10352,10 @@
       <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="90"/>
       <c r="E12" s="90"/>
@@ -10374,7 +10374,7 @@
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="90"/>
       <c r="E13" s="90"/>
@@ -10393,7 +10393,7 @@
       <c r="I13" s="90"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
@@ -10412,11 +10412,11 @@
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L41cgSTH4m78ZEodAhovOU0zkSJFiFhLRSJJa/zgnw9o8njzhWIbVrRezsEAhLcDVNcx2wNdqntOEGEO744BNw==" saltValue="BzzWVof9pBsq1Vz5/sr8gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/Ytiga7329Di4AzOvmvHy5LZavEbJwORpJTUcDy/zXN6vDNsw5AI5WaWK3apkCmUlKo8yLYS08lGW2vaNJdrcg==" saltValue="nqoUbh97cn1PnVi6D/lPDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10451,19 +10451,19 @@
         <v>167</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="98" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="98" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10471,7 +10471,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>159</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>159</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>159</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>159</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>159</v>
@@ -10832,7 +10832,7 @@
         <v>222</v>
       </c>
       <c r="B19" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>159</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>159</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>159</v>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>159</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>159</v>
@@ -11190,7 +11190,7 @@
         <v>223</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>159</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>159</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>159</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>159</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>159</v>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5oKOHZbzpd9OZVhzbCtHMXGBYjA3U5JZJBScfoJXg1qZJKc2AEs7t7ez9M+2g6v8NCeHMZ9CFkRU8kCCjwuNWA==" saltValue="MrFRryS2h3VNhyCXl3I0aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IQJd0/rmR+nlRCiCfzcEIafVdouqQRLDXT6QyM2/Bh9MqVnyVRh0YjQEA4bK1iNBnVav4lWV90NmZv/7adwHxg==" saltValue="vOjb4IrS0nC88OFA0QTbNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9LtRnjVz/fZSfvq6vsIcdT6tzXTXzKEk0W2nuON3jRywYBFi3hoKadU1fn+B85BIyZeajrOch20PCSUme5H2Pw==" saltValue="VoYp7u08TqpSwf+47YBePQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Cpqq3BHup+dpIiGmLwN/vwdXoviDyEy9nJnepbgDypiGpDjIL9l12DD28sAPtYZtN0G907U0o8LhjDi+JT9ihg==" saltValue="LGz1PLAkjHTsQH04SPAOxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12685,16 +12685,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="109" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12709,7 +12709,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="114">
         <v>1</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="114">
         <v>1</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="114">
         <v>1</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -12902,7 +12902,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -12938,7 +12938,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -12956,7 +12956,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -12974,7 +12974,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -13047,7 +13047,7 @@
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6w4JxtMKKBm8Y1q2RZw2YaRGPq2VOAhFQkLNl8vdTVnIUV+9e115uA3iu6W1P9HusAVmZg4NhOLCVSw2GMF+HQ==" saltValue="q8YmwMa47t0M7hyTMFQcNw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c56nOwi6UHy53R28yDjoB20OZ2veDBkTTfSeQxl9Fjt6GeVVr/Ni5LEjrZg2XuXnG2f3KvFVBpOmt5cAOisn6A==" saltValue="jpXdydUg4zUP8s4xWPHK9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13091,19 +13091,19 @@
         <v>235</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="G2" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="H2" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="I2" s="128"/>
       <c r="J2" s="128"/>
@@ -13117,10 +13117,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="114">
         <v>1</v>
@@ -13232,10 +13232,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="114">
         <v>1</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="114">
         <v>1</v>
@@ -13462,10 +13462,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="114">
         <v>1</v>
@@ -13577,10 +13577,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="114">
         <v>1</v>
@@ -13692,10 +13692,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="114">
         <v>1</v>
@@ -13821,19 +13821,19 @@
         <v>239</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="G29" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="109" t="s">
+      <c r="H29" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="H29" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="I29" s="128"/>
       <c r="J29" s="128"/>
@@ -13847,10 +13847,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="114">
         <v>1</v>
@@ -13962,10 +13962,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="114">
         <v>1</v>
@@ -14077,10 +14077,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="114">
         <v>1</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="114">
         <v>1</v>
@@ -14307,10 +14307,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="114">
         <v>1</v>
@@ -14422,10 +14422,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="114">
         <v>1</v>
@@ -14575,7 +14575,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>242</v>
@@ -14622,7 +14622,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>242</v>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>242</v>
@@ -14734,19 +14734,19 @@
         <v>245</v>
       </c>
       <c r="D65" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F65" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="109" t="s">
+      <c r="G65" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="109" t="s">
+      <c r="H65" s="132" t="s">
         <v>100</v>
-      </c>
-      <c r="H65" s="132" t="s">
-        <v>101</v>
       </c>
       <c r="I65" s="128"/>
       <c r="J65" s="128"/>
@@ -14760,7 +14760,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>142</v>
@@ -14875,7 +14875,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>142</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>142</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>142</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>142</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>142</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>142</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>142</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>142</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="134" t="s">
         <v>145</v>
@@ -15809,19 +15809,19 @@
         <v>245</v>
       </c>
       <c r="D104" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="F104" s="109" t="s">
+      <c r="G104" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G104" s="109" t="s">
+      <c r="H104" s="132" t="s">
         <v>100</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>101</v>
       </c>
       <c r="I104" s="128"/>
       <c r="J104" s="128"/>
@@ -15950,7 +15950,7 @@
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ucrk0BjdTYX2N99Z6Hih/IESeQ+VI6fsDcX6r6IOxKgbswtrGSkt2Q0cPooTIGAOsdvV8ZUtjAkfr3KDI8pv6A==" saltValue="E+FnTzKr0sUCsQ3HzyTGxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LF8HmhUcHWVO1tC8OyQSMFQfvN4NQpF5ykfWYW5LH2la0PKMNwIbVJxc0b41RqdmxCdJY2kiQ5w62K8fGOq5cQ==" saltValue="bU6cJ5cQsRUUi6QliV1bYw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15990,19 +15990,19 @@
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16010,7 +16010,7 @@
         <v>249</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="115">
         <v>45</v>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zLY1fD/Z7C6rmjNE+FFa9gOSqJL7pQQFrWR8iYfEO1j/Rxeu+xXc3h96+YkPggMG/GGR4EDUBuH9kuOc596KNQ==" saltValue="n6OI5n3ZkrT5z/MdAR0AOw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+pYm9Rzd4RQKYVRbUk+lxDE27m6YCN/uKGipgSuvTWa5/umv2KXJH+gKhr5GetlseBjexiRJRptDtxQGpnN5Tg==" saltValue="dzJoUIyrPN306zMNozTc1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16292,16 +16292,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="127" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16539,7 +16539,7 @@
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5cn0wntfk3gyNPFtO5oVeWy+DqtVGBw5g/bUNYqZOvE0DzTnDl1UNPgHBcxPRKjB/d3THnFvYeDYKOoB1OkkXw==" saltValue="KYPS01F5yJUb3HEN/qWxLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sy7tx9RfGolEEt8nrtT/cA8DZZdLlgxPZvXqh9bKJMMwqxwLQD8rdu1oPqKBPO+OEhhD8m3Nwp96MF5YlFtoZA==" saltValue="F4cM58R/Ul5Vcu7R7rqR6A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16568,19 +16568,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="F1" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="G1" s="109" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="109" t="s">
-        <v>101</v>
       </c>
       <c r="H1" s="109" t="s">
         <v>115</v>
@@ -17335,7 +17335,7 @@
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wWqOGoPp/ErDI1vE49nXDbkfEIT/6Rlai21paT1pmOnH+tBtMIwPqgXeU18IfSqnCE0pP2R9R2UCrj/PXQJ+zQ==" saltValue="pnW+0emi8LbTkTVEkf3myg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oo1rJIRkEua+GFtDk/3fr4jttiDY0r3MAM3hYFoSCOQEFb5teLsOQwRGfUMlQoyYiqFJamjuZ4cXqAab3M7vpw==" saltValue="+Lgb6trrG+PNvroOh8HeHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17364,19 +17364,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UMz1/hf5I07lnY7xV6CBP+OHyZQevTTzTbMlpUrUUZ698+AaT/NG9e3BnYYtQlQ+Nn3MFiFxdSZMQsP5QBBnIw==" saltValue="+rSiu9WPZG1gUhemhKpnSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GPk//0+Dob3dRiqW12woaku9USCTqGC++6C4/IBwhM/1AUSL4gX3+bzHvQRPeRVSqsmcupudTbtUD5hV4e5/nA==" saltValue="YzTMFQTQxAmkmrghZG4A3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17474,22 +17474,22 @@
         <v>264</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -17497,7 +17497,7 @@
         <v>195</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>265</v>
@@ -17833,7 +17833,7 @@
         <v>178</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>265</v>
@@ -17881,7 +17881,7 @@
         <v>176</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>265</v>
@@ -17927,7 +17927,7 @@
         <v>177</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>265</v>
@@ -17973,7 +17973,7 @@
         <v>199</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>265</v>
@@ -18039,7 +18039,7 @@
         <v>200</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>265</v>
@@ -18105,7 +18105,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>265</v>
@@ -18171,7 +18171,7 @@
         <v>197</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>265</v>
@@ -18237,7 +18237,7 @@
         <v>196</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>265</v>
@@ -18303,7 +18303,7 @@
         <v>202</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>265</v>
@@ -18366,7 +18366,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>265</v>
@@ -18432,7 +18432,7 @@
         <v>193</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>265</v>
@@ -18478,7 +18478,7 @@
         <v>201</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>265</v>
@@ -18524,7 +18524,7 @@
         <v>186</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>265</v>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EdTYt4e0CYy16nP8d+F0LQq1ZfNzk8rUQZnwJL96XBXi21hYZdSo3AflXRTht/7XuhvA5iC8iVgbRGmm2FVl9Q==" saltValue="P0+Sj/dYehLbG3/XDp3oQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hIkHY4v5O4EligP0WBR0dCl2ToqCf9JOQnVoFvmkdYYsLp26JCicFzOgpZOP/9YZkTm6aDCFQsJ2mehaVWgEPw==" saltValue="OczWNR0vBTtHFkpR2+koxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18619,7 +18619,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>265</v>
@@ -18661,7 +18661,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>265</v>
@@ -18704,7 +18704,7 @@
         <v>189</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>265</v>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a6ytd31S7tIV4wTfMr2xHnMB9ci+zKtb89Uc104O3AeFLIddcKUZ+KVl+F+2fGw4cpu/v0BojZIdL/o2pxPVog==" saltValue="fGDNLdW8PNBBg2eOjMf+Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1ud1Oj+KMHqy0Gn1jVPgYn3aw2FyfvcpLqImvCMaSteJ6f/c1ujFQOKdYs6Q2TUhssiEGzX2SXpiilH1+PmiBQ==" saltValue="aM+EMo1oLsEO4heyPcdjMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18779,13 +18779,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -18794,7 +18794,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -18810,7 +18810,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -18818,7 +18818,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -18826,7 +18826,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -18878,28 +18878,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -18933,7 +18933,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -18984,7 +18984,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -19035,7 +19035,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -19052,7 +19052,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -19084,13 +19084,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -19108,7 +19108,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -19140,7 +19140,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -19148,7 +19148,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -19156,7 +19156,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -19172,7 +19172,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ahFa/jT8px/ZiYef6UUImUVVIoOOk0yybR8kcDzIGnZHirBH8pvWcbhs/3do/koeuXScYez4GFdThNQRgNrmrQ==" saltValue="19C/Yevj42fX8cG+NnKwaw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z492gcBEIYI+mV91sSpSfuRxuD7o3Qog4tXlrVNBVEVKeNZlnOHQL6S9ekBbC5lc8dOs100jx+YNLNFC/R02GA==" saltValue="f9bdaRCwjoOf0P38tXSDMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19213,19 +19213,19 @@
         <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19452,19 +19452,19 @@
         <v>134</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>135</v>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OxHP1tLlcBdmuB/rY1Ie0dmf0hWvNvS1Z90ZeKiqIEZmXT+KQFEpPqMOKJKvLdB/F9bpN3835jy4F13UGqdcPw==" saltValue="LhkpJKHMIX8JOUpqPEjUbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P9qpgFFVqA77rJnmxDYyQ8ceehZhn5E+5tu954MYtgh34B4smKKZvvd82EJqwLU4l9FZcUt3KdWyIDONWJ67pw==" saltValue="Ncb+/VtPZeDOWf2OUe0cIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19640,19 +19640,19 @@
         <v>123</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5+n9zK25YbqwkMWSrci2dk852M89YdtXavuj4x33NKokfhHO4Bb/ZZdFaPEwglz5VFeGT5ag/6wMJvbUpwVAAg==" saltValue="6B9XvK8z7Lzq2SWACa/f/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gdWaChggru4nsFYAiKIyKI+oULX46cjR1sS7TS4iyBBPIezI3u1R17Wy3wehCOLvz2/pcCBUKuxfSz2p8+Lpyg==" saltValue="ReKHHvHQWvqgf557x5j3Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19906,7 +19906,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="28">
         <f>('Dist. de l''état nutritionnel'!H15*('Projections démographiques'!C2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!I15*('Projections démographiques'!D2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!J15*('Projections démographiques'!E2/SUM('Projections démographiques'!C2:F2))+'Dist. de l''état nutritionnel'!K15*('Projections démographiques'!F2/SUM('Projections démographiques'!C2:F2)))</f>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>154</v>
@@ -20059,7 +20059,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yTBsncjLDca+YDbeLVP5OqcyRycmKBWbKF9fxmMvLLJvoSYmYm92YPrLv7fuSTD/tibG0twHASu7+uCWr71Ljg==" saltValue="qu8IkXKTseL5vinFGpv+QA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FnMcWJZwlKZ1AikUv8bMv2FeQpA4Z/xGHDZF5Z0tK8AsL4iIe/upgV1Z59KsRq9vz+CdK/FmzHzYVBEXu3AHCA==" saltValue="q7iHh3FpS5mRz3oVCbLvVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20103,10 +20103,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -20118,7 +20118,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -20132,7 +20132,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -20146,7 +20146,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -20160,7 +20160,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -20182,10 +20182,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -20199,7 +20199,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -20211,7 +20211,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -20223,7 +20223,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -20235,7 +20235,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -20252,19 +20252,19 @@
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20274,11 +20274,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20288,11 +20288,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20302,11 +20302,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20316,11 +20316,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -20337,7 +20337,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fjOQkRkQpZ0MM1HQq+TtfS7sd+hnchLlnT2mYF4JPXm7FM4osk1YGrMhfINIAaWOq4h/qZL257Rtn4KMfT7viQ==" saltValue="yNblrjMRmJPZR9Hf+ms2TA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QVKgHdFL3LTdQJKM1Tfo3qNIwSdH/bb204+lE1gBKh7Ls0UOiTBMxm0EERCg/nf7OZY3ooV6efu/Ber2uWm4Yw==" saltValue="9NI/vVTJzdJbHoULgeKrkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20370,7 +20370,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>166</v>
@@ -20401,7 +20401,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Gw5Gr2IIjy39Z3CG6h8U+JY+jElZYY0JiolIfcQZkWl0BiEHygF4N1EWoe7XCtXSrZyNHyjoZ2md4N90I/MWIw==" saltValue="Md2oqa+J7CzUeQR6WwiXUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pk/3FVX1kmolYVPb3OSZKiA47IBbkEw+T8J95kdHSU8fuE1Sv1lxOSqesg0N7eX4lrSZ7ZLfapjlWQAl30/xVg==" saltValue="polN+nkk+kxnFsJCeoYe7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20719,7 +20719,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -20736,7 +20736,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -20753,7 +20753,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -21079,7 +21079,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gwwGixGHghVebL7JFY7lYAY4ytUiujGaTl5jnTVQigcYKcUocd1BLrTdH3KRPFDPdBa+HTs5R/yD/uE3IYAhGA==" saltValue="ZnZgD9+HArGK4kQRrFFvwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yK8eEPTp3FDlLToT9A/NmSjxfM9DXmEcZptrU15MDoxmkngGb/cxNysIk0fitWRL3bMys5MYLn18et1SA1Lozg==" saltValue="gZbtYLMeQ4i45/N5UbFsuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B0DA5E-4B97-49D1-8CFD-16FFA25AC3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59DB19-5059-431C-8BDA-A9848CC661F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="7020" windowWidth="29265" windowHeight="12300" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -4744,14 +4744,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4762,14 +4762,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>19</v>
@@ -4778,7 +4778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -4787,17 +4787,17 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>9862402</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
@@ -4853,17 +4853,17 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
@@ -4904,15 +4904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
@@ -4944,18 +4944,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>41</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>42</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>43</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>44</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>45</v>
       </c>
@@ -4996,20 +4996,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>49</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>50</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>51</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>52</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>53</v>
       </c>
@@ -5061,16 +5061,16 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>55</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>56</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>57</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>58</v>
       </c>
@@ -5109,16 +5109,16 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>60</v>
       </c>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>62</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>63</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>64</v>
       </c>
@@ -5159,12 +5159,12 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>67</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
         <v>69</v>
       </c>
@@ -5196,11 +5196,11 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s66pC90IsozqC/WDl2tyeer5hVaQ1Bf/Puh4231wIGfrGe8CNkwgCCcXjknDz9TZ1eLqnShNJ/uA3x2DaKJZBg==" saltValue="/VEbvveY2tdzc31AcdA78A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wIV/Dqol4XAOOauLu4ZE0OV5+UeBVAWHCDqky2UFMvpDBo4eilS857lCXFXSONwIAZpYuLiIjaw1LRaiNt0E0A==" saltValue="nanmrqmYthGY79ykaDnpuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5217,15 +5217,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
         <v>173</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
         <v>174</v>
       </c>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
         <v>184</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="84" t="s">
         <v>181</v>
       </c>
@@ -5272,83 +5272,83 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6/9nYlCP9zkZpJ2pG5X2zapNoaletCuwebR92Iwwh0wYDS+B+axOP09quQIT1O/EHNbHIkBC84Ra7Evo2prmNg==" saltValue="COCjFLzIAHqL90uQVkaYxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xvyMvQwM9Tsjn560XQpGDG+vpKtrDAhoL1fVqcTchOqIyJASAQhZ+J5w24jJxCaM32Tzq/7CWaED1GPrIkroHA==" saltValue="sznNtj6Ruao49uGlBdTvig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5366,89 +5366,89 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sRRcUisvHlVQwW4sgl1q1+DfTbA9MUTPvkdM7O3kIMs9iGAudx8Pgrzq1Xaoo46q4gipr95b1+XNNHgu5c0Ndg==" saltValue="tKNhJxc+8qHpdFBLRr/NTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WtZphyy0AZXeu/51e0k9kKx2Hc6NbjAlGWmGEgraSyigklBjDskYJMhLOr+ccGDxvTePDBvSouPysQfjdH4p4g==" saltValue="mY2nKX1anKhTQmo5QiUo+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5465,9 +5465,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>198</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>5.8059717622450747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>197</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PGdNxrGLCQr+vvFhwrXIpEqt1iLtkOgoaRmmjcnCxx6Frj28ypIbzTVjS91Bz6B0L8wAVoSt9KXjS0AVNSI93w==" saltValue="DIhhMuWJ7ocSHlefy0GoOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I3bnh6lBuBkQgqmg83gjp4T8tXAB0ohoga4fmjWi9w1wTYJGtx2sjHK3jjcgl9LNEybi3fluXn0QTKMfxEPeqg==" saltValue="eM761OtRPG1VNg55Vs8VfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5580,19 +5580,19 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>200</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>164</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>176</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>177</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>184</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>154</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>191</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
@@ -6151,10 +6151,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>103</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>162</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>173</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>174</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>179</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>180</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>182</v>
       </c>
@@ -6532,10 +6532,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
         <v>78</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>169</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0.54921999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
         <v>170</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>0.23537999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
         <v>171</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>0.21539999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
         <v>172</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6785,7 +6785,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>199</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>167</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>175</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>178</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>186</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>187</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>188</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>189</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>190</v>
       </c>
@@ -7275,11 +7275,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FVta/C3Pf63htRQiIhXfIF2OOKUt8/k8mn/nK9NHoY/b9TtmkPsXND694sNFYPgZyewA7NdloAgIJQdFfxSQPA==" saltValue="ZTJpoiYBrOTC64uAQy+gcg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xbsPgXY9POaayXS2cuY8dGyaL6u9icJvHk21EPKuxJS6/g6o0rXEDjBlEE57+RsGAnG69SAM3AAeU9hZdNQrlQ==" saltValue="4vRlUzczIWdNfGXEjrXeVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -7294,30 +7294,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iABRRwMLMiqTZ3DVci4cQpQMj5hS/Duc9A6qsE9nfE6UpPfJgc2aR3Cw8d4s/cuX4iMhOD8GhuLFs8ILXW50kw==" saltValue="OS0IBwnOBlu1gx/vKzvfXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dmO9OoqtX9xWJ7EPIYlAhM32Ri8ULB+Fthgaq4vTAiAE7KhKYJVIirjBjO9HZWX1s0Nf0CG5t9TooTjbGO0b5A==" saltValue="GydVgRWzQRO38OuUFX4i3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7333,16 +7333,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>205</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>206</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>207</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>208</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>209</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>210</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>211</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>212</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>213</v>
       </c>
@@ -7521,11 +7521,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tsVsMMOrD9Gv+zYMGaRO2hsYRIakWTdBdQs7TymrbfShpAdvw8HsI/kg9cGeAZqITip0nxz5yfv8jT3jOf5L8g==" saltValue="5QX28HvUStad+YzIN/HwTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5pYBmGwe3l4T5re0ZX0lDH+i+KeuT7jdKVYJDsVRPLyOjrajA+j4zaDpTEomBSamgi6qNTgDg/f12knOHulxXg==" saltValue="tceuW0Da3d4nfmYI1eJOUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7543,20 +7543,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>200</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>89</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
         <v>164</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>176</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
         <v>177</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
         <v>181</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>183</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>184</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>154</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
         <v>185</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>191</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>192</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="91"/>
       <c r="D16" s="91"/>
@@ -8238,7 +8238,7 @@
       <c r="N16" s="91"/>
       <c r="O16" s="91"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>103</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>162</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="92" t="s">
         <v>173</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92" t="s">
         <v>174</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="93" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
         <v>179</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
         <v>180</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
         <v>182</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="52"/>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -8610,7 +8610,7 @@
       <c r="N25" s="91"/>
       <c r="O25" s="91"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>78</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="P26" s="94"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>169</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>170</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
         <v>171</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
         <v>172</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="95"/>
       <c r="D31" s="95"/>
@@ -8851,7 +8851,7 @@
       <c r="N31" s="91"/>
       <c r="O31" s="91"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>199</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>167</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>168</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
         <v>175</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>178</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97"/>
       <c r="B37" s="52" t="s">
         <v>186</v>
@@ -9119,7 +9119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>187</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52" t="s">
         <v>188</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52" t="s">
         <v>189</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2oRm+SG5bAemgVR3CKUn6DNGFz2srZzzQr/gHKtssV7Ri0Vzr+/sAQSE/ZS9mPYIbWn7gmKwpxEDjUvxMhkgEA==" saltValue="7IDP3VIi5Mb5j18xBb7QiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P1XiFZtgiv2lDTl5Cer4eIJ5WEZMN54b8okBBE/62bK1AQCXQz7qeNdW8jLhyhvc5SKtieAQuhxbIiaKlh9ESQ==" saltValue="ko07jjhkxYO+7j5VyDdIaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9312,22 +9312,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -9396,7 +9396,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -9430,7 +9430,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
         <v>173</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
         <v>174</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -9650,7 +9650,7 @@
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -9747,7 +9747,7 @@
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -9817,7 +9817,7 @@
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -9853,7 +9853,7 @@
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -9889,7 +9889,7 @@
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="J36" s="90"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="J37" s="90"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -10042,7 +10042,7 @@
       <c r="K38" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OFYy3UsMr40sGmp7JtSDES15nR1g/lc8YUxcSoTSInJW89+sTUFrhUthFbcdADiOPoMN5wGDcHDw0jw0glf2AA==" saltValue="USAlWG8CwmkNUngqS61Xhg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PdzVDJ6/Dv6SULTM3mHB804JI/App2OYAU4uCtO7c5if8uE2VQgm10gwFfMhMZXtnXSzq6kdbsfrZ1Rr3NenWw==" saltValue="WyRrlBou9DXkV/QVbDK8aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10058,22 +10058,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>219</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>112</v>
       </c>
@@ -10137,7 +10137,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
@@ -10166,7 +10166,7 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="J4" s="90"/>
       <c r="K4" s="90"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
@@ -10224,7 +10224,7 @@
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10253,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>125</v>
       </c>
@@ -10274,7 +10274,7 @@
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>126</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>127</v>
       </c>
@@ -10316,7 +10316,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>128</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>72</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>73</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>74</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>75</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1fX4Uesi3Go2LcSZ0tmDtRqsW0VRl6j829/TA/j1jD46s41ssIfz30haOUoOls9rdPGe/UFlJZgC5VQBj0z8rw==" saltValue="7bMGRPEgDWZhGaoum3sfgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j/PldIIMKepwyFANrbrTnfE28zzWfOnxYzT+/Z10j0+KO1n0WWr6FSOC87Jfw/bjIb9R7I+wNn/wv+hO2c8qOQ==" saltValue="mQGc38aIK2zfkVFXiJaHww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10432,15 +10432,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.5703125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>220</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>221</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>150</v>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>151</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="138" t="s">
         <v>112</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>150</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>151</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="138" t="s">
         <v>99</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>150</v>
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>151</v>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="138" t="s">
         <v>100</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>150</v>
@@ -10711,7 +10711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>151</v>
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="138" t="s">
         <v>101</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>150</v>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>151</v>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
         <v>152</v>
       </c>
@@ -10820,14 +10820,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>222</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>150</v>
@@ -10874,7 +10874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>151</v>
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="138" t="s">
         <v>112</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>150</v>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>151</v>
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="138" t="s">
         <v>99</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>150</v>
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>151</v>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="138" t="s">
         <v>100</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>150</v>
@@ -11069,7 +11069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>151</v>
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="138" t="s">
         <v>101</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>150</v>
@@ -11134,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>151</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="101" t="s">
         <v>152</v>
       </c>
@@ -11178,14 +11178,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D35" s="102"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="103" t="s">
         <v>223</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>150</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>151</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="138" t="s">
         <v>112</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>150</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>151</v>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="138" t="s">
         <v>99</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>150</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>151</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="138" t="s">
         <v>100</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>150</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>151</v>
@@ -11448,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="138" t="s">
         <v>101</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>150</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>151</v>
@@ -11513,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="104" t="s">
         <v>152</v>
       </c>
@@ -11537,7 +11537,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2mBXkr5ZGnK2shurdzFa1hUBhjW0iE3+nMvs2vDKdYHXzcZ3i1oKSmKjKStqEyA6+JY+otcF4Yc2A1GSX/wWug==" saltValue="aNEUNb/iHNNRmfsqDrDKmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lr4GLm1QdYLn55ASl7r6qYf/GmXyO8N4a6iir7JiXFmU8FUuLKeqEAs/b1URozcd3cHj0d5TsLIQsioiwgxmxA==" saltValue="usLQ/uTaUwnh8xpWRU7ueA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
@@ -11571,14 +11571,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>79</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11640,7 +11640,7 @@
         <v>10889222.411291081</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11673,7 +11673,7 @@
         <v>11314876.916718401</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11706,7 +11706,7 @@
         <v>11742062.79850255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11739,7 +11739,7 @@
         <v>12188008.303929869</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11772,7 +11772,7 @@
         <v>12645913.809357187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11805,7 +11805,7 @@
         <v>13098634.691141337</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11838,7 +11838,7 @@
         <v>13560643.572925486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11871,7 +11871,7 @@
         <v>14048879.078352805</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11904,7 +11904,7 @@
         <v>14530354.336493783</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11937,7 +11937,7 @@
         <v>15032265.218277931</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11970,7 +11970,7 @@
         <v>15550202.10006208</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -12003,7 +12003,7 @@
         <v>16082324.981846228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -12036,7 +12036,7 @@
         <v>16613455.239987208</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -12069,7 +12069,7 @@
         <v>17165139.121771358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AYiVr7ifFVJYQLUcR/wE9D1y2nSA5O7glCzLI1F8bPppmOxETTj835JGvBMlg+rwAS/UmrxHmyvma6rHBt/Avg==" saltValue="Mval/1IytFpOzTQ29zVwag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nvOQMmYWW9/GsemXaYJlaLrAf/+peTqmANCf4p0yEMyZ8lrzL+LyBBbCU9AzOqdcBPPE4ivktABXHRwbs+GPoA==" saltValue="7Qe6Pi43MtSI/1qqqu84CA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12667,22 +12667,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="107"/>
       <c r="C2" s="108" t="s">
         <v>58</v>
@@ -12697,7 +12697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -12707,7 +12707,7 @@
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
         <v>41</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="113" t="s">
         <v>42</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>43</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="113" t="s">
         <v>44</v>
       </c>
@@ -12775,13 +12775,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="116"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
         <v>232</v>
       </c>
@@ -12799,14 +12799,14 @@
       </c>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="116"/>
       <c r="D10" s="100"/>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="106" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
         <v>226</v>
       </c>
@@ -12816,7 +12816,7 @@
       <c r="F11" s="119"/>
       <c r="G11" s="120"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>227</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="F12" s="100"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="121" t="s">
         <v>228</v>
       </c>
@@ -12844,7 +12844,7 @@
       </c>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
         <v>229</v>
       </c>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="G14" s="117"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
         <v>230</v>
       </c>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="121"/>
       <c r="C16" s="122"/>
@@ -12889,7 +12889,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="117"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>231</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="F17" s="124"/>
       <c r="G17" s="117"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125" t="s">
         <v>81</v>
       </c>
@@ -12918,7 +12918,7 @@
       </c>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="125" t="s">
         <v>82</v>
       </c>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="G19" s="117"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="125" t="s">
         <v>83</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
       <c r="G20" s="117"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="125" t="s">
         <v>84</v>
       </c>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="G21" s="117"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="125" t="s">
         <v>85</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125" t="s">
         <v>86</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="125" t="s">
         <v>87</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="125" t="s">
         <v>88</v>
       </c>
@@ -13040,14 +13040,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="121"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bhn6GgyepGSdqLseBP1fWQbJSVmHpf+KGVpT0Pd85tw+H7ii4k7tEx96+ULXqG+ys32cDACvg11+i8ChWAZAGA==" saltValue="9zU3CetCw0ADNSzv31/8qw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LA89RutQfoEdM7nzrSxe7UeUJZYs8btgC3IWZJ2FQY+1YuCu7xdFzU1lBDfsJRRiw5/KU8KZe4LTQpjasYXtYg==" saltValue="oHo7F6ZvOtvnnVRBdkSX+w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -13064,23 +13064,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.85546875" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="126" t="s">
         <v>215</v>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="O2" s="128"/>
       <c r="P2" s="128"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>90</v>
@@ -13146,7 +13146,7 @@
       <c r="O3" s="126"/>
       <c r="P3" s="126"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="43" t="s">
         <v>236</v>
       </c>
@@ -13174,7 +13174,7 @@
       <c r="O4" s="126"/>
       <c r="P4" s="126"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="43" t="s">
         <v>237</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="O5" s="126"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="43" t="s">
         <v>238</v>
       </c>
@@ -13230,7 +13230,7 @@
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>91</v>
       </c>
@@ -13261,7 +13261,7 @@
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="43" t="s">
         <v>236</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="43" t="s">
         <v>237</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="43" t="s">
         <v>238</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
         <v>93</v>
       </c>
@@ -13376,7 +13376,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="43" t="s">
         <v>236</v>
       </c>
@@ -13404,7 +13404,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="43" t="s">
         <v>237</v>
       </c>
@@ -13432,7 +13432,7 @@
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>94</v>
       </c>
@@ -13491,7 +13491,7 @@
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="43" t="s">
         <v>236</v>
       </c>
@@ -13519,7 +13519,7 @@
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="43" t="s">
         <v>237</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="43" t="s">
         <v>238</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
         <v>92</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="43" t="s">
         <v>236</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="43" t="s">
         <v>237</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="43" t="s">
         <v>238</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
         <v>98</v>
       </c>
@@ -13721,7 +13721,7 @@
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="43" t="s">
         <v>236</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="O24" s="126"/>
       <c r="P24" s="126"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="43" t="s">
         <v>237</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
         <v>238</v>
       </c>
@@ -13805,12 +13805,12 @@
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="28" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="129" t="s">
         <v>248</v>
       </c>
@@ -13844,7 +13844,7 @@
       <c r="O29" s="128"/>
       <c r="P29" s="128"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>90</v>
@@ -13876,7 +13876,7 @@
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="43" t="s">
         <v>236</v>
       </c>
@@ -13904,7 +13904,7 @@
       <c r="O31" s="126"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="43" t="s">
         <v>198</v>
       </c>
@@ -13932,7 +13932,7 @@
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="43" t="s">
         <v>197</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>91</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="43" t="s">
         <v>236</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="43" t="s">
         <v>198</v>
       </c>
@@ -14047,7 +14047,7 @@
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C37" s="43" t="s">
         <v>197</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="O37" s="126"/>
       <c r="P37" s="126"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
         <v>93</v>
       </c>
@@ -14106,7 +14106,7 @@
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="43" t="s">
         <v>236</v>
       </c>
@@ -14134,7 +14134,7 @@
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="43" t="s">
         <v>198</v>
       </c>
@@ -14162,7 +14162,7 @@
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="43" t="s">
         <v>197</v>
       </c>
@@ -14190,7 +14190,7 @@
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
         <v>94</v>
       </c>
@@ -14221,7 +14221,7 @@
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="43" t="s">
         <v>236</v>
       </c>
@@ -14249,7 +14249,7 @@
       <c r="O43" s="126"/>
       <c r="P43" s="126"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="43" t="s">
         <v>198</v>
       </c>
@@ -14277,7 +14277,7 @@
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="43" t="s">
         <v>197</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
         <v>92</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="43" t="s">
         <v>236</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="43" t="s">
         <v>198</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C49" s="43" t="s">
         <v>197</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="O49" s="126"/>
       <c r="P49" s="126"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
         <v>98</v>
       </c>
@@ -14451,7 +14451,7 @@
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="43" t="s">
         <v>236</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C52" s="43" t="s">
         <v>198</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C53" s="43" t="s">
         <v>197</v>
       </c>
@@ -14535,16 +14535,16 @@
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="105" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="129" t="s">
         <v>124</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="O56" s="128"/>
       <c r="P56" s="128"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>104</v>
@@ -14598,7 +14598,7 @@
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
         <v>105</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14667,7 +14667,7 @@
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
         <v>106</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="O61" s="126"/>
       <c r="P61" s="126"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14714,16 +14714,16 @@
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="105" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="129" t="s">
         <v>131</v>
       </c>
@@ -14757,7 +14757,7 @@
       <c r="O65" s="128"/>
       <c r="P65" s="128"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="133"/>
       <c r="B66" s="35" t="s">
         <v>81</v>
@@ -14789,7 +14789,7 @@
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
         <v>133</v>
       </c>
@@ -14817,7 +14817,7 @@
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
         <v>134</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
         <v>135</v>
       </c>
@@ -14873,7 +14873,7 @@
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
         <v>82</v>
       </c>
@@ -14904,7 +14904,7 @@
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
         <v>133</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
         <v>134</v>
       </c>
@@ -14960,7 +14960,7 @@
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
         <v>135</v>
       </c>
@@ -14988,7 +14988,7 @@
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>83</v>
       </c>
@@ -15019,7 +15019,7 @@
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
         <v>133</v>
       </c>
@@ -15047,7 +15047,7 @@
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
         <v>134</v>
       </c>
@@ -15075,7 +15075,7 @@
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
         <v>135</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
         <v>85</v>
       </c>
@@ -15134,7 +15134,7 @@
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
         <v>133</v>
       </c>
@@ -15162,7 +15162,7 @@
       <c r="O79" s="126"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
         <v>134</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="O80" s="126"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
         <v>135</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="O81" s="126"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
         <v>90</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="O82" s="126"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
         <v>133</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="O83" s="126"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
         <v>134</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="O84" s="126"/>
       <c r="P84" s="126"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
         <v>135</v>
       </c>
@@ -15333,7 +15333,7 @@
       <c r="O85" s="126"/>
       <c r="P85" s="126"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
         <v>91</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="O86" s="126"/>
       <c r="P86" s="126"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
         <v>133</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="O87" s="126"/>
       <c r="P87" s="126"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
         <v>134</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="O88" s="126"/>
       <c r="P88" s="126"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
         <v>135</v>
       </c>
@@ -15448,7 +15448,7 @@
       <c r="O89" s="126"/>
       <c r="P89" s="126"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
         <v>93</v>
       </c>
@@ -15479,7 +15479,7 @@
       <c r="O90" s="126"/>
       <c r="P90" s="126"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
         <v>133</v>
       </c>
@@ -15507,7 +15507,7 @@
       <c r="O91" s="126"/>
       <c r="P91" s="126"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
         <v>134</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="O92" s="126"/>
       <c r="P92" s="126"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
         <v>135</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="O93" s="126"/>
       <c r="P93" s="126"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
         <v>92</v>
       </c>
@@ -15594,7 +15594,7 @@
       <c r="O94" s="126"/>
       <c r="P94" s="126"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
         <v>133</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="O95" s="126"/>
       <c r="P95" s="126"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
         <v>134</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="O96" s="126"/>
       <c r="P96" s="126"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
         <v>135</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="O97" s="126"/>
       <c r="P97" s="126"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
         <v>95</v>
       </c>
@@ -15709,7 +15709,7 @@
       <c r="O98" s="126"/>
       <c r="P98" s="126"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="O99" s="126"/>
       <c r="P99" s="126"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="O100" s="126"/>
       <c r="P100" s="126"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
         <v>135</v>
       </c>
@@ -15793,12 +15793,12 @@
       <c r="O101" s="126"/>
       <c r="P101" s="126"/>
     </row>
-    <row r="103" spans="1:16" s="106" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="106" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="105" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="129" t="s">
         <v>90</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="O104" s="128"/>
       <c r="P104" s="128"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15862,7 +15862,7 @@
       <c r="O105" s="126"/>
       <c r="P105" s="126"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
         <v>133</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="O106" s="126"/>
       <c r="P106" s="126"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
         <v>134</v>
       </c>
@@ -15918,7 +15918,7 @@
       <c r="O107" s="126"/>
       <c r="P107" s="126"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
         <v>135</v>
       </c>
@@ -15946,11 +15946,11 @@
       <c r="O108" s="126"/>
       <c r="P108" s="126"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eKkDE7WnkHbcqOcM/jrYnGSnJzV5KYTHuOiAQw6iVK6KVFEsavl2jpSeJeRyCoVPbtpET26sEi1w1Y+rJ5kfXg==" saltValue="3Hn9vqNGpL8k9DuryJzJ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ObtU9WcxhioIhW9mcxTuuG83HjIuXrwHzieQ6xEsZwcKv0996ryJwNEkK9pWTi3AV72miEr/vhxSFDSXJzcuXA==" saltValue="UXqcG7qSo7xACNrMo6B/kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -15967,24 +15967,24 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>0</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="121" t="s">
         <v>249</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="125" t="s">
         <v>250</v>
@@ -16046,12 +16046,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>184</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>177</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>192</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -16119,12 +16119,12 @@
       <c r="F9" s="125"/>
       <c r="G9" s="125"/>
     </row>
-    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="105" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="110"/>
       <c r="B11" s="121" t="s">
         <v>176</v>
@@ -16145,16 +16145,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="110"/>
       <c r="B12" s="121"/>
     </row>
-    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="105" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>248</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="125" t="s">
         <v>256</v>
@@ -16198,7 +16198,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="133" t="s">
         <v>124</v>
       </c>
@@ -16221,13 +16221,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="105" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="110" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
         <v>72</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="121" t="s">
         <v>165</v>
       </c>
@@ -16259,7 +16259,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1z2eNOK4e5l+o2M5moDse3lI/onr3OUbvW2EFkLRuQPEXawIXnq53h6lac0jInf/txcvTbWQX7pBtebKYY3CqQ==" saltValue="wR6CdTdCVD7NPLJXEhE17Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZcsTrWExiRjR6gFwphUv8pzgUIDXQYGtNgJJ+Kiu8X8XqziMS+lKnWFIV15XfXPX7rvCegjiz4QUJg4yPpvdjg==" saltValue="btlkpdjGG364C3D6qm4OkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -16277,16 +16277,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.140625" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" style="35"/>
+    <col min="7" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>153</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92" t="s">
         <v>161</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
       <c r="B3" s="92" t="s">
         <v>259</v>
@@ -16342,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
         <v>173</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="92" t="s">
         <v>259</v>
@@ -16380,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>174</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="92" t="s">
         <v>259</v>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
         <v>2</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="92" t="s">
         <v>259</v>
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
         <v>178</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="92" t="s">
         <v>259</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
         <v>182</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="92" t="s">
         <v>259</v>
@@ -16532,14 +16532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1yperwjfQlL++2NgLESlfjmDjVHxCyOYI9+CV6VngRZkXXbc2QcLNJaQdkn4MzWzpmk8UuC0XAdkvMeKDWH9Lg==" saltValue="NrDq1r8pjBby7UwIbIjI1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XRWPknEg+UJT0MdF40CBAi6aNzeH96DZ4f/GlWqGtJPNz2uPeEq+SJGQP9YXOP4Pw7tnEXFA6ir9rfeyiUV3qw==" saltValue="f9p47BGrGePTrLyJVEsg8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16556,15 +16556,15 @@
       <selection activeCell="E19" sqref="E19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="109" t="s">
@@ -16607,12 +16607,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>164</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
         <v>169</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
         <v>170</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
         <v>171</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
         <v>172</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="92" t="s">
         <v>173</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>174</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
         <v>2</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>177</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="59" t="s">
         <v>178</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="59" t="s">
         <v>181</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
@@ -17140,13 +17140,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>166</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="92" t="s">
         <v>167</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="92" t="s">
         <v>168</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="92" t="s">
         <v>175</v>
       </c>
@@ -17322,20 +17322,20 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ybXBvMKXgFsWcbCdokxJ1pgT56mW+Q9cykddswzRdF0TWXbAcyI5sKadUNXDdZa3YoCkI/FlRfzjEa5jKyscPA==" saltValue="KCdRVT1oOPkKTNNtqxXBZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zHJkXskzcHu9/XSdn7MFhR5sQY9ihSLRz3btLyJtOaLe2r80KqlMZMQA1iiCvfkvnzWfWJO1CpsrNJ1yJNPj7Q==" saltValue="q+IH6BxPZPXYuR/6KM30zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -17352,15 +17352,15 @@
       <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5703125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="40"/>
       <c r="B1" s="127"/>
       <c r="C1" s="40" t="s">
@@ -17379,12 +17379,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
         <v>154</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17415,7 +17415,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="92" t="s">
         <v>158</v>
       </c>
@@ -17436,7 +17436,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nF/Dso3rcvA7tdhAhLk1n7qWwAxfQaQQ4KMxfn4VueAA+DG96yHrEXAWGJXl8z6WMQTt3tAStrUCTkixdqUOoA==" saltValue="nf3hophFzYU/hLt0uCnXzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5cutff67IQxucrEuvEuLZP2HG20srbuld8SEOBbGx54Mse5vvCRmUjozKeW+03+LjU7pzCCclyJwV8g2hMKHQg==" saltValue="b2mRSvDaV2XSA4AR7wtbpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -17453,20 +17453,20 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="35"/>
+    <col min="8" max="8" width="17.5703125" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>153</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>185</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="52" t="s">
         <v>266</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>267</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>184</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="52" t="s">
         <v>267</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>198</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" s="52" t="s">
         <v>267</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>177</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="52" t="s">
         <v>267</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>198</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="52" t="s">
         <v>267</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="52" t="s">
         <v>163</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="52" t="s">
         <v>267</v>
       </c>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
         <v>198</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="52" t="s">
         <v>267</v>
       </c>
@@ -17828,7 +17828,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>168</v>
       </c>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="52" t="s">
         <v>266</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
         <v>266</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>167</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="52" t="s">
         <v>266</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>189</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="52" t="s">
         <v>266</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="52" t="s">
         <v>267</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>190</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="52" t="s">
         <v>266</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="52" t="s">
         <v>267</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>188</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>266</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="52" t="s">
         <v>267</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>187</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="52" t="s">
         <v>266</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="52" t="s">
         <v>267</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>186</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="52" t="s">
         <v>266</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="52" t="s">
         <v>267</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" s="52" t="s">
         <v>266</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="52" t="s">
         <v>267</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
         <v>91</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" s="52" t="s">
         <v>266</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="52" t="s">
         <v>267</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
         <v>183</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="52" t="s">
         <v>266</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="52" t="s">
         <v>191</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="52" t="s">
         <v>266</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
         <v>176</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="52" t="s">
         <v>266</v>
       </c>
@@ -18566,7 +18566,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vFzwZYifDwvZ1JhX8yebmZfQF8ei7s7GWCI15gvJgZcmiju9jgPRQBmiX+Wb8lroZrogiAt744FCa2RxKI2CSw==" saltValue="+51yIglO2qGbSeoDib4snw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PJITCMSwn4LD4MLq/XQ2/Qu5yAh4Uwg6JcZobHGjkkHQ2oh3mo3g4eTeFKUMtMSewIQt6GrEwMiuD0KMTH75zg==" saltValue="QBy/03arXBq45MNZsimPLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -18583,16 +18583,16 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.140625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>153</v>
       </c>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="H1" s="98"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>162</v>
       </c>
@@ -18638,7 +18638,7 @@
       </c>
       <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="35" t="s">
         <v>266</v>
       </c>
@@ -18656,7 +18656,7 @@
       </c>
       <c r="H3" s="136"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>180</v>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="H4" s="136"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>266</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="H5" s="92"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>179</v>
       </c>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="H6" s="92"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>266</v>
@@ -18743,7 +18743,7 @@
       <c r="H7" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eedetfsDE8hecPyxFVEUalOYL0/jkOBnkN2HHnJfAK93GzVWUD8KmifFzZi1ZSgGspiEob/YAxjQ+wqmJGTjqg==" saltValue="jqJFiblgbuJZVTwZfchfnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EAx+vCEZyv46b02VHLYOOvzKBicJgL1TRh7U50FiXif8tuh6Qkn5oKGAdjf9T9BFmOIM8PpTV/RnCj7i1adFAw==" saltValue="UE+fDujpKGdJp7ZcDE/SMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18759,14 +18759,14 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -18777,7 +18777,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -18792,7 +18792,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>81</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>82</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>83</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>84</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
         <v>85</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>0.24709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>87</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>88</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
@@ -18867,7 +18867,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18876,7 +18876,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
@@ -18897,7 +18897,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
         <v>90</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
         <v>91</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
         <v>92</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>93</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>94</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>95</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>96</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>97</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>98</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
@@ -19073,7 +19073,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19082,7 +19082,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>0.10082724000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>105</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>3.1206000000000002E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
         <v>106</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.15891214000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
         <v>107</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>0.12598688999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.12434007</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>3.9028409999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>109</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>8.5254999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>6.8467810000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>0.38127283000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>45</v>
       </c>
@@ -19180,7 +19180,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IC/C7FezXyCcwrfBsa8QHNeGOdN5vZNQxjTjbf6kC/aLMF5TNxno5CcKSjhxw1llsEvMSfR/5EBcTRfgQWSn8w==" saltValue="/CTHBl5HhMYxTA4xKWwQDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5TYaPE+080s4ePj0PSy+eaiaK5DeTFpx/O8sK5jP+Y0Vow0WO4PdK15FUz3igg6HTaIgFkg0On7NJr983xHdtA==" saltValue="j73nMKiPY1RXxn89qbmHIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19198,13 +19198,13 @@
       <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19228,7 +19228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>114</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>0.4416184699566299</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>116</v>
@@ -19282,7 +19282,7 @@
         <v>0.36158873254858931</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>117</v>
@@ -19303,7 +19303,7 @@
         <v>0.12964805149617259</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>118</v>
@@ -19324,7 +19324,7 @@
         <v>6.7144745998608216E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19332,7 +19332,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19340,7 +19340,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0.81212055177975573</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>0.15821429221536368</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>2.2330660624019519E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>7.3344953808610778E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19447,7 +19447,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>129</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
         <v>130</v>
       </c>
@@ -19592,14 +19592,14 @@
         <v>0.18564</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19607,7 +19607,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h84zQcynCBxjTeucr+omnHsNvSi6tPyhRvbFAGJ2UTGs6OfHigDA+0Zjersumqcj/3QiMXPMKQJPcmjNiMj1Iw==" saltValue="wuIgkGl5CuzUOq0TTwUJzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N6TIXyd/2RULvFHEAlFrRRO3ruDc2sh2nHmY2vhsvfmaRgg+j80ay0COyM7jx5OrTKdATksd1ck3K5dK7vj+Nw==" saltValue="LfleiaG4xL3Z5kG/sAuCKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -19625,13 +19625,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -19655,7 +19655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
         <v>134</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
         <v>135</v>
       </c>
@@ -19744,7 +19744,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KI/IaW+z61LG5LKDiWZJr7vF2+SYpk0xC8f6/qyZoCB2j//qmb+xE+gsonM96R1gG/bbZkgbVKeg2eOSI7VkIg==" saltValue="M6RiSHSdWSMmffSFxHXXww==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RjYqi4wbDmekf+ebOh63jbgWg8/G6VBYTMZUMcs/jGG/ulsxemimSQi1RnPlK5RdLtg+NnuSWaUUCBu+A5Ob9Q==" saltValue="FyGBPb7aJbeJeWBuA/sDLg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19761,13 +19761,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -19844,10 +19844,10 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -19874,10 +19874,10 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>140</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>47</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
         <v>145</v>
       </c>
@@ -20059,7 +20059,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uTH0FQ7GXHZY1mQBx4OJlXF5OBRkVAyrr9LtSR0y3fHIZ37v2gYJpkTLb+FBPZBp9DCvU8A487RGJOtTMmOxOA==" saltValue="MXzW920dFMEdAogG/ElsMw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iTTvNv+BQf6v0ETxs9kPu6aSCv9c+LrPdC4MM31KPgVPY53OFtqKVrA5ZLhVNFpRXA92jautO70BAJhHlM6+Zg==" saltValue="C5GhdJTzynx7MoqIGHnZew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20076,15 +20076,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>147</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>112</v>
@@ -20129,7 +20129,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>99</v>
@@ -20143,7 +20143,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>100</v>
@@ -20157,7 +20157,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>101</v>
@@ -20171,7 +20171,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>152</v>
@@ -20180,7 +20180,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>11</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>112</v>
@@ -20208,7 +20208,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>99</v>
@@ -20220,7 +20220,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>100</v>
@@ -20232,7 +20232,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>101</v>
@@ -20244,7 +20244,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>152</v>
@@ -20255,7 +20255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
         <v>12</v>
       </c>
@@ -20271,7 +20271,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>112</v>
@@ -20285,7 +20285,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>99</v>
@@ -20299,7 +20299,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>100</v>
@@ -20313,7 +20313,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>101</v>
@@ -20327,7 +20327,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>152</v>
@@ -20337,7 +20337,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FsupezboFe4XdeMxGa5VdAe+TSbcF7C14/GzZwGprlQTp8WUetcIdnaRRhJ6njOqF/wYmiU+Gb4URQ8p53/weg==" saltValue="OvydO7RlKZlXkmSTFKT+Rw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gW/zX3Px0+YPQ1GxRGWbDX9VUkl+mceeCp69/qFDJ1Gk5zc9yiD7qEztdIV5A5PcgGigxmbDZlgvaSM6F/bBAQ==" saltValue="v6FkYlE4StLJu0dI6h9WnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -20354,15 +20354,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>153</v>
       </c>
@@ -20388,7 +20388,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>157</v>
       </c>
@@ -20401,7 +20401,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BuJw9f2zsrDIfOebAtNPshi2/4UAeYS6s9lAf+NG/6ceEC0EM+ua9gHAO8SF9F++wcA5fmgL0t+Bv2rVWaHD7Q==" saltValue="MIyb2ulB5WRwrx8St0Gjkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j2xUEgE8tLIboe0onGqsa4It6VCCVqX5lg4kvR0Us/cezLoh9v+hPtSD29tjWWZMGOdvwoLSbtXMV7ZU/zkPxQ==" saltValue="5C20bmzNvfcDl/xIe+Af6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20417,17 +20417,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>153</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
         <v>161</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
         <v>162</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
         <v>163</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
         <v>164</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>165</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
         <v>166</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
         <v>167</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>168</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>169</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
         <v>170</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>171</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>172</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>173</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>174</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
         <v>2</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
         <v>175</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>8</v>
       </c>
@@ -20734,7 +20734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>11</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>12</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>176</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>177</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>178</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>179</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>180</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>182</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>183</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>184</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>154</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>185</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>186</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>187</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>188</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>189</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>190</v>
       </c>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>191</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>192</v>
       </c>
@@ -21075,11 +21075,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iFEXa6tXzMPdM8UNdXKbMduN/zw2dbtRbgwK50tENPrP1SyWv+TFafLfhOMhMlu842fL8Ee/luvS9AgkUBJGGw==" saltValue="/6uUfPWeKfZ02yYFhfvvyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="19nlitvzw+3qYta5JkxdDAvW5XOeJI+Hy2pIsj6G0ybxtTR6YrMfA4V8uBjMVcZS4X65FXN4zSI2Ibskbvpq8g==" saltValue="kmaE41BFX08YLG5Mjt00Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48230DA7-1B97-4BA6-9A75-ADCC5996A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BFC903-A2DF-4563-86D3-529842E99ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8520" yWindow="6315" windowWidth="29130" windowHeight="12660" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>High (HAZ-score &lt; -3)</t>
-  </si>
-  <si>
     <t>Données de l'année de référence</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>Modéré (score HAZ entre -3 et -2)</t>
+  </si>
+  <si>
+    <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
     <t>Amaigrissement (poids-pour-taille)</t>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5142,7 +5142,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5151,7 +5151,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5164,12 +5164,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5228,14 +5228,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5279,12 +5279,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5320,14 +5320,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5369,19 +5369,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5484,13 +5484,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5531,12 +5531,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5570,7 +5570,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HnWUh6Akj6Dwk2E+uorO7gCz1jMI2RojJvzhfoO9NpEch2EGy6N9kSQDwqalOEkk8l/U1Xib27sjX11RykzCLA==" saltValue="9hmlIc06R+WEnC5+OuCizg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a76HxV9C6mDhH0jz34YmbKkYaKC/rwUhlxxhhDPgKtYwn+flw1t8HMN+Vt4Y7BvRB3nHqnK5dB70jgD3SbNCLw==" saltValue="Toa2ekc3T5bgmQ0cB5/QDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6478,7 +6478,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8U+dhPFMdmzBytPMVBeNA/VK9zqSspHH6WeRX8zfNIka0b85yguYY1KfePsQLMOaigtPlfnly1aFLwXgtbfVog==" saltValue="gjwSHhHjSpuHD+n9Zu6xJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xBxKNTGSl1EAMkLNpRmtrzqQXA0YGIJi9KlSNMAopoxyl98ryiPZAG9pDiXmqWQj6/HdYU75jBx+wJ9uFnjieA==" saltValue="BPXeXzGunojZmN8g9+st5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -6642,7 +6642,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0m0I8IltK7YjniseGXErBJxh8foqs2iX77qiVS20xp9sywhOhWK5n9K8iNwVBKGGGB3lr4cT1ZJxqzTXAZxIFQ==" saltValue="bsvXWjajmiKnSrCw/facQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RTs7InyPzknpRi1w3sPxck9qYqS/MQ68YSnctPdj6smLaNDNtR3gWE0AoFykaOJWAekGBRwmtqgqvLZav7olew==" saltValue="W6T9JdnAiyEOYCGt0s7QQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6742,7 +6742,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TLeriaMhsq/839tsjMeZv+2lJ2eqWT59YXWjOVw11a1mVN//rKSjTcQtue3b76nYIhWl3ZoPU5yYUCcRvdAn5A==" saltValue="puaM9ckkoxehtZTyNB0u/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ujklzELtaZzEV+2xa2jBUKEft/Gi31IHwWQN36KsYi70SCwdHFcbMUWg1tQCEzXTna7+51dRwWhP/zQl36CINQ==" saltValue="rx+E3lVAxI4kK2kh/EZ4kw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6766,24 +6766,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6857,7 +6857,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cUaa5ynsJjxId5eCddDqZURuhgTFOSTDZw4JjpJvyaR/lXaHDj9edvZNthZLlBcBtgCOlCUpObp6fIBuBYJGNQ==" saltValue="mChnYVk2Lc5XRBKehJjqXg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7DKVr26rR4tLjrfWVn2sOCsJpx3d/R9YwQuLskxLmBJ3pchvxhW1iXWYh9Zyf9nlrqVdz+OfQsZG7Pem3+Pb/g==" saltValue="ToMsQ5D0ughvl4BD5f2kdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6894,19 +6894,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>125</v>
@@ -6921,21 +6921,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>170</v>
@@ -7450,7 +7450,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>168</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>172</v>
@@ -8573,7 +8573,7 @@
       <c r="B39" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FxP7+fXzDg6AiMw/+yalMTTfxl+EcQR0aav6ZweFyd59ouUVKuhVhrz0vq290x2o61dvBJT5hRooIH866NV6PQ==" saltValue="3wmsvExcP6kWQkf8kKoMMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g5VobnSAO9raIMiho4d9Xb/Cd6dnseykJdjZZST8RtRGcLSQIxQHUvo1UllJnLcJSKN7zMahcPBy3J4f2c/G8A==" saltValue="P7pfOVO+fwog3OZ5TBpmvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="06MaLaO4P4XYzIWh27j1pScnAq4UFovAIHTo3Et0qK8B1CBssaXdWz7Vq7BdM9Evvd2kErQqr6SRi1BKc586ug==" saltValue="cbW/JTc8PDOuxl0GAZ/pyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0wEkjtXeyM0aptT3Wle172xvpaRqas4R3ujryIbFx1h11CcVAeYX685eFrhmQU6YcZxueMZ26SsTEDCQ25ay+Q==" saltValue="CFJ/jBqNrOEXetrlUfnBQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8819,7 +8819,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5UDUkDDlXZBDWiqmicILy7NWP/I/5dNLKEWl1c7MX7rKL2JcQqYrxezR8U1OejfjAszhfBeWPBtuqcbou4vfxA==" saltValue="xQmtdMo6sruBlM6nD5JcrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+DHB8L0xQ84n4XMGTu8pc8XvYMEqYE7tfT6drSIY5+1mp0kBpH9Pt66VEND0Th0gM4UuAOcpui5pqhFeklEAnA==" saltValue="oXM47wvavoBMKOZf9YT6ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8858,19 +8858,19 @@
         <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>103</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>125</v>
@@ -8885,21 +8885,21 @@
         <v>128</v>
       </c>
       <c r="L1" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>170</v>
@@ -9534,7 +9534,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>168</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="26" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="52" t="s">
         <v>172</v>
@@ -10590,7 +10590,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ism7FEBy7Q6cQI7AKRzl8HeZ4wE6a3kLVAeKHLkVktXbnXNcDD+DchxzxkRgXoKTOMfehNuzaaScjqPxp2gUBQ==" saltValue="fN9l7I2ZDdM0Zt6MtBjJFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A4JQoIlhScyTFZ/DNOb8Kfj38dJyOU0WSTAVGw7cren61zZT6TNUX/4L6M7su+ICaxdRaoDSVjnYGqY3GtCMKA==" saltValue="lLsMjrzruf7Wn0qxovla2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10641,19 +10641,19 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
       <c r="K38" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WrsUhVqqqhq2KFNNUlmJBuIqbfgmyDJcYEMOKhBgRA4V7mfzIXCENNuQJh/2V/RS/YRQkL2nTMvyI6NdBy67hA==" saltValue="8oQc2KEDGFHlhUslRs6nTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HZSHZOkbHWF4rHDoju46ob5R/JICZNDe+CBnML04LYy0D7/Hu4JfmojHlNyPU+/7NsP7NcQWyoWG3oJ0w56+cw==" saltValue="8wS2Gdcc/fhYHXUZYCP3YA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11387,24 +11387,24 @@
         <v>131</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="133" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="133" t="s">
         <v>9</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="133" t="s">
         <v>9</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="133" t="s">
         <v>9</v>
@@ -11520,7 +11520,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="133" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
@@ -11673,7 +11673,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
@@ -11692,7 +11692,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
@@ -11710,7 +11710,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="D8UseVzqbeoqIsge1D7a7qCJCAOs0SdJmziE2HrEWYxOOflGID7kiVeFcxbwdkSDbpRWlvbo4Np0tOyo9ZHMZw==" saltValue="RE82EMy0AvlA6LQWrO6NNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m63m8wr97fOPxEyuMEOgq4a0Fe4luMS58YOJtB7M70DIsgBWv0q8scU2h0mc1tsDRYpcFy7y/minTnbk7zZ4KA==" saltValue="N5dngRTjREeOf0BpSiYSyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11735,31 +11735,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,7 +12799,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jmeCKvKzDRIcpwIoe9FzLsXyzXKMOarIUqczokrx/3m8u+WAxUu98pmXfiyWRQ9WlV5+69/AelGJkjpL/9zCaQ==" saltValue="Pz0HfNKD7uU4x6OrfCSDSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J+c2yeDixJbpDdyUH9x8unMttpgMK7sDjWvKzIsoImSQDTVMG8j11HaI19C8597xqQSpl51RQPUVxaQRHDq5mw==" saltValue="i0JJNDXCfYZFhzzLvl9o5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -12840,19 +12840,19 @@
         <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12860,7 +12860,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>156</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>156</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>156</v>
@@ -13058,7 +13058,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>156</v>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>156</v>
@@ -13221,7 +13221,7 @@
         <v>231</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>156</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>156</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>156</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>156</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>156</v>
@@ -13579,7 +13579,7 @@
         <v>232</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>156</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>156</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>156</v>
@@ -13774,7 +13774,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>156</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>156</v>
@@ -13948,19 +13948,19 @@
         <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="G54" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="H54" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H54" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -13968,7 +13968,7 @@
         <v>234</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>156</v>
@@ -14048,7 +14048,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>156</v>
@@ -14128,7 +14128,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>156</v>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>156</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>156</v>
@@ -14406,7 +14406,7 @@
         <v>235</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>156</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>156</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>156</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>156</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>156</v>
@@ -14844,7 +14844,7 @@
         <v>236</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>156</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>156</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>156</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>156</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>156</v>
@@ -15293,19 +15293,19 @@
         <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="G107" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="H107" s="94" t="s">
         <v>102</v>
-      </c>
-      <c r="H107" s="94" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15313,7 +15313,7 @@
         <v>238</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" s="35" t="s">
         <v>156</v>
@@ -15393,7 +15393,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>156</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>156</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>156</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C120" s="35" t="s">
         <v>156</v>
@@ -15751,7 +15751,7 @@
         <v>239</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125" s="35" t="s">
         <v>156</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="35" t="s">
         <v>156</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="35" t="s">
         <v>156</v>
@@ -15991,7 +15991,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" s="35" t="s">
         <v>156</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="35" t="s">
         <v>156</v>
@@ -16189,7 +16189,7 @@
         <v>240</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>156</v>
@@ -16269,7 +16269,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>156</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>156</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>156</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>156</v>
@@ -16616,7 +16616,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WNwvQS8YtqKdHHBk3/WdVcruGKMG0lEk69P6wW6p85FtEbMaz0e/Ah+FDt5SFUYGL0JT/vF1w7qVFJA9d3EKxA==" saltValue="3rE/6nkyhXVt2nHETfFfXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iu6ounGj/CHJrgTnx3gAqJ1uVOPI4k+PAOj+QQSf3VfRfTJEKKAzb13vo5HIgzEstOD2NL+jn4DNHLrhLAZAeA==" saltValue="VcP+biW9VQjaQJtWNf0KDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16701,16 +16701,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17024,7 +17024,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17077,16 +17077,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17164,7 +17164,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17333,7 +17333,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17375,7 +17375,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17438,7 +17438,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17459,7 +17459,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17496,16 +17496,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17731,7 +17731,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17752,7 +17752,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17794,7 +17794,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -17815,7 +17815,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -17857,7 +17857,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -17898,7 +17898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t8nMuRnbj0BtccWiCmexaztoRHb7Uz7gefgX9n0+t3XqlpbZymSw5hEdg8Ec1tPg4+lUjnK/huHdaYseT+ZOEw==" saltValue="QCuVOMIphWwyZaTMTkSo5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3LCUjwrhfYilKx5UOZdGzrQJArnXUJk2NXXBdSeKZxemwxVibsMKgVnBZKK/57EFCJjGqCuVMgo3RcFkoivujw==" saltValue="2vYw67yUPneasZy+I4WXzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -17945,19 +17945,19 @@
         <v>264</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="G2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="H2" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -17971,7 +17971,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>13</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>13</v>
@@ -18201,7 +18201,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>13</v>
@@ -18316,7 +18316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>13</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>13</v>
@@ -18546,7 +18546,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>13</v>
@@ -18675,19 +18675,19 @@
         <v>268</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="G29" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="H29" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H29" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18701,7 +18701,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>13</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>13</v>
@@ -18931,7 +18931,7 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>13</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
         <v>13</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="43" t="s">
         <v>13</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>13</v>
@@ -19429,7 +19429,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>271</v>
@@ -19476,7 +19476,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>271</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>271</v>
@@ -19588,19 +19588,19 @@
         <v>274</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="103" t="s">
+      <c r="G65" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="H65" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H65" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19614,7 +19614,7 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="43" t="s">
         <v>132</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>132</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="43" t="s">
         <v>132</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>132</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="43" t="s">
         <v>132</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>132</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>132</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="43" t="s">
         <v>132</v>
@@ -20534,7 +20534,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="43" t="s">
         <v>132</v>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="126" t="s">
         <v>135</v>
@@ -20663,19 +20663,19 @@
         <v>274</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F104" s="103" t="s">
+      <c r="G104" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G104" s="103" t="s">
+      <c r="H104" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H104" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20829,25 +20829,25 @@
         <v>264</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F112" s="103" t="s">
+      <c r="G112" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="H112" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H112" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>13</v>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>13</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>13</v>
@@ -21156,7 +21156,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>13</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>13</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>13</v>
@@ -21486,25 +21486,25 @@
         <v>268</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F139" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="103" t="s">
+      <c r="G139" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G139" s="103" t="s">
+      <c r="H139" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H139" s="103" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>13</v>
@@ -21607,7 +21607,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>13</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>13</v>
@@ -21813,7 +21813,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C152" s="43" t="s">
         <v>13</v>
@@ -21916,7 +21916,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>13</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>13</v>
@@ -22163,7 +22163,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>271</v>
@@ -22210,7 +22210,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>271</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>271</v>
@@ -22329,25 +22329,25 @@
         <v>274</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E175" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F175" s="103" t="s">
+      <c r="G175" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G175" s="103" t="s">
+      <c r="H175" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H175" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" s="43" t="s">
         <v>132</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>132</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>132</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C188" s="43" t="s">
         <v>132</v>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C192" s="43" t="s">
         <v>132</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C196" s="43" t="s">
         <v>132</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="43" t="s">
         <v>132</v>
@@ -23040,7 +23040,7 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C204" s="43" t="s">
         <v>132</v>
@@ -23139,7 +23139,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C208" s="43" t="s">
         <v>132</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B214" s="126" t="s">
         <v>135</v>
@@ -23259,19 +23259,19 @@
         <v>274</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E214" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F214" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F214" s="103" t="s">
+      <c r="G214" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="H214" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H214" s="124" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -23402,26 +23402,26 @@
         <v>264</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E222" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F222" s="103" t="s">
+      <c r="G222" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G222" s="103" t="s">
+      <c r="H222" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C223" s="43" t="s">
         <v>13</v>
@@ -23528,7 +23528,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C227" s="43" t="s">
         <v>13</v>
@@ -23635,7 +23635,7 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C231" s="43" t="s">
         <v>13</v>
@@ -23742,7 +23742,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C235" s="43" t="s">
         <v>13</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C239" s="43" t="s">
         <v>13</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C243" s="43" t="s">
         <v>13</v>
@@ -24085,26 +24085,26 @@
         <v>268</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E249" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F249" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F249" s="103" t="s">
+      <c r="G249" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G249" s="103" t="s">
+      <c r="H249" s="103" t="s">
         <v>102</v>
-      </c>
-      <c r="H249" s="103" t="s">
-        <v>103</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="43" t="s">
         <v>13</v>
@@ -24211,7 +24211,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C254" s="43" t="s">
         <v>13</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C258" s="43" t="s">
         <v>13</v>
@@ -24425,7 +24425,7 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>13</v>
@@ -24532,7 +24532,7 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C266" s="43" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C270" s="43" t="s">
         <v>13</v>
@@ -24789,7 +24789,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>271</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>271</v>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>271</v>
@@ -24956,26 +24956,26 @@
         <v>274</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E285" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F285" s="103" t="s">
+      <c r="G285" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G285" s="103" t="s">
+      <c r="H285" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H285" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C286" s="43" t="s">
         <v>132</v>
@@ -25078,7 +25078,7 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C290" s="43" t="s">
         <v>132</v>
@@ -25181,7 +25181,7 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="43" t="s">
         <v>132</v>
@@ -25284,7 +25284,7 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C298" s="43" t="s">
         <v>132</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="43" t="s">
         <v>132</v>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C306" s="43" t="s">
         <v>132</v>
@@ -25593,7 +25593,7 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C310" s="43" t="s">
         <v>132</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C314" s="43" t="s">
         <v>132</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="43" t="s">
         <v>132</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B324" s="126" t="s">
         <v>135</v>
@@ -25924,19 +25924,19 @@
         <v>274</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E324" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F324" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="F324" s="103" t="s">
+      <c r="G324" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="G324" s="103" t="s">
+      <c r="H324" s="124" t="s">
         <v>102</v>
-      </c>
-      <c r="H324" s="124" t="s">
-        <v>103</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26043,7 +26043,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LpPzDjkMf+71wOBjMeUXFGw44OLW1NWaRjTbbyV347qI2VBExcgurD2WibGt7PhWMgzgVEOXYefCv67Z1meqFg==" saltValue="8KThA6C9DcFNOoFc6GSCBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oXpZE1dKE1kXnVShaapPnP1sY4K0zokEIJTJM6kfgdHpe/WJ+H5VhkJ2GLc0mzUtRzaOURLvTTLOH3GeoKOGLQ==" saltValue="haEYv3I19oCmfEjiroHvBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26086,19 +26086,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26325,16 +26325,16 @@
     </row>
     <row r="19" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="E19" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="F19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -26376,19 +26376,19 @@
       </c>
       <c r="B24" s="119"/>
       <c r="C24" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="F24" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="G24" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -26675,16 +26675,16 @@
       <c r="A41" s="104"/>
       <c r="B41" s="104"/>
       <c r="C41" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="E41" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="F41" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G41" s="104"/>
     </row>
@@ -26731,19 +26731,19 @@
       </c>
       <c r="B46" s="119"/>
       <c r="C46" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="F46" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="G46" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -27030,16 +27030,16 @@
       <c r="A63" s="104"/>
       <c r="B63" s="104"/>
       <c r="C63" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="E63" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G63" s="104"/>
     </row>
@@ -27065,7 +27065,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xlFgkvon5/53z8CMMpf+4nizcg+UC4cFfTl3UdwfqDIbfhyDOc3U6cGTHSuGSL3nUA4B5dRNUzm62ohKFwd0oQ==" saltValue="dcpFAx36xpsp2U9OyuDe4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qxaRzqMt+A0w2R+j7WKNaUBAFO2WZZ9lAM1H3bxEE4kGUNvlsSBQsjSGOkaj6mrfIUsLReOJNNbo41zXbPwr9Q==" saltValue="OETJU2Ea994No8P7cRNHtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27101,16 +27101,16 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="F1" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27352,16 +27352,16 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="F16" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27651,16 +27651,16 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="119" t="s">
         <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="119" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27940,7 +27940,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NhCBrdCmnwf7/dTF6JF/iBVj1jspNoaTBbVye8ocVi7FO61cUEYX2RvKfDaZYirojmKsWKZqCamYR2UVD7YHcA==" saltValue="BKub/3LmLUxjdtwWM8jC4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AbyRYhCKkzjblfgZzNM+6u0YYn2Nx3YFeE0Fza9f+ViI3LMUJ1ZKzEpBjRr2kzSbf/PJTV498oJSGvbYHKboJg==" saltValue="iC01v82J7Nc0qT/eD3Mh5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27972,31 +27972,31 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L1" s="103" t="s">
         <v>125</v>
@@ -28735,31 +28735,31 @@
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="F23" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="G23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="J23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="K23" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L23" s="103" t="s">
         <v>125</v>
@@ -29706,31 +29706,31 @@
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="F45" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="G45" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="103" t="s">
-        <v>103</v>
-      </c>
       <c r="H45" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="J45" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="103" t="s">
+      <c r="K45" s="103" t="s">
         <v>75</v>
-      </c>
-      <c r="K45" s="103" t="s">
-        <v>76</v>
       </c>
       <c r="L45" s="103" t="s">
         <v>125</v>
@@ -30669,7 +30669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tSaN5ZIWPoqwlnAbwIjMYzpxXc6HBE73YuAWgkOWLHpsN0zslYRhW+okLmpxDNbtTcZfRsEdL5d8k41w+kiDXQ==" saltValue="ZvNkydge2VEVL9Pycs+vDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2L+bsmwe+zhc2o19H94NV/acOqomgLINjmUbcVXEAVC5VrMrRUc3+Sv1ZsMZmvzbfPeAJYWYTkpwMFCyn6UJzw==" saltValue="fksmUsCI3F0FMU7DTLpMgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -30701,19 +30701,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -30781,19 +30781,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="F8" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -30871,19 +30871,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -30953,7 +30953,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XZ0uHZKSDSd+BFr5CTPhLfe+qiq68IdTJO7tvIp5v7KErj/j27E8FfxXm4c/9JsRxFpIJKougtxjkXyjSF7NJA==" saltValue="Paiq61o21g9bFJI+ZMOgHA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZFebRjDB8K2KqWqBbDHpZSRCcr1T4+wh1SEuNIKgVOi7eEoQQu6aJjQwGocH48iHJn9fVt1jz7+jMNRM6Ij/iQ==" saltValue="53mbstLMQ/HlrTwL+meXpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -30997,19 +30997,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31017,7 +31017,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>330</v>
@@ -31353,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>330</v>
@@ -31401,7 +31401,7 @@
         <v>173</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>330</v>
@@ -31447,7 +31447,7 @@
         <v>174</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>330</v>
@@ -31493,7 +31493,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>330</v>
@@ -31559,7 +31559,7 @@
         <v>197</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="52" t="s">
         <v>330</v>
@@ -31625,7 +31625,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="52" t="s">
         <v>330</v>
@@ -31691,7 +31691,7 @@
         <v>194</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="52" t="s">
         <v>330</v>
@@ -31757,7 +31757,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="52" t="s">
         <v>330</v>
@@ -31823,7 +31823,7 @@
         <v>199</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>330</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>330</v>
@@ -31952,7 +31952,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>330</v>
@@ -31998,7 +31998,7 @@
         <v>198</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>330</v>
@@ -32044,7 +32044,7 @@
         <v>183</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>330</v>
@@ -32103,19 +32103,19 @@
         <v>15</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -32123,7 +32123,7 @@
         <v>192</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>330</v>
@@ -32531,7 +32531,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>330</v>
@@ -32587,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>330</v>
@@ -32643,7 +32643,7 @@
         <v>174</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>330</v>
@@ -32699,7 +32699,7 @@
         <v>196</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>330</v>
@@ -32780,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>330</v>
@@ -32861,7 +32861,7 @@
         <v>195</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>330</v>
@@ -32942,7 +32942,7 @@
         <v>194</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="52" t="s">
         <v>330</v>
@@ -33023,7 +33023,7 @@
         <v>193</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="52" t="s">
         <v>330</v>
@@ -33104,7 +33104,7 @@
         <v>199</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>330</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="52" t="s">
         <v>330</v>
@@ -33263,7 +33263,7 @@
         <v>190</v>
       </c>
       <c r="B95" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="52" t="s">
         <v>330</v>
@@ -33319,7 +33319,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>330</v>
@@ -33375,7 +33375,7 @@
         <v>183</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="52" t="s">
         <v>330</v>
@@ -33444,19 +33444,19 @@
         <v>15</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F103" s="40" t="s">
+      <c r="G103" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="40" t="s">
+      <c r="H103" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -33464,7 +33464,7 @@
         <v>192</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>330</v>
@@ -33872,7 +33872,7 @@
         <v>175</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>330</v>
@@ -33928,7 +33928,7 @@
         <v>173</v>
       </c>
       <c r="B121" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>330</v>
@@ -33984,7 +33984,7 @@
         <v>174</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>330</v>
@@ -34040,7 +34040,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>330</v>
@@ -34121,7 +34121,7 @@
         <v>197</v>
       </c>
       <c r="B128" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="52" t="s">
         <v>330</v>
@@ -34202,7 +34202,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>330</v>
@@ -34283,7 +34283,7 @@
         <v>194</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C134" s="52" t="s">
         <v>330</v>
@@ -34364,7 +34364,7 @@
         <v>193</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>330</v>
@@ -34445,7 +34445,7 @@
         <v>199</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>330</v>
@@ -34523,7 +34523,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>330</v>
@@ -34604,7 +34604,7 @@
         <v>190</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>330</v>
@@ -34660,7 +34660,7 @@
         <v>198</v>
       </c>
       <c r="B148" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>330</v>
@@ -34716,7 +34716,7 @@
         <v>183</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150" s="52" t="s">
         <v>330</v>
@@ -34768,7 +34768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gD/gdByNt1dFaM1t3wEiR96puVgJxXzJEoQiqLzPSOQ/2pkZGbb+h00s1bcmiFJ1WXNhYOWynPzsnGtshPkq6Q==" saltValue="jTnxEwACz/ErnwpG4vBhtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HzVlu6t+kxgRL7q9YrbCLIglRRYbpRAK8Yc77yAbVQrKPHIrFRMTuOciXVQMzSwmzNmo79bNu7++elKdC0UTUA==" saltValue="9G9n+WY7iSTlSFr466tLjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -34824,7 +34824,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>330</v>
@@ -34866,7 +34866,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>330</v>
@@ -34909,7 +34909,7 @@
         <v>186</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>330</v>
@@ -34978,7 +34978,7 @@
         <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>330</v>
@@ -35026,7 +35026,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>330</v>
@@ -35075,7 +35075,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>330</v>
@@ -35150,7 +35150,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>330</v>
@@ -35198,7 +35198,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>330</v>
@@ -35247,7 +35247,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>330</v>
@@ -35292,7 +35292,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="es+Dv1w+nInuhJMdMaDM5jaSdd5pp0z2qG/LT5BEWxZjlfNl93DYGYbwc1WRJH+FwVxfblpS1TXynPUc4/gVTg==" saltValue="zsS2koGXvZ2m2C/RZpXMFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TrOWp9koJrSh5GixpBQjGxEGhQDkQQ3SiJrpIAviaXvnhQy9/TF81PRLXk6S9uTlc42Mi30hQC3Nanoh8kbpfw==" saltValue="AUcT8bxnzAe6/jha2GF+lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -35331,13 +35331,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -35346,7 +35346,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -35354,7 +35354,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -35370,7 +35370,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -35378,7 +35378,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -35402,7 +35402,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -35430,28 +35430,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -35485,7 +35485,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -35502,7 +35502,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -35519,7 +35519,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -35536,7 +35536,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -35553,7 +35553,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -35587,7 +35587,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -35604,7 +35604,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -35636,13 +35636,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -35676,7 +35676,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -35716,7 +35716,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -35724,7 +35724,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -35732,7 +35732,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FJjyxBrIMqe5F+Y55ZD0WC//HlhL2CAm7DYpw1FDdUU5ezIf0qH8s/3R5fI+osboWdxZGUC66VUCF0lTQ5WhKQ==" saltValue="ITr2z14A2HFpbcsJdtVF7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HYuBsfM6+/5NmVwMnnR3zkgiIurdmkOwWfy73fHYVypt1rhZjnkKIqeH/h6nDWO4SX37xqgXn6OHejZUtaVYEg==" saltValue="XjXkGtovdG75uC1zNbm8fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -35762,30 +35762,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -35811,7 +35811,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -35837,7 +35837,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -35858,7 +35858,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36004,19 +36004,19 @@
         <v>124</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>125</v>
@@ -36031,16 +36031,16 @@
         <v>128</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36159,7 +36159,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ze+LwhyrGmQdqIY0rxikRFuVsQ1EtOxnvqXuw7Lp2EPqHgPzML2WU5uS5Vmb4abunhlhRxg2lCeCAp6zI2GomQ==" saltValue="kyZRe6p9ghBuHum89fFIXw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DeMaB6yv2D0YBNWvGnU9TIV7OH54QNvdB6VWVh4z5OZIu2e2ZZgyhl9K6FlU49mj6mOQNMObKzZobJZVSZKa2w==" saltValue="7NWXYjb7fLSQEBh7M6j7AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36189,22 +36189,22 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -36296,7 +36296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hk9VaovpJYIzsP6UVM3pcTy9FsAK6VHQTszMe9pvbU1gg8/I5p7114VRGk6j94Ev9T5mEYBhN7mHgPob4RxbLw==" saltValue="eGR7/R+gy3DGMHGllL4BLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZaZRs35S1wNecNQbwK7wNeIcf6kpZV9q2WUOFU/ANO6Vwysr+IH6T0H3IjIFcRvWImikJaMDQA13p5ZVqb8PgQ==" saltValue="9bhkeVsCa/x9R8+AtupVTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36413,7 +36413,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>144</v>
@@ -36502,7 +36502,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jLyum5V+6k3+gJTCblOEumxEMYNFrP4RB6pDBTXTHWeNhzojYbT2uC8EGNXIeiHYsX7qMrFhHMvocC0aQpSH/g==" saltValue="VU6FfNndfzyVqu8LrV3m4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OEPPBknR7+i0JghqwOrvc7ai5as3jtG44pt2LQm+PN4rMy+/WzhSIiswcnYjh2s5mUBfz9T0K7fdMLy08/3yJw==" saltValue="BLTEW2Evy3zCuy2GZWTttw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36580,7 +36580,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dzdOMMvMwDe18md6sdbiwQFL3o7HNoRWPPeCV79fRoj4Hy3+BEhVkHOuqFOWUTSrSqlyNsPQq7rGhM+gNrLPSQ==" saltValue="DUA7PHyItI9fKzeMZqBVzw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OukRF7dbRT89t2++CMo/HmN7nX9ACO8FpPUEYOXbx99t6B+1oV/iobQjH8QMXI9wI5OJIUUUfnd8ntpo8wfjNg==" saltValue="80+fnCpru+Dfyau/xYaF8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36626,7 +36626,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -36638,7 +36638,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -36652,7 +36652,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -36666,7 +36666,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -36680,7 +36680,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -36705,7 +36705,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -36719,7 +36719,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -36731,7 +36731,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -36743,7 +36743,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -36755,7 +36755,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -36780,7 +36780,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
@@ -36794,7 +36794,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
@@ -36808,7 +36808,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
@@ -36822,7 +36822,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
@@ -36836,7 +36836,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
@@ -36857,7 +36857,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GgQWFv+6SOUqlTEZPx7h/+GxAfxIdbnBOb+L/xUk26+MHpdWSn+k1UNgp00aX88BUm28fDLcbGznTOIfy9VHsQ==" saltValue="TcV+Z9zZCeZJOqM9ranN6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hNuPMevL1w5UUzd+TmsQbqfkVLdY1LOhfrJdAxsc52TmMYCRwTm0tITLq348rtkhRdq6aLhxvFy1W/+XQpwunQ==" saltValue="2cxYlq/KjWrg/2hpDkyjuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -36921,7 +36921,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/sPseCfKrrUvh1cMPONxo8xvRpTFaLIbCsrbAyYxnRt0XAXC89BUSbNGkmOtJ102kGMFSs8S4fL3Xu6CF/4kQQ==" saltValue="OvzsBHtBIoAfV7KJyoFocw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="I/ojCHAdqMF6UJlKrdi7RVneS7uig9gbaedNbQ+IJaF9oMfX2kzh87126cJni7Vw9bNTepo4/j7x9pji/s1Htg==" saltValue="/hfgTlyo+U/H+zmVe8SWdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12E2F9C2-4366-4320-8DA1-98C8EF0E4D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7184EAB-9B27-4FC9-956D-60B74E7B71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="3555" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
     <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
-    <sheet name="Paquets IYCF" sheetId="55" r:id="rId8"/>
+    <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
     <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
@@ -32,13 +32,13 @@
     <sheet name="Programmes - population touchée" sheetId="62" state="hidden" r:id="rId17"/>
     <sheet name="Programme - secteurs à risque" sheetId="63" r:id="rId18"/>
     <sheet name="Population des sect. à risque" sheetId="64" state="hidden" r:id="rId19"/>
-    <sheet name="Rapport des cotes IYCF" sheetId="65" r:id="rId20"/>
+    <sheet name="Rapport des cotes ANJE" sheetId="65" r:id="rId20"/>
     <sheet name="Risques des rés. des naissances" sheetId="66" r:id="rId21"/>
     <sheet name="Risques relatifs" sheetId="67" r:id="rId22"/>
     <sheet name="Rapports des cotes" sheetId="68" r:id="rId23"/>
     <sheet name="Programmes-rés. des naissances" sheetId="69" r:id="rId24"/>
     <sheet name="Programmes-anémie" sheetId="70" r:id="rId25"/>
-    <sheet name="Programmes-amaigrissement" sheetId="71" r:id="rId26"/>
+    <sheet name="Programmes-émaciation" sheetId="71" r:id="rId26"/>
     <sheet name="Programmes pour les enfants" sheetId="72" r:id="rId27"/>
     <sheet name="Programmes pour les FE" sheetId="73" r:id="rId28"/>
   </sheets>
@@ -598,9 +598,6 @@
     <t>Sepsis</t>
   </si>
   <si>
-    <t>IPTp</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -613,19 +610,10 @@
     <t>Field</t>
   </si>
   <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
   </si>
   <si>
     <t>Causes</t>
@@ -937,7 +925,7 @@
     <t>État</t>
   </si>
   <si>
-    <t>Retard de croissance (taille-pour-l'âge)</t>
+    <t>Retard de croissance (taille-pour-âge)</t>
   </si>
   <si>
     <t>Normal (score HAZ &gt; -1)</t>
@@ -952,7 +940,7 @@
     <t>Élevé (score HAZ &lt; -3)</t>
   </si>
   <si>
-    <t>Amaigrissement (poids-pour-taille)</t>
+    <t>Émaciation (poids-pour-taille)</t>
   </si>
   <si>
     <t>Normal (score WHZ &gt; -1)</t>
@@ -1009,7 +997,7 @@
     <t>Prévalence du retard de croissance (%)</t>
   </si>
   <si>
-    <t>Prévalence de l'amaigrissement (%)</t>
+    <t>Prévalence de l'émaciation (%)</t>
   </si>
   <si>
     <t>Prévalence de l'anémie (%)</t>
@@ -1039,7 +1027,7 @@
     <t>Coût</t>
   </si>
   <si>
-    <t>Épisode d'amaigrissement d'un enfant</t>
+    <t>Épisode d'émaciation d'un enfant</t>
   </si>
   <si>
     <t>Décès d'enfant</t>
@@ -1057,7 +1045,7 @@
     <t>Enfant souffrant d'un retard de croissance qui aura 5 ans (au cours de sa vie)</t>
   </si>
   <si>
-    <t>Paquet IYCF</t>
+    <t>Paquet ANJE</t>
   </si>
   <si>
     <t>Population cible</t>
@@ -1073,6 +1061,15 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>ANJE 1</t>
+  </si>
+  <si>
+    <t>ANJE 2</t>
+  </si>
+  <si>
+    <t>ANJE 3</t>
   </si>
   <si>
     <t>Programme</t>
@@ -1141,10 +1138,13 @@
     <t>SFAF pour les femmes enceintes (établissement de santé)</t>
   </si>
   <si>
+    <t>TPIg</t>
+  </si>
+  <si>
     <t>Enrichissement du sel en fer et en iode</t>
   </si>
   <si>
-    <t>Méthode mère kangourou</t>
+    <t>Soins maternals kangourou</t>
   </si>
   <si>
     <t>Supplémentation en nutriments à base de lipides</t>
@@ -1189,7 +1189,7 @@
     <t>WASH: Eau courante</t>
   </si>
   <si>
-    <t>Zinc pour le traitement + SRO</t>
+    <t>SRO+Zn pour le traitement de la diarrhée</t>
   </si>
   <si>
     <t>Supplémentation en zinc</t>
@@ -1273,10 +1273,10 @@
     <t>Retard de croissance</t>
   </si>
   <si>
-    <t>Prévention de l'amaigrissement</t>
+    <t>Prévention de l'émaciation</t>
   </si>
   <si>
-    <t>Traitement de l'amaigrissement</t>
+    <t>Traitement de l'émaciation</t>
   </si>
   <si>
     <t>Résultats des naissances</t>
@@ -1333,7 +1333,7 @@
     <t>Rapport des cote pour des conditions</t>
   </si>
   <si>
-    <t>Amaigrissement (score-HAZ &lt; -2)</t>
+    <t>Émaciation (score-HAZ &lt; -2)</t>
   </si>
   <si>
     <t>Risques relatifs des causes du décès néonatales</t>
@@ -1384,7 +1384,7 @@
     <t>Rapports des cotes pour les femmes avec l'anémie maternelle - supérieur</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution de la taille-pour-l'àge (retard de croissance)</t>
+    <t>Risque relatif des causes du décès par la distribution de la taille-pour-âge (retard de croissance)</t>
   </si>
   <si>
     <t>Cause du décès</t>
@@ -1426,10 +1426,10 @@
     <t>Risques relatifs de la diarrhée par mode d'allaitement maternel</t>
   </si>
   <si>
-    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (amaigrissement)</t>
+    <t>Risque relatif des causes du décès par la distribution du poids-pour-taille (émaciation)</t>
   </si>
   <si>
-    <t>Amaigrissement</t>
+    <t>Émaciation</t>
   </si>
   <si>
     <t>Compte tenu du retard de croissance antérieur (HAZ &lt; -2 dans la tranche d’âge précédente)</t>
@@ -1480,7 +1480,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - inférieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - inférieur</t>
+    <t>Soins maternals kangourou - inférieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - inférieur</t>
@@ -1519,7 +1519,7 @@
     <t>Rapport des cotes pour allaitement correct par programme - supérieur</t>
   </si>
   <si>
-    <t>Méthode mère kangourou - supérieur</t>
+    <t>Soins maternals kangourou - supérieur</t>
   </si>
   <si>
     <t>Pour MAS par épisode supplémentaire de la diarrhée - supérieur</t>
@@ -5169,18 +5169,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -5188,7 +5188,7 @@
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="63">
         <v>2017</v>
@@ -5197,7 +5197,7 @@
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="64">
         <v>2030</v>
@@ -5210,12 +5210,12 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="66">
         <v>0.28199999999999997</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="67">
         <v>0.23</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="66">
         <v>0.51</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="66">
         <v>0.37</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="66">
         <v>0.221</v>
@@ -5274,14 +5274,14 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="67">
         <v>0.3</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="67">
         <v>0.1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="67">
         <v>0.1</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="67">
         <v>0.8</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -5325,12 +5325,12 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="67">
         <v>0.127</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="67">
         <v>0.45200000000000001</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="67">
         <v>0.33400000000000002</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="67">
         <v>8.6999999999999994E-2</v>
@@ -5366,14 +5366,14 @@
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" s="69">
         <v>0.20799999999999999</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="69">
         <v>0.63700000000000001</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="69">
         <v>0.11899999999999999</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" s="69">
         <v>3.5999999999999997E-2</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
@@ -5415,19 +5415,19 @@
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" s="71">
         <v>25</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="71">
         <v>43</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="71">
         <v>67</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="71">
         <v>4.01</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" s="67">
         <v>0.13</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" s="71">
         <v>22.4</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45" s="67">
         <v>3.1E-2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="67">
         <v>0.109</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="67">
         <v>0.36499999999999999</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" s="72">
         <v>1.66</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C52" s="72">
         <v>1.66</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="72">
         <v>5.64</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="72">
         <v>5.43</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C55" s="72">
         <v>1.91</v>
@@ -5577,12 +5577,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="66">
         <v>0.2</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66">
         <v>0.42</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="66">
         <v>0.02</v>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bbieu4MATS4z7lEcsge9vu1mvy1zBB6EuS4E+O/iXb4uBDRgR1IjGJHuhdmls2kx1Byq/SHNt2bVe1wiyXoe8Q==" saltValue="ruHQ/sF9jNj26yJBJoZbRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g8qeBnBrkfc3UQsXgnLB/rppHLSuB1eBXAah5Y2TJGdTcr4FoIyKog5AT3C7/VuGA3x1Sll1K8cRFeOKDqwm1A==" saltValue="9BAw5vxTi1Qbv8518d5Fhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5656,20 +5656,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="62" t="str">
         <f>"Couverture de l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Couverture de l'année de référence (2017)</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
         <v>204</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="81">
         <v>0</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="81">
         <v>0</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="81">
         <v>0</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="81">
         <v>0</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="81">
         <v>0</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="81">
         <v>0.36</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="81">
         <v>0</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="81">
         <v>0</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="81">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="81">
         <v>0</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="81">
         <v>0</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="81">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="81">
         <v>0.9</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B18" s="81">
         <v>0</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="81">
         <v>0</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="81">
         <v>0</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m3D4Nr0x5mjmWlXPvvbssMKCB/IU/1a8Cn8avREmkSkgRaRysiNK4NCmZsL1g15seLi+tJH8qb7rnrBT5+aCyA==" saltValue="/AFdS7RbMuZktCLnslGsxw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MfauZ59y2wqoKUxgtYLi+2U8cUyHDQYl6kseAk3T/CWgyUiA+MHAVEPDQ+wovzfdPH0kA1HVpvYqBK4nGAD22A==" saltValue="ukvMOm/zxo+yZpp1LTYybQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6599,7 +6599,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>207</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="80" t="s">
         <v>190</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>190</v>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nd1x9QB/JZ1KsSKScldQ0GxSTxYXDJRYJ8xblhPu9YQ65ii1v3tJxT7Cw44hleS09GM286L+PYmPOlzfMOxsVg==" saltValue="9OQG9/kkS/ORXljhWXSUFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8kIBbI3UmqyqZ0bgAONDxEWRb3HitDQG9V2udmHyq2tiwbQA2wHAxV/huOoH+Y9LVkNKImfwjJ5HxbvOZpFzjA==" saltValue="mKDuBlzADVQk1RxKbuc9Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6746,17 +6746,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aegzBuzzG6Xb5cWLGgT3Y3LBb0d2YKnv52hlVyg7RvDUn2CvauDa52xdB9hcxKew0dOiWPGPtC6aIHlC8upmkQ==" saltValue="i6MzJ6K1Wy/YISf/XmdRGg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OOKFrDK+GmPJ4YyxNgd1Pj00h+rUjpveoFwjdx/6F8+DQHFO5KAfTtldnSQ+bQEMu50G+w1pfY5B9WY+kR3+tw==" saltValue="MDoiDMxw6LjN/1iL15MOKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6844,24 +6844,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26">
         <f>'Donnees pop de l''annee de ref'!C51</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7O3eeZA+ooVEvQaCU3zImaY42SO7z+ytvjwtY+FmVNDwtjgT8zFLJw1jSgqvp7xb9Ac7toC7sMmhAVwe1TWWQw==" saltValue="DjG1Zni+FHFXHw3a5+JC6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ImxWiRRNwKlibM8Tpw1l7GgfLKkXM7CqGHY2Ac/NXdxJrgVYnRgc7MOM3aSaFrQcx83F58RV7w2KzeEHDfTORQ==" saltValue="ntIcWkz2NhIrtKzCLnj57Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6969,54 +6969,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="87">
         <v>0</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="87">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="87">
         <v>0</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="88">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="88">
         <v>0</v>
@@ -7671,7 +7671,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -7720,7 +7720,7 @@
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="88">
         <v>0</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C19" s="88">
         <v>0</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="88">
         <v>0</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="88">
         <v>0</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="88">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="88">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>211</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="87">
         <v>0</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="87">
         <v>0</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="87">
         <v>0</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b2TgYi3XSuSGeXIfTQ7frbWONNzIcwvC5caLTuxrW1NT9IJr5c6RDsgQ+LHHN1YTqIC77PwlhdPfOOHJdOtMGg==" saltValue="0icqCMWKL9Gc/s6tDvzO0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="40sRYiTc4JtHfvruVepYtFjYRRcPjnc1ssUGiBK0RBanJBr5wMpE7DKpiTVUmtBiIEQu3Iz6pfTH8ZLnVEMcaQ==" saltValue="1Yt+0JtxnXt3Suc4Tfxmlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nJlTeiaSgExl0gMLJ81kD8vIKTHAHMDQ6Lkltq3RpNrZOcihXWoJIFGjQSTgqErgKAD940q7Y+wK+vWuW+a2wQ==" saltValue="MTjx2xDoYsAQ+GuV+dB42A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6GhYbKhoaj577Kc2fWjUr6PWWc3RVxLRFep9LA4ZlUMWk09cZ9sKTymTGR4bKsItG5YL5+ARCCzM3A5CdYtF7g==" saltValue="TomFe4GFjQCaA679wE41Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8768,10 +8768,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>225</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JuWtmXEBZCpH1pvRSoA2lccDWBN+UCBOhzyfCm2YYDOeH2+8iFu5xgUgG4yoTMNQ87SNrnYqPnHPe+T6ggOw7A==" saltValue="3uYlCPLO1lOm0fFOgaQtLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xD/GmyHr9uSlWHaIbMoEQu7krVI7+Y9tIn1i9AR71B7FyP4jtqIV3TArZp8L082+1ZBT8lmoTPTOgO2kf2X4Ng==" saltValue="bIfjk7KTQ92tkpHY4slPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8979,54 +8979,54 @@
         <v>212</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O1" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133">
         <v>0</v>
@@ -9070,7 +9070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="133">
         <v>1</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C4" s="133">
         <v>1</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="133">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="C6" s="133">
         <v>1</v>
@@ -9510,7 +9510,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="133">
         <v>0</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="133">
         <v>0</v>
@@ -9750,7 +9750,7 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="133">
         <v>0</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="133">
         <v>0</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="91" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C22" s="133">
         <v>0</v>
@@ -10074,10 +10074,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="133">
         <v>0</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -10167,7 +10167,7 @@
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="133">
         <v>0</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="133">
         <v>0</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="133">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>211</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="133">
         <v>1</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="133">
         <v>1</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="133">
         <v>1</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oNC2Weri8WFNa9kpxm5Ph30UNaaj03jTnnJ7yzEaaa+9rLmkZdqdPD3INqoHq8p2E9MeohOR2QjqLXsYkbB0aA==" saltValue="sefkpKH1791wuYnLRhDZmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4Imfo+2CbqqAE0Gs5phmpzIqbfc8DmXjpIPBBYUz6jWcXj/fWb4v534Vc61p6G0gKn07NxpbOzoZsll+Hkdgjw==" saltValue="3TE9usKrrjf6RPonVLMcYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10791,13 +10791,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -10806,27 +10806,27 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="133"/>
       <c r="C2" s="133"/>
@@ -10836,14 +10836,14 @@
       <c r="G2" s="133"/>
       <c r="H2" s="133"/>
       <c r="I2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="133"/>
@@ -10852,7 +10852,7 @@
       <c r="F3" s="133"/>
       <c r="G3" s="133"/>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -10860,12 +10860,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133"/>
       <c r="F4" s="133"/>
@@ -10877,11 +10877,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="133"/>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="133"/>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="133"/>
       <c r="C6" s="133"/>
@@ -10905,26 +10905,26 @@
       <c r="H6" s="133"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133"/>
       <c r="J7" s="133"/>
@@ -10932,18 +10932,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133"/>
       <c r="J8" s="133"/>
@@ -10951,18 +10951,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -10970,11 +10970,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
@@ -10987,11 +10987,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11004,11 +11004,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11021,11 +11021,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11038,11 +11038,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11050,18 +11050,18 @@
       <c r="G14" s="133"/>
       <c r="H14" s="133"/>
       <c r="I14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -11069,28 +11069,28 @@
       <c r="G15" s="133"/>
       <c r="H15" s="133"/>
       <c r="I15" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B16" s="133"/>
       <c r="C16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
       <c r="F16" s="133"/>
       <c r="G16" s="133"/>
       <c r="H16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B17" s="133"/>
       <c r="C17" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -11114,16 +11114,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="133" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>9</v>
       </c>
       <c r="C18" s="133"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
       <c r="F18" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
       <c r="E19" s="133"/>
       <c r="F19" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" s="133"/>
       <c r="H19" s="133"/>
@@ -11152,16 +11152,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
       <c r="F20" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -11180,10 +11180,10 @@
       <c r="F21" s="133"/>
       <c r="G21" s="133"/>
       <c r="H21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
@@ -11193,13 +11193,13 @@
         <v>185</v>
       </c>
       <c r="B22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="133"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="133"/>
       <c r="E23" s="133"/>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
@@ -11239,7 +11239,7 @@
       <c r="F24" s="133"/>
       <c r="G24" s="133"/>
       <c r="H24" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I24" s="133"/>
       <c r="J24" s="133"/>
@@ -11256,7 +11256,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="133"/>
       <c r="H25" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="133"/>
       <c r="J25" s="133"/>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B26" s="133"/>
       <c r="C26" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="133"/>
       <c r="E26" s="133"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="B27" s="133"/>
       <c r="C27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="133"/>
       <c r="E27" s="133"/>
@@ -11293,7 +11293,7 @@
       <c r="G27" s="133"/>
       <c r="H27" s="133"/>
       <c r="I27" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
@@ -11309,7 +11309,7 @@
       <c r="F28" s="133"/>
       <c r="G28" s="133"/>
       <c r="H28" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I28" s="133"/>
       <c r="J28" s="133"/>
@@ -11320,11 +11320,11 @@
         <v>192</v>
       </c>
       <c r="B29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="133"/>
       <c r="F29" s="133"/>
@@ -11339,13 +11339,13 @@
         <v>206</v>
       </c>
       <c r="B30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="133"/>
       <c r="F30" s="133"/>
@@ -11357,13 +11357,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
@@ -11382,10 +11382,10 @@
       <c r="E32" s="133"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I32" s="133"/>
       <c r="J32" s="133"/>
@@ -11401,10 +11401,10 @@
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
       <c r="G33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I33" s="133"/>
       <c r="J33" s="133"/>
@@ -11420,10 +11420,10 @@
       <c r="E34" s="133"/>
       <c r="F34" s="133"/>
       <c r="G34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I34" s="133"/>
       <c r="J34" s="133"/>
@@ -11439,10 +11439,10 @@
       <c r="E35" s="133"/>
       <c r="F35" s="133"/>
       <c r="G35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H35" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="133"/>
       <c r="J35" s="133"/>
@@ -11458,10 +11458,10 @@
       <c r="E36" s="133"/>
       <c r="F36" s="133"/>
       <c r="G36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H36" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I36" s="133"/>
       <c r="J36" s="133"/>
@@ -11477,10 +11477,10 @@
       <c r="E37" s="133"/>
       <c r="F37" s="133"/>
       <c r="G37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H37" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I37" s="133"/>
       <c r="J37" s="133"/>
@@ -11497,7 +11497,7 @@
       <c r="F38" s="133"/>
       <c r="G38" s="133"/>
       <c r="H38" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="133"/>
       <c r="J38" s="133"/>
@@ -11508,24 +11508,24 @@
         <v>200</v>
       </c>
       <c r="B39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="133"/>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
       <c r="F39" s="133"/>
       <c r="G39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="133"/>
       <c r="J39" s="133"/>
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0EvqtuxqkCJ2e3JaJvURJxgaVgTeOnEjip9d1r4AGlg9jqvvt5efiixf8b7GVeKjtK6cJYVqY39C6suVNkoO9Q==" saltValue="7MwYeCRBMKDovGzqICVnZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AUYpsgQ6y32U2e1ipfArBSXebhXVkvZqz1XdcPFLG7nPqVwFX8MfXbC3LyKKrakSYRuqdriLnj2U+bwjZXPLZA==" saltValue="7jlQQENZP9jzq/JAEc0vGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11564,7 +11564,7 @@
         <v>226</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>227</v>
@@ -11573,48 +11573,48 @@
         <v>228</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>229</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -11622,28 +11622,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="133"/>
@@ -11651,28 +11651,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="133"/>
       <c r="J4" s="133"/>
@@ -11680,28 +11680,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -11709,28 +11709,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11738,95 +11738,95 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="133"/>
       <c r="C7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="133"/>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
       <c r="G7" s="133"/>
       <c r="H7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="133"/>
       <c r="C8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
       <c r="G8" s="133"/>
       <c r="H8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="133"/>
       <c r="C9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="133"/>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
       <c r="H9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="133"/>
       <c r="C10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="133"/>
       <c r="E10" s="133"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
       <c r="H10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="133"/>
       <c r="E11" s="133"/>
@@ -11835,19 +11835,19 @@
       <c r="H11" s="133"/>
       <c r="I11" s="133"/>
       <c r="J11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="133"/>
       <c r="C12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="133"/>
       <c r="E12" s="133"/>
@@ -11857,16 +11857,16 @@
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
       <c r="K12" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" s="133"/>
       <c r="C13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -11876,16 +11876,16 @@
       <c r="I13" s="133"/>
       <c r="J13" s="133"/>
       <c r="K13" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="133"/>
       <c r="C14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -11895,11 +11895,11 @@
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
       <c r="K14" s="133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lRwMs0dWgTGGxLpO8tTnohiaNsR82JRgxNucDdHibUTeS96oHxorsLfwR5KUdxUlQ21x7y61kMcEpvE8x64SXQ==" saltValue="Rdw9N45L9gHA/ufQfrS98Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="77rfW+CiZ6Yodp3hubGdViboYe/H4oKGxoqWWIItm6nn0XwlwCbQE4u5KXgSStT5WtVAezQARYXkoRjcJAUC1A==" saltValue="BV3r0MAnISN+CXdfy1MNIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11924,31 +11924,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o5ZKvteyS+77qma7hHG2PgjworVAkC7Lkn1pBaDbPGCm19sEm8SkrC4qgJfa8A30mxjP+KUkgTvazWqaAuaIfQ==" saltValue="ru7OkpdLRO703D1HDb4NQg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DI44TWGwdmG2T6UvZZJLjltnun4vAyu8h+1fGOiy7A/Hz9GwVuFjyhj/OP6YhWlTeCJYGQVP+KyYoAroxIlnDw==" saltValue="GMhOzPcuXGMXqepdsbYAVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13023,25 +13023,25 @@
         <v>231</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,10 +13049,10 @@
         <v>232</v>
       </c>
       <c r="B2" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="134">
         <v>1</v>
@@ -13073,7 +13073,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="148"/>
       <c r="C3" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="134">
         <v>1</v>
@@ -13095,7 +13095,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="148"/>
       <c r="C4" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="134">
         <v>1</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="134">
         <f>5.16</f>
@@ -13141,7 +13141,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="148"/>
       <c r="C6" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="134">
         <v>5.16</v>
@@ -13162,7 +13162,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="148"/>
       <c r="C7" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D7" s="134">
         <v>1</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="134">
         <v>1</v>
@@ -13206,7 +13206,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="148"/>
       <c r="C9" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D9" s="134">
         <v>1</v>
@@ -13227,7 +13227,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="148"/>
       <c r="C10" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="134">
         <v>1</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D11" s="134">
         <v>1</v>
@@ -13271,7 +13271,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="148"/>
       <c r="C12" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="134">
         <v>1</v>
@@ -13292,7 +13292,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="148"/>
       <c r="C13" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="134">
         <v>1</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="134">
         <v>1</v>
@@ -13336,7 +13336,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="148"/>
       <c r="C15" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="134">
         <v>1</v>
@@ -13357,7 +13357,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
       <c r="C16" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="134">
         <v>1</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="134">
         <v>1.05</v>
@@ -13410,10 +13410,10 @@
         <v>233</v>
       </c>
       <c r="B19" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="134">
         <v>1</v>
@@ -13434,7 +13434,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="148"/>
       <c r="C20" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="134">
         <v>1</v>
@@ -13455,7 +13455,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
       <c r="C21" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="134">
         <v>1</v>
@@ -13475,10 +13475,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" s="134">
         <v>1</v>
@@ -13499,7 +13499,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="148"/>
       <c r="C23" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" s="134">
         <v>1</v>
@@ -13520,7 +13520,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="148"/>
       <c r="C24" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="134">
         <v>1</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="134">
         <v>1</v>
@@ -13564,7 +13564,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="148"/>
       <c r="C26" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="134">
         <v>1</v>
@@ -13585,7 +13585,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="148"/>
       <c r="C27" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="134">
         <v>1</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D28" s="134">
         <v>1</v>
@@ -13629,7 +13629,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="148"/>
       <c r="C29" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D29" s="134">
         <v>1</v>
@@ -13650,7 +13650,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="148"/>
       <c r="C30" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D30" s="134">
         <v>1</v>
@@ -13670,10 +13670,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D31" s="134">
         <v>1</v>
@@ -13694,7 +13694,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="148"/>
       <c r="C32" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="134">
         <v>1</v>
@@ -13715,7 +13715,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="148"/>
       <c r="C33" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" s="134">
         <v>1</v>
@@ -13735,10 +13735,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D34" s="134">
         <v>1</v>
@@ -13768,10 +13768,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" s="134">
         <v>1</v>
@@ -13792,7 +13792,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="148"/>
       <c r="C37" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" s="134">
         <v>1</v>
@@ -13813,7 +13813,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="148"/>
       <c r="C38" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" s="134">
         <v>1</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D39" s="134">
         <v>1</v>
@@ -13857,7 +13857,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="148"/>
       <c r="C40" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D40" s="134">
         <v>1</v>
@@ -13878,7 +13878,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="148"/>
       <c r="C41" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D41" s="134">
         <v>1</v>
@@ -13898,10 +13898,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="134">
         <v>1</v>
@@ -13922,7 +13922,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="148"/>
       <c r="C43" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="134">
         <v>1</v>
@@ -13943,7 +13943,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="148"/>
       <c r="C44" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D44" s="134">
         <v>1</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D45" s="134">
         <v>1</v>
@@ -13987,7 +13987,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" s="148"/>
       <c r="C46" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="134">
         <v>1</v>
@@ -14008,7 +14008,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" s="148"/>
       <c r="C47" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47" s="134">
         <v>1</v>
@@ -14028,10 +14028,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D48" s="134">
         <v>1</v>
@@ -14052,7 +14052,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" s="148"/>
       <c r="C49" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D49" s="134">
         <v>1</v>
@@ -14073,7 +14073,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="148"/>
       <c r="C50" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D50" s="134">
         <v>1</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="134">
         <v>1.05</v>
@@ -14131,25 +14131,25 @@
         <v>231</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -14157,10 +14157,10 @@
         <v>236</v>
       </c>
       <c r="B55" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D55" s="134">
         <f>D2*0.9</f>
@@ -14186,7 +14186,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="148"/>
       <c r="C56" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D56" s="134">
         <f t="shared" ref="D56:H56" si="1">D3*0.9</f>
@@ -14212,7 +14212,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="148"/>
       <c r="C57" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="134">
         <f t="shared" ref="D57:H57" si="2">D4*0.9</f>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D58" s="134">
         <f t="shared" ref="D58:H58" si="3">D5*0.9</f>
@@ -14266,7 +14266,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="148"/>
       <c r="C59" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D59" s="134">
         <f t="shared" ref="D59:H59" si="4">D6*0.9</f>
@@ -14292,7 +14292,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B60" s="148"/>
       <c r="C60" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D60" s="134">
         <f t="shared" ref="D60:H60" si="5">D7*0.9</f>
@@ -14317,10 +14317,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D61" s="134">
         <f t="shared" ref="D61:H61" si="6">D8*0.9</f>
@@ -14346,7 +14346,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="148"/>
       <c r="C62" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D62" s="134">
         <f t="shared" ref="D62:H62" si="7">D9*0.9</f>
@@ -14372,7 +14372,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="148"/>
       <c r="C63" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="134">
         <f t="shared" ref="D63:H63" si="8">D10*0.9</f>
@@ -14397,10 +14397,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D64" s="134">
         <f t="shared" ref="D64:H64" si="9">D11*0.9</f>
@@ -14426,7 +14426,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="148"/>
       <c r="C65" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="134">
         <f t="shared" ref="D65:H65" si="10">D12*0.9</f>
@@ -14452,7 +14452,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="148"/>
       <c r="C66" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="134">
         <f t="shared" ref="D66:H66" si="11">D13*0.9</f>
@@ -14477,10 +14477,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D67" s="134">
         <f t="shared" ref="D67:H67" si="12">D14*0.9</f>
@@ -14506,7 +14506,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="148"/>
       <c r="C68" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D68" s="134">
         <f t="shared" ref="D68:H68" si="13">D15*0.9</f>
@@ -14532,7 +14532,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="148"/>
       <c r="C69" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="134">
         <f t="shared" ref="D69:H69" si="14">D16*0.9</f>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="134">
         <f t="shared" ref="D70:H70" si="15">D17*0.9</f>
@@ -14595,10 +14595,10 @@
         <v>237</v>
       </c>
       <c r="B72" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="134">
         <f>D19*0.9</f>
@@ -14624,7 +14624,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="148"/>
       <c r="C73" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="134">
         <f t="shared" ref="D73:D87" si="17">D20*0.9</f>
@@ -14650,7 +14650,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="148"/>
       <c r="C74" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="134">
         <f t="shared" si="17"/>
@@ -14675,10 +14675,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="134">
         <f t="shared" si="17"/>
@@ -14704,7 +14704,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="148"/>
       <c r="C76" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D76" s="134">
         <f t="shared" si="17"/>
@@ -14730,7 +14730,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="148"/>
       <c r="C77" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D77" s="134">
         <f t="shared" si="17"/>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="134">
         <f t="shared" si="17"/>
@@ -14784,7 +14784,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="148"/>
       <c r="C79" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="134">
         <f t="shared" si="17"/>
@@ -14810,7 +14810,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="148"/>
       <c r="C80" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="134">
         <f t="shared" si="17"/>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B81" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D81" s="134">
         <f t="shared" si="17"/>
@@ -14864,7 +14864,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="148"/>
       <c r="C82" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D82" s="134">
         <f t="shared" si="17"/>
@@ -14890,7 +14890,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="148"/>
       <c r="C83" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D83" s="134">
         <f t="shared" si="17"/>
@@ -14915,10 +14915,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D84" s="134">
         <f t="shared" si="17"/>
@@ -14944,7 +14944,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="148"/>
       <c r="C85" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D85" s="134">
         <f t="shared" si="17"/>
@@ -14970,7 +14970,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="148"/>
       <c r="C86" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D86" s="134">
         <f t="shared" si="17"/>
@@ -14995,10 +14995,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D87" s="134">
         <f t="shared" si="17"/>
@@ -15033,10 +15033,10 @@
         <v>238</v>
       </c>
       <c r="B89" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D89" s="134">
         <f>D36*0.9</f>
@@ -15062,7 +15062,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="148"/>
       <c r="C90" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D90" s="134">
         <f t="shared" ref="D90:D104" si="34">D37*0.9</f>
@@ -15088,7 +15088,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="148"/>
       <c r="C91" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D91" s="134">
         <f t="shared" si="34"/>
@@ -15113,10 +15113,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D92" s="134">
         <f t="shared" si="34"/>
@@ -15142,7 +15142,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="148"/>
       <c r="C93" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D93" s="134">
         <f t="shared" si="34"/>
@@ -15168,7 +15168,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="148"/>
       <c r="C94" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D94" s="134">
         <f t="shared" si="34"/>
@@ -15193,10 +15193,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="134">
         <f t="shared" si="34"/>
@@ -15222,7 +15222,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="148"/>
       <c r="C96" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="134">
         <f t="shared" si="34"/>
@@ -15248,7 +15248,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B97" s="148"/>
       <c r="C97" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="134">
         <f t="shared" si="34"/>
@@ -15273,10 +15273,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B98" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D98" s="134">
         <f t="shared" si="34"/>
@@ -15302,7 +15302,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" s="148"/>
       <c r="C99" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D99" s="134">
         <f t="shared" si="34"/>
@@ -15328,7 +15328,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="148"/>
       <c r="C100" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D100" s="134">
         <f t="shared" si="34"/>
@@ -15353,10 +15353,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D101" s="134">
         <f t="shared" si="34"/>
@@ -15382,7 +15382,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" s="148"/>
       <c r="C102" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="134">
         <f t="shared" si="34"/>
@@ -15408,7 +15408,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B103" s="148"/>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="134">
         <f t="shared" si="34"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B104" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="134">
         <f t="shared" si="34"/>
@@ -15476,25 +15476,25 @@
         <v>231</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G107" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H107" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -15502,10 +15502,10 @@
         <v>240</v>
       </c>
       <c r="B108" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D108" s="134">
         <f>D2*1.05</f>
@@ -15531,7 +15531,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="148"/>
       <c r="C109" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D109" s="134">
         <f t="shared" ref="D109:D112" si="51">D3*1.05</f>
@@ -15557,7 +15557,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" s="148"/>
       <c r="C110" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D110" s="134">
         <f t="shared" si="51"/>
@@ -15582,10 +15582,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D111" s="134">
         <f t="shared" si="51"/>
@@ -15611,7 +15611,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" s="148"/>
       <c r="C112" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D112" s="134">
         <f t="shared" si="51"/>
@@ -15637,7 +15637,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" s="148"/>
       <c r="C113" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D113" s="134">
         <f t="shared" ref="D113:H113" si="56">D7*1.05</f>
@@ -15662,10 +15662,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D114" s="134">
         <f t="shared" ref="D114:H114" si="57">D8*1.05</f>
@@ -15691,7 +15691,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" s="148"/>
       <c r="C115" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D115" s="134">
         <f t="shared" ref="D115:H115" si="58">D9*1.05</f>
@@ -15717,7 +15717,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="148"/>
       <c r="C116" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D116" s="134">
         <f t="shared" ref="D116:H116" si="59">D10*1.05</f>
@@ -15742,10 +15742,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D117" s="134">
         <f t="shared" ref="D117:H117" si="60">D11*1.05</f>
@@ -15771,7 +15771,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="148"/>
       <c r="C118" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D118" s="134">
         <f t="shared" ref="D118:H118" si="61">D12*1.05</f>
@@ -15797,7 +15797,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" s="148"/>
       <c r="C119" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D119" s="134">
         <f t="shared" ref="D119:H119" si="62">D13*1.05</f>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D120" s="134">
         <f t="shared" ref="D120:H120" si="63">D14*1.05</f>
@@ -15851,7 +15851,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="148"/>
       <c r="C121" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="134">
         <f t="shared" ref="D121:H121" si="64">D15*1.05</f>
@@ -15877,7 +15877,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="148"/>
       <c r="C122" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="134">
         <f t="shared" ref="D122:H122" si="65">D16*1.05</f>
@@ -15902,10 +15902,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="134">
         <f t="shared" ref="D123:H123" si="66">D17*1.05</f>
@@ -15940,10 +15940,10 @@
         <v>241</v>
       </c>
       <c r="B125" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D125" s="134">
         <f>D19*1.05</f>
@@ -15969,7 +15969,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="148"/>
       <c r="C126" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D126" s="134">
         <f t="shared" ref="D126:H126" si="68">D20*1.05</f>
@@ -15995,7 +15995,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="148"/>
       <c r="C127" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D127" s="134">
         <f t="shared" ref="D127:H127" si="69">D21*1.05</f>
@@ -16020,10 +16020,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D128" s="134">
         <f t="shared" ref="D128:H128" si="70">D22*1.05</f>
@@ -16049,7 +16049,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="148"/>
       <c r="C129" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D129" s="134">
         <f t="shared" ref="D129:H129" si="71">D23*1.05</f>
@@ -16075,7 +16075,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B130" s="148"/>
       <c r="C130" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D130" s="134">
         <f t="shared" ref="D130:H130" si="72">D24*1.05</f>
@@ -16100,10 +16100,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D131" s="134">
         <f t="shared" ref="D131:H131" si="73">D25*1.05</f>
@@ -16129,7 +16129,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B132" s="148"/>
       <c r="C132" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D132" s="134">
         <f t="shared" ref="D132:H132" si="74">D26*1.05</f>
@@ -16155,7 +16155,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="148"/>
       <c r="C133" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D133" s="134">
         <f t="shared" ref="D133:H133" si="75">D27*1.05</f>
@@ -16180,10 +16180,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B134" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D134" s="134">
         <f t="shared" ref="D134:H134" si="76">D28*1.05</f>
@@ -16209,7 +16209,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B135" s="148"/>
       <c r="C135" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D135" s="134">
         <f t="shared" ref="D135:H135" si="77">D29*1.05</f>
@@ -16235,7 +16235,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B136" s="148"/>
       <c r="C136" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="134">
         <f t="shared" ref="D136:H136" si="78">D30*1.05</f>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B137" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D137" s="134">
         <f t="shared" ref="D137:H137" si="79">D31*1.05</f>
@@ -16289,7 +16289,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B138" s="148"/>
       <c r="C138" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D138" s="134">
         <f t="shared" ref="D138:H138" si="80">D32*1.05</f>
@@ -16315,7 +16315,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="148"/>
       <c r="C139" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D139" s="134">
         <f t="shared" ref="D139:H139" si="81">D33*1.05</f>
@@ -16340,10 +16340,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B140" s="138" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D140" s="134">
         <f t="shared" ref="D140:H140" si="82">D34*1.05</f>
@@ -16378,10 +16378,10 @@
         <v>242</v>
       </c>
       <c r="B142" s="148" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D142" s="134">
         <f>D36*1.05</f>
@@ -16407,7 +16407,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B143" s="148"/>
       <c r="C143" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D143" s="134">
         <f t="shared" ref="D143:H143" si="84">D37*1.05</f>
@@ -16433,7 +16433,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="148"/>
       <c r="C144" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" s="134">
         <f t="shared" ref="D144:H144" si="85">D38*1.05</f>
@@ -16458,10 +16458,10 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="148" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D145" s="134">
         <f t="shared" ref="D145:H145" si="86">D39*1.05</f>
@@ -16487,7 +16487,7 @@
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="148"/>
       <c r="C146" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D146" s="134">
         <f t="shared" ref="D146:H146" si="87">D40*1.05</f>
@@ -16513,7 +16513,7 @@
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="148"/>
       <c r="C147" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D147" s="134">
         <f t="shared" ref="D147:H147" si="88">D41*1.05</f>
@@ -16538,10 +16538,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="148" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D148" s="134">
         <f t="shared" ref="D148:H148" si="89">D42*1.05</f>
@@ -16567,7 +16567,7 @@
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="148"/>
       <c r="C149" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D149" s="134">
         <f t="shared" ref="D149:H149" si="90">D43*1.05</f>
@@ -16593,7 +16593,7 @@
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="148"/>
       <c r="C150" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D150" s="134">
         <f t="shared" ref="D150:H150" si="91">D44*1.05</f>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="148" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D151" s="134">
         <f t="shared" ref="D151:H151" si="92">D45*1.05</f>
@@ -16647,7 +16647,7 @@
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="148"/>
       <c r="C152" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D152" s="134">
         <f t="shared" ref="D152:H152" si="93">D46*1.05</f>
@@ -16673,7 +16673,7 @@
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="148"/>
       <c r="C153" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D153" s="134">
         <f t="shared" ref="D153:H153" si="94">D47*1.05</f>
@@ -16698,10 +16698,10 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="148" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D154" s="134">
         <f t="shared" ref="D154:H154" si="95">D48*1.05</f>
@@ -16727,7 +16727,7 @@
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="148"/>
       <c r="C155" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D155" s="134">
         <f t="shared" ref="D155:H155" si="96">D49*1.05</f>
@@ -16753,7 +16753,7 @@
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="148"/>
       <c r="C156" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D156" s="134">
         <f t="shared" ref="D156:H156" si="97">D50*1.05</f>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="98" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D157" s="134">
         <f t="shared" ref="D157:H157" si="98">D51*1.05</f>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JOcT6IQASm73OPIYZahtRWtTzvo9aNBx/k7YaYiS8dtcf9MXzzkYQiCAtddDan10nEV9WWmYQVoQPPNkETkzpQ==" saltValue="LGe6lxXnoL2a3ynBBYtHvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dFbFxf7t9lcJFa3T9AUtJhZ1GT3XdUmWxx+CkJjWV4M9uCgPBAHzD9bV/6FTvemgY94U0i33i0821XD+Odn5Jw==" saltValue="GckRzjv2oSA5TRURz002PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16890,16 +16890,16 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16914,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="135">
         <v>1</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="135">
         <v>1</v>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" s="135">
         <v>1</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="135">
         <v>1</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="113" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -17069,7 +17069,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="135">
         <v>1</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="135">
         <v>1</v>
@@ -17143,7 +17143,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="135">
         <v>1</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="135">
         <v>1</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" s="135">
         <v>1</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="135">
         <v>1</v>
@@ -17213,7 +17213,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="135">
         <v>1</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="135">
         <v>1</v>
@@ -17266,16 +17266,16 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17290,7 +17290,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="139">
         <f>C4*0.7</f>
@@ -17311,7 +17311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="139">
         <f t="shared" ref="C32:F32" si="1">C5*0.7</f>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C33" s="139">
         <f t="shared" ref="C33:F33" si="2">C6*0.7</f>
@@ -17353,7 +17353,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="139">
         <f t="shared" ref="C34:F34" si="3">C7*0.7</f>
@@ -17501,7 +17501,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C45" s="139">
         <f>C18*0.7</f>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="139">
         <f t="shared" ref="C46:F46" si="9">C19*0.7</f>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C47" s="139">
         <f t="shared" ref="C47:F47" si="10">C20*0.7</f>
@@ -17564,7 +17564,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48" s="139">
         <f t="shared" ref="C48:F48" si="11">C21*0.7</f>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" s="139">
         <f t="shared" ref="C49:F49" si="12">C22*0.7</f>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="139">
         <f t="shared" ref="C50:F50" si="13">C23*0.7</f>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="139">
         <f t="shared" ref="C51:F51" si="14">C24*0.7</f>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="139">
         <f t="shared" ref="C52:F52" si="15">C25*0.7</f>
@@ -17685,16 +17685,16 @@
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="101"/>
       <c r="C56" s="102" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C58" s="139">
         <f>C4*1.3</f>
@@ -17730,7 +17730,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C59" s="139">
         <f t="shared" ref="C59:F59" si="17">C5*1.3</f>
@@ -17751,7 +17751,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="139">
         <f t="shared" ref="C60:F60" si="18">C6*1.3</f>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C61" s="139">
         <f t="shared" ref="C61:F61" si="19">C7*1.3</f>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="117" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C72" s="139">
         <f>C18*1.3</f>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C73" s="139">
         <f t="shared" ref="C73:F73" si="25">C19*1.3</f>
@@ -17962,7 +17962,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="117" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="139">
         <f t="shared" ref="C74:F74" si="26">C20*1.3</f>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C75" s="139">
         <f t="shared" ref="C75:F75" si="27">C21*1.3</f>
@@ -18004,7 +18004,7 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C76" s="139">
         <f t="shared" ref="C76:F76" si="28">C22*1.3</f>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="117" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77" s="139">
         <f t="shared" ref="C77:F77" si="29">C23*1.3</f>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="139">
         <f t="shared" ref="C78:F78" si="30">C24*1.3</f>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C79" s="139">
         <f t="shared" ref="C79:F79" si="31">C25*1.3</f>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3Ldgzrjw3wE3xMQlC/RCviVD8IJ9WPqaExIWCLDMbgDZ4iHWARemZruZFm6Mi8MqnOsC81gX43RzOVA2FhqwnA==" saltValue="VlEg6Vmetlz/DDhwiRLOvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6Ha9CvVDOJM7vbWF7usiKOyh+19YEepNaelFVgjJxlA9X44UqWw1PoT3eaF1clUEwNvtj0NK3fb2olsm8B09GA==" saltValue="nDVmXPJjkjEYog96iz0DQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18134,19 +18134,19 @@
         <v>266</v>
       </c>
       <c r="D2" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I2" s="120"/>
       <c r="J2" s="120"/>
@@ -18160,10 +18160,10 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -18275,10 +18275,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -18390,10 +18390,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -18735,10 +18735,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -18864,19 +18864,19 @@
         <v>270</v>
       </c>
       <c r="D29" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="120"/>
       <c r="J29" s="120"/>
@@ -18890,10 +18890,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -19235,10 +19235,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -19350,10 +19350,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B56" s="94" t="s">
         <v>265</v>
@@ -19598,16 +19598,16 @@
         <v>272</v>
       </c>
       <c r="D56" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H56" s="120"/>
       <c r="M56" s="120"/>
@@ -19618,7 +19618,7 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>273</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B59" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>273</v>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>273</v>
@@ -19768,7 +19768,7 @@
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65" s="94" t="s">
         <v>265</v>
@@ -19777,19 +19777,19 @@
         <v>276</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G65" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H65" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I65" s="120"/>
       <c r="J65" s="120"/>
@@ -19803,10 +19803,10 @@
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D66" s="135">
         <v>1</v>
@@ -19834,7 +19834,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D67" s="136">
         <v>1.35</v>
@@ -19862,7 +19862,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D68" s="136">
         <v>1.35</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" s="136">
         <v>5.4</v>
@@ -19918,10 +19918,10 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D70" s="135">
         <v>1</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C71" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D71" s="136">
         <v>1.35</v>
@@ -19977,7 +19977,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C72" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D72" s="136">
         <v>1.35</v>
@@ -20005,7 +20005,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C73" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D73" s="136">
         <v>5.4</v>
@@ -20033,10 +20033,10 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D74" s="135">
         <v>1</v>
@@ -20064,7 +20064,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D75" s="136">
         <v>1.35</v>
@@ -20092,7 +20092,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C76" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="136">
         <v>1.35</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="136">
         <v>5.4</v>
@@ -20148,10 +20148,10 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D78" s="135">
         <v>1</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D79" s="136">
         <v>1</v>
@@ -20207,7 +20207,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D80" s="136">
         <v>1</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C81" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="136">
         <v>1</v>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D82" s="135">
         <v>1</v>
@@ -20294,7 +20294,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D83" s="136">
         <v>1</v>
@@ -20322,7 +20322,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D84" s="136">
         <v>1</v>
@@ -20350,7 +20350,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="136">
         <v>1</v>
@@ -20378,10 +20378,10 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D86" s="135">
         <v>1</v>
@@ -20409,7 +20409,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D87" s="136">
         <v>1</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D88" s="136">
         <v>1</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="136">
         <v>1</v>
@@ -20493,10 +20493,10 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D90" s="135">
         <v>1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D91" s="136">
         <v>1</v>
@@ -20552,7 +20552,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C92" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D92" s="136">
         <v>1</v>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C93" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" s="136">
         <v>1</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D94" s="135">
         <v>1</v>
@@ -20639,7 +20639,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D95" s="136">
         <v>1</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D96" s="136">
         <v>1</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C97" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="136">
         <v>1</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B98" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D98" s="135">
         <v>1</v>
@@ -20754,7 +20754,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C99" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D99" s="136">
         <v>1</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C100" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D100" s="136">
         <v>1</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C101" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="136">
         <v>1</v>
@@ -20843,28 +20843,28 @@
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B104" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D104" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E104" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F104" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G104" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H104" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I104" s="120"/>
       <c r="J104" s="120"/>
@@ -20879,7 +20879,7 @@
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D105" s="135">
         <v>1</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C106" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D106" s="136">
         <v>1.26</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C107" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D107" s="136">
         <v>1.68</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C108" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D108" s="136">
         <v>2.65</v>
@@ -21018,28 +21018,28 @@
         <v>266</v>
       </c>
       <c r="D112" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E112" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F112" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G112" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H112" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="40"/>
       <c r="B113" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="139">
         <f>D3*0.8</f>
@@ -21139,10 +21139,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="139">
         <f t="shared" ref="D117:H117" si="4">D7*0.8</f>
@@ -21242,10 +21242,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="139">
         <f t="shared" ref="D121:H121" si="8">D11*0.8</f>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="139">
         <f t="shared" ref="D125:H125" si="12">D15*0.8</f>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B129" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="139">
         <f t="shared" ref="D129:H129" si="16">D19*0.8</f>
@@ -21551,10 +21551,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B133" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="139">
         <f t="shared" ref="D133:H133" si="20">D23*0.8</f>
@@ -21675,28 +21675,28 @@
         <v>270</v>
       </c>
       <c r="D139" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E139" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F139" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G139" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H139" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="40"/>
       <c r="B140" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="139">
         <f>D30*0.7</f>
@@ -21796,10 +21796,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B144" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="139">
         <f t="shared" ref="D144:H144" si="28">D34*0.7</f>
@@ -21899,10 +21899,10 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="139">
         <f t="shared" ref="D148:H148" si="32">D38*0.7</f>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="139">
         <f t="shared" ref="D152:H152" si="36">D42*0.7</f>
@@ -22105,10 +22105,10 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="139">
         <f t="shared" ref="D156:H156" si="40">D46*0.7</f>
@@ -22208,10 +22208,10 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D160" s="139">
         <f t="shared" ref="D160:H160" si="44">D50*0.7</f>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B166" s="94" t="s">
         <v>265</v>
@@ -22336,23 +22336,23 @@
         <v>272</v>
       </c>
       <c r="D166" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E166" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F166" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G166" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H166" s="120"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="40"/>
       <c r="B167" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C167" s="43" t="s">
         <v>273</v>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>273</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B171" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C171" s="43" t="s">
         <v>273</v>
@@ -22509,7 +22509,7 @@
     </row>
     <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B175" s="94" t="s">
         <v>265</v>
@@ -22518,28 +22518,28 @@
         <v>276</v>
       </c>
       <c r="D175" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E175" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G175" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H175" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D176" s="139">
         <f>D66*0.7</f>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C177" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D177" s="139">
         <f t="shared" ref="D177:G177" si="55">D67*0.7</f>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C178" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D178" s="139">
         <f t="shared" ref="D178:G178" si="56">D68*0.7</f>
@@ -22611,7 +22611,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C179" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D179" s="139">
         <f t="shared" ref="D179:G179" si="57">D69*0.7</f>
@@ -22635,10 +22635,10 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C180" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D180" s="139">
         <f t="shared" ref="D180:G180" si="58">D70*0.7</f>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C181" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="139">
         <f t="shared" ref="D181:G181" si="59">D71*0.7</f>
@@ -22686,7 +22686,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C182" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D182" s="139">
         <f t="shared" ref="D182:G182" si="60">D72*0.7</f>
@@ -22710,7 +22710,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C183" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D183" s="139">
         <f t="shared" ref="D183:G183" si="61">D73*0.7</f>
@@ -22734,10 +22734,10 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D184" s="139">
         <f t="shared" ref="D184:G184" si="62">D74*0.7</f>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C185" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D185" s="139">
         <f t="shared" ref="D185:G185" si="63">D75*0.7</f>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C186" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D186" s="139">
         <f t="shared" ref="D186:G186" si="64">D76*0.7</f>
@@ -22809,7 +22809,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C187" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D187" s="139">
         <f t="shared" ref="D187:G187" si="65">D77*0.7</f>
@@ -22833,10 +22833,10 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D188" s="139">
         <f t="shared" ref="D188:G188" si="66">D78*0.7</f>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C189" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D189" s="139">
         <f t="shared" ref="D189:G189" si="67">D79*0.7</f>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C190" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D190" s="139">
         <f t="shared" ref="D190:G190" si="68">D80*0.7</f>
@@ -22908,7 +22908,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C191" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D191" s="139">
         <f t="shared" ref="D191:G191" si="69">D81*0.7</f>
@@ -22932,10 +22932,10 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D192" s="139">
         <f t="shared" ref="D192:G192" si="70">D82*0.7</f>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C193" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D193" s="139">
         <f t="shared" ref="D193:G193" si="71">D83*0.7</f>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C194" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" s="139">
         <f t="shared" ref="D194:G194" si="72">D84*0.7</f>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C195" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D195" s="139">
         <f t="shared" ref="D195:G195" si="73">D85*0.7</f>
@@ -23031,10 +23031,10 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D196" s="139">
         <f t="shared" ref="D196:G196" si="74">D86*0.7</f>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C197" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D197" s="139">
         <f t="shared" ref="D197:G197" si="75">D87*0.7</f>
@@ -23082,7 +23082,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C198" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D198" s="139">
         <f t="shared" ref="D198:G198" si="76">D88*0.7</f>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C199" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D199" s="139">
         <f t="shared" ref="D199:G199" si="77">D89*0.7</f>
@@ -23130,10 +23130,10 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D200" s="139">
         <f t="shared" ref="D200:G200" si="78">D90*0.7</f>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C201" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D201" s="139">
         <f t="shared" ref="D201:G201" si="79">D91*0.7</f>
@@ -23181,7 +23181,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C202" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D202" s="139">
         <f t="shared" ref="D202:G202" si="80">D92*0.7</f>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C203" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D203" s="139">
         <f t="shared" ref="D203:G203" si="81">D93*0.7</f>
@@ -23229,10 +23229,10 @@
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D204" s="139">
         <f t="shared" ref="D204:G204" si="82">D94*0.7</f>
@@ -23256,7 +23256,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C205" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D205" s="139">
         <f t="shared" ref="D205:G205" si="83">D95*0.7</f>
@@ -23280,7 +23280,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C206" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D206" s="139">
         <f t="shared" ref="D206:G206" si="84">D96*0.7</f>
@@ -23304,7 +23304,7 @@
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C207" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D207" s="139">
         <f t="shared" ref="D207:G207" si="85">D97*0.7</f>
@@ -23328,10 +23328,10 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D208" s="139">
         <f t="shared" ref="D208:G208" si="86">D98*0.7</f>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C209" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D209" s="139">
         <f t="shared" ref="D209:G209" si="87">D99*0.7</f>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C210" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D210" s="139">
         <f t="shared" ref="D210:G210" si="88">D100*0.7</f>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D211" s="139">
         <f t="shared" ref="D211:G211" si="89">D101*0.7</f>
@@ -23439,35 +23439,35 @@
     </row>
     <row r="214" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A214" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B214" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C214" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D214" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E214" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F214" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G214" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H214" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="40"/>
       <c r="B215" s="36"/>
       <c r="C215" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D215" s="139">
         <f>D105*0.7</f>
@@ -23491,7 +23491,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C216" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D216" s="139">
         <f t="shared" ref="D216:G216" si="91">D106*0.7</f>
@@ -23515,7 +23515,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C217" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D217" s="139">
         <f t="shared" ref="D217:G217" si="92">D107*0.7</f>
@@ -23539,7 +23539,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C218" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D218" s="139">
         <f t="shared" ref="D218:G218" si="93">D108*0.7</f>
@@ -23591,29 +23591,29 @@
         <v>266</v>
       </c>
       <c r="D222" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E222" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F222" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G222" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H222" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I222" s="120"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="40"/>
       <c r="B223" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D223" s="139">
         <f>D3*1.2</f>
@@ -23717,10 +23717,10 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D227" s="139">
         <f t="shared" ref="D227:H227" si="98">D7*1.2</f>
@@ -23824,10 +23824,10 @@
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D231" s="139">
         <f t="shared" ref="D231:H231" si="102">D11*1.2</f>
@@ -23931,10 +23931,10 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D235" s="139">
         <f t="shared" ref="D235:H235" si="106">D15*1.2</f>
@@ -24038,10 +24038,10 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="139">
         <f t="shared" ref="D239:H239" si="110">D19*1.2</f>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D243" s="139">
         <f t="shared" ref="D243:H243" si="114">D23*1.2</f>
@@ -24274,29 +24274,29 @@
         <v>270</v>
       </c>
       <c r="D249" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E249" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F249" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G249" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H249" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I249" s="120"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="40"/>
       <c r="B250" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C250" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="139">
         <f>D30*1.2</f>
@@ -24400,10 +24400,10 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D254" s="139">
         <f t="shared" ref="D254:H254" si="122">D34*1.2</f>
@@ -24507,10 +24507,10 @@
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B258" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D258" s="139">
         <f t="shared" ref="D258:H258" si="126">D38*1.2</f>
@@ -24614,10 +24614,10 @@
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B262" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D262" s="139">
         <f t="shared" ref="D262:H262" si="130">D42*1.2</f>
@@ -24721,10 +24721,10 @@
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B266" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="139">
         <f t="shared" ref="D266:H266" si="134">D46*1.2</f>
@@ -24828,10 +24828,10 @@
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B270" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C270" s="43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D270" s="139">
         <f t="shared" ref="D270:H270" si="138">D50*1.2</f>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="276" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B276" s="94" t="s">
         <v>265</v>
@@ -24961,16 +24961,16 @@
         <v>272</v>
       </c>
       <c r="D276" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E276" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F276" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G276" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H276" s="120"/>
       <c r="I276" s="36"/>
@@ -24978,7 +24978,7 @@
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="40"/>
       <c r="B277" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C277" s="43" t="s">
         <v>273</v>
@@ -25025,7 +25025,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C279" s="43" t="s">
         <v>273</v>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C281" s="43" t="s">
         <v>273</v>
@@ -25134,9 +25134,9 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B285" s="94" t="s">
         <v>265</v>
@@ -25145,29 +25145,29 @@
         <v>276</v>
       </c>
       <c r="D285" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E285" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F285" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G285" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H285" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I285" s="120"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="125"/>
       <c r="B286" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D286" s="139">
         <f>D66*1.2</f>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C287" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D287" s="139">
         <f t="shared" ref="D287:G287" si="149">D67*1.2</f>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C288" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D288" s="139">
         <f t="shared" ref="D288:G288" si="150">D68*1.2</f>
@@ -25242,7 +25242,7 @@
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C289" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D289" s="139">
         <f t="shared" ref="D289:G289" si="151">D69*1.2</f>
@@ -25267,10 +25267,10 @@
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B290" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C290" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D290" s="139">
         <f t="shared" ref="D290:G290" si="152">D70*1.2</f>
@@ -25295,7 +25295,7 @@
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C291" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D291" s="139">
         <f t="shared" ref="D291:G291" si="153">D71*1.2</f>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C292" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D292" s="139">
         <f t="shared" ref="D292:G292" si="154">D72*1.2</f>
@@ -25345,7 +25345,7 @@
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C293" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D293" s="139">
         <f t="shared" ref="D293:G293" si="155">D73*1.2</f>
@@ -25370,10 +25370,10 @@
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B294" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C294" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D294" s="139">
         <f t="shared" ref="D294:G294" si="156">D74*1.2</f>
@@ -25398,7 +25398,7 @@
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C295" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D295" s="139">
         <f t="shared" ref="D295:G295" si="157">D75*1.2</f>
@@ -25423,7 +25423,7 @@
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C296" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D296" s="139">
         <f t="shared" ref="D296:G296" si="158">D76*1.2</f>
@@ -25448,7 +25448,7 @@
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C297" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D297" s="139">
         <f t="shared" ref="D297:G297" si="159">D77*1.2</f>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B298" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C298" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D298" s="139">
         <f t="shared" ref="D298:G298" si="160">D78*1.2</f>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C299" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D299" s="139">
         <f t="shared" ref="D299:G299" si="161">D79*1.2</f>
@@ -25526,7 +25526,7 @@
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C300" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D300" s="139">
         <f t="shared" ref="D300:G300" si="162">D80*1.2</f>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C301" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D301" s="139">
         <f t="shared" ref="D301:G301" si="163">D81*1.2</f>
@@ -25576,10 +25576,10 @@
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B302" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C302" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D302" s="139">
         <f t="shared" ref="D302:G302" si="164">D82*1.2</f>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C303" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D303" s="139">
         <f t="shared" ref="D303:G303" si="165">D83*1.2</f>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C304" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D304" s="139">
         <f t="shared" ref="D304:G304" si="166">D84*1.2</f>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C305" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D305" s="139">
         <f t="shared" ref="D305:G305" si="167">D85*1.2</f>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B306" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C306" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D306" s="139">
         <f t="shared" ref="D306:G306" si="168">D86*1.2</f>
@@ -25707,7 +25707,7 @@
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C307" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D307" s="139">
         <f t="shared" ref="D307:G307" si="169">D87*1.2</f>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C308" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D308" s="139">
         <f t="shared" ref="D308:G308" si="170">D88*1.2</f>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C309" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D309" s="139">
         <f t="shared" ref="D309:G309" si="171">D89*1.2</f>
@@ -25782,10 +25782,10 @@
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B310" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D310" s="139">
         <f t="shared" ref="D310:G310" si="172">D90*1.2</f>
@@ -25810,7 +25810,7 @@
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C311" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D311" s="139">
         <f t="shared" ref="D311:G311" si="173">D91*1.2</f>
@@ -25835,7 +25835,7 @@
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C312" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D312" s="139">
         <f t="shared" ref="D312:G312" si="174">D92*1.2</f>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C313" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D313" s="139">
         <f t="shared" ref="D313:G313" si="175">D93*1.2</f>
@@ -25885,10 +25885,10 @@
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B314" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D314" s="139">
         <f t="shared" ref="D314:G314" si="176">D94*1.2</f>
@@ -25913,7 +25913,7 @@
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C315" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D315" s="139">
         <f t="shared" ref="D315:G315" si="177">D95*1.2</f>
@@ -25938,7 +25938,7 @@
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C316" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D316" s="139">
         <f t="shared" ref="D316:G316" si="178">D96*1.2</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C317" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D317" s="139">
         <f t="shared" ref="D317:G317" si="179">D97*1.2</f>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B318" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D318" s="139">
         <f t="shared" ref="D318:G318" si="180">D98*1.2</f>
@@ -26016,7 +26016,7 @@
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C319" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D319" s="139">
         <f t="shared" ref="D319:G319" si="181">D99*1.2</f>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C320" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D320" s="139">
         <f t="shared" ref="D320:G320" si="182">D100*1.2</f>
@@ -26066,7 +26066,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C321" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D321" s="139">
         <f t="shared" ref="D321:G321" si="183">D101*1.2</f>
@@ -26102,30 +26102,30 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B324" s="126" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C324" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D324" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E324" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F324" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G324" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H324" s="124" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I324" s="120"/>
     </row>
@@ -26133,7 +26133,7 @@
       <c r="A325" s="40"/>
       <c r="B325" s="36"/>
       <c r="C325" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D325" s="139">
         <f>D105*1.2</f>
@@ -26158,7 +26158,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C326" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D326" s="139">
         <f t="shared" ref="D326:G326" si="185">D106*1.2</f>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C327" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D327" s="139">
         <f t="shared" ref="D327:G327" si="186">D107*1.2</f>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C328" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D328" s="139">
         <f t="shared" ref="D328:G328" si="187">D108*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4mlP7tCvC9zochGqX/9/Y58gRWA6Y7jbk8PM1/kVBD4Lu8D6Vj3tmwlUoKdYhU1NJEjGqxYrRA+SOsCvIx6yVQ==" saltValue="jRrqmnQum7P6gF1epDIFng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pd5OF41vubZkADAPq5/0F4LuuSoDNmjWFLVfEPm5nxw1ocHvf67byFYNQ/Q0RddMjrTLLAPX3x1IGLybu29R4w==" saltValue="TSitANAxKdujGrfCMsUsag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26275,19 +26275,19 @@
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26295,7 +26295,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -26505,7 +26505,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="113" t="s">
         <v>285</v>
@@ -26534,21 +26534,21 @@
     </row>
     <row r="20" spans="1:7" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="136">
         <v>1.52</v>
@@ -26585,19 +26585,19 @@
       </c>
       <c r="B25" s="119"/>
       <c r="C25" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -26605,7 +26605,7 @@
         <v>289</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="136">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B40" s="113" t="s">
         <v>299</v>
@@ -26909,16 +26909,16 @@
       <c r="A43" s="104"/>
       <c r="B43" s="104"/>
       <c r="C43" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G43" s="104"/>
     </row>
@@ -26965,19 +26965,19 @@
       </c>
       <c r="B48" s="119"/>
       <c r="C48" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -26985,7 +26985,7 @@
         <v>302</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D49" s="136">
         <f t="shared" ref="D49:G50" si="9">D3*1.05</f>
@@ -27248,7 +27248,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B63" s="113" t="s">
         <v>312</v>
@@ -27289,16 +27289,16 @@
       <c r="A66" s="104"/>
       <c r="B66" s="104"/>
       <c r="C66" s="56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="56" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="56" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="104"/>
     </row>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8e6x29KwkA/rqOjIiF8exkQF0Ul2sYU9KULdXnjQ0AvCovnlNnxaEH5KLho4yXyoba26Wyt6raGQN0Ib1X2d2g==" saltValue="VM7E0HJ6K0IJx9EAoft6gg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FtclaWWDaYen0+RnFONM8oUorXeYtDbC4uOXUkPjpin5jHTd/be/iqf//4CNYo/otvOIfxIwK2Ddz1VkJEVcAw==" saltValue="B5OFuiQxg8ngWLIIbmnTKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27356,25 +27356,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>317</v>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="90" t="s">
         <v>317</v>
@@ -27450,7 +27450,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="90" t="s">
         <v>317</v>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B8" s="90" t="s">
         <v>317</v>
@@ -27607,25 +27607,25 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="90" t="s">
         <v>317</v>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="90" t="s">
         <v>317</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="90" t="s">
         <v>317</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B23" s="90" t="s">
         <v>317</v>
@@ -27906,25 +27906,25 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="90" t="s">
         <v>317</v>
@@ -27970,7 +27970,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="90" t="s">
         <v>317</v>
@@ -28016,7 +28016,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="90" t="s">
         <v>317</v>
@@ -28062,7 +28062,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="B38" s="90" t="s">
         <v>317</v>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9x0F7tzGmvI1EX/kVI7FHBkNKh78S4Hae2oe86qL1KQRfss9C1xCDkz/oOKP8IAQEzJxXYNBqh62TlSLl8IQ5w==" saltValue="Jh3ZgIvu7hMNbAD9ZGYTaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TYi7isZjhxW+/u5crxwPY/l7NXRL0EqU5D2e5VZy8dN/rWujAiTRgzfysE03ghE0ePGdjoMjE4pcz9bkGYfUxg==" saltValue="uc4zUbboY8HXxB4BiaQNbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28231,43 +28231,43 @@
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I1" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K1" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L1" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M1" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N1" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O1" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -28277,7 +28277,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="136">
         <v>0.53</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="136">
         <v>1</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -28409,7 +28409,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="136">
         <v>1</v>
@@ -28453,7 +28453,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -28497,7 +28497,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -28585,7 +28585,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C10" s="136">
         <v>1</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="136">
         <v>1</v>
@@ -28899,7 +28899,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="136">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="136">
         <v>1</v>
@@ -29038,43 +29038,43 @@
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J24" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L24" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N24" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O24" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -29084,7 +29084,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="136">
         <f>C3*0.9</f>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C27" s="136">
         <f t="shared" ref="C27:O27" si="1">C4*0.9</f>
@@ -29198,7 +29198,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="136">
         <f t="shared" ref="C28:O28" si="2">C5*0.9</f>
@@ -29255,7 +29255,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="136">
         <f t="shared" ref="C29:O29" si="3">C6*0.9</f>
@@ -29312,7 +29312,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="136">
         <f t="shared" ref="C30:O30" si="4">C7*0.9</f>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="136">
         <f t="shared" ref="C31:O31" si="5">C8*0.9</f>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C32" s="136">
         <f t="shared" ref="C32:O32" si="6">C9*0.9</f>
@@ -29483,7 +29483,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C33" s="136">
         <f t="shared" ref="C33:O33" si="7">C10*0.9</f>
@@ -29831,7 +29831,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="136">
         <f>C18*0.9</f>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="136">
         <f t="shared" ref="C42:O42" si="13">C19*0.9</f>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" s="136">
         <f t="shared" ref="C43:O43" si="14">C20*0.9</f>
@@ -30066,43 +30066,43 @@
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="103" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" s="103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" s="103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I47" s="103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J47" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L47" s="103" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M47" s="103" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N47" s="103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O47" s="103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -30112,7 +30112,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49" s="136">
         <f>C3*1.05</f>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" s="136">
         <f t="shared" ref="C50:O50" si="17">C4*1.05</f>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B51" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="136">
         <f t="shared" ref="C51:O51" si="18">C5*1.05</f>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B52" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="136">
         <f t="shared" ref="C52:O52" si="19">C6*1.05</f>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B53" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="136">
         <f t="shared" ref="C53:O53" si="20">C7*1.05</f>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B54" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="136">
         <f t="shared" ref="C54:O54" si="21">C8*1.05</f>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="136">
         <f t="shared" ref="C55:O55" si="22">C9*1.05</f>
@@ -30511,7 +30511,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="59" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C56" s="136">
         <f t="shared" ref="C56:O56" si="23">C10*1.05</f>
@@ -30859,7 +30859,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="136">
         <f>C18*1.05</f>
@@ -30916,7 +30916,7 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="136">
         <f t="shared" ref="C65:O65" si="29">C19*1.05</f>
@@ -30973,7 +30973,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="136">
         <f t="shared" ref="C66:O66" si="30">C20*1.05</f>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="futyrGaPE1A5TTyAO8A7SZEScSBK8K02z4BaXx0Mu8KIv9a2t8F81gU6dyqVuwad93qEPPODKQc0fKuC9l8Arw==" saltValue="Fy+qOLxhz0EZk0ufFf42tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rt33WinADqSfSfMIpZGqLKHngPxKm+9X4HBdcA/zHcx0CP9KuV55Qv6p/amc+I1tp1m1iEcp4i0Et+fYjMTltg==" saltValue="5ejKjQ4BgV014lmU6d1FJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31118,19 +31118,19 @@
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -31140,7 +31140,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -31171,7 +31171,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -31198,19 +31198,19 @@
       <c r="A8" s="40"/>
       <c r="B8" s="119"/>
       <c r="C8" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -31220,7 +31220,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="136">
         <f>C3*0.9</f>
@@ -31256,7 +31256,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="136">
         <f>C5*0.9</f>
@@ -31288,19 +31288,19 @@
       <c r="A15" s="40"/>
       <c r="B15" s="119"/>
       <c r="C15" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -31310,7 +31310,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="136">
         <f>C3*1.05</f>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="136">
         <f>C5*1.05</f>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="J4+kRFUkRQORllrHuVMN4dg6TCm8FqBpRXC9O0Scd65iU35sINGiRyqVIbcVEUp8rZ6UGnQ9FiKCFQZerIFZHw==" saltValue="1dvarZC0aOgAUjGyuKQEwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pT+Y8N4fOFaah+YiCaA+QV4kriz3P28qCmdmUb70Un4B5439mogz5T3iqeZgewm2atExKWbtHYcvC5Hk9MyVZg==" saltValue="TdjxDbwpkADacO/HG19JFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31405,28 +31405,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -31434,7 +31434,7 @@
         <v>193</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>334</v>
@@ -31764,7 +31764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>209</v>
@@ -31856,10 +31856,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>334</v>
@@ -31904,10 +31904,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="52" t="s">
         <v>334</v>
@@ -31950,10 +31950,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>334</v>
@@ -31999,7 +31999,7 @@
         <v>197</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>334</v>
@@ -32065,7 +32065,7 @@
         <v>198</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="52" t="s">
         <v>334</v>
@@ -32131,7 +32131,7 @@
         <v>196</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="52" t="s">
         <v>334</v>
@@ -32197,7 +32197,7 @@
         <v>195</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" s="52" t="s">
         <v>334</v>
@@ -32263,7 +32263,7 @@
         <v>194</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>334</v>
@@ -32329,7 +32329,7 @@
         <v>200</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>334</v>
@@ -32392,7 +32392,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>334</v>
@@ -32458,7 +32458,7 @@
         <v>191</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>334</v>
@@ -32504,7 +32504,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>334</v>
@@ -32550,7 +32550,7 @@
         <v>184</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>334</v>
@@ -32600,28 +32600,28 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -32629,7 +32629,7 @@
         <v>193</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>334</v>
@@ -33034,7 +33034,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
         <v>209</v>
@@ -33143,10 +33143,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C76" s="52" t="s">
         <v>334</v>
@@ -33199,10 +33199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
         <v>334</v>
@@ -33255,10 +33255,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="52" t="s">
         <v>334</v>
@@ -33314,7 +33314,7 @@
         <v>197</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="52" t="s">
         <v>334</v>
@@ -33395,7 +33395,7 @@
         <v>198</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C85" s="52" t="s">
         <v>334</v>
@@ -33476,7 +33476,7 @@
         <v>196</v>
       </c>
       <c r="B88" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C88" s="52" t="s">
         <v>334</v>
@@ -33557,7 +33557,7 @@
         <v>195</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" s="52" t="s">
         <v>334</v>
@@ -33638,7 +33638,7 @@
         <v>194</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C94" s="52" t="s">
         <v>334</v>
@@ -33719,7 +33719,7 @@
         <v>200</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="52" t="s">
         <v>334</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="52" t="s">
         <v>334</v>
@@ -33878,7 +33878,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="52" t="s">
         <v>334</v>
@@ -33934,7 +33934,7 @@
         <v>199</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>334</v>
@@ -33990,7 +33990,7 @@
         <v>184</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>334</v>
@@ -34050,28 +34050,28 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="40" t="s">
         <v>333</v>
       </c>
       <c r="C111" s="125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -34079,7 +34079,7 @@
         <v>193</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>334</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
         <v>209</v>
@@ -34593,10 +34593,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B131" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C131" s="52" t="s">
         <v>334</v>
@@ -34649,10 +34649,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C133" s="52" t="s">
         <v>334</v>
@@ -34705,10 +34705,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C135" s="52" t="s">
         <v>334</v>
@@ -34764,7 +34764,7 @@
         <v>197</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C137" s="52" t="s">
         <v>334</v>
@@ -34845,7 +34845,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C140" s="52" t="s">
         <v>334</v>
@@ -34926,7 +34926,7 @@
         <v>196</v>
       </c>
       <c r="B143" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C143" s="52" t="s">
         <v>334</v>
@@ -35007,7 +35007,7 @@
         <v>195</v>
       </c>
       <c r="B146" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" s="52" t="s">
         <v>334</v>
@@ -35088,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>334</v>
@@ -35169,7 +35169,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C152" s="52" t="s">
         <v>334</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C155" s="52" t="s">
         <v>334</v>
@@ -35328,7 +35328,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158" s="52" t="s">
         <v>334</v>
@@ -35384,7 +35384,7 @@
         <v>199</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C160" s="52" t="s">
         <v>334</v>
@@ -35440,7 +35440,7 @@
         <v>184</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C162" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6A8DRcVSGiayDYkNT+BhgcP/ikEZqt+9W8qA3NJ85Nc8+u7jfSdaqsIGGxsGTDndurNzLIbj+Ltcz6Mr8QArVA==" saltValue="otIZ50pIxiVHEFJv53po1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9u9L7LwvFJr3QDU5b0qLrQWF1FKGInB3r1hMrHrEipf39FZDO62wAIdeGsh49BMR6bAQybhUma0fzjdDC+H4gg==" saltValue="uDJGFuBT19mOia3IrhXYrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35523,32 +35523,32 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>334</v>
@@ -35590,7 +35590,7 @@
         <v>188</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>334</v>
@@ -35633,7 +35633,7 @@
         <v>187</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>334</v>
@@ -35678,31 +35678,31 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B10" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>334</v>
@@ -35750,7 +35750,7 @@
         <v>188</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>334</v>
@@ -35799,7 +35799,7 @@
         <v>187</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>334</v>
@@ -35850,31 +35850,31 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>334</v>
@@ -35922,7 +35922,7 @@
         <v>188</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>334</v>
@@ -35971,7 +35971,7 @@
         <v>187</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>334</v>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bguswPkocuzqBAkOBH/sEUL3LRYWYPqtX/oKlwQqtn3jBBWxVN3rBRyTbHSaw1ZT7EFSUet/j9db30kAierWBw==" saltValue="8itlhQqcpMWYeSknLbSj0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M8OP7SSGBlhJjcLu/sTyYK7WgWrh4CvlW3Nk0bbfO8mJFZjyHdKI/4NlpX6KEe3BIEX1CJGf17u1ckbsRnFv0g==" saltValue="Sbof4e6hBv+4lcXDW7YNnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36055,13 +36055,13 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="75">
         <v>2.7000000000000001E-3</v>
@@ -36078,7 +36078,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="75">
         <v>0.1966</v>
@@ -36086,7 +36086,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="75">
         <v>6.2100000000000002E-2</v>
@@ -36094,7 +36094,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="75">
         <v>0.29289999999999999</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="75">
         <v>0.24709999999999999</v>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="75">
         <v>4.7999999999999996E-3</v>
@@ -36118,7 +36118,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C9" s="75">
         <v>0.13200000000000001</v>
@@ -36126,7 +36126,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="75">
         <v>6.1800000000000001E-2</v>
@@ -36134,7 +36134,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
@@ -36154,28 +36154,28 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" s="75">
         <v>0.1368</v>
@@ -36192,7 +36192,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C15" s="75">
         <v>0.20660000000000001</v>
@@ -36209,7 +36209,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" s="75">
         <v>2.1100000000000001E-2</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="75">
         <v>7.4999999999999997E-3</v>
@@ -36243,7 +36243,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="75">
         <v>8.6199999999999999E-2</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="75">
         <v>2.86E-2</v>
@@ -36277,7 +36277,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="75">
         <v>1.5299999999999999E-2</v>
@@ -36294,7 +36294,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="75">
         <v>0.13589999999999999</v>
@@ -36311,7 +36311,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" s="75">
         <v>0.36199999999999999</v>
@@ -36328,7 +36328,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
@@ -36360,13 +36360,13 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -36376,7 +36376,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="75">
         <v>0.10082724000000001</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="75">
         <v>3.1206000000000002E-4</v>
@@ -36392,7 +36392,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28" s="75">
         <v>0.15891214000000001</v>
@@ -36400,7 +36400,7 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" s="75">
         <v>0.12598688999999999</v>
@@ -36416,7 +36416,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="75">
         <v>3.9028409999999999E-2</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C32" s="75">
         <v>8.5254999999999999E-4</v>
@@ -36432,7 +36432,7 @@
     </row>
     <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="75">
         <v>6.8467810000000004E-2</v>
@@ -36440,7 +36440,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="75">
         <v>0.38127283000000001</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qBMZ+ec+M06FlEFVwuSjfHGlaPE/cXVuQw81DFA0a9+zvUoVMNpxaVyIZEDBF2FSAPgVz3Z7qXuduymgR/Ei3A==" saltValue="sADFdxGo8o24engs/z2b0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+rLYHn9Hyr6wEJ+wcKpJZt1XRT4eLEiZWMyoEQaE1T9Oz903+AGA+gy90cr0bKHspjEJqVsqQONbdi8XsicG3w==" saltValue="lm47TQDauCfpeBHDpq2z9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36486,30 +36486,30 @@
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36535,7 +36535,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -36561,7 +36561,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" s="77">
         <v>8.7000000000000008E-2</v>
@@ -36582,7 +36582,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="77">
         <v>4.5999999999999999E-2</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="76">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -36646,7 +36646,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C9" s="76">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="77">
         <v>5.3999999999999999E-2</v>
@@ -36691,7 +36691,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="77">
         <v>0.04</v>
@@ -36725,51 +36725,51 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="L13" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="78">
         <v>0.1</v>
@@ -36813,7 +36813,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K3HOAgVb7wRLSO8YsHXWg3rZDcBKQOjzjfRWdjS2KOE772p5ZNKn2eO69OLuU8AcuzVgNILits4QqQnc14qDgg==" saltValue="YwbOvDD/OVDprwV1GnSWKg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gbakVT0FihUOnZfR6MaO6qaMAAlXUSsqDcyA7qJa6ZdzEAl17aRFjtab2Q+FW9A4yi+mFj3DUNHVSkrJKsLzew==" saltValue="qerH+7nJN0iz8gsIFT9Z8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -36913,30 +36913,30 @@
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="77">
         <v>0.84</v>
@@ -36956,7 +36956,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="77">
         <v>9.1999999999999998E-2</v>
@@ -36976,7 +36976,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="77">
         <v>5.8000000000000003E-2</v>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jEI/64KPvzvfhr9+SNB8s8w8nDbOAyGxXXc17derEBp4168fZy+LlyunJJzec4xnU/CN7tudAHyqRWxHzZeleQ==" saltValue="RbLNgxSED74LkpWDeedBDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1GsxB/dI7N6UtGSL6lzF+j+7a2vSyA8DihFBS4Wmxm1/Og5vsqvDGAfDLu616KCPS3S8cKML7VA+0GyKZFL/zg==" saltValue="ThovfHxBVmIbvqMlMDZBQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37045,10 +37045,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -37080,10 +37080,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -37100,10 +37100,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -37120,10 +37120,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -37137,7 +37137,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -37151,7 +37151,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -37165,10 +37165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -37182,7 +37182,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -37196,10 +37196,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -37213,7 +37213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MOecQ1EkIPVJmecnwm758LonhYexDlMDLaP2lt1zyDSvpFTBwFV6Wz7Hr3b7SWQZ9WvIwmh7tq+zcNrQahvkUQ==" saltValue="x1vFIy49ALhd2+9+NqY1rA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KldvCCRu5yC2dnaY2wBrAsB2ZVnUlthLMWNcvgZATOv1ZAgnOcL4wZ2Y8lHZKn2MduGYqd1ZcPoFPfdHVPuSbA==" saltValue="bDdnenLxQKNIMocV/tb6PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37249,15 +37249,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="147">
         <v>10</v>
@@ -37265,7 +37265,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="147">
         <v>10</v>
@@ -37273,7 +37273,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="147">
         <v>50</v>
@@ -37281,7 +37281,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="146" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="147">
         <v>100</v>
@@ -37289,7 +37289,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="146" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="147">
         <v>5</v>
@@ -37297,14 +37297,14 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B7" s="147">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4fOzaQQU4GivFHeUsH0X2y7LhemBEz5vEIvQTn7O7BEZ1kYbKqemHJ6w87c2NOhDYMde0xpKGCN0VmqIBTKowg==" saltValue="9BW58NjFDUNdX5OJBdWRIw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/zivHA3rP2ra+3tgnZU5dCLplerqUzqKfVA36cDX95F7y13QArjRyjfSf3rp63DAkOIRMx1+o7XNsYBkswaY5w==" saltValue="yPoYFVnEkxGXECjMOk54BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37330,27 +37330,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -37362,7 +37362,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="80" t="b">
         <v>1</v>
@@ -37376,7 +37376,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="80" t="b">
         <v>1</v>
@@ -37390,7 +37390,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="80" t="b">
         <v>1</v>
@@ -37404,7 +37404,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="80" t="b">
         <v>1</v>
@@ -37418,7 +37418,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="44"/>
@@ -37426,10 +37426,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="80" t="b">
@@ -37443,7 +37443,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="80"/>
@@ -37455,7 +37455,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80"/>
@@ -37467,7 +37467,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="80"/>
@@ -37479,7 +37479,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -37491,24 +37491,24 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
       <c r="E14" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37518,11 +37518,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37532,11 +37532,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37546,11 +37546,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="80"/>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37560,11 +37560,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C20" s="80"/>
       <c r="D20" s="80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37574,14 +37574,14 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="44"/>
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fmWZfkbEqWrjjAzzetkPFixreMLkXV9d8SWzNmjFtzItz/yb4hS1bHtcG5+aSJHbyjPR3UIEXUEfg0Ge3NRG9A==" saltValue="+4aR+yy0Ud5CoD7nnj9PtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pkX01G2exj1wWYu6E0mb+9x2pEqqaK0PmeRPH4alphWGQjUraLNhnyf+IMr57dmkfHMNTjX/ayMxa4TCskOqgw==" saltValue="0I6xM32F4kvMZIlSwcfeNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37608,44 +37608,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="D1" s="61" t="s">
         <v>163</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GHj5a5uWVzyDR5ZC8TRVZM04pOjqUEYTr8KKFfoOCz1KOD13JqkY4yEVBI/h7BbBhdYmcDDP8kpTG8TpFdgnyQ==" saltValue="tvIjRxlXc8PkJddEfttzeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="68E+6ZWOsEmPtUcD4kgeCBmuRAGoOihjl6ZjHUNymXfx5uqBdz1P/JvfEYQb4EEYQ9RVS9ZeLvw5rMftpOAxNg==" saltValue="N0nbZ/E+tZlwri4kDiHETQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7184EAB-9B27-4FC9-956D-60B74E7B71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9294466B-1F24-430F-AA4A-E11112DBFACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="8970" windowWidth="28800" windowHeight="15435" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
-    <sheet name="Coût et couverture du programme" sheetId="56" r:id="rId10"/>
+    <sheet name="Coûts et couvertures des prgms" sheetId="56" r:id="rId10"/>
     <sheet name="Dépendances du programme" sheetId="58" r:id="rId11"/>
     <sheet name="Programmes de référence" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence des conditions" sheetId="7" r:id="rId13"/>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g8qeBnBrkfc3UQsXgnLB/rppHLSuB1eBXAah5Y2TJGdTcr4FoIyKog5AT3C7/VuGA3x1Sll1K8cRFeOKDqwm1A==" saltValue="9BAw5vxTi1Qbv8518d5Fhw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qQVFZ6mnKypUoocN4gZyny7w+x5+kRjnsruLaMB37WLiS6xQ+AHOZ6CnsrgC/ALX+7sxk/IrszbyXJ6WV5QX/A==" saltValue="7WaCLeJoHf7u8ZdHGBp81g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MfauZ59y2wqoKUxgtYLi+2U8cUyHDQYl6kseAk3T/CWgyUiA+MHAVEPDQ+wovzfdPH0kA1HVpvYqBK4nGAD22A==" saltValue="ukvMOm/zxo+yZpp1LTYybQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sbsa2efA6LPleB+BwihXWumLeijW1EUhVVzD5jmQKJgUBlA4IFpj3is3SLWSE561VrEDvlfqT/xx97UrO5TPyQ==" saltValue="wsa7Z/iyRVhR/cQChQVUmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8kIBbI3UmqyqZ0bgAONDxEWRb3HitDQG9V2udmHyq2tiwbQA2wHAxV/huOoH+Y9LVkNKImfwjJ5HxbvOZpFzjA==" saltValue="mKDuBlzADVQk1RxKbuc9Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JORD/BRjKhpmbmYA0ubNt8L4+GYvb974kMS0DYV+/A1Q1ujHDMiuqplxR+veDhZXefF/skV8DF1KzKLUDrJJpQ==" saltValue="lJlXQn/qPcugOro8+DuJeQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OOKFrDK+GmPJ4YyxNgd1Pj00h+rUjpveoFwjdx/6F8+DQHFO5KAfTtldnSQ+bQEMu50G+w1pfY5B9WY+kR3+tw==" saltValue="MDoiDMxw6LjN/1iL15MOKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+5sRwWgvPfGWHg1UoDOXw2mX2XuwdrSjGdf1SQR/R3hc3gWsjSbmiXYFsky/OHbcTVNJUPDj7HoARfeleA+tTw==" saltValue="QsSmmvHqnNLt9hRiaEZ0kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ImxWiRRNwKlibM8Tpw1l7GgfLKkXM7CqGHY2Ac/NXdxJrgVYnRgc7MOM3aSaFrQcx83F58RV7w2KzeEHDfTORQ==" saltValue="ntIcWkz2NhIrtKzCLnj57Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EgVFCMPJOtxoBPt3dUB+D/lf8Y7osTVAxDM8WeUb4I8xwg6U7FpkOrCbwejSzHzW9shYzPwPGvkqRcMsdNefiw==" saltValue="1VSuBLjXcjaEQ8fGoV8cYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="40sRYiTc4JtHfvruVepYtFjYRRcPjnc1ssUGiBK0RBanJBr5wMpE7DKpiTVUmtBiIEQu3Iz6pfTH8ZLnVEMcaQ==" saltValue="1Yt+0JtxnXt3Suc4Tfxmlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZLOkRt2wSk6NDtGON/rY5xTxDQYbGvOzl5WG7zIF2UXkqhVjdzFmOBLln/VDZV6LDRWw6r42R/E0RUOZL3Wfhg==" saltValue="0jCUQL/qEJoPwW0/dBThQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6GhYbKhoaj577Kc2fWjUr6PWWc3RVxLRFep9LA4ZlUMWk09cZ9sKTymTGR4bKsItG5YL5+ARCCzM3A5CdYtF7g==" saltValue="TomFe4GFjQCaA679wE41Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uNj338o2JIudYdM8Xl6pSU1pNvUcV+xO3RjPAljrdhQgSmuSFQamEmeUObpaOgRWcnZNMrvut2gtWJ4Wtu/GHw==" saltValue="83awnzNJynOkFzJX5CPY7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xD/GmyHr9uSlWHaIbMoEQu7krVI7+Y9tIn1i9AR71B7FyP4jtqIV3TArZp8L082+1ZBT8lmoTPTOgO2kf2X4Ng==" saltValue="bIfjk7KTQ92tkpHY4slPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6tiNtiKnw9vj8qHmyBlhef/tOuD4eeT6OM+hEu2XKBnVEpbBy6v7OCrNRo6/UA6Vu116ZzOv0JSDTcPmRPq62A==" saltValue="rqBB+kWbWxHqPY3aT2U/ew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Imfo+2CbqqAE0Gs5phmpzIqbfc8DmXjpIPBBYUz6jWcXj/fWb4v534Vc61p6G0gKn07NxpbOzoZsll+Hkdgjw==" saltValue="3TE9usKrrjf6RPonVLMcYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c+i5oA2cvSYLxU5yiu51+oVIzY07JKdL1Ff/3JLc/4JrwEcevTtdjA8nsK1a8l2KkHDFQjXDbC6WsfBVoN7AbQ==" saltValue="by8xImo3qwuTElvpun+XWw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AUYpsgQ6y32U2e1ipfArBSXebhXVkvZqz1XdcPFLG7nPqVwFX8MfXbC3LyKKrakSYRuqdriLnj2U+bwjZXPLZA==" saltValue="7jlQQENZP9jzq/JAEc0vGA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8FiGSVN66jN9MN7YG0ntQXm+6nPq6uXlX2khsYxV6ivpMDIpRVaky2iuTY08JvokCjI628304BdPLWUBF5WEew==" saltValue="mAlWC+PqQORvhhwc3DrzYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="77rfW+CiZ6Yodp3hubGdViboYe/H4oKGxoqWWIItm6nn0XwlwCbQE4u5KXgSStT5WtVAezQARYXkoRjcJAUC1A==" saltValue="BV3r0MAnISN+CXdfy1MNIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EtBLV1A2fGl4AewXzdTVzjPcBvQM2ik1x0NIzcWPYQ1OKoCKJyYzAp5Ko7PlpyJqkXWWoOIy4BGqiCGsAeEQFQ==" saltValue="M3kiyhRKmvahXwI4ZGraXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DI44TWGwdmG2T6UvZZJLjltnun4vAyu8h+1fGOiy7A/Hz9GwVuFjyhj/OP6YhWlTeCJYGQVP+KyYoAroxIlnDw==" saltValue="GMhOzPcuXGMXqepdsbYAVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G/emDiDRlUKzXs5E9CIFixxmswvpKrvNOahhNmtLs0Klcv7HLN23ZFGqc+Yae+3hTM6p/18fd0vOVFdS49iqMw==" saltValue="hy8ENyYVWQ1KJOdItu6k8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dFbFxf7t9lcJFa3T9AUtJhZ1GT3XdUmWxx+CkJjWV4M9uCgPBAHzD9bV/6FTvemgY94U0i33i0821XD+Odn5Jw==" saltValue="GckRzjv2oSA5TRURz002PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wibaVWW+gP+0ZnD9EK4T803z6xuviApkw9JcFJlGuZT4B+X57MfTY55nfrAzQlnCXiivirVDxWJgZ+O/BWZBJw==" saltValue="xgR/+bR0ZBz07WRBt4PWsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6Ha9CvVDOJM7vbWF7usiKOyh+19YEepNaelFVgjJxlA9X44UqWw1PoT3eaF1clUEwNvtj0NK3fb2olsm8B09GA==" saltValue="nDVmXPJjkjEYog96iz0DQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="p0sirMtfkyjIfx1YMuaONWzETD1pPGuSY/dQ5bHMKEtkERl0UFsmL98V/rq4MA6n6rhQhiSpozuq4dtrIcndMg==" saltValue="nHuKOw//8O4xHA6ChFHaKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -25134,7 +25134,7 @@
       <c r="H284" s="100"/>
       <c r="I284" s="100"/>
     </row>
-    <row r="285" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A285" s="121" t="s">
         <v>128</v>
       </c>
@@ -26102,7 +26102,7 @@
       <c r="H323" s="100"/>
       <c r="I323" s="100"/>
     </row>
-    <row r="324" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="121" t="s">
         <v>87</v>
       </c>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pd5OF41vubZkADAPq5/0F4LuuSoDNmjWFLVfEPm5nxw1ocHvf67byFYNQ/Q0RddMjrTLLAPX3x1IGLybu29R4w==" saltValue="TSitANAxKdujGrfCMsUsag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5J6BOvdloas/FXSy4AmXpcZ/zdEnrIfpc+ub2B04BqcyfmtruvKJYe5zcNyLNpRRiUBJcqHGe9EHFLCjMILT8A==" saltValue="yQQl+oOoeh0XHiglxxWZuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FtclaWWDaYen0+RnFONM8oUorXeYtDbC4uOXUkPjpin5jHTd/be/iqf//4CNYo/otvOIfxIwK2Ddz1VkJEVcAw==" saltValue="B5OFuiQxg8ngWLIIbmnTKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sxMKH6T3bE7GlVVkU5GubFJcUsD+K51RlbvM4VqVhnzhZ/isFlNAV/ia3ayVsQLVSOG86rlAbdz+1GzzeNEqEg==" saltValue="mzXc4LI2yPufDrtmI9lbMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TYi7isZjhxW+/u5crxwPY/l7NXRL0EqU5D2e5VZy8dN/rWujAiTRgzfysE03ghE0ePGdjoMjE4pcz9bkGYfUxg==" saltValue="uc4zUbboY8HXxB4BiaQNbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WrMzNY0MozX2+xlespeB3t9S7KS1PSN/yEN2R2nPsiBtonUYetvyLIxJGN2fekctf424MjguXTf2Rm8p63pWYw==" saltValue="7ZPtMuW7hFSLCric3H4xTw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Rt33WinADqSfSfMIpZGqLKHngPxKm+9X4HBdcA/zHcx0CP9KuV55Qv6p/amc+I1tp1m1iEcp4i0Et+fYjMTltg==" saltValue="5ejKjQ4BgV014lmU6d1FJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="STk9Yr3H3A4mIKujAkr3uMmVkAPVF12CEEcw4ksewpWAEC1B1ayMk1WaD8PSyrMbISVcHCPMFzDWtSDkxb4mMA==" saltValue="wwvsYZ6VdVZJE/gU11YXBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pT+Y8N4fOFaah+YiCaA+QV4kriz3P28qCmdmUb70Un4B5439mogz5T3iqeZgewm2atExKWbtHYcvC5Hk9MyVZg==" saltValue="TdjxDbwpkADacO/HG19JFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oJwacO9yMn+MFaj86P+kCtoIIRY6OYkWyvhUVQa987IigPCJvwQBec4CfsVBDmxt2D1kLADEy9Ju7fhW/OnswA==" saltValue="Sqj4TXCOxE76uUAnibsU3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9u9L7LwvFJr3QDU5b0qLrQWF1FKGInB3r1hMrHrEipf39FZDO62wAIdeGsh49BMR6bAQybhUma0fzjdDC+H4gg==" saltValue="uDJGFuBT19mOia3IrhXYrw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nnJqDZ7cGM4C7KHFMU40q5hJlLmSBChVCWtHJDIcSUaPA5IdLm14zTK9xo8s/b2jwwgjvqf4BFT8QYqS1uyKSg==" saltValue="iNUq7dCwjBYD9y1dQytPhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M8OP7SSGBlhJjcLu/sTyYK7WgWrh4CvlW3Nk0bbfO8mJFZjyHdKI/4NlpX6KEe3BIEX1CJGf17u1ckbsRnFv0g==" saltValue="Sbof4e6hBv+4lcXDW7YNnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z2Q9EECgjIOe1Hlci5mDEY/khxoKQwVDGcw+045f+h27fQSMLo6IRMNCPkPme7XhtyW3SvcR990qZO7sI2Rlwg==" saltValue="U0r1swCKe3RvuxxWrER/hQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+rLYHn9Hyr6wEJ+wcKpJZt1XRT4eLEiZWMyoEQaE1T9Oz903+AGA+gy90cr0bKHspjEJqVsqQONbdi8XsicG3w==" saltValue="lm47TQDauCfpeBHDpq2z9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CRZoIaSzstPV1Tt1X2Ocl+29e8Rscn7l9wgD8T3bYucN9bU9n2oMxxHUM1TN0I7weXb41UPOa1LzWK8+iuTpqQ==" saltValue="4nVxJiOLEoJORYpxJfJG3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gbakVT0FihUOnZfR6MaO6qaMAAlXUSsqDcyA7qJa6ZdzEAl17aRFjtab2Q+FW9A4yi+mFj3DUNHVSkrJKsLzew==" saltValue="qerH+7nJN0iz8gsIFT9Z8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+zLsBDXjkx278r3cn+Ng/ebx3NwpMOYr7GbINdY7E93s4BNRcJb3GYSBCaW9AtyG4Z3hgc2dm7Kb7C4/bcpiIg==" saltValue="xPLV1oDzApbGAmOXawAPgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1GsxB/dI7N6UtGSL6lzF+j+7a2vSyA8DihFBS4Wmxm1/Og5vsqvDGAfDLu616KCPS3S8cKML7VA+0GyKZFL/zg==" saltValue="ThovfHxBVmIbvqMlMDZBQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="koPGubWA4QImVUJtoqKa/PpO2MPcpJePcAapvCOJsdY3vA6z5ARSpH4cmP4DNzVtd49nxgYHsCNC4Kpkr8L+bg==" saltValue="TE3Hi1JP9Yp0DjZ/IuXqDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KldvCCRu5yC2dnaY2wBrAsB2ZVnUlthLMWNcvgZATOv1ZAgnOcL4wZ2Y8lHZKn2MduGYqd1ZcPoFPfdHVPuSbA==" saltValue="bDdnenLxQKNIMocV/tb6PA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L1v1N+dqAonxRSXvSL4yO7O3v5IlDhf9WodB0ECRET6RBnQmE7ZBkrq7SL8S4ZLiry2+mZoGubmQtfGPbqHYuA==" saltValue="LJe0UMgY+TuR1vd9bEjCRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/zivHA3rP2ra+3tgnZU5dCLplerqUzqKfVA36cDX95F7y13QArjRyjfSf3rp63DAkOIRMx1+o7XNsYBkswaY5w==" saltValue="yPoYFVnEkxGXECjMOk54BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mig/Ui8JHLIe9X3M3GJu4/SHNIgFrAmu58eUSDVCw2n60MhvFXO6SQck8cw6tHcAM2Hfm6WF9N9By+94M4M7oQ==" saltValue="TGo3HextZ7W2iXrGVCr4OA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pkX01G2exj1wWYu6E0mb+9x2pEqqaK0PmeRPH4alphWGQjUraLNhnyf+IMr57dmkfHMNTjX/ayMxa4TCskOqgw==" saltValue="0I6xM32F4kvMZIlSwcfeNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="idncoIzdJ1bSJw0+4aGbS4nvtKZM/VU4FUsKl1foRjtQdzGRgURTHy0lnudn0qB3TiIpwdMS/kl5d5FWhpNIxQ==" saltValue="Uh36uo4/fkBDdDDZ2SkJFw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="68E+6ZWOsEmPtUcD4kgeCBmuRAGoOihjl6ZjHUNymXfx5uqBdz1P/JvfEYQb4EEYQ9RVS9ZeLvw5rMftpOAxNg==" saltValue="N0nbZ/E+tZlwri4kDiHETQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q72w7ojeA/DJGdFh/zP65qZDn+1Shk/9e5kTALtKzx7Sy692j5KIxZHGayCkF4gVtLaz0dK4ed/ufBFC70XOoA==" saltValue="0PaNQ79iyamA6iFyocgTgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC48F4D-2DA0-43F5-9140-A6A8262A0E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1CCA65-466A-4204-93B9-C2F26709ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -1198,9 +1198,6 @@
     <t>Linéaire (coût marginal constant) [par défaut].</t>
   </si>
   <si>
-    <t>Courbe avec coût marginal croissant</t>
-  </si>
-  <si>
     <t>Coût à l'unité (US$)</t>
   </si>
   <si>
@@ -1229,6 +1226,9 @@
   </si>
   <si>
     <t>Groupe général de la population</t>
+  </si>
+  <si>
+    <t>Courbe avec coût marginal croissant</t>
   </si>
   <si>
     <t>Courbe avec coût marginal décroissant</t>
@@ -5156,14 +5156,14 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LxDCa9cibHhErLLz95Lk002jqziAUoUgv1Bq1hjlLUMT+HsUTDAY+SnNWiXe5O0RDf3PU2z69Tdst6B0YyMTFw==" saltValue="jALEV//8nOtX+/nu9prWBg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fqBrvPwbFDPaxGzTO0Idw6ZXPUxxIkFQCd8aGaBZRKxsNrPch+h5Z+04VRGssavxfot+Jxrnx9FIIcvHd0e5yw==" saltValue="Ca3ZiXO4ql6E1R3kF7f2BA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5638,8 +5638,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G39"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5648,13 +5648,13 @@
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>160</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>166</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,7 +6324,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="81">
         <v>0</v>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8bWcSKfLk7yTNTGWY/oRrBJtfK7RZcKCRUrvHHlW/9a1fM8VietLQlSzJ0SXhuIFqmeWYre5KrNHAWyrjCFsrA==" saltValue="CbLifr+UFAuWsb83rhsTVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EfT7eygBWya2DGSDLhBga7m9o31Hmm5MB56SUiAunZR54fGgEiexIMECqTG3lauvHOLsd8RzwyoBBMo4d1majg==" saltValue="cec6YJm5D3WpmMgwtqJD0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6602,10 +6602,10 @@
         <v>160</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UtQSzS1U+VlDch2a6lPm22g1QFndBKFk/Cqvg2YSc5i3wYG2xEVZLuwbvtmYkKsOJG1O+XcixXo322ufZTqxKQ==" saltValue="Fwm29wdGw+uDKxYooFPGog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gWktrhkgSATpdbww5F7+tiyPt5dva0iEhzpnCsBLlfcZJPLvqZCwsW+aVB3Z68tvfi2aXt0P/3o1omjGy3SmUA==" saltValue="aXNhed61qG6wubczXOVogA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JSBzaYxFHw9Cp3TYOkUYCMyXMTKfiHKw3V9BXr+zv79JVySBJBrvyGkAvJMON7OCNyldcLTJq6bds4M0jTVl8A==" saltValue="lCPJ058gumGCC/aZe6CEag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oelW7sKJmxH4Y6PI+ci/LCFExd8s+5U9qFWApwCr6LqjA2jNP6gSr4xnb4eMB5QHJYdcB3AS0cqR8JzpfMMkhg==" saltValue="8jUllqi3g/4OAiZiqg+rFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/NdIpeZ3otXaMI0QcybN3HINDT9GTLu3hh/yqREP6GNdQkMxR1GAj4ogNa0Smx95QVUKmUqXN9o9I+BvEFLRww==" saltValue="w63MM7axGSEM9ldwilPkUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UQ54f66VLmzrhb8/NpA9ZCKZfl36OXfG6PjVR9bJjTuHPYVu/T6wm45CGk0zxwKFHa0iNUSirIEgyT+IxaRTkw==" saltValue="AHXlTVTfK0aCEF99WpHNDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6966,7 +6966,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>160</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87">
         <v>0</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>173</v>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YyoEGAqjEQiEf/2wqe4oplHplkz/dCuZxSG3f6rEpFbBa7b4MjXBcK3Of5LJVDgYDOS2urKfegjZO+aNFPzbFA==" saltValue="qOXAd+qe94FR8xvxx9iaBA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="73DFAYZZd5VDhoTZguEEkpqDIaURWAflIlRlsLtYwwT8kWSnjeSb1haM/tUeUZWjZb28xxgGlRm7bMYv7z5pVg==" saltValue="tf6oXt6DwufMibRl/rXDvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HBCT6F+jJC5mREI+x2w6YcUU+gBy63ReUOh8UtMpYQjZ9viXuPCJocc/UlgGwaF2GRPLmk8tyenm7GYto3A6zg==" saltValue="mR8vk/IR6/JU1rAQ/zeGHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cSU2SlOhgkCQ3on7ibaqyo697hXtjL+fBjenAUmt+Mafx5r6EzoV5dRRI9Ah30jh7WQM9henO0E00GkNCtceQw==" saltValue="zkgeNPh+DYt20Zlb8YeuZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,7 +8753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
     <col min="3" max="4" width="11.44140625" style="35"/>
     <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="asI6L3aWQrkWvuHAXZkm2zKr4DhX9n4t6H95Td0OTkRSOtXk6iQlmezEros0yr8hayyIycDMC0ji1WBamfWR0w==" saltValue="v5MNzJhiOIE4FB1Vu6Z4dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LYuN28l8WS4VdNNDAhDyGiV8JEnfNm8efCyDj7WVcxt5VvovL/Mp/MNCKIIly8wLEgoV/RGSoT3v3jK6Q4FVdQ==" saltValue="O+zehG30BU+2EvLI7LNcsA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -8963,20 +8963,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>160</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="133">
         <v>0</v>
@@ -10072,7 +10072,7 @@
       <c r="N26" s="129"/>
       <c r="O26" s="129"/>
     </row>
-    <row r="27" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>75</v>
       </c>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>173</v>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KFUeGT2odGeLd57WGen+bOvdMEPmCWIs83gBExZIog0O9DmUcp7Aj2tAG3QN8rpDb6EY2TNubSUB/wos9eee/g==" saltValue="o+bVSrFypfYc69gxAORKkQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qZi9NKyUaWcBG1fsPYHWno7qv2jBCliwW6hddd19RpG/V24jLhx2oIKLQL4NWa4FGQzb8TaonbOmzMjDhDxogQ==" saltValue="/u7ya6UMKKl66ggHf8WpCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10774,19 +10774,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11336,7 +11336,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B30" s="133" t="s">
         <v>7</v>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/s3wGweC90vJ2lLbDTx+6KtqoNBTU+RCz4T476XanTWY4htxkkhx2CUWo9V6IwujxITzAd8GCUxZ8+AtJtnH0w==" saltValue="ggZIMOQz1c9bQdd7EvS6SQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FuK5CuUW9Rq1CqOyHUVRzVTsW5ix3vLoatKzd6fBus6mRqhSS+VsTGkv70MylH67wdJau+Y/VlVWSmaa59kdgg==" saltValue="SmZEeoN8vid1gFMtSKztrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11541,19 +11541,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DBNQ6f2oc55/6mrEOB5IBkBA7kukB2MlTVuIAAJIb9OcM2eFv6QCPRDirN0CnxxqAFwbFPbjT93Oz7DDzVtDwQ==" saltValue="5+nzPaz50rtwzojj0rcqvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pq0wf7RSn4yn+B5+HIGct2Afy7zJqoRieGIRF/HTQp/XocUjTes1aDwMMZUzLWkbb0tCkZTIxOgS0c2DVsD4pQ==" saltValue="ge4t+f1WcK9yCP4mLsvbCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ymJ8jDvCVVB+nP/OizrSw4sGYF9+xpmojRslfV2JgDE1ajffXSfSEAybhtHGSTeUDXr39HXZ68ddfHP8TrlONQ==" saltValue="1S5DmL4tLcWtxlxInHa1Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FNqwoidZ8ZPsQ7bs0zlmRko13rXC8683jhlMaaxIqE9XKTFK73KYLoacf3UNnnu44UqZTq6Y5XD10qTRsOuCZg==" saltValue="mLMrHSCKhtTnq/vuM/iriQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13010,12 +13010,12 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BHpoEVHljPCX2ZhCQUkJydSzg/ymFmm2itw7ix9rwMj3085YrE1EFejH2fbn6RUSHuYdSfhI7jWd2DllsyBlNg==" saltValue="yYqzmIJ53NZz1d+k7+aXpw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xfSlkIU7mckxfTug9xFsMpqMKwQ3WKhPLbeN0rtoDM3VLqYDY9r4ysui3T3AduT7TjjijLLVY/HQFVy95q3aBw==" saltValue="Dne8Nr937iqVyvUlAAe7Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -16876,7 +16876,7 @@
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
     <col min="7" max="16384" width="16.109375" style="35"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nJ6XSABSaEeLc0jc3jMroVujUseBTMZdkHHRt7QrnHXEq//jgI80YyGX+fJweivAVCF4boJkbvjlvp2TMz4Vng==" saltValue="NnCdSxPza1sIEQu2XN4P5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mBRly7WiLhgJPGLjsjhsYRAqlB6LNbwEwIIQtFuJg+mV1mnZBkXrEgMiMchToRk91cxRbwqexkewxASwiam57Q==" saltValue="bzjiRduNMlrBqEEojFTQaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -18107,15 +18107,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.88671875" style="35"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
@@ -18590,7 +18590,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>269</v>
       </c>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="136">
         <v>1</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="136">
         <v>1</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="136">
         <v>1</v>
@@ -19179,7 +19179,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="136">
         <v>1</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="136">
         <v>1</v>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="136">
         <v>1</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="136">
         <v>1</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="136">
         <v>1</v>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="136">
         <v>1</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="136">
         <v>1</v>
@@ -19552,7 +19552,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="136">
         <v>1</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" s="139">
         <f t="shared" ref="D142:H142" si="26">D32*0.7</f>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D143" s="139">
         <f t="shared" ref="D143:H143" si="27">D33*0.7</f>
@@ -21849,7 +21849,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C146" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D146" s="139">
         <f t="shared" ref="D146:H146" si="30">D36*0.7</f>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="139">
         <f t="shared" ref="D147:H147" si="31">D37*0.7</f>
@@ -21952,7 +21952,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C150" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D150" s="139">
         <f t="shared" ref="D150:H150" si="34">D40*0.7</f>
@@ -21977,7 +21977,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="139">
         <f t="shared" ref="D151:H151" si="35">D41*0.7</f>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="139">
         <f t="shared" ref="D154:H154" si="38">D44*0.7</f>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="139">
         <f t="shared" ref="D155:H155" si="39">D45*0.7</f>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C158" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D158" s="139">
         <f t="shared" ref="D158:H158" si="42">D48*0.7</f>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D159" s="139">
         <f t="shared" ref="D159:H159" si="43">D49*0.7</f>
@@ -22261,7 +22261,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C162" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D162" s="139">
         <f t="shared" ref="D162:H162" si="46">D52*0.7</f>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D163" s="139">
         <f t="shared" ref="D163:H163" si="47">D53*0.7</f>
@@ -24348,7 +24348,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C252" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D252" s="139">
         <f t="shared" ref="D252:H252" si="120">D32*1.2</f>
@@ -24374,7 +24374,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D253" s="139">
         <f t="shared" ref="D253:H253" si="121">D33*1.2</f>
@@ -24455,7 +24455,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C256" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D256" s="139">
         <f t="shared" ref="D256:H256" si="124">D36*1.2</f>
@@ -24481,7 +24481,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D257" s="139">
         <f t="shared" ref="D257:H257" si="125">D37*1.2</f>
@@ -24562,7 +24562,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C260" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D260" s="139">
         <f t="shared" ref="D260:H260" si="128">D40*1.2</f>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D261" s="139">
         <f t="shared" ref="D261:H261" si="129">D41*1.2</f>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C264" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D264" s="139">
         <f t="shared" ref="D264:H264" si="132">D44*1.2</f>
@@ -24695,7 +24695,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D265" s="139">
         <f t="shared" ref="D265:H265" si="133">D45*1.2</f>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C268" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="139">
         <f t="shared" ref="D268:H268" si="136">D48*1.2</f>
@@ -24802,7 +24802,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="139">
         <f t="shared" ref="D269:H269" si="137">D49*1.2</f>
@@ -24883,7 +24883,7 @@
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C272" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D272" s="139">
         <f t="shared" ref="D272:H272" si="140">D52*1.2</f>
@@ -24909,7 +24909,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D273" s="139">
         <f t="shared" ref="D273:H273" si="141">D53*1.2</f>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Cse1+YZCq1RYXq2rH94yxVWzOeEyjQLvtk5OnlVboiUoHEQMFwfsIgaPVmRDNKhyZoRTUzg03lpyrLQf+Jimtw==" saltValue="f5cchmvMBPqqfemrHj5eIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="67Qx3yCTrFL1ZTI8+QzRALOxh8ooU8kvwKYMYlA8gI+I1Jy06udLw0XDUoGO1GIqoP6oKVP+NufE/A4wdfprGA==" saltValue="7Cc8soSZ5kv6lFftfvB9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26252,16 +26252,16 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -26378,7 +26378,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="136">
         <v>1</v>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a5w2rjG7Gxevo2FQPTf7J2cd7ZLe3367j3LybDaBFrf5CnLjCrS39Tmmd8pJGmjtL0oarJxwPxPrLtBPmf/WOA==" saltValue="puN4i5kvq/usdH/W8zFceg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GJN/4r6CBMjWMP6iYrn2UJvDuj/sO+XWkjFsQxwdkZtsr5u7NFU3JMQ5xsgtvZ58T7gF4+NDk7tlrrpYjyYbXA==" saltValue="nHhDobp1JJC1pH9KJLkPrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27347,9 +27347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lziEs+9QfVQOF3i3D0IeAprFDPMt2n6DlZpQ8C17PgGhjVjumrBoUg7UMWlKynt2jbz7ZnytOTH8/PFVzZlv9w==" saltValue="F9pv1z1+qUVME42u8g4waA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/LRbJIACAvlnYjQUrpx0fkZPHUeY9ttR9neHwn2STR+e9oKAHbcYFHootv7eEA8xZFcAkG0eLP0UNy+hGhXVbw==" saltValue="9D/g+e6LiBZxk/RRhHIMjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28219,12 +28219,12 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.88671875" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28715,7 +28715,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>189</v>
       </c>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="136">
         <v>1</v>
@@ -29034,7 +29034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="103" t="s">
@@ -29768,7 +29768,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C38" s="136">
         <f t="shared" si="11"/>
@@ -30062,7 +30062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="103" t="s">
@@ -30796,7 +30796,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61" s="136">
         <f t="shared" si="27"/>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RDaRTSlyVSPPOJ7q5N0P7TpT0fYNSTx2Z7Mg8O5qhVCjM4UQZ+zKFqiEiSBhu07GSTMf7iVycCVD0LyuVkNGVw==" saltValue="ZBRgfu7RWGXSbN5q1/G3RQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WhQaFtdeOA5GqOsmyocFUgB0y7RZO6D+F8UhoisRi9ndyJNfD9GJAWt2GMtaxX4tGn5S6mtxe9Lh3Ux9AA/Qqw==" saltValue="zQuut6hylKMleeVl2QQhlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31106,12 +31106,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="35" customWidth="1"/>
     <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oRKEOdF7crZmmp8qPv32tD501VJJbpbURL+wfGCrg9/1AxZKAHjpEUx+Yw91Bf7VS2Z2jUUH3vFewgJBs0V5ow==" saltValue="g/BnwhQlOL6N1mT4E3xMsQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ccA4cOeX/9BObEUD3tnowlSuNZmtQF7f4YUf3JyU+C8CaD87oCA1YBvYhaX9XJZoP59A7wpSRH8MKgoYqYChqw==" saltValue="EPrMBCBu9qnU6PWe8UdLjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -31390,17 +31390,17 @@
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="35"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
     <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.88671875" style="35"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -31500,7 +31500,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>334</v>
@@ -31543,7 +31543,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>334</v>
@@ -31589,7 +31589,7 @@
         <v>185</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>334</v>
@@ -31632,7 +31632,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>334</v>
@@ -31675,10 +31675,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>334</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>334</v>
@@ -31767,7 +31767,7 @@
         <v>170</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>334</v>
@@ -31811,7 +31811,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>334</v>
@@ -32710,7 +32710,7 @@
         <v>192</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>334</v>
@@ -32763,7 +32763,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="52" t="s">
         <v>334</v>
@@ -32819,7 +32819,7 @@
         <v>185</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C64" s="52" t="s">
         <v>334</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="52" t="s">
         <v>334</v>
@@ -32925,10 +32925,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="52" t="s">
         <v>334</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>334</v>
@@ -33037,7 +33037,7 @@
         <v>170</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>334</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C74" s="52" t="s">
         <v>334</v>
@@ -34160,7 +34160,7 @@
         <v>192</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>334</v>
@@ -34213,7 +34213,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="52" t="s">
         <v>334</v>
@@ -34269,7 +34269,7 @@
         <v>185</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>334</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C121" s="52" t="s">
         <v>334</v>
@@ -34375,10 +34375,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B123" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>334</v>
@@ -34431,7 +34431,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="52" t="s">
         <v>334</v>
@@ -34487,7 +34487,7 @@
         <v>170</v>
       </c>
       <c r="B127" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C127" s="52" t="s">
         <v>334</v>
@@ -34540,7 +34540,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C129" s="52" t="s">
         <v>334</v>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PKHriv5pSoTuzZV7GrxbKsn5NT15Vi6g8Bb7ta8R56T3eFAdtoi0SOGEUv31QfGZWx+eZwSgdPoilYGO2zSSog==" saltValue="W4CXfXWKByyZQ2aumAU6kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qk3V7bJhNavyFaP1/Nkijyjl23OJpXZruSYxZV8J0wOz42JtjkF+K/cTJT3wZEayfog5YfmflAaFzY5xjM2JsA==" saltValue="a2k+JQNXu4b8iRb6FcdMIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -35512,13 +35512,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.109375" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.88671875" style="35"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4GOH9SCTR8bVev7vAG93sxdvIylPfVf7nOE7A6fVh3tQs6IbL19YG0CYQwmSjw9i8xXHxp87f+CA22a7kO7nhQ==" saltValue="CcYQh2O9Mo7gd+TAkj5SZg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pa5Hf9luCKUwEk8xC/4oJHceLdQxN9do0T7XeB9sf+am4E93AvdHF8hWkXvx2fKCQZZH6OTsUO1bbFK/93yr3g==" saltValue="IpmkIrLH7MnQCqIH9Ozohg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36038,7 +36038,7 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kvni7ctW40Xv1VpH5ftAJDanmT76U9GCLF+o09O7NyUc5GM1z/md5Ih/O1dNLx+9YjCf7UMGRrfYEOhn2Bxc2A==" saltValue="cgTNy1lBzzgHmKpAeCb4Kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/kJsqhrkXWkMrFr0R/LedSncQnBG5SkbmyII6FUm1T6+/l4cZfiIlMce3m3h7SmrSTcFbLg17oFaisRYbv7thg==" saltValue="1E2lYY5Y8ZjRuYFesMza4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oecSQN1Q4v7BpnQfIWHNSnIdbkqM5fOspArozqQDqj7LNF8A2oGFrW33QrscfzA6mJkVb2Yiz3AuP/VtfMzGWA==" saltValue="jjoYh8QixCsW742v8/QKxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6mYXs7V1Nse5E49u5pRERT3P/folrJqDXn8bB8GZ3/TwiD3FhuN3y0rG4xwSpVl2MmIXlcOFB9yI7tEHnQtbkQ==" saltValue="YVOlP1gRgmgwZn31NJr1WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MJ749aGvIxC71CuFW9uAZf2tCunMgWfJzjx2/NJQb7KOD1oiqMTAXS4VlbBmklkmbiCtYeqS4WMNG70sEC9pOQ==" saltValue="jNt5qEL5JGI3TKMPiBxxRA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w7Sfd1L9QoOXM7D1jM7itl64p3BGpBAAUxNQi2on7iTKtPE6GxVFgStOgezPU+GSye9IXCPWA1eSwZxJTRfL1w==" saltValue="WdypRbptaZn83zPAmbD6aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WlIStpMwtu/hih/qdCxKZrBoX6ShH+Ov8SLJuu4dkPpfeGvTZsB+cgEZsG4WmKTQHDoZHaYPOKHf4ZHAA4AZxw==" saltValue="28UFJyTm/YVaTxt8eZApQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1/AP84aQdd+od7Hp3op6rSy11Z1ErSrtl24qKjLc0kLUtL6wDeQXBbtn0WiV2G7jSD6WtGZZX3ox1IHbs41PdA==" saltValue="7fjgKr6V1z4OxX1ORUFptw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37244,7 +37244,7 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6u6KTpvh5RORB/1fjex6tWWQjXcXSdopGI319vlLQKgLJQOuQxPYI4IrAfYfjLaWX4Oexvj7ily7Zh+PyQMhwQ==" saltValue="p5hNZjzPJDGeaDtseg1T8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lhkLWow/VnfDHW8t0FxwjSKFYJnK47cNbYS6pobgoWRi0pVYZxR8OvIopkT1I9ey1h/aeeMTVzNL8gFDutVTrQ==" saltValue="FijBOyYMT1jThupYNcTGSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ff/RMMfDojh+dHcHXYg4rY42BYcV+guXSlhKfJLhVTrPse7w/u2DdDyqCifUm3NPkPLmzxYWlQGRzJWRSMXSEw==" saltValue="aWjkndtfHIJb8yqiX6mBfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Wq0YFpHhD6gGji6iEXOvHoK+/E07x4IHQk/IAnnntz54FXX9gNZ8t7vzG4FRSRXDmCQEyDdj5CsbG67UTRdjXQ==" saltValue="gPyefxTdJ23GDUqaWyWpsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37600,7 +37600,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SZ3rADPXDM0TD/GWhdaEXPyNng/FZbZTzmKksONE0NtdwNZ2Je6Oe4JC+geAfOmh/HhFH/gw3p8TIBLG2qKRtA==" saltValue="XktreDV9rEkveOIOJGUT8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pGG2WYB+zpU4vDA/oAgCN63yBW5AoaEe8sKrIz3/YYsBKUbXu4/cIxIwj590Q4r4I2lk9Qw3ztRO6HuUd1hzxw==" saltValue="BFOdMhtO5sEvt5r/wngtVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Covid-India-UP\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1CCA65-466A-4204-93B9-C2F26709ECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B496793-CD43-41CE-BF8B-5AF95091B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="24" windowWidth="23004" windowHeight="12336" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5624,7 +5624,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fqBrvPwbFDPaxGzTO0Idw6ZXPUxxIkFQCd8aGaBZRKxsNrPch+h5Z+04VRGssavxfot+Jxrnx9FIIcvHd0e5yw==" saltValue="Ca3ZiXO4ql6E1R3kF7f2BA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="05LnxD+yqYXxzP/pr4v/jVxJF71lROPy2PduLIxdYpx0BwtH147vEubQH7aBFNseWHftw5QlxWoq2jb+DDJFiA==" saltValue="ep/2gSkIAyyuJk4zgQx1mA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6556,7 +6556,7 @@
       <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EfT7eygBWya2DGSDLhBga7m9o31Hmm5MB56SUiAunZR54fGgEiexIMECqTG3lauvHOLsd8RzwyoBBMo4d1majg==" saltValue="cec6YJm5D3WpmMgwtqJD0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SoQLNqSzVZiZ6cRQDAiRUE4j4HW9UcFrNPs9T6vSB3jidXNYZ5o+c7G00pKZcvvv510sxXMqCjyWFr7yBn60Dw==" saltValue="7Ozuwfh7OQ+4JU15ykXG0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6720,7 +6720,7 @@
       <c r="C20" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gWktrhkgSATpdbww5F7+tiyPt5dva0iEhzpnCsBLlfcZJPLvqZCwsW+aVB3Z68tvfi2aXt0P/3o1omjGy3SmUA==" saltValue="aXNhed61qG6wubczXOVogA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aj7S9KZTj8cM8IHCpmhA91fpWPBzHiXXUSqsH9GTPtNCib8oj9Rj1BLCqtANIxFaynQfGZ+XRgajq29rckjQ/Q==" saltValue="EWhns07N5zXQK34uG9aI3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6820,7 +6820,7 @@
       <c r="A19" s="48"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oelW7sKJmxH4Y6PI+ci/LCFExd8s+5U9qFWApwCr6LqjA2jNP6gSr4xnb4eMB5QHJYdcB3AS0cqR8JzpfMMkhg==" saltValue="8jUllqi3g/4OAiZiqg+rFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qyAVqw9GUJsP94P2CtIGfUY80XTN747tvrQ0arIfJRfBR8RA2UsbSLNmFVieAAmdVIataEbrrh3SqpMmd1tGbg==" saltValue="Kp6OAhdnfwRDI+LKs4a6Eg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6935,7 +6935,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UQ54f66VLmzrhb8/NpA9ZCKZfl36OXfG6PjVR9bJjTuHPYVu/T6wm45CGk0zxwKFHa0iNUSirIEgyT+IxaRTkw==" saltValue="AHXlTVTfK0aCEF99WpHNDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4ieqMxRe3xCLL1eje+nQWr3lmGK+DCF2T7xm3GCyXXVP+qD15GrK2ySzAt4j7U+mGZ2bgGP6mjEkJGVAaHaolA==" saltValue="c8fxOTwbYt9Ca6oiKuMlZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8697,7 +8697,7 @@
       <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="73DFAYZZd5VDhoTZguEEkpqDIaURWAflIlRlsLtYwwT8kWSnjeSb1haM/tUeUZWjZb28xxgGlRm7bMYv7z5pVg==" saltValue="tf6oXt6DwufMibRl/rXDvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/B8FEt/j/c0KExkDxtk1JOuwcZs6S045ClxcvvH/MpS61sHggepbePBusLgZA3w1f0PWojIJUypxl+cbIOWUNA==" saltValue="6D0lyUEpeTlEd7Ln57qiig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8735,7 +8735,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cSU2SlOhgkCQ3on7ibaqyo697hXtjL+fBjenAUmt+Mafx5r6EzoV5dRRI9Ah30jh7WQM9henO0E00GkNCtceQw==" saltValue="zkgeNPh+DYt20Zlb8YeuZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KjN64SsNm7sAUiRr6Ce7wgGRYoCPziawutV7elcM4tlDz20Yb+1ItZmfzh4jOGsXITAtBz3IxqthBVGFHBsHnQ==" saltValue="kVaXMwsG2oUIDZoJ/KPN0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8943,7 +8943,7 @@
       <c r="C11" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LYuN28l8WS4VdNNDAhDyGiV8JEnfNm8efCyDj7WVcxt5VvovL/Mp/MNCKIIly8wLEgoV/RGSoT3v3jK6Q4FVdQ==" saltValue="O+zehG30BU+2EvLI7LNcsA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PtVJfchgelAUBkvb+QoxzgIv1LxKYqXaJP96QytY7riq4/GzrrD7Uyj+Vtzatu8S3kUzmYkbXtV2r645AFKJQQ==" saltValue="y7D+pOQPzIsI+6YV9TtvXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10758,7 +10758,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qZi9NKyUaWcBG1fsPYHWno7qv2jBCliwW6hddd19RpG/V24jLhx2oIKLQL4NWa4FGQzb8TaonbOmzMjDhDxogQ==" saltValue="/u7ya6UMKKl66ggHf8WpCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bGMDMSgaippmIOGGlpmNctM+RbDibMZK08qKkAipqBJ2EnDuGMA4gs2vP05dQoBNDArGg4mbamTBc0lEYTRatA==" saltValue="Q8JWyQqK1imcrtjdd/miNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11525,7 +11525,7 @@
       <c r="K39" s="133"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FuK5CuUW9Rq1CqOyHUVRzVTsW5ix3vLoatKzd6fBus6mRqhSS+VsTGkv70MylH67wdJau+Y/VlVWSmaa59kdgg==" saltValue="SmZEeoN8vid1gFMtSKztrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4NHRZdTJFRiUlqPuy4RW7CYt8dW8H9ZxyEmIZZ7P9gR+CVRCBxVm2nUvcj6NWQt9D5CN+oTWYDLAmvlvVOvaHQ==" saltValue="Gd5I8cHndtiheCLt2NMU/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Pq0wf7RSn4yn+B5+HIGct2Afy7zJqoRieGIRF/HTQp/XocUjTes1aDwMMZUzLWkbb0tCkZTIxOgS0c2DVsD4pQ==" saltValue="ge4t+f1WcK9yCP4mLsvbCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/aQeGnzAqpudOCNvtVIK6o2lr6yjqKEy3N8i4Cpnewk9hdbUeL9V+7DqWCur5LFwOoOTKQ8wak3BRCJvyjqtGw==" saltValue="bsRsIN7wfoRp3Ty9B+L3/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12988,7 +12988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FNqwoidZ8ZPsQ7bs0zlmRko13rXC8683jhlMaaxIqE9XKTFK73KYLoacf3UNnnu44UqZTq6Y5XD10qTRsOuCZg==" saltValue="mLMrHSCKhtTnq/vuM/iriQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BmY7E47rPH69s3mr1B886rnB8htm/dfZ8P3j9s1rvg0mmVElvcYWUEAKcHuZd3KuTrVCXBB/ALzuCSzQlBB0Zg==" saltValue="1sTRc8xrxL13i+0PMyr8Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -16805,7 +16805,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xfSlkIU7mckxfTug9xFsMpqMKwQ3WKhPLbeN0rtoDM3VLqYDY9r4ysui3T3AduT7TjjijLLVY/HQFVy95q3aBw==" saltValue="Dne8Nr937iqVyvUlAAe7Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ceTF/WCivYBVWqORSpRTnFN+nteqMSYgew3my2u00tKcRtNxlmK1dRbzIrgvjHQgDcL+Moi8lR6QhBhMbPS16A==" saltValue="mus4zsF4I1LOuUOYaxVggA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B2:B4"/>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mBRly7WiLhgJPGLjsjhsYRAqlB6LNbwEwIIQtFuJg+mV1mnZBkXrEgMiMchToRk91cxRbwqexkewxASwiam57Q==" saltValue="bzjiRduNMlrBqEEojFTQaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="igZ9aa3C6wWlbxrodca+ORoBcdJY5Wwq+WXwz9Q69H2TJrXE8JkhSFB9K/TC4FitMcs/YeY2qFXkxs5+pRlSqg==" saltValue="GtUkjFQonJ669wS+nTV5QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -26232,7 +26232,7 @@
       <c r="I328" s="118"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67Qx3yCTrFL1ZTI8+QzRALOxh8ooU8kvwKYMYlA8gI+I1Jy06udLw0XDUoGO1GIqoP6oKVP+NufE/A4wdfprGA==" saltValue="7Cc8soSZ5kv6lFftfvB9zw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c03H6epkCiBxXD9aenL5eRLD9NEeCm/lUMJROiSx7ETPB3gc9qYtw45wUCtOiFIABDQyXniT7PAptOrBrLHQyA==" saltValue="QQ6H8Awvk4s1DRW47tIubg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -27324,7 +27324,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GJN/4r6CBMjWMP6iYrn2UJvDuj/sO+XWkjFsQxwdkZtsr5u7NFU3JMQ5xsgtvZ58T7gF4+NDk7tlrrpYjyYbXA==" saltValue="nHhDobp1JJC1pH9KJLkPrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B63rWTLSqjpm90yn3+zerfl/vJVvMQKcdXmMPSvaUWvDuPLa3dw0Nopmwo7V7UpPDr5syEz2Khx1QErYTdCmmg==" saltValue="APJUzlNe+GjNzVCv7SDxbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -28199,7 +28199,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/LRbJIACAvlnYjQUrpx0fkZPHUeY9ttR9neHwn2STR+e9oKAHbcYFHootv7eEA8xZFcAkG0eLP0UNy+hGhXVbw==" saltValue="9D/g+e6LiBZxk/RRhHIMjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VTzj+9sk8xdz2MzgwEcy9V2b0O+LoRzRKrklXPt9Uyu4g59zVWRjnFTqzY8MfJ7kE2SR/C1eUVMnPq+D67dW1w==" saltValue="JE1l1YBB9mpCAfvXQ7517A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WhQaFtdeOA5GqOsmyocFUgB0y7RZO6D+F8UhoisRi9ndyJNfD9GJAWt2GMtaxX4tGn5S6mtxe9Lh3Ux9AA/Qqw==" saltValue="zQuut6hylKMleeVl2QQhlQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7mVqa0epILeHIAmBzkOsgK9kdyNr3bou12CEQ3AGFdxhO/id20QLBcbyElnsFLYA1/Bt8VEaFIeQQtWfTXr+vg==" saltValue="ajuUgAucR+N2kXP6MUZ/MA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -31370,7 +31370,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ccA4cOeX/9BObEUD3tnowlSuNZmtQF7f4YUf3JyU+C8CaD87oCA1YBvYhaX9XJZoP59A7wpSRH8MKgoYqYChqw==" saltValue="EPrMBCBu9qnU6PWe8UdLjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j0OXLZ0KOBKQlEbQCwBpNEb1HGSpi7fM46NPQcdIYxBNgQ8tfkboUeBKWhwt9Y5cwLuV3bsGiLfVQpbZlWCeng==" saltValue="gJ0bWFL1We886LZvDhrD7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
@@ -35492,7 +35492,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Qk3V7bJhNavyFaP1/Nkijyjl23OJpXZruSYxZV8J0wOz42JtjkF+K/cTJT3wZEayfog5YfmflAaFzY5xjM2JsA==" saltValue="a2k+JQNXu4b8iRb6FcdMIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PDPdnS20glV7G3WzHPTAAezoNQJVliQFsPJ8wiaEw8qtEMl1KgJpjLJxJsJZZWMe7Tb9QL4zR6mPYfV/HjoKhA==" saltValue="V4gmOCKq/gpHKswmzRp9Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
@@ -36016,7 +36016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pa5Hf9luCKUwEk8xC/4oJHceLdQxN9do0T7XeB9sf+am4E93AvdHF8hWkXvx2fKCQZZH6OTsUO1bbFK/93yr3g==" saltValue="IpmkIrLH7MnQCqIH9Ozohg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ju5CC9DRrTbDpm/rt0cenVe7GVbPh7LE10zl6ofWFbHQ6WCPEgZYXeJ5UMAQiy/juPce4bufXdlwGEXpPJcEig==" saltValue="Z2lkqceY2uV1tSwWKs2ydQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="D11:G16 D20:G25" unlockedFormula="1"/>
@@ -36456,7 +36456,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/kJsqhrkXWkMrFr0R/LedSncQnBG5SkbmyII6FUm1T6+/l4cZfiIlMce3m3h7SmrSTcFbLg17oFaisRYbv7thg==" saltValue="1E2lYY5Y8ZjRuYFesMza4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CMGjt53EonJV3WM/VUdmWPC1gVAGTY2So6WMsiviwApLhStNjA9RbA31gFXRAUMH94YM4Aar/rqLmiAqRQ4pZA==" saltValue="LwG1nCl2aOthBaT9279S0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -36883,7 +36883,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6mYXs7V1Nse5E49u5pRERT3P/folrJqDXn8bB8GZ3/TwiD3FhuN3y0rG4xwSpVl2MmIXlcOFB9yI7tEHnQtbkQ==" saltValue="YVOlP1gRgmgwZn31NJr1WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V6zd1doZum4swR0r7o4nlFBxBd3oYT0SVfethfUmwa20vkVCRaPAhRsmugMRmOnxTj5g0Vpykh6P5oWJK5xtpw==" saltValue="unEdw9srD03vkmoPjuogXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -37020,7 +37020,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w7Sfd1L9QoOXM7D1jM7itl64p3BGpBAAUxNQi2on7iTKtPE6GxVFgStOgezPU+GSye9IXCPWA1eSwZxJTRfL1w==" saltValue="WdypRbptaZn83zPAmbD6aA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SOrVRcPjHpuzFTSBCetfx99Le+ta75KBcswzbDJuqt6VBv8kl1gEFgALsLiUyZ6z1noaKkKU2q47k9fKaa7lkA==" saltValue="/H+ot3i/I/eVshqpOBZ0PA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37226,7 +37226,7 @@
       <c r="K14" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1/AP84aQdd+od7Hp3op6rSy11Z1ErSrtl24qKjLc0kLUtL6wDeQXBbtn0WiV2G7jSD6WtGZZX3ox1IHbs41PdA==" saltValue="7fjgKr6V1z4OxX1ORUFptw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KdPbYpWBGVJYjCgdSDSkSquXbX4nuDbs5spvdFfeBEiCD9vwLBN7nS3X6m1lxFk5bYgdsYUGpDEjRXOylYD5TQ==" saltValue="L9GnQQO9Qg+HCz4OUJK7UQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37304,7 +37304,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lhkLWow/VnfDHW8t0FxwjSKFYJnK47cNbYS6pobgoWRi0pVYZxR8OvIopkT1I9ey1h/aeeMTVzNL8gFDutVTrQ==" saltValue="FijBOyYMT1jThupYNcTGSQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U9KPfVRLOVK1OkWrreDspjdiCbpOHNEaI+OF//K8g/huIugSFzs6VED+RjsRxl+M1dgj7jAua8WuIXA7iKCcbg==" saltValue="y/8aLNL/UmBUa5Is/QmrcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37581,7 +37581,7 @@
       <c r="E21" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Wq0YFpHhD6gGji6iEXOvHoK+/E07x4IHQk/IAnnntz54FXX9gNZ8t7vzG4FRSRXDmCQEyDdj5CsbG67UTRdjXQ==" saltValue="gPyefxTdJ23GDUqaWyWpsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TYDHOwnv6cKMmTVr2A41UimV795bxI8XkCDGGsK876PTz3YHy0fZJugJlXltEjegkLdUg/OfdXga4hoUEC9UUA==" saltValue="P1pNwurDgudS5iG2vUACVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -37645,7 +37645,7 @@
       <c r="D3" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pGG2WYB+zpU4vDA/oAgCN63yBW5AoaEe8sKrIz3/YYsBKUbXu4/cIxIwj590Q4r4I2lk9Qw3ztRO6HuUd1hzxw==" saltValue="BFOdMhtO5sEvt5r/wngtVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/UyQ4v3ltE2EcXn6HRJ5ZuG18zBOs3s9Q//J0NjMg66y7QsHELsnQj1K63BZCc0st/2XRLYNMEftc+ml7YEYpg==" saltValue="KTkt6Y5h4bmK0rOHczHzwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2C2036-9E7A-49FC-B8C2-E9030AFE3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A4E2EB-5806-48FD-B664-A383C038D1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
     <sheet name="Dist. l'allaitement maternel" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendances temporelles" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendances temporelles" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Perte économique" sheetId="74" r:id="rId7"/>
     <sheet name="Paquets ANJE" sheetId="55" r:id="rId8"/>
     <sheet name="Traitement de la MAS" sheetId="60" r:id="rId9"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="337">
   <si>
     <t>Condition</t>
   </si>
@@ -2909,15 +2909,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5094,17 +5094,17 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5115,14 +5115,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -5131,7 +5131,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -5140,7 +5140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5209,7 +5209,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5340,17 +5340,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="115">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -5454,7 +5454,7 @@
       <c r="B48" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="115">
+      <c r="C48" s="114">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5578,19 +5578,19 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>157</v>
       </c>
@@ -6522,15 +6522,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6671,13 +6671,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -6770,7 +6770,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6885,19 +6885,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
@@ -7505,7 +7505,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>100</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>169</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>180</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>181</v>
@@ -7886,7 +7886,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8644,7 +8644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8683,16 +8683,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>216</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>217</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>218</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>219</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>220</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>221</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>222</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>223</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>224</v>
       </c>
@@ -8890,20 +8890,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.26953125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.81640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.1796875" style="43"/>
+    <col min="6" max="7" width="13.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>211</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>86</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>171</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>157</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>158</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>159</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>184</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>185</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>189</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>191</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>192</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>205</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>161</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>199</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>200</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9629,7 +9629,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>100</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>169</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>180</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>181</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>187</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>188</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>190</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10001,7 +10001,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>176</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>177</v>
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>178</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>179</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10242,7 +10242,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>174</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>175</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>183</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>186</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>195</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>196</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>197</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>198</v>
       </c>
@@ -10702,22 +10702,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -11469,22 +11468,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>230</v>
       </c>
@@ -11843,14 +11841,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -12938,15 +12936,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.7265625" style="28"/>
+    <col min="3" max="3" width="14.77734375" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
@@ -12972,11 +12970,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -12999,7 +12997,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>154</v>
       </c>
@@ -13021,7 +13019,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13043,7 +13041,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>154</v>
       </c>
@@ -13088,7 +13086,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13109,7 +13107,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
@@ -13153,7 +13151,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13174,7 +13172,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13197,7 +13195,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>154</v>
       </c>
@@ -13218,7 +13216,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13239,7 +13237,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13262,7 +13260,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>156</v>
       </c>
@@ -13333,11 +13331,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>154</v>
       </c>
@@ -13381,7 +13379,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13402,7 +13400,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13425,7 +13423,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>154</v>
       </c>
@@ -13446,7 +13444,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13467,7 +13465,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13490,7 +13488,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>154</v>
       </c>
@@ -13511,7 +13509,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13532,7 +13530,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13555,7 +13553,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>154</v>
       </c>
@@ -13576,7 +13574,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13597,7 +13595,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13620,7 +13618,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +13639,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>156</v>
       </c>
@@ -13691,11 +13689,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13718,7 +13716,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>154</v>
       </c>
@@ -13739,7 +13737,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13760,7 +13758,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13783,7 +13781,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
@@ -13804,7 +13802,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13825,7 +13823,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13848,7 +13846,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>154</v>
       </c>
@@ -13869,7 +13867,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13890,7 +13888,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13913,7 +13911,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>154</v>
       </c>
@@ -13934,7 +13932,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13978,7 +13976,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>154</v>
       </c>
@@ -13999,7 +13997,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>156</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>231</v>
       </c>
@@ -14080,11 +14078,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14112,7 +14110,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
@@ -14138,7 +14136,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14164,7 +14162,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14192,7 +14190,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>154</v>
       </c>
@@ -14218,7 +14216,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14296,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14324,7 +14322,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14352,7 +14350,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>154</v>
       </c>
@@ -14378,7 +14376,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14404,7 +14402,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14432,7 +14430,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14456,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>156</v>
       </c>
@@ -14518,11 +14516,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14550,7 +14548,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>154</v>
       </c>
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14602,7 +14600,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14630,7 +14628,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14654,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14682,7 +14680,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14710,7 +14708,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>154</v>
       </c>
@@ -14736,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14762,7 +14760,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14790,7 +14788,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>154</v>
       </c>
@@ -14816,7 +14814,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>154</v>
       </c>
@@ -14896,7 +14894,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14921,7 +14919,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>156</v>
       </c>
@@ -14956,11 +14954,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14988,7 +14986,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>154</v>
       </c>
@@ -15014,7 +15012,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15040,7 +15038,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15068,7 +15066,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>154</v>
       </c>
@@ -15094,7 +15092,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15120,7 +15118,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15148,7 +15146,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>154</v>
       </c>
@@ -15174,7 +15172,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15200,7 +15198,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15228,7 +15226,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15252,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15280,7 +15278,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15308,7 +15306,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>154</v>
       </c>
@@ -15334,7 +15332,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>156</v>
       </c>
@@ -15387,7 +15385,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>239</v>
       </c>
@@ -15399,7 +15397,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>231</v>
       </c>
@@ -15425,11 +15423,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15457,7 +15455,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>154</v>
       </c>
@@ -15483,7 +15481,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15509,7 +15507,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15537,7 +15535,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>154</v>
       </c>
@@ -15563,7 +15561,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15589,7 +15587,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15617,7 +15615,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>154</v>
       </c>
@@ -15643,7 +15641,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15669,7 +15667,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15697,7 +15695,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>154</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15749,7 +15747,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>154</v>
       </c>
@@ -15803,7 +15801,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15828,7 +15826,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>156</v>
       </c>
@@ -15863,11 +15861,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15895,7 +15893,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15919,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15947,7 +15945,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15975,7 +15973,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>154</v>
       </c>
@@ -16001,7 +15999,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16027,7 +16025,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16055,7 +16053,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>154</v>
       </c>
@@ -16081,7 +16079,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16107,7 +16105,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16135,7 +16133,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>154</v>
       </c>
@@ -16161,7 +16159,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16187,7 +16185,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16215,7 +16213,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>154</v>
       </c>
@@ -16241,7 +16239,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16266,7 +16264,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>156</v>
       </c>
@@ -16301,11 +16299,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>100</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16333,7 +16331,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>154</v>
       </c>
@@ -16359,7 +16357,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16385,7 +16383,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16413,7 +16411,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>154</v>
       </c>
@@ -16439,7 +16437,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16465,7 +16463,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16493,7 +16491,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16517,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16545,7 +16543,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16573,7 +16571,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>154</v>
       </c>
@@ -16599,7 +16597,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16625,7 +16623,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>98</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16653,7 +16651,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>154</v>
       </c>
@@ -16679,7 +16677,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16704,7 +16702,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>156</v>
       </c>
@@ -16735,6 +16733,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9qjoWpuH8rpmMVlMe46gtNcvAKePuWasa4g7m0p00J8WtPANc+HQ1362Qhr8NRU85foZzM8gOX/ZvpJujetaPQ==" saltValue="GSylHYqy21oJtVHiOeKFcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16744,42 +16778,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16800,22 +16798,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.1796875" style="28"/>
+    <col min="7" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>54</v>
@@ -16830,7 +16828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
@@ -16914,7 +16912,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
@@ -16937,7 +16935,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>245</v>
       </c>
@@ -16946,7 +16944,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>246</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17014,7 +17012,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>248</v>
       </c>
@@ -17163,7 +17161,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17173,12 +17171,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>54</v>
@@ -17193,7 +17191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>250</v>
       </c>
@@ -17293,7 +17291,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>262</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>245</v>
       </c>
@@ -17324,7 +17322,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>251</v>
       </c>
@@ -17396,7 +17394,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17404,7 +17402,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>252</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>239</v>
       </c>
@@ -17592,12 +17590,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>54</v>
@@ -17612,7 +17610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>253</v>
       </c>
@@ -17712,7 +17710,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>263</v>
       </c>
@@ -17733,7 +17731,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>245</v>
       </c>
@@ -17743,7 +17741,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>254</v>
       </c>
@@ -17815,7 +17813,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17823,7 +17821,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>255</v>
       </c>
@@ -18022,23 +18020,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.7265625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>226</v>
       </c>
@@ -18072,7 +18070,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>87</v>
@@ -18505,7 +18503,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>269</v>
       </c>
@@ -18763,12 +18761,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>279</v>
       </c>
@@ -18802,7 +18800,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
@@ -19497,12 +19495,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>121</v>
       </c>
@@ -19530,7 +19528,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>101</v>
@@ -19676,12 +19674,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>128</v>
       </c>
@@ -19715,7 +19713,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>78</v>
@@ -20751,12 +20749,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>87</v>
       </c>
@@ -20790,7 +20788,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>129</v>
@@ -20903,13 +20901,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>264</v>
       </c>
@@ -20921,7 +20919,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>226</v>
       </c>
@@ -20947,7 +20945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>87</v>
@@ -21566,7 +21564,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>278</v>
       </c>
@@ -21578,7 +21576,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>279</v>
       </c>
@@ -21604,7 +21602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>87</v>
@@ -22227,7 +22225,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>271</v>
       </c>
@@ -22239,7 +22237,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>121</v>
       </c>
@@ -22263,7 +22261,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>101</v>
@@ -22409,7 +22407,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>275</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>128</v>
       </c>
@@ -22447,7 +22445,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>78</v>
@@ -23339,7 +23337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>277</v>
       </c>
@@ -23351,7 +23349,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>87</v>
       </c>
@@ -23377,7 +23375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>129</v>
@@ -23474,13 +23472,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>264</v>
       </c>
@@ -23493,7 +23491,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>226</v>
       </c>
@@ -23520,7 +23518,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>87</v>
@@ -24163,7 +24161,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>278</v>
       </c>
@@ -24176,7 +24174,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>279</v>
       </c>
@@ -24203,7 +24201,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>87</v>
@@ -24850,7 +24848,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>271</v>
       </c>
@@ -24863,7 +24861,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>121</v>
       </c>
@@ -24887,7 +24885,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>101</v>
@@ -25033,7 +25031,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>275</v>
       </c>
@@ -25046,7 +25044,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>128</v>
       </c>
@@ -25073,7 +25071,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>78</v>
@@ -26001,7 +25999,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>277</v>
       </c>
@@ -26014,7 +26012,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>87</v>
       </c>
@@ -26041,7 +26039,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>129</v>
@@ -26163,24 +26161,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="7" max="7" width="13.77734375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
@@ -26221,7 +26219,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>281</v>
@@ -26242,7 +26240,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>282</v>
       </c>
@@ -26335,12 +26333,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>184</v>
@@ -26361,16 +26359,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>279</v>
       </c>
@@ -26393,7 +26391,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>287</v>
@@ -26414,7 +26412,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>121</v>
       </c>
@@ -26438,12 +26436,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>69</v>
       </c>
@@ -26474,12 +26472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>233</v>
       </c>
@@ -26490,7 +26488,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>0</v>
       </c>
@@ -26535,7 +26533,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>290</v>
@@ -26561,7 +26559,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>291</v>
       </c>
@@ -26674,7 +26672,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>295</v>
       </c>
@@ -26685,7 +26683,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>296</v>
@@ -26708,11 +26706,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>283</v>
       </c>
@@ -26723,7 +26721,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>279</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>298</v>
@@ -26777,7 +26775,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>121</v>
       </c>
@@ -26805,7 +26803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>300</v>
       </c>
@@ -26816,7 +26814,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26854,12 +26852,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>233</v>
       </c>
@@ -26870,7 +26868,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>0</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>303</v>
@@ -26941,7 +26939,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>304</v>
       </c>
@@ -27054,7 +27052,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>308</v>
       </c>
@@ -27065,7 +27063,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>309</v>
@@ -27088,11 +27086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>283</v>
       </c>
@@ -27103,7 +27101,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>279</v>
       </c>
@@ -27131,7 +27129,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>311</v>
@@ -27157,7 +27155,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>121</v>
       </c>
@@ -27185,7 +27183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>313</v>
       </c>
@@ -27196,7 +27194,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27256,16 +27254,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.26953125" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.1796875" style="28"/>
-    <col min="7" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.1796875" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.21875" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -27511,12 +27509,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>160</v>
       </c>
@@ -27810,12 +27808,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>160</v>
       </c>
@@ -28130,15 +28128,15 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.7265625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28181,7 +28179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>319</v>
       </c>
@@ -28626,7 +28624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>189</v>
       </c>
@@ -28758,7 +28756,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>320</v>
       </c>
@@ -28940,12 +28938,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28988,7 +28986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>321</v>
       </c>
@@ -29734,7 +29732,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>323</v>
       </c>
@@ -29968,12 +29966,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30016,7 +30014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>322</v>
       </c>
@@ -30762,7 +30760,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>324</v>
       </c>
@@ -31017,15 +31015,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="1" max="1" width="21.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31044,7 +31042,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -31069,7 +31067,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>326</v>
       </c>
@@ -31100,12 +31098,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31124,7 +31122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>327</v>
       </c>
@@ -31154,7 +31152,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>328</v>
       </c>
@@ -31190,12 +31188,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31214,7 +31212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>329</v>
       </c>
@@ -31244,7 +31242,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>330</v>
       </c>
@@ -31301,20 +31299,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.7265625" style="28"/>
+    <col min="5" max="5" width="13.77734375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>160</v>
       </c>
@@ -32497,14 +32495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>331</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>160</v>
       </c>
@@ -33947,14 +33945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>332</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>160</v>
       </c>
@@ -35418,16 +35416,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.26953125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.7265625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>160</v>
       </c>
@@ -35575,12 +35573,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>160</v>
       </c>
@@ -35745,12 +35743,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>160</v>
       </c>
@@ -35935,14 +35933,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Pourcentage des morts de l'année de référence ("&amp;start_year&amp;") imputable à chaque cause"</f>
         <v>Pourcentage des morts de l'année de référence (2017) imputable à chaque cause</v>
@@ -35953,7 +35951,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -36036,7 +36034,7 @@
       <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="115">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36052,7 +36050,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
@@ -36230,19 +36228,19 @@
       <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="115">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36258,7 +36256,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -36350,7 +36348,7 @@
       <c r="B35" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="115">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36374,13 +36372,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage de la population dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage de la population dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36411,23 +36409,23 @@
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36436,23 +36434,23 @@
       <c r="B3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36520,23 +36518,23 @@
       <c r="B8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36545,23 +36543,23 @@
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36712,55 +36710,55 @@
       <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36798,13 +36796,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Pourcentage des enfants dans chaque catégorie pendant l'année de référence ("&amp;start_year&amp;")"</f>
         <v>Pourcentage des enfants dans chaque catégorie pendant l'année de référence (2017)</v>
@@ -36895,23 +36893,23 @@
       <c r="B5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36934,13 +36932,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
@@ -37136,15 +37134,17 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -37214,18 +37214,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.21875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>151</v>
       </c>
@@ -37242,7 +37242,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>157</v>
       </c>
@@ -37260,8 +37260,8 @@
       <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37273,8 +37273,8 @@
       <c r="B4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37286,8 +37286,8 @@
       <c r="B5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37299,8 +37299,8 @@
       <c r="B6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37316,7 +37316,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>158</v>
       </c>
@@ -37324,9 +37324,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37337,7 +37335,9 @@
         <v>109</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37348,7 +37348,9 @@
         <v>96</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37359,7 +37361,9 @@
         <v>97</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37370,7 +37374,9 @@
         <v>98</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37382,11 +37388,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>159</v>
       </c>
@@ -37394,9 +37398,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37433,9 +37435,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37446,9 +37446,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37480,15 +37478,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
@@ -37502,7 +37500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>160</v>
       </c>
@@ -37514,7 +37512,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>164</v>
       </c>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A4E2EB-5806-48FD-B664-A383C038D1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2D0675-E0A5-41A2-A0E4-0DC2ACCACC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="6" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
@@ -5093,7 +5093,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -16733,12 +16733,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9qjoWpuH8rpmMVlMe46gtNcvAKePuWasa4g7m0p00J8WtPANc+HQ1362Qhr8NRU85foZzM8gOX/ZvpJujetaPQ==" saltValue="GSylHYqy21oJtVHiOeKFcw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16748,36 +16772,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -28124,7 +28124,7 @@
   </sheetPr>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -31295,8 +31295,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31375,13 +31375,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31751,7 +31751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31771,13 +31771,13 @@
         <v>334</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31817,13 +31817,13 @@
         <v>334</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31863,13 +31863,13 @@
         <v>334</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31915,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31981,7 +31981,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32001,7 +32001,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32047,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32067,7 +32067,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32113,7 +32113,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32179,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32199,7 +32199,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32265,7 +32265,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32285,7 +32285,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32308,7 +32308,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32328,7 +32328,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32348,7 +32348,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32374,7 +32374,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32388,19 +32388,19 @@
         <v>335</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32414,19 +32414,19 @@
         <v>334</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32466,7 +32466,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32486,7 +32486,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32548,15 +32548,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32573,15 +32573,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32981,7 +32981,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33034,7 +33034,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33065,7 +33065,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33090,7 +33090,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33169,7 +33169,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33202,7 +33202,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33233,7 +33233,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33258,7 +33258,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33283,7 +33283,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33314,7 +33314,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33339,7 +33339,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33364,7 +33364,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33420,7 +33420,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33501,7 +33501,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33557,7 +33557,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33582,7 +33582,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33638,7 +33638,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33663,7 +33663,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33688,7 +33688,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33716,7 +33716,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33814,23 +33814,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33845,23 +33845,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33878,7 +33878,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -33998,15 +33998,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34023,15 +34023,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34431,7 +34431,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34484,7 +34484,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34507,7 +34507,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34563,7 +34563,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34619,7 +34619,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34652,7 +34652,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34683,7 +34683,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34708,7 +34708,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34733,7 +34733,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34764,7 +34764,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34789,7 +34789,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34870,7 +34870,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34895,7 +34895,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34926,7 +34926,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34976,7 +34976,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35007,7 +35007,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35032,7 +35032,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35138,7 +35138,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35191,7 +35191,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35295,23 +35295,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35328,7 +35328,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>

--- a/inputs/fr/demo_region3_input.xlsx
+++ b/inputs/fr/demo_region3_input.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\fr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA86C805-4354-4B78-A1C4-DEF3F4A1EC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB719A2F-D571-45FB-93FC-8A8007D9820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="740" windowWidth="19150" windowHeight="10060" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15285" yWindow="-16350" windowWidth="21600" windowHeight="12525" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Donnees pop de l'annee de ref" sheetId="1" r:id="rId1"/>
+    <sheet name="Données pop de l'année de ref" sheetId="1" r:id="rId1"/>
     <sheet name="Projections démographiques" sheetId="2" r:id="rId2"/>
     <sheet name="Causes du décès" sheetId="4" r:id="rId3"/>
     <sheet name="Dist. de l'état nutritionnel" sheetId="5" r:id="rId4"/>
@@ -44,53 +44,53 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Risques des rés. des naissances'!$A$1:$F$7</definedName>
-    <definedName name="abortion" localSheetId="7">'Donnees pop de l''annee de ref'!$C$38</definedName>
-    <definedName name="abortion">'Donnees pop de l''annee de ref'!$C$41</definedName>
+    <definedName name="abortion" localSheetId="7">'Données pop de l''année de ref'!$C$38</definedName>
+    <definedName name="abortion">'Données pop de l''année de ref'!$C$41</definedName>
     <definedName name="comm_deliv">'Traitement de la MAS'!$D$3</definedName>
-    <definedName name="diarrhoea_1_5mo">'Donnees pop de l''annee de ref'!$C$52</definedName>
-    <definedName name="diarrhoea_12_23mo">'Donnees pop de l''annee de ref'!$C$54</definedName>
-    <definedName name="diarrhoea_1mo">'Donnees pop de l''annee de ref'!$C$51</definedName>
-    <definedName name="diarrhoea_24_59mo">'Donnees pop de l''annee de ref'!$C$55</definedName>
-    <definedName name="diarrhoea_6_11mo">'Donnees pop de l''annee de ref'!$C$53</definedName>
-    <definedName name="end_year">'Donnees pop de l''annee de ref'!$C$4</definedName>
-    <definedName name="famplan_unmet_need">'Donnees pop de l''annee de ref'!$C$13</definedName>
-    <definedName name="food_insecure">'Donnees pop de l''annee de ref'!$C$8</definedName>
-    <definedName name="frac_children_health_facility">'Donnees pop de l''annee de ref'!$C$12</definedName>
-    <definedName name="frac_diarrhea_severe">'Donnees pop de l''annee de ref'!$C$58</definedName>
-    <definedName name="frac_maize">'Donnees pop de l''annee de ref'!$C$19</definedName>
-    <definedName name="frac_malaria_risk">'Donnees pop de l''annee de ref'!$C$9</definedName>
+    <definedName name="diarrhoea_1_5mo">'Données pop de l''année de ref'!$C$52</definedName>
+    <definedName name="diarrhoea_12_23mo">'Données pop de l''année de ref'!$C$54</definedName>
+    <definedName name="diarrhoea_1mo">'Données pop de l''année de ref'!$C$51</definedName>
+    <definedName name="diarrhoea_24_59mo">'Données pop de l''année de ref'!$C$55</definedName>
+    <definedName name="diarrhoea_6_11mo">'Données pop de l''année de ref'!$C$53</definedName>
+    <definedName name="end_year">'Données pop de l''année de ref'!$C$4</definedName>
+    <definedName name="famplan_unmet_need">'Données pop de l''année de ref'!$C$13</definedName>
+    <definedName name="food_insecure">'Données pop de l''année de ref'!$C$8</definedName>
+    <definedName name="frac_children_health_facility">'Données pop de l''année de ref'!$C$12</definedName>
+    <definedName name="frac_diarrhea_severe">'Données pop de l''année de ref'!$C$58</definedName>
+    <definedName name="frac_maize">'Données pop de l''année de ref'!$C$19</definedName>
+    <definedName name="frac_malaria_risk">'Données pop de l''année de ref'!$C$9</definedName>
     <definedName name="frac_mam_1_5months">'Dist. de l''état nutritionnel'!$D$10</definedName>
     <definedName name="frac_mam_12_23months">'Dist. de l''état nutritionnel'!$F$10</definedName>
     <definedName name="frac_mam_1month">'Dist. de l''état nutritionnel'!$C$10</definedName>
     <definedName name="frac_mam_24_59months">'Dist. de l''état nutritionnel'!$G$10</definedName>
     <definedName name="frac_mam_6_11months">'Dist. de l''état nutritionnel'!$E$10</definedName>
-    <definedName name="frac_MAMtoSAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_other_staples">'Donnees pop de l''annee de ref'!$C$20</definedName>
-    <definedName name="frac_PW_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
-    <definedName name="frac_rice">'Donnees pop de l''annee de ref'!$C$17</definedName>
+    <definedName name="frac_MAMtoSAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_other_staples">'Données pop de l''année de ref'!$C$20</definedName>
+    <definedName name="frac_PW_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
+    <definedName name="frac_rice">'Données pop de l''année de ref'!$C$17</definedName>
     <definedName name="frac_sam_1_5months">'Dist. de l''état nutritionnel'!$D$11</definedName>
     <definedName name="frac_sam_12_23months">'Dist. de l''état nutritionnel'!$F$11</definedName>
     <definedName name="frac_sam_1month">'Dist. de l''état nutritionnel'!$C$11</definedName>
     <definedName name="frac_sam_24_59months">'Dist. de l''état nutritionnel'!$G$11</definedName>
     <definedName name="frac_sam_6_11months">'Dist. de l''état nutritionnel'!$E$11</definedName>
-    <definedName name="frac_SAMtoMAM">'Donnees pop de l''annee de ref'!#REF!</definedName>
-    <definedName name="frac_subsistence_farming">'Donnees pop de l''annee de ref'!$C$16</definedName>
-    <definedName name="frac_wheat">'Donnees pop de l''annee de ref'!$C$18</definedName>
-    <definedName name="infant_mortality">'Donnees pop de l''annee de ref'!$C$38</definedName>
-    <definedName name="iron_deficiency_anaemia">'Donnees pop de l''annee de ref'!$C$59</definedName>
+    <definedName name="frac_SAMtoMAM">'Données pop de l''année de ref'!#REF!</definedName>
+    <definedName name="frac_subsistence_farming">'Données pop de l''année de ref'!$C$16</definedName>
+    <definedName name="frac_wheat">'Données pop de l''année de ref'!$C$18</definedName>
+    <definedName name="infant_mortality">'Données pop de l''année de ref'!$C$38</definedName>
+    <definedName name="iron_deficiency_anaemia">'Données pop de l''année de ref'!$C$59</definedName>
     <definedName name="manage_mam">'Traitement de la MAS'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Donnees pop de l''annee de ref'!$C$40</definedName>
-    <definedName name="neonatal_mortality">'Donnees pop de l''annee de ref'!$C$37</definedName>
-    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Donnees pop de l''annee de ref'!$C$11</definedName>
-    <definedName name="preterm_AGA">'Donnees pop de l''annee de ref'!$C$46</definedName>
-    <definedName name="preterm_SGA">'Donnees pop de l''annee de ref'!$C$45</definedName>
-    <definedName name="school_attendance">'Donnees pop de l''annee de ref'!$C$10</definedName>
-    <definedName name="start_year">'Donnees pop de l''annee de ref'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="7">'Donnees pop de l''annee de ref'!$C$39</definedName>
-    <definedName name="stillbirth">'Donnees pop de l''annee de ref'!$C$42</definedName>
-    <definedName name="term_AGA">'Donnees pop de l''annee de ref'!$C$48</definedName>
-    <definedName name="term_SGA">'Donnees pop de l''annee de ref'!$C$47</definedName>
-    <definedName name="U5_mortality">'Donnees pop de l''annee de ref'!$C$39</definedName>
+    <definedName name="maternal_mortality">'Données pop de l''année de ref'!$C$40</definedName>
+    <definedName name="neonatal_mortality">'Données pop de l''année de ref'!$C$37</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Données pop de l''année de ref'!$C$11</definedName>
+    <definedName name="preterm_AGA">'Données pop de l''année de ref'!$C$46</definedName>
+    <definedName name="preterm_SGA">'Données pop de l''année de ref'!$C$45</definedName>
+    <definedName name="school_attendance">'Données pop de l''année de ref'!$C$10</definedName>
+    <definedName name="start_year">'Données pop de l''année de ref'!$C$3</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Données pop de l''année de ref'!$C$39</definedName>
+    <definedName name="stillbirth">'Données pop de l''année de ref'!$C$42</definedName>
+    <definedName name="term_AGA">'Données pop de l''année de ref'!$C$48</definedName>
+    <definedName name="term_SGA">'Données pop de l''année de ref'!$C$47</definedName>
+    <definedName name="U5_mortality">'Données pop de l''année de ref'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1608,7 +1608,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1778,6 +1778,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2640,7 +2646,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2911,6 +2917,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="725" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5556,7 +5565,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+JrXJSxxXZBx/daQGs8hO1pgVGCLz23oRvzIY+S59f6FLwSgsWuDqH+IYzvMh+27QwZHuEYR4AiIyBlZzlrgew==" saltValue="pb4Vl0ZqeyQF0mvOY8hJMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="slR+P4zAIhfClmusBD9ebSnDQaBdzWf4gC0v+RIQI9FKCilftoWADFzWNeBfHOYKbtwu38z1NCFwYan/EoZZ/Q==" saltValue="RmlTvSa7spOhd12uDTUzqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6485,7 +6494,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Te1SBvh9aEJu/pjZjMSdhdrbwKYXVVVeOrNkQZFIw6vEZ2FJ5FnoF5RrQ62FhfP6AeIai+T/qqWn7HZ4pWbv2g==" saltValue="pEzKLMttv/Lg2NKmOgG0Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wGvpSoXDAa8s55ym3xFgD2ZaeuOpd0CMM9lhw69fY00M1d1JUcHDIlzn7N2PsSbs7osFqQwUSc06V9nu8vdheg==" saltValue="19claExZHACCZUgBA92uag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
     <sortCondition ref="A2:A39"/>
   </sortState>
@@ -6537,7 +6546,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>180</v>
       </c>
@@ -6546,7 +6555,7 @@
       </c>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>181</v>
       </c>
@@ -6555,7 +6564,7 @@
       </c>
       <c r="C3" s="62"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
         <v>192</v>
       </c>
@@ -6564,7 +6573,7 @@
       </c>
       <c r="C4" s="62"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>189</v>
       </c>
@@ -6573,83 +6582,83 @@
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JKSbevkScAXpbX7CKLB/DNzFSnt/2Hw67fmZZ8qMiDwL0LvRSbOg2ft6LxtdglRvXMaUR54r9P5O+479Xptn9Q==" saltValue="mQltWt8EO0j/Dz3VZ9HriA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M/B4CCTYasQY6gehYuzNUePzZWoFrUjCe64yptz0hktcIc0hlkulhQdR/DMUD8WcFt/cmKDBk/odvDjbjpcBmA==" saltValue="2MryykapW3hlNLJO751bVg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6678,78 +6687,78 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k9gSGap+r+i1NxpBBqLGeb9a1dRolYUQDIx8G3lfUpNeCl8/ihHVUqZXdba8Bp8wataqAgLqFLDKUhCLWR8ZMA==" saltValue="qPqGGL6Nw6FTnliLZUr0jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="llAX6ykBqJpLNz1Idjq0FTPQj0Aiyh6GGGc3yAJ3AlPQ9W/v/hHV80JtGK8UvO5jqPxLBpm44jlUTyPN9DWxCQ==" saltValue="r8rZpdiL9IVYvum7X6hbbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6793,23 +6802,23 @@
         <v>87</v>
       </c>
       <c r="B2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C51</f>
+        <f>'Données pop de l''année de ref'!C51</f>
         <v>1.66</v>
       </c>
       <c r="C2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C52</f>
+        <f>'Données pop de l''année de ref'!C52</f>
         <v>1.66</v>
       </c>
       <c r="D2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C53</f>
+        <f>'Données pop de l''année de ref'!C53</f>
         <v>5.64</v>
       </c>
       <c r="E2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C54</f>
+        <f>'Données pop de l''année de ref'!C54</f>
         <v>5.43</v>
       </c>
       <c r="F2" s="21">
-        <f>'Donnees pop de l''annee de ref'!C55</f>
+        <f>'Données pop de l''année de ref'!C55</f>
         <v>1.91</v>
       </c>
     </row>
@@ -6864,7 +6873,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+wocuDUz1uF/uSbVU9v5kwdPzYPOuBPBgjB5B25JottV8h4brbZ5EeyhwK06Np2ySCM91oDIMQPt0AsERa+YFQ==" saltValue="Cu42TgphOIAy9LRv66tq5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8KqsRApiFzOSQgMixXfRiPvPRtDQ2uIVtsJ0U5in1gL8wcq6KDliKjv1VRlgErnsSZf79DOvYQCggWmEYBWR2Q==" saltValue="3mJwulnt0s0Q6sOhuQL4XQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8625,7 +8634,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oqhkvtF2mH2JmxOO/7JJEsaoFsXDmXKECTW8GF63gAQK1t1DeMIVDioUJ2wrtD2zT9dTZUS9flRffGW5Aw1gxw==" saltValue="k+rgcXco3szqDjP0vKH6Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Lov7SRjrEhyzjwoYE9Zny+9/vRnpr7xuQCU3lbLarwKtMcUjfRH0r3UtVtF/J/ilPmyd4tH9ww13JsjtrArA2A==" saltValue="QqcLbfXRg8Auz60bNU+T1A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
     <sortCondition ref="B15:B22"/>
   </sortState>
@@ -8665,7 +8674,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kRvrUVR2tgCUzHT5E30RAGy9d4w7iSpSvhC4U/8hYGYX7k/viS1fIhiog1P3nfkGWNvomjywZIiibD2VohIZpw==" saltValue="2I8XpMok7M8hSsq/54V4kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uVl/eNmzuOFQYvx+VbXfK8u7aUIKTxohVQ1YEOepNMfpznjBSXXQPQZ2g6M2ab2HqsosATrtoRbbhhzMelFn3Q==" saltValue="UoSB8dE1Ebbk+E/5hRj9Sw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8870,7 +8879,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Eqs837xxoH2nzi223f+fUZpguqbmvRJRGA9MagnzEZ4+B0h0ejWozDX2iPAeyR+JhrBtXF7NqkBiWk3k39obnQ==" saltValue="snOMD07ReQtb9ACwn3hoZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hhMSi7ACq96Ppa5+rRkhsZN8wW122l9qPqQ/fXAGhbX25w0oI0ddFI21z9ifLWEyXnkciHVsbHBsA5QIufPcyQ==" saltValue="ChXCcV40Z5flC1ndAVMfyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -10684,7 +10693,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ad04HoHbgppfVbcpFew4OgpJ/b8u/dScQKoTlf3SYbxcyl6tnJ/EGw1ocFSxFuPrQk2xkPZfCeM0ZhBEhF/KjQ==" saltValue="m3ywvRDely3yZkPfJyYOkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="112rILpyA/oWAyfVvRg1Why1EEWDcJ6VICJwa01PfgVGrAfPWXBOV8LqMGV8a1P1+MveTvpu7va9BgES2Cz1PQ==" saltValue="ZWggtOhaKCwIQVyyvSedCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10750,7 +10759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
@@ -10767,7 +10776,7 @@
       <c r="J2" s="101"/>
       <c r="K2" s="101"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>169</v>
       </c>
@@ -10784,7 +10793,7 @@
       <c r="J3" s="101"/>
       <c r="K3" s="101"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>170</v>
       </c>
@@ -10801,7 +10810,7 @@
       <c r="J4" s="101"/>
       <c r="K4" s="101"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>171</v>
       </c>
@@ -10818,7 +10827,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>172</v>
       </c>
@@ -10837,7 +10846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>173</v>
       </c>
@@ -10856,7 +10865,7 @@
       <c r="J7" s="101"/>
       <c r="K7" s="101"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>174</v>
       </c>
@@ -10875,7 +10884,7 @@
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>175</v>
       </c>
@@ -10894,7 +10903,7 @@
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>176</v>
       </c>
@@ -10911,7 +10920,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>177</v>
       </c>
@@ -10928,7 +10937,7 @@
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>178</v>
       </c>
@@ -10945,7 +10954,7 @@
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>179</v>
       </c>
@@ -10962,7 +10971,7 @@
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
     </row>
-    <r